--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7886" uniqueCount="2418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7884" uniqueCount="2419">
   <si>
     <t>Req ID</t>
   </si>
@@ -7472,9 +7472,6 @@
     <t>MS-OXCSTOR_R1121:i</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-OXCSTOR_R1121001, MS-OXCSTOR_R1121002.</t>
-  </si>
-  <si>
     <t>[In Receiving a RopLongTermIdFromId ROP Request] If the REPLID is not in the REPLID and REPLGUID to-and-from mapping table, the operation [RopLongTermIdFromId] SHOULD&lt;43&gt; fail with a ReturnValue of 0x8004010F.</t>
   </si>
   <si>
@@ -7497,6 +7494,12 @@
   </si>
   <si>
     <t>MS-OXCSTOR_R59748</t>
+  </si>
+  <si>
+    <t>Verified by requirement: MS-OXCSTOR_R94801002.</t>
+  </si>
+  <si>
+    <t>Verified by requirement: MS-OXCSTOR_R94801001.</t>
   </si>
 </sst>
 </file>
@@ -7771,21 +7774,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7809,6 +7797,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8825,127 +8828,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8958,12 +8961,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8976,12 +8979,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8994,12 +8997,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9012,60 +9015,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -23728,7 +23731,7 @@
     </row>
     <row r="601" spans="1:9" ht="60">
       <c r="A601" s="22" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B601" s="30" t="s">
         <v>1196</v>
@@ -29939,7 +29942,7 @@
         <v>1205</v>
       </c>
       <c r="C848" s="31" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D848" s="29"/>
       <c r="E848" s="29" t="s">
@@ -30240,7 +30243,7 @@
       <c r="B860" s="30" t="s">
         <v>1205</v>
       </c>
-      <c r="C860" s="31" t="s">
+      <c r="C860" s="20" t="s">
         <v>2002</v>
       </c>
       <c r="D860" s="29"/>
@@ -30259,14 +30262,14 @@
       <c r="I860" s="31"/>
     </row>
     <row r="861" spans="1:9" ht="45">
-      <c r="A861" s="29" t="s">
+      <c r="A861" s="22" t="s">
         <v>881</v>
       </c>
       <c r="B861" s="30" t="s">
         <v>1206</v>
       </c>
-      <c r="C861" s="31" t="s">
-        <v>2411</v>
+      <c r="C861" s="20" t="s">
+        <v>2410</v>
       </c>
       <c r="D861" s="29"/>
       <c r="E861" s="29" t="s">
@@ -30306,7 +30309,7 @@
       <c r="H862" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I862" s="31" t="s">
+      <c r="I862" s="20" t="s">
         <v>2401</v>
       </c>
     </row>
@@ -30736,13 +30739,13 @@
       <c r="I879" s="31"/>
     </row>
     <row r="880" spans="1:9" ht="30">
-      <c r="A880" s="29" t="s">
+      <c r="A880" s="22" t="s">
         <v>899</v>
       </c>
       <c r="B880" s="30" t="s">
         <v>1206</v>
       </c>
-      <c r="C880" s="31" t="s">
+      <c r="C880" s="20" t="s">
         <v>2020</v>
       </c>
       <c r="D880" s="29"/>
@@ -30760,7 +30763,7 @@
       </c>
       <c r="I880" s="31"/>
     </row>
-    <row r="881" spans="1:9" ht="60">
+    <row r="881" spans="1:9" ht="45">
       <c r="A881" s="29" t="s">
         <v>900</v>
       </c>
@@ -30783,9 +30786,7 @@
       <c r="H881" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I881" s="31" t="s">
-        <v>2409</v>
-      </c>
+      <c r="I881" s="31"/>
     </row>
     <row r="882" spans="1:9" ht="30">
       <c r="A882" s="29" t="s">
@@ -34689,7 +34690,7 @@
     </row>
     <row r="1034" spans="1:9" ht="45">
       <c r="A1034" s="22" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B1034" s="30" t="s">
         <v>1217</v>
@@ -34718,7 +34719,7 @@
     </row>
     <row r="1035" spans="1:9" ht="45">
       <c r="A1035" s="22" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B1035" s="30" t="s">
         <v>1217</v>
@@ -34994,11 +34995,9 @@
         <v>15</v>
       </c>
       <c r="H1044" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1044" s="31" t="s">
-        <v>2231</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1044" s="31"/>
     </row>
     <row r="1045" spans="1:9" ht="45">
       <c r="A1045" s="29" t="s">
@@ -35620,7 +35619,7 @@
         <v>1217</v>
       </c>
       <c r="C1067" s="31" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1067" s="29" t="s">
         <v>2190</v>
@@ -35752,8 +35751,8 @@
       <c r="B1072" s="30" t="s">
         <v>1217</v>
       </c>
-      <c r="C1072" s="31" t="s">
-        <v>2414</v>
+      <c r="C1072" s="20" t="s">
+        <v>2413</v>
       </c>
       <c r="D1072" s="29" t="s">
         <v>2193</v>
@@ -36076,13 +36075,13 @@
       </c>
     </row>
     <row r="1084" spans="1:9" ht="45">
-      <c r="A1084" s="29" t="s">
+      <c r="A1084" s="22" t="s">
         <v>2396</v>
       </c>
       <c r="B1084" s="30" t="s">
         <v>1217</v>
       </c>
-      <c r="C1084" s="31" t="s">
+      <c r="C1084" s="20" t="s">
         <v>2400</v>
       </c>
       <c r="D1084" s="29" t="s">
@@ -36105,13 +36104,13 @@
       </c>
     </row>
     <row r="1085" spans="1:9" ht="60">
-      <c r="A1085" s="29" t="s">
+      <c r="A1085" s="22" t="s">
         <v>2397</v>
       </c>
       <c r="B1085" s="30" t="s">
         <v>1217</v>
       </c>
-      <c r="C1085" s="31" t="s">
+      <c r="C1085" s="20" t="s">
         <v>2402</v>
       </c>
       <c r="D1085" s="29" t="s">
@@ -36156,10 +36155,10 @@
         <v>15</v>
       </c>
       <c r="H1086" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1086" s="31" t="s">
-        <v>2231</v>
+        <v>17</v>
+      </c>
+      <c r="I1086" s="20" t="s">
+        <v>2417</v>
       </c>
     </row>
     <row r="1087" spans="1:9" ht="45">
@@ -36185,10 +36184,10 @@
         <v>15</v>
       </c>
       <c r="H1087" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1087" s="31" t="s">
-        <v>2231</v>
+        <v>17</v>
+      </c>
+      <c r="I1087" s="20" t="s">
+        <v>2418</v>
       </c>
     </row>
     <row r="1088" spans="1:9" ht="60">
@@ -36257,7 +36256,7 @@
         <v>1217</v>
       </c>
       <c r="C1090" s="31" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D1090" s="29" t="s">
         <v>2200</v>
@@ -36337,7 +36336,7 @@
       </c>
     </row>
     <row r="1093" spans="1:9" ht="45">
-      <c r="A1093" s="29" t="s">
+      <c r="A1093" s="22" t="s">
         <v>2384</v>
       </c>
       <c r="B1093" s="30" t="s">
@@ -36753,6 +36752,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36760,11 +36764,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1102:I1107 A20:H1040 I20:I1043 A34:I1100">
@@ -36883,21 +36882,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -36946,16 +36930,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36969,16 +36969,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7884" uniqueCount="2419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7882" uniqueCount="2419">
   <si>
     <t>Req ID</t>
   </si>
@@ -24115,7 +24115,7 @@
       <c r="I615" s="31"/>
     </row>
     <row r="616" spans="1:9">
-      <c r="A616" s="29" t="s">
+      <c r="A616" s="22" t="s">
         <v>636</v>
       </c>
       <c r="B616" s="30" t="s">
@@ -25195,7 +25195,7 @@
         <v>15</v>
       </c>
       <c r="H658" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I658" s="31"/>
     </row>
@@ -25220,7 +25220,7 @@
         <v>15</v>
       </c>
       <c r="H659" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I659" s="31"/>
     </row>
@@ -31645,7 +31645,7 @@
       <c r="B916" s="30" t="s">
         <v>1210</v>
       </c>
-      <c r="C916" s="31" t="s">
+      <c r="C916" s="20" t="s">
         <v>2055</v>
       </c>
       <c r="D916" s="29"/>
@@ -31661,9 +31661,7 @@
       <c r="H916" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I916" s="31" t="s">
-        <v>2231</v>
-      </c>
+      <c r="I916" s="31"/>
     </row>
     <row r="917" spans="1:9" ht="45">
       <c r="A917" s="29" t="s">
@@ -32380,7 +32378,7 @@
       <c r="B945" s="30" t="s">
         <v>1210</v>
       </c>
-      <c r="C945" s="31" t="s">
+      <c r="C945" s="20" t="s">
         <v>2081</v>
       </c>
       <c r="D945" s="29"/>
@@ -34915,7 +34913,7 @@
       <c r="I1041" s="31"/>
     </row>
     <row r="1042" spans="1:9" ht="45">
-      <c r="A1042" s="29" t="s">
+      <c r="A1042" s="22" t="s">
         <v>1055</v>
       </c>
       <c r="B1042" s="30" t="s">
@@ -35049,11 +35047,9 @@
         <v>15</v>
       </c>
       <c r="H1046" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1046" s="31" t="s">
-        <v>2231</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1046" s="31"/>
     </row>
     <row r="1047" spans="1:9" ht="60">
       <c r="A1047" s="22" t="s">
@@ -36882,6 +36878,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -36930,7 +36932,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -36939,13 +36941,21 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36960,24 +36970,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7882" uniqueCount="2419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7876" uniqueCount="2418">
   <si>
     <t>Req ID</t>
   </si>
@@ -6689,9 +6689,6 @@
     <t>Implementation set this field [StoreState in RopLogon ROP Success Response Buffer for Private Mailbox] to 0x00000000 [if the mailbox currently has any active search folders]. (Exchange 2010 and above follow this behavior.)</t>
   </si>
   <si>
-    <t>Implementation returns the Folder ID of all of the following folders in this field [FolderIds in RopLogon ROP Success Response Buffer for Public Folders]: Public Folders Root Folder (All other folders listed here are direct or indirect children of this folder), Interpersonal messages subtree, Non-interpersonal messages subtree, EForms Registry, Free/Busy Data, Offline address book Data, EForms Registry for the user's locale, Local Site's Free/Busy Data, Local Site's Offline Address Book Data, NNTP Article Index, Empty, Empty, Empty. (Exchange 2003, Exchange 2007 and Exchange 2010 follow this behavior)</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] The implementation does not set the PerUserGuid field to an empty GUID. (&lt;9&gt; Section 2.2.1.1.4: Exchange 2007 does not set the PerUserGuid field to an empty GUID.)</t>
   </si>
   <si>
@@ -7220,9 +7217,6 @@
     <t>MS-OXCSTOR_R59747:I, MS-OXCSTOR_R1:i</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXCSTOR_R59747001, MS-OXCSTOR_R59747002.</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] The implementation returns ecMailboxDisabled [if the client attempts to log on to a mailbox that is disabled]. (&lt;20&gt; Section 3.2.5.1.1: Exchange 2003 returns ecMailboxDisabled.)</t>
   </si>
   <si>
@@ -7409,9 +7403,6 @@
     <t>MS-OXCSTOR_R1021:I, MS-OXCSTOR_R1:i</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-OXCSTOR_R1021001, MS-OXCSTOR_R1021002, MS-OXCSTOR_R1021003.</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] The implementation does fail with "0x000004ED" when the client sends a RopWritePerUserInformation ROP request with invalid value set in Data field. &lt;50&gt; Section 3.2.5.13.1:  Returned in Exchange 2007 only.</t>
   </si>
   <si>
@@ -7430,9 +7421,6 @@
     <t>MS-OXCSTOR_R603"i</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-OXCSTOR_R603001, MS-OXCSTOR_R603002.</t>
-  </si>
-  <si>
     <t>MS-OXCSTOR_R94801001</t>
   </si>
   <si>
@@ -7500,6 +7488,15 @@
   </si>
   <si>
     <t>Verified by requirement: MS-OXCSTOR_R94801001.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXCSTOR_R155, MS-OXCSTOR_R5979301.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXCSTOR_R59747001, MS-OXCSTOR_R59747002.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior]  Implementation returns the Folder ID of all of the following folders in this field [FolderIds in RopLogon ROP Success Response Buffer for Public Folders]: Public Folders Root Folder (All other folders listed here are direct or indirect children of this folder), Interpersonal messages subtree, Non-interpersonal messages subtree, EForms Registry, Free/Busy Data, Offline address book Data, EForms Registry for the user's locale, Local Site's Free/Busy Data, Local Site's Offline Address Book Data, NNTP Article Index, Empty, Empty, Empty. (Exchange 2003, Exchange 2007 and Exchange 2010 follow this behavior)</t>
   </si>
 </sst>
 </file>
@@ -7554,6 +7551,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -7774,6 +7772,21 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7797,21 +7810,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8793,7 +8791,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -8803,7 +8801,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -8817,7 +8815,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -8828,127 +8826,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8961,12 +8959,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8979,12 +8977,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8997,12 +8995,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9015,60 +9013,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -9654,13 +9652,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="29" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>1111</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29" t="s">
@@ -9679,13 +9677,13 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="29" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>1111</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29" t="s">
@@ -9951,7 +9949,7 @@
         <v>17</v>
       </c>
       <c r="I53" s="31" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30">
@@ -10328,7 +10326,7 @@
         <v>17</v>
       </c>
       <c r="I68" s="31" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="45">
@@ -10342,7 +10340,7 @@
         <v>1267</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>19</v>
@@ -10407,7 +10405,7 @@
         <v>17</v>
       </c>
       <c r="I71" s="31" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="30">
@@ -10484,7 +10482,7 @@
         <v>17</v>
       </c>
       <c r="I74" s="31" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="30">
@@ -10961,7 +10959,7 @@
         <v>17</v>
       </c>
       <c r="I93" s="31" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="45">
@@ -11563,7 +11561,7 @@
         <v>17</v>
       </c>
       <c r="I117" s="31" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="30">
@@ -11740,7 +11738,7 @@
         <v>17</v>
       </c>
       <c r="I124" s="31" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="90">
@@ -11764,9 +11762,11 @@
         <v>15</v>
       </c>
       <c r="H125" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I125" s="31"/>
+        <v>17</v>
+      </c>
+      <c r="I125" s="20" t="s">
+        <v>2415</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="30">
       <c r="A126" s="29" t="s">
@@ -11967,7 +11967,7 @@
         <v>17</v>
       </c>
       <c r="I133" s="31" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="30">
@@ -13628,7 +13628,7 @@
         <v>1124</v>
       </c>
       <c r="C200" s="31" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D200" s="29"/>
       <c r="E200" s="29" t="s">
@@ -13878,7 +13878,7 @@
         <v>1124</v>
       </c>
       <c r="C210" s="31" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D210" s="29"/>
       <c r="E210" s="29" t="s">
@@ -13969,7 +13969,7 @@
         <v>17</v>
       </c>
       <c r="I213" s="31" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="30">
@@ -14396,7 +14396,7 @@
         <v>17</v>
       </c>
       <c r="I230" s="31" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="45">
@@ -14757,7 +14757,7 @@
         <v>1134</v>
       </c>
       <c r="C245" s="31" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D245" s="29"/>
       <c r="E245" s="29" t="s">
@@ -14848,7 +14848,7 @@
         <v>17</v>
       </c>
       <c r="I248" s="31" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="45">
@@ -15025,7 +15025,7 @@
         <v>17</v>
       </c>
       <c r="I255" s="31" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="60">
@@ -15052,7 +15052,7 @@
         <v>17</v>
       </c>
       <c r="I256" s="31" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="60">
@@ -15079,7 +15079,7 @@
         <v>17</v>
       </c>
       <c r="I257" s="31" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="60">
@@ -15106,7 +15106,7 @@
         <v>17</v>
       </c>
       <c r="I258" s="31" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="30">
@@ -15183,7 +15183,7 @@
         <v>17</v>
       </c>
       <c r="I261" s="31" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="60">
@@ -15210,7 +15210,7 @@
         <v>17</v>
       </c>
       <c r="I262" s="31" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="60">
@@ -15237,7 +15237,7 @@
         <v>17</v>
       </c>
       <c r="I263" s="31" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="30">
@@ -15289,7 +15289,7 @@
         <v>17</v>
       </c>
       <c r="I265" s="31" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="60">
@@ -15316,7 +15316,7 @@
         <v>17</v>
       </c>
       <c r="I266" s="31" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="60">
@@ -15343,7 +15343,7 @@
         <v>17</v>
       </c>
       <c r="I267" s="31" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="30">
@@ -15395,7 +15395,7 @@
         <v>17</v>
       </c>
       <c r="I269" s="31" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="45">
@@ -18459,7 +18459,7 @@
         <v>1587</v>
       </c>
       <c r="D392" s="29" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E392" s="29" t="s">
         <v>19</v>
@@ -18486,7 +18486,7 @@
         <v>1588</v>
       </c>
       <c r="D393" s="29" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E393" s="29" t="s">
         <v>19</v>
@@ -18513,7 +18513,7 @@
         <v>1589</v>
       </c>
       <c r="D394" s="29" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E394" s="29" t="s">
         <v>19</v>
@@ -18540,7 +18540,7 @@
         <v>1590</v>
       </c>
       <c r="D395" s="29" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E395" s="29" t="s">
         <v>19</v>
@@ -18567,7 +18567,7 @@
         <v>1591</v>
       </c>
       <c r="D396" s="29" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E396" s="29" t="s">
         <v>19</v>
@@ -18579,7 +18579,7 @@
         <v>15</v>
       </c>
       <c r="H396" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I396" s="31"/>
     </row>
@@ -18594,7 +18594,7 @@
         <v>1592</v>
       </c>
       <c r="D397" s="29" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E397" s="29" t="s">
         <v>19</v>
@@ -18621,7 +18621,7 @@
         <v>1593</v>
       </c>
       <c r="D398" s="29" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E398" s="29" t="s">
         <v>19</v>
@@ -18648,7 +18648,7 @@
         <v>1594</v>
       </c>
       <c r="D399" s="29" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E399" s="29" t="s">
         <v>19</v>
@@ -18675,7 +18675,7 @@
         <v>1595</v>
       </c>
       <c r="D400" s="29" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E400" s="29" t="s">
         <v>19</v>
@@ -18702,7 +18702,7 @@
         <v>1596</v>
       </c>
       <c r="D401" s="29" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E401" s="29" t="s">
         <v>19</v>
@@ -18729,7 +18729,7 @@
         <v>1597</v>
       </c>
       <c r="D402" s="29" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E402" s="29" t="s">
         <v>19</v>
@@ -18756,7 +18756,7 @@
         <v>1598</v>
       </c>
       <c r="D403" s="29" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E403" s="29" t="s">
         <v>19</v>
@@ -18880,7 +18880,7 @@
         <v>1165</v>
       </c>
       <c r="C408" s="31" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D408" s="29"/>
       <c r="E408" s="29" t="s">
@@ -18955,7 +18955,7 @@
         <v>1166</v>
       </c>
       <c r="C411" s="31" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D411" s="29"/>
       <c r="E411" s="29" t="s">
@@ -19030,7 +19030,7 @@
         <v>1167</v>
       </c>
       <c r="C414" s="31" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D414" s="29"/>
       <c r="E414" s="29" t="s">
@@ -19093,7 +19093,7 @@
         <v>15</v>
       </c>
       <c r="H416" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I416" s="31"/>
     </row>
@@ -19105,7 +19105,7 @@
         <v>1168</v>
       </c>
       <c r="C417" s="31" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D417" s="29"/>
       <c r="E417" s="29" t="s">
@@ -19118,7 +19118,7 @@
         <v>15</v>
       </c>
       <c r="H417" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I417" s="31"/>
     </row>
@@ -19230,7 +19230,7 @@
         <v>1170</v>
       </c>
       <c r="C422" s="31" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D422" s="29"/>
       <c r="E422" s="29" t="s">
@@ -19280,7 +19280,7 @@
         <v>1171</v>
       </c>
       <c r="C424" s="31" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D424" s="29"/>
       <c r="E424" s="29" t="s">
@@ -19330,7 +19330,7 @@
         <v>1172</v>
       </c>
       <c r="C426" s="31" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D426" s="29"/>
       <c r="E426" s="29" t="s">
@@ -19405,7 +19405,7 @@
         <v>1173</v>
       </c>
       <c r="C429" s="31" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D429" s="29"/>
       <c r="E429" s="29" t="s">
@@ -19455,7 +19455,7 @@
         <v>1174</v>
       </c>
       <c r="C431" s="31" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D431" s="29"/>
       <c r="E431" s="29" t="s">
@@ -19505,7 +19505,7 @@
         <v>1175</v>
       </c>
       <c r="C433" s="31" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D433" s="29"/>
       <c r="E433" s="29" t="s">
@@ -19555,7 +19555,7 @@
         <v>1176</v>
       </c>
       <c r="C435" s="31" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D435" s="29"/>
       <c r="E435" s="29" t="s">
@@ -19680,10 +19680,10 @@
         <v>1178</v>
       </c>
       <c r="C440" s="31" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D440" s="29" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E440" s="29" t="s">
         <v>19</v>
@@ -19698,7 +19698,7 @@
         <v>17</v>
       </c>
       <c r="I440" s="20" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="441" spans="1:9">
@@ -19712,7 +19712,7 @@
         <v>1624</v>
       </c>
       <c r="D441" s="29" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E441" s="29" t="s">
         <v>19</v>
@@ -19736,7 +19736,7 @@
         <v>1178</v>
       </c>
       <c r="C442" s="31" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D442" s="29"/>
       <c r="E442" s="29" t="s">
@@ -19752,7 +19752,7 @@
         <v>17</v>
       </c>
       <c r="I442" s="31" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="443" spans="1:9" ht="60">
@@ -19763,10 +19763,10 @@
         <v>1178</v>
       </c>
       <c r="C443" s="31" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D443" s="29" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E443" s="29" t="s">
         <v>19</v>
@@ -19781,7 +19781,7 @@
         <v>17</v>
       </c>
       <c r="I443" s="31" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="444" spans="1:9">
@@ -19795,7 +19795,7 @@
         <v>1625</v>
       </c>
       <c r="D444" s="29" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E444" s="29" t="s">
         <v>19</v>
@@ -19822,7 +19822,7 @@
         <v>1626</v>
       </c>
       <c r="D445" s="29" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E445" s="29" t="s">
         <v>19</v>
@@ -19849,7 +19849,7 @@
         <v>1627</v>
       </c>
       <c r="D446" s="29" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E446" s="29" t="s">
         <v>19</v>
@@ -19876,7 +19876,7 @@
         <v>1628</v>
       </c>
       <c r="D447" s="29" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E447" s="29" t="s">
         <v>19</v>
@@ -20125,7 +20125,7 @@
         <v>1182</v>
       </c>
       <c r="C457" s="31" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29" t="s">
@@ -20250,7 +20250,7 @@
         <v>1183</v>
       </c>
       <c r="C462" s="31" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D462" s="29"/>
       <c r="E462" s="29" t="s">
@@ -20378,7 +20378,7 @@
         <v>1646</v>
       </c>
       <c r="D467" s="29" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="E467" s="29" t="s">
         <v>19</v>
@@ -20405,7 +20405,7 @@
         <v>1647</v>
       </c>
       <c r="D468" s="29" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="E468" s="29" t="s">
         <v>19</v>
@@ -20445,7 +20445,7 @@
         <v>20</v>
       </c>
       <c r="I469" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="470" spans="1:9" ht="30">
@@ -20456,7 +20456,7 @@
         <v>1185</v>
       </c>
       <c r="C470" s="31" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D470" s="29"/>
       <c r="E470" s="29" t="s">
@@ -20756,7 +20756,7 @@
         <v>32</v>
       </c>
       <c r="C482" s="31" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D482" s="29"/>
       <c r="E482" s="29" t="s">
@@ -23331,7 +23331,7 @@
         <v>1193</v>
       </c>
       <c r="C585" s="31" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D585" s="29"/>
       <c r="E585" s="29" t="s">
@@ -23431,7 +23431,7 @@
         <v>1194</v>
       </c>
       <c r="C589" s="31" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D589" s="29"/>
       <c r="E589" s="29" t="s">
@@ -23606,7 +23606,7 @@
         <v>1196</v>
       </c>
       <c r="C596" s="31" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D596" s="29"/>
       <c r="E596" s="29" t="s">
@@ -23622,7 +23622,7 @@
         <v>17</v>
       </c>
       <c r="I596" s="20" t="s">
-        <v>2325</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="597" spans="1:9" ht="45">
@@ -23658,7 +23658,7 @@
         <v>1196</v>
       </c>
       <c r="C598" s="31" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D598" s="29"/>
       <c r="E598" s="29" t="s">
@@ -23674,7 +23674,7 @@
         <v>17</v>
       </c>
       <c r="I598" s="20" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="599" spans="1:9" ht="45">
@@ -23701,7 +23701,7 @@
         <v>20</v>
       </c>
       <c r="I599" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="600" spans="1:9" ht="30">
@@ -23731,7 +23731,7 @@
     </row>
     <row r="601" spans="1:9" ht="60">
       <c r="A601" s="22" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="B601" s="30" t="s">
         <v>1196</v>
@@ -23750,7 +23750,7 @@
         <v>15</v>
       </c>
       <c r="H601" s="29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I601" s="31"/>
     </row>
@@ -23762,7 +23762,7 @@
         <v>1196</v>
       </c>
       <c r="C602" s="31" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D602" s="29"/>
       <c r="E602" s="29" t="s">
@@ -23787,7 +23787,7 @@
         <v>1196</v>
       </c>
       <c r="C603" s="31" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D603" s="29"/>
       <c r="E603" s="29" t="s">
@@ -23803,7 +23803,7 @@
         <v>17</v>
       </c>
       <c r="I603" s="20" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="604" spans="1:9" ht="45">
@@ -23814,7 +23814,7 @@
         <v>1196</v>
       </c>
       <c r="C604" s="31" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D604" s="29"/>
       <c r="E604" s="29" t="s">
@@ -23839,7 +23839,7 @@
         <v>1196</v>
       </c>
       <c r="C605" s="31" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D605" s="29"/>
       <c r="E605" s="29" t="s">
@@ -23855,7 +23855,7 @@
         <v>17</v>
       </c>
       <c r="I605" s="31" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="606" spans="1:9" ht="30">
@@ -23866,7 +23866,7 @@
         <v>1196</v>
       </c>
       <c r="C606" s="31" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D606" s="29"/>
       <c r="E606" s="29" t="s">
@@ -23916,7 +23916,7 @@
         <v>1196</v>
       </c>
       <c r="C608" s="31" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D608" s="29"/>
       <c r="E608" s="29" t="s">
@@ -23932,7 +23932,7 @@
         <v>17</v>
       </c>
       <c r="I608" s="31" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="609" spans="1:9" ht="75">
@@ -23968,7 +23968,7 @@
         <v>1196</v>
       </c>
       <c r="C610" s="31" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D610" s="29"/>
       <c r="E610" s="29" t="s">
@@ -23984,7 +23984,7 @@
         <v>17</v>
       </c>
       <c r="I610" s="31" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="611" spans="1:9" ht="45">
@@ -23995,7 +23995,7 @@
         <v>1196</v>
       </c>
       <c r="C611" s="31" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D611" s="29"/>
       <c r="E611" s="29" t="s">
@@ -24020,7 +24020,7 @@
         <v>1196</v>
       </c>
       <c r="C612" s="31" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D612" s="29"/>
       <c r="E612" s="29" t="s">
@@ -24036,7 +24036,7 @@
         <v>17</v>
       </c>
       <c r="I612" s="31" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="613" spans="1:9" ht="45">
@@ -24047,7 +24047,7 @@
         <v>1196</v>
       </c>
       <c r="C613" s="31" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D613" s="29"/>
       <c r="E613" s="29" t="s">
@@ -24222,7 +24222,7 @@
         <v>1196</v>
       </c>
       <c r="C620" s="31" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D620" s="29"/>
       <c r="E620" s="29" t="s">
@@ -24363,7 +24363,7 @@
         <v>17</v>
       </c>
       <c r="I625" s="31" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="626" spans="1:9" ht="30">
@@ -24449,7 +24449,7 @@
         <v>1197</v>
       </c>
       <c r="C629" s="31" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D629" s="29"/>
       <c r="E629" s="29" t="s">
@@ -24474,7 +24474,7 @@
         <v>1197</v>
       </c>
       <c r="C630" s="31" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D630" s="29"/>
       <c r="E630" s="29" t="s">
@@ -24499,7 +24499,7 @@
         <v>1197</v>
       </c>
       <c r="C631" s="31" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D631" s="29"/>
       <c r="E631" s="29" t="s">
@@ -24524,7 +24524,7 @@
         <v>1197</v>
       </c>
       <c r="C632" s="31" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D632" s="29"/>
       <c r="E632" s="29" t="s">
@@ -24715,7 +24715,7 @@
         <v>17</v>
       </c>
       <c r="I639" s="31" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="640" spans="1:9" ht="45">
@@ -24742,7 +24742,7 @@
         <v>17</v>
       </c>
       <c r="I640" s="31" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="641" spans="1:9" ht="45">
@@ -24756,7 +24756,7 @@
         <v>1796</v>
       </c>
       <c r="D641" s="29" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="E641" s="29" t="s">
         <v>19</v>
@@ -25155,7 +25155,7 @@
         <v>1198</v>
       </c>
       <c r="C657" s="31" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D657" s="29"/>
       <c r="E657" s="29" t="s">
@@ -25171,7 +25171,7 @@
         <v>17</v>
       </c>
       <c r="I657" s="31" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="658" spans="1:9" ht="30">
@@ -25445,7 +25445,7 @@
         <v>15</v>
       </c>
       <c r="H668" s="29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I668" s="31"/>
     </row>
@@ -25470,7 +25470,7 @@
         <v>15</v>
       </c>
       <c r="H669" s="29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I669" s="31"/>
     </row>
@@ -26807,7 +26807,7 @@
         <v>1200</v>
       </c>
       <c r="C723" s="31" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D723" s="29"/>
       <c r="E723" s="29" t="s">
@@ -26832,7 +26832,7 @@
         <v>1200</v>
       </c>
       <c r="C724" s="31" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D724" s="29"/>
       <c r="E724" s="29" t="s">
@@ -27573,7 +27573,7 @@
         <v>17</v>
       </c>
       <c r="I753" s="31" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="754" spans="1:9" ht="45">
@@ -27600,7 +27600,7 @@
         <v>17</v>
       </c>
       <c r="I754" s="31" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="755" spans="1:9" ht="45">
@@ -27611,7 +27611,7 @@
         <v>1202</v>
       </c>
       <c r="C755" s="31" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D755" s="29"/>
       <c r="E755" s="29" t="s">
@@ -27627,7 +27627,7 @@
         <v>17</v>
       </c>
       <c r="I755" s="31" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="756" spans="1:9" ht="45">
@@ -28263,7 +28263,7 @@
         <v>1203</v>
       </c>
       <c r="C781" s="31" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="D781" s="29"/>
       <c r="E781" s="29" t="s">
@@ -28363,7 +28363,7 @@
         <v>1203</v>
       </c>
       <c r="C785" s="31" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D785" s="29"/>
       <c r="E785" s="29" t="s">
@@ -28913,7 +28913,7 @@
         <v>1204</v>
       </c>
       <c r="C807" s="31" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D807" s="29"/>
       <c r="E807" s="29" t="s">
@@ -28938,7 +28938,7 @@
         <v>1204</v>
       </c>
       <c r="C808" s="31" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D808" s="29"/>
       <c r="E808" s="29" t="s">
@@ -29163,7 +29163,7 @@
         <v>1204</v>
       </c>
       <c r="C817" s="31" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D817" s="29"/>
       <c r="E817" s="29" t="s">
@@ -29313,7 +29313,7 @@
         <v>1204</v>
       </c>
       <c r="C823" s="31" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D823" s="29"/>
       <c r="E823" s="29" t="s">
@@ -29604,7 +29604,7 @@
         <v>17</v>
       </c>
       <c r="I834" s="31" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="835" spans="1:9" ht="30">
@@ -29656,7 +29656,7 @@
         <v>17</v>
       </c>
       <c r="I836" s="31" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="837" spans="1:9" ht="30">
@@ -29942,7 +29942,7 @@
         <v>1205</v>
       </c>
       <c r="C848" s="31" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="D848" s="29"/>
       <c r="E848" s="29" t="s">
@@ -29958,7 +29958,7 @@
         <v>17</v>
       </c>
       <c r="I848" s="31" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="849" spans="1:9" ht="30">
@@ -30269,7 +30269,7 @@
         <v>1206</v>
       </c>
       <c r="C861" s="20" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="D861" s="29"/>
       <c r="E861" s="29" t="s">
@@ -30288,13 +30288,13 @@
     </row>
     <row r="862" spans="1:9" ht="60">
       <c r="A862" s="29" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B862" s="30" t="s">
         <v>1206</v>
       </c>
       <c r="C862" s="31" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D862" s="29"/>
       <c r="E862" s="29" t="s">
@@ -30310,7 +30310,7 @@
         <v>17</v>
       </c>
       <c r="I862" s="20" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="863" spans="1:9" ht="45">
@@ -30771,7 +30771,7 @@
         <v>1206</v>
       </c>
       <c r="C881" s="31" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="D881" s="29"/>
       <c r="E881" s="29" t="s">
@@ -31971,7 +31971,7 @@
         <v>1210</v>
       </c>
       <c r="C929" s="31" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D929" s="29"/>
       <c r="E929" s="29" t="s">
@@ -31987,7 +31987,7 @@
         <v>17</v>
       </c>
       <c r="I929" s="31" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="930" spans="1:9" ht="45">
@@ -32148,7 +32148,7 @@
         <v>1210</v>
       </c>
       <c r="C936" s="31" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D936" s="29"/>
       <c r="E936" s="29" t="s">
@@ -32164,7 +32164,7 @@
         <v>17</v>
       </c>
       <c r="I936" s="31" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="937" spans="1:9" ht="45">
@@ -32191,7 +32191,7 @@
         <v>17</v>
       </c>
       <c r="I937" s="31" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="938" spans="1:9" ht="45">
@@ -32202,7 +32202,7 @@
         <v>1210</v>
       </c>
       <c r="C938" s="31" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D938" s="29"/>
       <c r="E938" s="29" t="s">
@@ -32218,7 +32218,7 @@
         <v>17</v>
       </c>
       <c r="I938" s="31" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="939" spans="1:9" ht="30">
@@ -33221,7 +33221,7 @@
       </c>
       <c r="I978" s="31"/>
     </row>
-    <row r="979" spans="1:9" ht="75">
+    <row r="979" spans="1:9" ht="45">
       <c r="A979" s="29" t="s">
         <v>998</v>
       </c>
@@ -33229,7 +33229,7 @@
         <v>1214</v>
       </c>
       <c r="C979" s="31" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D979" s="29"/>
       <c r="E979" s="29" t="s">
@@ -33244,9 +33244,7 @@
       <c r="H979" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I979" s="31" t="s">
-        <v>2388</v>
-      </c>
+      <c r="I979" s="31"/>
     </row>
     <row r="980" spans="1:9" ht="60">
       <c r="A980" s="29" t="s">
@@ -33449,7 +33447,7 @@
       <c r="I987" s="31"/>
     </row>
     <row r="988" spans="1:9" ht="30">
-      <c r="A988" s="29" t="s">
+      <c r="A988" s="22" t="s">
         <v>1007</v>
       </c>
       <c r="B988" s="30" t="s">
@@ -33469,11 +33467,11 @@
         <v>15</v>
       </c>
       <c r="H988" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I988" s="31"/>
     </row>
-    <row r="989" spans="1:9" ht="60">
+    <row r="989" spans="1:9" ht="45">
       <c r="A989" s="29" t="s">
         <v>1008</v>
       </c>
@@ -33481,7 +33479,7 @@
         <v>1214</v>
       </c>
       <c r="C989" s="31" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D989" s="29"/>
       <c r="E989" s="29" t="s">
@@ -33496,9 +33494,7 @@
       <c r="H989" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I989" s="31" t="s">
-        <v>2395</v>
-      </c>
+      <c r="I989" s="20"/>
     </row>
     <row r="990" spans="1:9" ht="30">
       <c r="A990" s="29" t="s">
@@ -33736,7 +33732,7 @@
         <v>2129</v>
       </c>
       <c r="D999" s="29" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E999" s="29" t="s">
         <v>22</v>
@@ -33763,7 +33759,7 @@
         <v>2130</v>
       </c>
       <c r="D1000" s="29" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E1000" s="29" t="s">
         <v>22</v>
@@ -33790,7 +33786,7 @@
         <v>2131</v>
       </c>
       <c r="D1001" s="29" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E1001" s="29" t="s">
         <v>22</v>
@@ -33864,10 +33860,10 @@
         <v>1217</v>
       </c>
       <c r="C1004" s="31" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D1004" s="29" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E1004" s="29" t="s">
         <v>22</v>
@@ -33894,7 +33890,7 @@
         <v>2134</v>
       </c>
       <c r="D1005" s="29" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="E1005" s="29" t="s">
         <v>22</v>
@@ -33921,7 +33917,7 @@
         <v>2135</v>
       </c>
       <c r="D1006" s="29" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="E1006" s="29" t="s">
         <v>22</v>
@@ -33936,7 +33932,7 @@
         <v>20</v>
       </c>
       <c r="I1006" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1007" spans="1:9" ht="60">
@@ -33950,7 +33946,7 @@
         <v>2136</v>
       </c>
       <c r="D1007" s="29" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="E1007" s="29" t="s">
         <v>22</v>
@@ -33977,7 +33973,7 @@
         <v>2137</v>
       </c>
       <c r="D1008" s="29" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="E1008" s="29" t="s">
         <v>22</v>
@@ -34004,7 +34000,7 @@
         <v>2138</v>
       </c>
       <c r="D1009" s="29" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="E1009" s="29" t="s">
         <v>22</v>
@@ -34078,7 +34074,7 @@
         <v>1217</v>
       </c>
       <c r="C1012" s="31" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D1012" s="29"/>
       <c r="E1012" s="29" t="s">
@@ -34094,7 +34090,7 @@
         <v>17</v>
       </c>
       <c r="I1012" s="31" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1013" spans="1:9" ht="30">
@@ -34105,7 +34101,7 @@
         <v>1217</v>
       </c>
       <c r="C1013" s="31" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D1013" s="29"/>
       <c r="E1013" s="29" t="s">
@@ -34133,7 +34129,7 @@
         <v>2141</v>
       </c>
       <c r="D1014" s="29" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="E1014" s="29" t="s">
         <v>22</v>
@@ -34210,7 +34206,7 @@
         <v>2144</v>
       </c>
       <c r="D1017" s="29" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="E1017" s="29" t="s">
         <v>22</v>
@@ -34225,7 +34221,7 @@
         <v>20</v>
       </c>
       <c r="I1017" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1018" spans="1:9" ht="45">
@@ -34239,7 +34235,7 @@
         <v>2145</v>
       </c>
       <c r="D1018" s="29" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="E1018" s="29" t="s">
         <v>22</v>
@@ -34254,7 +34250,7 @@
         <v>20</v>
       </c>
       <c r="I1018" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1019" spans="1:9" ht="60">
@@ -34268,7 +34264,7 @@
         <v>2146</v>
       </c>
       <c r="D1019" s="29" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E1019" s="29" t="s">
         <v>22</v>
@@ -34283,7 +34279,7 @@
         <v>20</v>
       </c>
       <c r="I1019" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1020" spans="1:9" ht="45">
@@ -34297,7 +34293,7 @@
         <v>2147</v>
       </c>
       <c r="D1020" s="29" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E1020" s="29" t="s">
         <v>22</v>
@@ -34312,21 +34308,21 @@
         <v>20</v>
       </c>
       <c r="I1020" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1021" spans="1:9" ht="90">
-      <c r="A1021" s="29" t="s">
+      <c r="A1021" s="22" t="s">
         <v>1040</v>
       </c>
       <c r="B1021" s="30" t="s">
         <v>1217</v>
       </c>
-      <c r="C1021" s="31" t="s">
-        <v>2301</v>
+      <c r="C1021" s="20" t="s">
+        <v>2300</v>
       </c>
       <c r="D1021" s="29" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="E1021" s="29" t="s">
         <v>22</v>
@@ -34341,21 +34337,21 @@
         <v>20</v>
       </c>
       <c r="I1021" s="31" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:9" ht="105">
-      <c r="A1022" s="29" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" ht="120">
+      <c r="A1022" s="22" t="s">
         <v>1041</v>
       </c>
       <c r="B1022" s="30" t="s">
         <v>1217</v>
       </c>
-      <c r="C1022" s="31" t="s">
-        <v>2148</v>
+      <c r="C1022" s="20" t="s">
+        <v>2417</v>
       </c>
       <c r="D1022" s="29" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="E1022" s="29" t="s">
         <v>22</v>
@@ -34370,7 +34366,7 @@
         <v>20</v>
       </c>
       <c r="I1022" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1023" spans="1:9" ht="45">
@@ -34381,10 +34377,10 @@
         <v>1217</v>
       </c>
       <c r="C1023" s="31" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D1023" s="29" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="E1023" s="29" t="s">
         <v>22</v>
@@ -34399,7 +34395,7 @@
         <v>21</v>
       </c>
       <c r="I1023" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1024" spans="1:9" ht="45">
@@ -34410,10 +34406,10 @@
         <v>1217</v>
       </c>
       <c r="C1024" s="31" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D1024" s="29" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="E1024" s="29" t="s">
         <v>22</v>
@@ -34428,7 +34424,7 @@
         <v>21</v>
       </c>
       <c r="I1024" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1025" spans="1:9" ht="60">
@@ -34439,10 +34435,10 @@
         <v>1217</v>
       </c>
       <c r="C1025" s="31" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D1025" s="29" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="E1025" s="29" t="s">
         <v>22</v>
@@ -34457,7 +34453,7 @@
         <v>20</v>
       </c>
       <c r="I1025" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1026" spans="1:9" ht="60">
@@ -34468,10 +34464,10 @@
         <v>1217</v>
       </c>
       <c r="C1026" s="31" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D1026" s="29" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="E1026" s="29" t="s">
         <v>22</v>
@@ -34486,7 +34482,7 @@
         <v>20</v>
       </c>
       <c r="I1026" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1027" spans="1:9" ht="75">
@@ -34497,10 +34493,10 @@
         <v>1217</v>
       </c>
       <c r="C1027" s="31" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D1027" s="29" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="E1027" s="29" t="s">
         <v>22</v>
@@ -34524,10 +34520,10 @@
         <v>1217</v>
       </c>
       <c r="C1028" s="31" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D1028" s="29" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="E1028" s="29" t="s">
         <v>22</v>
@@ -34542,7 +34538,7 @@
         <v>20</v>
       </c>
       <c r="I1028" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1029" spans="1:9" ht="45">
@@ -34553,7 +34549,7 @@
         <v>1217</v>
       </c>
       <c r="C1029" s="31" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D1029" s="29"/>
       <c r="E1029" s="29" t="s">
@@ -34572,16 +34568,16 @@
     </row>
     <row r="1030" spans="1:9" ht="45">
       <c r="A1030" s="22" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B1030" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1030" s="20" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D1030" s="29" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="E1030" s="29" t="s">
         <v>22</v>
@@ -34596,21 +34592,21 @@
         <v>20</v>
       </c>
       <c r="I1030" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1031" spans="1:9" ht="45">
       <c r="A1031" s="22" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B1031" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1031" s="20" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D1031" s="29" t="s">
         <v>2308</v>
-      </c>
-      <c r="D1031" s="29" t="s">
-        <v>2309</v>
       </c>
       <c r="E1031" s="29" t="s">
         <v>22</v>
@@ -34625,7 +34621,7 @@
         <v>20</v>
       </c>
       <c r="I1031" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1032" spans="1:9" ht="90">
@@ -34636,10 +34632,10 @@
         <v>1217</v>
       </c>
       <c r="C1032" s="31" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D1032" s="29" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="E1032" s="29" t="s">
         <v>22</v>
@@ -34654,7 +34650,7 @@
         <v>20</v>
       </c>
       <c r="I1032" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1033" spans="1:9" ht="45">
@@ -34665,10 +34661,10 @@
         <v>1217</v>
       </c>
       <c r="C1033" s="31" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D1033" s="29" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="E1033" s="29" t="s">
         <v>22</v>
@@ -34683,21 +34679,21 @@
         <v>20</v>
       </c>
       <c r="I1033" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1034" spans="1:9" ht="45">
       <c r="A1034" s="22" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="B1034" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1034" s="20" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D1034" s="29" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="E1034" s="29" t="s">
         <v>22</v>
@@ -34712,21 +34708,21 @@
         <v>20</v>
       </c>
       <c r="I1034" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1035" spans="1:9" ht="45">
       <c r="A1035" s="22" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="B1035" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1035" s="20" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D1035" s="29" t="s">
         <v>2313</v>
-      </c>
-      <c r="D1035" s="29" t="s">
-        <v>2314</v>
       </c>
       <c r="E1035" s="29" t="s">
         <v>22</v>
@@ -34741,7 +34737,7 @@
         <v>20</v>
       </c>
       <c r="I1035" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1036" spans="1:9" ht="60">
@@ -34752,10 +34748,10 @@
         <v>1217</v>
       </c>
       <c r="C1036" s="31" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D1036" s="29" t="s">
         <v>2318</v>
-      </c>
-      <c r="D1036" s="29" t="s">
-        <v>2319</v>
       </c>
       <c r="E1036" s="29" t="s">
         <v>22</v>
@@ -34779,10 +34775,10 @@
         <v>1217</v>
       </c>
       <c r="C1037" s="31" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D1037" s="29" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="E1037" s="29" t="s">
         <v>22</v>
@@ -34797,7 +34793,7 @@
         <v>17</v>
       </c>
       <c r="I1037" s="31" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1038" spans="1:9" ht="105">
@@ -34808,10 +34804,10 @@
         <v>1217</v>
       </c>
       <c r="C1038" s="31" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D1038" s="29" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="E1038" s="29" t="s">
         <v>22</v>
@@ -34829,16 +34825,16 @@
     </row>
     <row r="1039" spans="1:9" ht="45">
       <c r="A1039" s="29" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B1039" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1039" s="31" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D1039" s="29" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="E1039" s="29" t="s">
         <v>22</v>
@@ -34853,21 +34849,21 @@
         <v>20</v>
       </c>
       <c r="I1039" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1040" spans="1:9" ht="45">
       <c r="A1040" s="29" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B1040" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1040" s="31" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D1040" s="29" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="E1040" s="29" t="s">
         <v>22</v>
@@ -34882,7 +34878,7 @@
         <v>20</v>
       </c>
       <c r="I1040" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1041" spans="1:9" ht="45">
@@ -34893,10 +34889,10 @@
         <v>1217</v>
       </c>
       <c r="C1041" s="20" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="D1041" s="29" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E1041" s="29" t="s">
         <v>22</v>
@@ -34920,10 +34916,10 @@
         <v>1217</v>
       </c>
       <c r="C1042" s="20" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="D1042" s="29" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E1042" s="29" t="s">
         <v>22</v>
@@ -34938,7 +34934,7 @@
         <v>20</v>
       </c>
       <c r="I1042" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1043" spans="1:9" ht="45">
@@ -34949,10 +34945,10 @@
         <v>1217</v>
       </c>
       <c r="C1043" s="20" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="D1043" s="22" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E1043" s="29" t="s">
         <v>22</v>
@@ -34967,21 +34963,21 @@
         <v>20</v>
       </c>
       <c r="I1043" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1044" spans="1:9" ht="45">
       <c r="A1044" s="22" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="B1044" s="24" t="s">
         <v>1217</v>
       </c>
       <c r="C1044" s="20" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="D1044" s="22" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E1044" s="22" t="s">
         <v>22</v>
@@ -35005,10 +35001,10 @@
         <v>1217</v>
       </c>
       <c r="C1045" s="20" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="D1045" s="29" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="E1045" s="29" t="s">
         <v>22</v>
@@ -35032,10 +35028,10 @@
         <v>1217</v>
       </c>
       <c r="C1046" s="20" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="D1046" s="29" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="E1046" s="29" t="s">
         <v>22</v>
@@ -35053,16 +35049,16 @@
     </row>
     <row r="1047" spans="1:9" ht="60">
       <c r="A1047" s="22" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B1047" s="24" t="s">
         <v>1217</v>
       </c>
       <c r="C1047" s="20" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="D1047" s="22" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="E1047" s="29" t="s">
         <v>22</v>
@@ -35077,21 +35073,21 @@
         <v>20</v>
       </c>
       <c r="I1047" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1048" spans="1:9" ht="60">
       <c r="A1048" s="22" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="B1048" s="24" t="s">
         <v>1217</v>
       </c>
       <c r="C1048" s="20" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="D1048" s="22" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="E1048" s="29" t="s">
         <v>22</v>
@@ -35106,7 +35102,7 @@
         <v>20</v>
       </c>
       <c r="I1048" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1049" spans="1:9" ht="75">
@@ -35117,10 +35113,10 @@
         <v>1217</v>
       </c>
       <c r="C1049" s="20" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="D1049" s="29" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="E1049" s="29" t="s">
         <v>22</v>
@@ -35144,7 +35140,7 @@
         <v>1217</v>
       </c>
       <c r="C1050" s="20" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="D1050" s="29"/>
       <c r="E1050" s="29" t="s">
@@ -35160,7 +35156,7 @@
         <v>17</v>
       </c>
       <c r="I1050" s="31" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1051" spans="1:9" ht="45">
@@ -35171,7 +35167,7 @@
         <v>1217</v>
       </c>
       <c r="C1051" s="20" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="D1051" s="29"/>
       <c r="E1051" s="29" t="s">
@@ -35196,10 +35192,10 @@
         <v>1217</v>
       </c>
       <c r="C1052" s="20" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="D1052" s="29" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="E1052" s="29" t="s">
         <v>22</v>
@@ -35223,10 +35219,10 @@
         <v>1217</v>
       </c>
       <c r="C1053" s="20" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="D1053" s="29" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="E1053" s="29" t="s">
         <v>22</v>
@@ -35250,10 +35246,10 @@
         <v>1217</v>
       </c>
       <c r="C1054" s="20" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="D1054" s="29" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E1054" s="29" t="s">
         <v>22</v>
@@ -35277,10 +35273,10 @@
         <v>1217</v>
       </c>
       <c r="C1055" s="20" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="D1055" s="29" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E1055" s="29" t="s">
         <v>22</v>
@@ -35298,16 +35294,16 @@
     </row>
     <row r="1056" spans="1:9" ht="90">
       <c r="A1056" s="22" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="B1056" s="24" t="s">
         <v>1217</v>
       </c>
       <c r="C1056" s="20" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="D1056" s="22" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="E1056" s="29" t="s">
         <v>22</v>
@@ -35322,7 +35318,7 @@
         <v>20</v>
       </c>
       <c r="I1056" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1057" spans="1:9" ht="90">
@@ -35333,10 +35329,10 @@
         <v>1217</v>
       </c>
       <c r="C1057" s="20" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="D1057" s="29" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="E1057" s="29" t="s">
         <v>22</v>
@@ -35351,7 +35347,7 @@
         <v>20</v>
       </c>
       <c r="I1057" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1058" spans="1:9" ht="75">
@@ -35362,10 +35358,10 @@
         <v>1217</v>
       </c>
       <c r="C1058" s="31" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="D1058" s="29" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="E1058" s="29" t="s">
         <v>22</v>
@@ -35380,7 +35376,7 @@
         <v>20</v>
       </c>
       <c r="I1058" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1059" spans="1:9" ht="45">
@@ -35391,10 +35387,10 @@
         <v>1217</v>
       </c>
       <c r="C1059" s="20" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="D1059" s="29" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="E1059" s="29" t="s">
         <v>22</v>
@@ -35409,7 +35405,7 @@
         <v>20</v>
       </c>
       <c r="I1059" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1060" spans="1:9" ht="60">
@@ -35420,10 +35416,10 @@
         <v>1217</v>
       </c>
       <c r="C1060" s="31" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="D1060" s="29" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="E1060" s="29" t="s">
         <v>22</v>
@@ -35438,7 +35434,7 @@
         <v>20</v>
       </c>
       <c r="I1060" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1061" spans="1:9" ht="45">
@@ -35449,7 +35445,7 @@
         <v>1217</v>
       </c>
       <c r="C1061" s="31" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="D1061" s="29"/>
       <c r="E1061" s="29" t="s">
@@ -35474,10 +35470,10 @@
         <v>1217</v>
       </c>
       <c r="C1062" s="31" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="D1062" s="29" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="E1062" s="29" t="s">
         <v>22</v>
@@ -35501,10 +35497,10 @@
         <v>1217</v>
       </c>
       <c r="C1063" s="31" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="D1063" s="29" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="E1063" s="29" t="s">
         <v>22</v>
@@ -35519,7 +35515,7 @@
         <v>20</v>
       </c>
       <c r="I1063" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1064" spans="1:9" ht="45">
@@ -35530,10 +35526,10 @@
         <v>1217</v>
       </c>
       <c r="C1064" s="31" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="D1064" s="29" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="E1064" s="29" t="s">
         <v>22</v>
@@ -35548,21 +35544,21 @@
         <v>20</v>
       </c>
       <c r="I1064" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1065" spans="1:9" ht="45">
       <c r="A1065" s="29" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="B1065" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1065" s="31" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="D1065" s="29" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="E1065" s="29" t="s">
         <v>22</v>
@@ -35577,7 +35573,7 @@
         <v>20</v>
       </c>
       <c r="I1065" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1066" spans="1:9" ht="45">
@@ -35588,10 +35584,10 @@
         <v>1217</v>
       </c>
       <c r="C1066" s="31" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="D1066" s="29" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="E1066" s="29" t="s">
         <v>22</v>
@@ -35615,10 +35611,10 @@
         <v>1217</v>
       </c>
       <c r="C1067" s="31" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="D1067" s="29" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="E1067" s="29" t="s">
         <v>22</v>
@@ -35642,10 +35638,10 @@
         <v>1217</v>
       </c>
       <c r="C1068" s="31" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="D1068" s="29" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="E1068" s="29" t="s">
         <v>22</v>
@@ -35669,10 +35665,10 @@
         <v>1217</v>
       </c>
       <c r="C1069" s="31" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="D1069" s="29" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="E1069" s="29" t="s">
         <v>22</v>
@@ -35696,7 +35692,7 @@
         <v>1217</v>
       </c>
       <c r="C1070" s="31" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D1070" s="29"/>
       <c r="E1070" s="29" t="s">
@@ -35721,10 +35717,10 @@
         <v>1217</v>
       </c>
       <c r="C1071" s="31" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="D1071" s="29" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="E1071" s="29" t="s">
         <v>22</v>
@@ -35748,10 +35744,10 @@
         <v>1217</v>
       </c>
       <c r="C1072" s="20" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="D1072" s="29" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="E1072" s="29" t="s">
         <v>22</v>
@@ -35766,7 +35762,7 @@
         <v>20</v>
       </c>
       <c r="I1072" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1073" spans="1:9" ht="30">
@@ -35777,10 +35773,10 @@
         <v>1217</v>
       </c>
       <c r="C1073" s="31" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="D1073" s="29" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="E1073" s="29" t="s">
         <v>22</v>
@@ -35804,10 +35800,10 @@
         <v>1217</v>
       </c>
       <c r="C1074" s="31" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="D1074" s="29" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="E1074" s="29" t="s">
         <v>22</v>
@@ -35831,10 +35827,10 @@
         <v>1217</v>
       </c>
       <c r="C1075" s="31" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="D1075" s="29" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="E1075" s="29" t="s">
         <v>22</v>
@@ -35858,10 +35854,10 @@
         <v>1217</v>
       </c>
       <c r="C1076" s="31" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="D1076" s="29" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="E1076" s="29" t="s">
         <v>22</v>
@@ -35885,10 +35881,10 @@
         <v>1217</v>
       </c>
       <c r="C1077" s="31" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="D1077" s="29" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="E1077" s="29" t="s">
         <v>22</v>
@@ -35912,10 +35908,10 @@
         <v>1217</v>
       </c>
       <c r="C1078" s="31" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="D1078" s="29" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="E1078" s="29" t="s">
         <v>22</v>
@@ -35939,10 +35935,10 @@
         <v>1217</v>
       </c>
       <c r="C1079" s="31" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="D1079" s="29" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="E1079" s="29" t="s">
         <v>22</v>
@@ -35966,10 +35962,10 @@
         <v>1217</v>
       </c>
       <c r="C1080" s="31" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="D1080" s="29" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="E1080" s="29" t="s">
         <v>22</v>
@@ -35993,10 +35989,10 @@
         <v>1217</v>
       </c>
       <c r="C1081" s="31" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="D1081" s="29" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="E1081" s="29" t="s">
         <v>22</v>
@@ -36020,10 +36016,10 @@
         <v>1217</v>
       </c>
       <c r="C1082" s="31" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="D1082" s="29" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="E1082" s="29" t="s">
         <v>22</v>
@@ -36038,7 +36034,7 @@
         <v>20</v>
       </c>
       <c r="I1082" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1083" spans="1:9" ht="60">
@@ -36049,10 +36045,10 @@
         <v>1217</v>
       </c>
       <c r="C1083" s="31" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="D1083" s="29" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="E1083" s="29" t="s">
         <v>22</v>
@@ -36067,21 +36063,21 @@
         <v>20</v>
       </c>
       <c r="I1083" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1084" spans="1:9" ht="45">
       <c r="A1084" s="22" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="B1084" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1084" s="20" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="D1084" s="29" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="E1084" s="29" t="s">
         <v>22</v>
@@ -36096,21 +36092,21 @@
         <v>20</v>
       </c>
       <c r="I1084" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1085" spans="1:9" ht="60">
       <c r="A1085" s="22" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="B1085" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1085" s="20" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="D1085" s="29" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="E1085" s="29" t="s">
         <v>22</v>
@@ -36125,21 +36121,21 @@
         <v>20</v>
       </c>
       <c r="I1085" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1086" spans="1:9" ht="45">
       <c r="A1086" s="29" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="B1086" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1086" s="31" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D1086" s="29" t="s">
         <v>2404</v>
-      </c>
-      <c r="D1086" s="29" t="s">
-        <v>2408</v>
       </c>
       <c r="E1086" s="29" t="s">
         <v>22</v>
@@ -36154,21 +36150,21 @@
         <v>17</v>
       </c>
       <c r="I1086" s="20" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="1087" spans="1:9" ht="45">
       <c r="A1087" s="29" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="B1087" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1087" s="31" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="D1087" s="29" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="E1087" s="29" t="s">
         <v>22</v>
@@ -36183,7 +36179,7 @@
         <v>17</v>
       </c>
       <c r="I1087" s="20" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1088" spans="1:9" ht="60">
@@ -36194,10 +36190,10 @@
         <v>1217</v>
       </c>
       <c r="C1088" s="31" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="D1088" s="29" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E1088" s="29" t="s">
         <v>22</v>
@@ -36212,7 +36208,7 @@
         <v>20</v>
       </c>
       <c r="I1088" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1089" spans="1:9" ht="45">
@@ -36223,10 +36219,10 @@
         <v>1217</v>
       </c>
       <c r="C1089" s="31" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D1089" s="29" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E1089" s="29" t="s">
         <v>22</v>
@@ -36241,7 +36237,7 @@
         <v>20</v>
       </c>
       <c r="I1089" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1090" spans="1:9" ht="60">
@@ -36252,10 +36248,10 @@
         <v>1217</v>
       </c>
       <c r="C1090" s="31" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="D1090" s="29" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E1090" s="29" t="s">
         <v>22</v>
@@ -36270,7 +36266,7 @@
         <v>20</v>
       </c>
       <c r="I1090" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1091" spans="1:9" ht="45">
@@ -36281,10 +36277,10 @@
         <v>1217</v>
       </c>
       <c r="C1091" s="31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D1091" s="29" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="E1091" s="29" t="s">
         <v>22</v>
@@ -36299,7 +36295,7 @@
         <v>20</v>
       </c>
       <c r="I1091" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1092" spans="1:9" ht="75">
@@ -36310,10 +36306,10 @@
         <v>1217</v>
       </c>
       <c r="C1092" s="31" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="D1092" s="29" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="E1092" s="29" t="s">
         <v>22</v>
@@ -36328,21 +36324,21 @@
         <v>20</v>
       </c>
       <c r="I1092" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1093" spans="1:9" ht="45">
       <c r="A1093" s="22" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="B1093" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1093" s="31" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="D1093" s="29" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="E1093" s="29" t="s">
         <v>22</v>
@@ -36354,24 +36350,22 @@
         <v>15</v>
       </c>
       <c r="H1093" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1093" s="31" t="s">
-        <v>2231</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1093" s="31"/>
     </row>
     <row r="1094" spans="1:9" ht="45">
-      <c r="A1094" s="29" t="s">
-        <v>2385</v>
+      <c r="A1094" s="22" t="s">
+        <v>2383</v>
       </c>
       <c r="B1094" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1094" s="31" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="D1094" s="29" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="E1094" s="29" t="s">
         <v>22</v>
@@ -36383,24 +36377,22 @@
         <v>15</v>
       </c>
       <c r="H1094" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1094" s="31" t="s">
-        <v>2231</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1094" s="31"/>
     </row>
     <row r="1095" spans="1:9" ht="45">
-      <c r="A1095" s="29" t="s">
-        <v>2386</v>
+      <c r="A1095" s="22" t="s">
+        <v>2384</v>
       </c>
       <c r="B1095" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1095" s="31" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="D1095" s="29" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="E1095" s="29" t="s">
         <v>22</v>
@@ -36412,24 +36404,22 @@
         <v>15</v>
       </c>
       <c r="H1095" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1095" s="31" t="s">
-        <v>2231</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1095" s="31"/>
     </row>
     <row r="1096" spans="1:9" ht="45">
-      <c r="A1096" s="29" t="s">
-        <v>2391</v>
+      <c r="A1096" s="22" t="s">
+        <v>2388</v>
       </c>
       <c r="B1096" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1096" s="31" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="D1096" s="29" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="E1096" s="29" t="s">
         <v>22</v>
@@ -36441,24 +36431,22 @@
         <v>15</v>
       </c>
       <c r="H1096" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1096" s="31" t="s">
-        <v>2231</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1096" s="31"/>
     </row>
     <row r="1097" spans="1:9" ht="45">
-      <c r="A1097" s="29" t="s">
-        <v>2392</v>
+      <c r="A1097" s="22" t="s">
+        <v>2389</v>
       </c>
       <c r="B1097" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1097" s="31" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="D1097" s="29" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="E1097" s="29" t="s">
         <v>22</v>
@@ -36470,11 +36458,9 @@
         <v>15</v>
       </c>
       <c r="H1097" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1097" s="31" t="s">
-        <v>2231</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1097" s="31"/>
     </row>
     <row r="1098" spans="1:9" ht="45">
       <c r="A1098" s="29" t="s">
@@ -36484,10 +36470,10 @@
         <v>1217</v>
       </c>
       <c r="C1098" s="31" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D1098" s="29" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="E1098" s="29" t="s">
         <v>22</v>
@@ -36502,7 +36488,7 @@
         <v>20</v>
       </c>
       <c r="I1098" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1099" spans="1:9" ht="60">
@@ -36513,10 +36499,10 @@
         <v>1217</v>
       </c>
       <c r="C1099" s="31" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D1099" s="29" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="E1099" s="29" t="s">
         <v>22</v>
@@ -36531,7 +36517,7 @@
         <v>20</v>
       </c>
       <c r="I1099" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1100" spans="1:9" ht="45">
@@ -36542,7 +36528,7 @@
         <v>1217</v>
       </c>
       <c r="C1100" s="31" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D1100" s="29"/>
       <c r="E1100" s="29" t="s">
@@ -36558,18 +36544,18 @@
         <v>21</v>
       </c>
       <c r="I1100" s="31" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1101" spans="1:9" ht="45">
       <c r="A1101" s="29" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B1101" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1101" s="31" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D1101" s="29"/>
       <c r="E1101" s="29" t="s">
@@ -36585,7 +36571,7 @@
         <v>21</v>
       </c>
       <c r="I1101" s="32" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1102" spans="1:9" ht="30">
@@ -36596,7 +36582,7 @@
         <v>1120</v>
       </c>
       <c r="C1102" s="31" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D1102" s="29"/>
       <c r="E1102" s="29" t="s">
@@ -36621,7 +36607,7 @@
         <v>1120</v>
       </c>
       <c r="C1103" s="31" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D1103" s="29"/>
       <c r="E1103" s="29" t="s">
@@ -36646,7 +36632,7 @@
         <v>1218</v>
       </c>
       <c r="C1104" s="31" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D1104" s="29"/>
       <c r="E1104" s="29" t="s">
@@ -36671,7 +36657,7 @@
         <v>1218</v>
       </c>
       <c r="C1105" s="31" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="D1105" s="29"/>
       <c r="E1105" s="29" t="s">
@@ -36696,7 +36682,7 @@
         <v>1218</v>
       </c>
       <c r="C1106" s="31" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D1106" s="29"/>
       <c r="E1106" s="29" t="s">
@@ -36721,7 +36707,7 @@
         <v>1219</v>
       </c>
       <c r="C1107" s="31" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D1107" s="29"/>
       <c r="E1107" s="29" t="s">
@@ -36748,11 +36734,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36760,6 +36741,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1102:I1107 A20:H1040 I20:I1043 A34:I1100">
@@ -36878,12 +36864,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -36932,6 +36912,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -36942,20 +36928,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36970,6 +36942,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -7187,9 +7187,6 @@
     <t>MS-OXCSTOR_R3068003:i</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-OXCSTOR_R3068003001, MS-OXCSTOR_R3068003002.</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] When a database is restored from backup, the implementation assigns a new randomly-generated REPLGUID to the database and then adds this new REPLGUID, along with a new REPLID, to the REPLID and REPLGUID to-and-from mapping table. (&lt;17&gt; Section 3.2.3: When a database is restored from backup, Exchange 2003 and Exchange 2007 assign a new randomly-generated REPLGUID to the database and then add this new REPLGUID, along with a new REPLID, to the REPLID and REPLGUID to-and-from mapping table.)</t>
   </si>
   <si>
@@ -7497,6 +7494,10 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior]  Implementation returns the Folder ID of all of the following folders in this field [FolderIds in RopLogon ROP Success Response Buffer for Public Folders]: Public Folders Root Folder (All other folders listed here are direct or indirect children of this folder), Interpersonal messages subtree, Non-interpersonal messages subtree, EForms Registry, Free/Busy Data, Offline address book Data, EForms Registry for the user's locale, Local Site's Free/Busy Data, Local Site's Offline Address Book Data, NNTP Article Index, Empty, Empty, Empty. (Exchange 2003, Exchange 2007 and Exchange 2010 follow this behavior)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXCSTOR_R306800301, MS-OXCSTOR_R306800302.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7504,14 +7505,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7708,13 +7709,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7747,7 +7748,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7772,21 +7773,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7810,6 +7796,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8776,15 +8777,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
@@ -8826,127 +8827,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8959,12 +8960,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8977,12 +8978,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8995,12 +8996,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9013,60 +9014,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -9100,7 +9101,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="20" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
@@ -9125,7 +9126,7 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A21" s="22" t="s">
         <v>44</v>
       </c>
@@ -9200,7 +9201,7 @@
       </c>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A24" s="22" t="s">
         <v>47</v>
       </c>
@@ -9250,7 +9251,7 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="26" spans="1:12" s="23" customFormat="1">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -9425,7 +9426,7 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
+    <row r="33" spans="1:9" s="23" customFormat="1">
       <c r="A33" s="22" t="s">
         <v>56</v>
       </c>
@@ -9725,7 +9726,7 @@
       </c>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="1:9" ht="45">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="29" t="s">
         <v>66</v>
       </c>
@@ -9750,7 +9751,7 @@
       </c>
       <c r="I45" s="31"/>
     </row>
-    <row r="46" spans="1:9" ht="30">
+    <row r="46" spans="1:9">
       <c r="A46" s="29" t="s">
         <v>67</v>
       </c>
@@ -9775,7 +9776,7 @@
       </c>
       <c r="I46" s="31"/>
     </row>
-    <row r="47" spans="1:9" ht="30">
+    <row r="47" spans="1:9">
       <c r="A47" s="29" t="s">
         <v>68</v>
       </c>
@@ -9925,7 +9926,7 @@
       </c>
       <c r="I52" s="31"/>
     </row>
-    <row r="53" spans="1:9" ht="45">
+    <row r="53" spans="1:9" ht="30">
       <c r="A53" s="29" t="s">
         <v>74</v>
       </c>
@@ -9952,7 +9953,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9">
       <c r="A54" s="29" t="s">
         <v>75</v>
       </c>
@@ -10002,7 +10003,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9">
       <c r="A56" s="29" t="s">
         <v>77</v>
       </c>
@@ -10052,7 +10053,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:9" ht="30">
+    <row r="58" spans="1:9">
       <c r="A58" s="29" t="s">
         <v>79</v>
       </c>
@@ -10102,7 +10103,7 @@
       </c>
       <c r="I59" s="31"/>
     </row>
-    <row r="60" spans="1:9" ht="45">
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="29" t="s">
         <v>81</v>
       </c>
@@ -10127,7 +10128,7 @@
       </c>
       <c r="I60" s="31"/>
     </row>
-    <row r="61" spans="1:9" ht="60">
+    <row r="61" spans="1:9" ht="45">
       <c r="A61" s="29" t="s">
         <v>82</v>
       </c>
@@ -10302,7 +10303,7 @@
       </c>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="45">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" s="29" t="s">
         <v>89</v>
       </c>
@@ -10329,7 +10330,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="45">
+    <row r="69" spans="1:9" ht="30">
       <c r="A69" s="29" t="s">
         <v>90</v>
       </c>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="I69" s="31"/>
     </row>
-    <row r="70" spans="1:9" ht="30">
+    <row r="70" spans="1:9">
       <c r="A70" s="29" t="s">
         <v>91</v>
       </c>
@@ -10408,7 +10409,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9">
       <c r="A72" s="29" t="s">
         <v>93</v>
       </c>
@@ -10458,7 +10459,7 @@
       </c>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="1:9" ht="60">
+    <row r="74" spans="1:9" ht="45">
       <c r="A74" s="29" t="s">
         <v>95</v>
       </c>
@@ -10535,7 +10536,7 @@
       </c>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9">
       <c r="A77" s="29" t="s">
         <v>98</v>
       </c>
@@ -10560,7 +10561,7 @@
       </c>
       <c r="I77" s="31"/>
     </row>
-    <row r="78" spans="1:9" ht="60">
+    <row r="78" spans="1:9" ht="45">
       <c r="A78" s="29" t="s">
         <v>99</v>
       </c>
@@ -10610,7 +10611,7 @@
       </c>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="1:9" ht="60">
+    <row r="80" spans="1:9" ht="45">
       <c r="A80" s="29" t="s">
         <v>101</v>
       </c>
@@ -10760,7 +10761,7 @@
       </c>
       <c r="I85" s="31"/>
     </row>
-    <row r="86" spans="1:9" ht="45">
+    <row r="86" spans="1:9" ht="30">
       <c r="A86" s="29" t="s">
         <v>107</v>
       </c>
@@ -10785,7 +10786,7 @@
       </c>
       <c r="I86" s="31"/>
     </row>
-    <row r="87" spans="1:9" ht="60">
+    <row r="87" spans="1:9" ht="45">
       <c r="A87" s="29" t="s">
         <v>108</v>
       </c>
@@ -10910,7 +10911,7 @@
       </c>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="1:9" ht="90">
+    <row r="92" spans="1:9" ht="75">
       <c r="A92" s="29" t="s">
         <v>113</v>
       </c>
@@ -10935,7 +10936,7 @@
       </c>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="1:9" ht="75">
+    <row r="93" spans="1:9" ht="60">
       <c r="A93" s="29" t="s">
         <v>114</v>
       </c>
@@ -11162,7 +11163,7 @@
       </c>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="1:9" ht="30">
+    <row r="102" spans="1:9">
       <c r="A102" s="29" t="s">
         <v>123</v>
       </c>
@@ -11237,7 +11238,7 @@
       </c>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="1:9" ht="45">
+    <row r="105" spans="1:9" ht="30">
       <c r="A105" s="29" t="s">
         <v>126</v>
       </c>
@@ -11262,7 +11263,7 @@
       </c>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="1:9" ht="45">
+    <row r="106" spans="1:9" ht="30">
       <c r="A106" s="29" t="s">
         <v>127</v>
       </c>
@@ -11312,7 +11313,7 @@
       </c>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="1:9" ht="45">
+    <row r="108" spans="1:9" ht="30">
       <c r="A108" s="29" t="s">
         <v>129</v>
       </c>
@@ -11362,7 +11363,7 @@
       </c>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:9" ht="45">
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" s="29" t="s">
         <v>131</v>
       </c>
@@ -11412,7 +11413,7 @@
       </c>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:9" ht="45">
+    <row r="112" spans="1:9" ht="30">
       <c r="A112" s="29" t="s">
         <v>133</v>
       </c>
@@ -11512,7 +11513,7 @@
       </c>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="1:9" ht="30">
+    <row r="116" spans="1:9">
       <c r="A116" s="29" t="s">
         <v>137</v>
       </c>
@@ -11537,7 +11538,7 @@
       </c>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="1:9" ht="60">
+    <row r="117" spans="1:9" ht="45">
       <c r="A117" s="29" t="s">
         <v>138</v>
       </c>
@@ -11564,7 +11565,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="30">
+    <row r="118" spans="1:9">
       <c r="A118" s="29" t="s">
         <v>139</v>
       </c>
@@ -11614,7 +11615,7 @@
       </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:9" ht="45">
+    <row r="120" spans="1:9" ht="30">
       <c r="A120" s="29" t="s">
         <v>141</v>
       </c>
@@ -11741,7 +11742,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="90">
+    <row r="125" spans="1:9" ht="75">
       <c r="A125" s="29" t="s">
         <v>146</v>
       </c>
@@ -11765,7 +11766,7 @@
         <v>17</v>
       </c>
       <c r="I125" s="20" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="30">
@@ -11793,7 +11794,7 @@
       </c>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="1:9" ht="45">
+    <row r="127" spans="1:9" ht="30">
       <c r="A127" s="29" t="s">
         <v>148</v>
       </c>
@@ -11943,7 +11944,7 @@
       </c>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="1:9" ht="60">
+    <row r="133" spans="1:9" ht="45">
       <c r="A133" s="29" t="s">
         <v>154</v>
       </c>
@@ -12095,7 +12096,7 @@
       </c>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="1:9" ht="45">
+    <row r="139" spans="1:9" ht="30">
       <c r="A139" s="29" t="s">
         <v>160</v>
       </c>
@@ -12295,7 +12296,7 @@
       </c>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="1:9" ht="45">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="29" t="s">
         <v>168</v>
       </c>
@@ -12320,7 +12321,7 @@
       </c>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="1:9" ht="45">
+    <row r="148" spans="1:9" ht="30">
       <c r="A148" s="29" t="s">
         <v>169</v>
       </c>
@@ -12345,7 +12346,7 @@
       </c>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="1:9" ht="45">
+    <row r="149" spans="1:9" ht="30">
       <c r="A149" s="29" t="s">
         <v>170</v>
       </c>
@@ -12370,7 +12371,7 @@
       </c>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="1:9" ht="45">
+    <row r="150" spans="1:9" ht="30">
       <c r="A150" s="29" t="s">
         <v>171</v>
       </c>
@@ -12395,7 +12396,7 @@
       </c>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="1:9" ht="45">
+    <row r="151" spans="1:9" ht="30">
       <c r="A151" s="29" t="s">
         <v>172</v>
       </c>
@@ -12520,7 +12521,7 @@
       </c>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="1:9" ht="45">
+    <row r="156" spans="1:9" ht="30">
       <c r="A156" s="29" t="s">
         <v>177</v>
       </c>
@@ -12595,7 +12596,7 @@
       </c>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="1:9" ht="45">
+    <row r="159" spans="1:9" ht="30">
       <c r="A159" s="29" t="s">
         <v>180</v>
       </c>
@@ -12620,7 +12621,7 @@
       </c>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="1:9" ht="45">
+    <row r="160" spans="1:9" ht="30">
       <c r="A160" s="29" t="s">
         <v>181</v>
       </c>
@@ -12645,7 +12646,7 @@
       </c>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="1:9" ht="45">
+    <row r="161" spans="1:9" ht="30">
       <c r="A161" s="29" t="s">
         <v>182</v>
       </c>
@@ -12670,7 +12671,7 @@
       </c>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="1:9" ht="45">
+    <row r="162" spans="1:9" ht="30">
       <c r="A162" s="29" t="s">
         <v>183</v>
       </c>
@@ -12745,7 +12746,7 @@
       </c>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="1:9" ht="45">
+    <row r="165" spans="1:9" ht="30">
       <c r="A165" s="29" t="s">
         <v>186</v>
       </c>
@@ -12895,7 +12896,7 @@
       </c>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="1:9" ht="45">
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="29" t="s">
         <v>192</v>
       </c>
@@ -12920,7 +12921,7 @@
       </c>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="1:9" ht="45">
+    <row r="172" spans="1:9" ht="30">
       <c r="A172" s="29" t="s">
         <v>193</v>
       </c>
@@ -13045,7 +13046,7 @@
       </c>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="1:9" ht="45">
+    <row r="177" spans="1:9" ht="30">
       <c r="A177" s="29" t="s">
         <v>198</v>
       </c>
@@ -13070,7 +13071,7 @@
       </c>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="1:9" ht="45">
+    <row r="178" spans="1:9" ht="30">
       <c r="A178" s="29" t="s">
         <v>199</v>
       </c>
@@ -13120,7 +13121,7 @@
       </c>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="1:9" ht="45">
+    <row r="180" spans="1:9" ht="30">
       <c r="A180" s="29" t="s">
         <v>201</v>
       </c>
@@ -13270,7 +13271,7 @@
       </c>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="1:9" ht="45">
+    <row r="186" spans="1:9" ht="30">
       <c r="A186" s="29" t="s">
         <v>207</v>
       </c>
@@ -13370,7 +13371,7 @@
       </c>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="1:9" ht="45">
+    <row r="190" spans="1:9" ht="30">
       <c r="A190" s="29" t="s">
         <v>211</v>
       </c>
@@ -13395,7 +13396,7 @@
       </c>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="1:9" ht="30">
+    <row r="191" spans="1:9">
       <c r="A191" s="29" t="s">
         <v>212</v>
       </c>
@@ -13645,7 +13646,7 @@
       </c>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="1:9" ht="45">
+    <row r="201" spans="1:9" ht="30">
       <c r="A201" s="29" t="s">
         <v>222</v>
       </c>
@@ -13720,7 +13721,7 @@
       </c>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="1:9" ht="45">
+    <row r="204" spans="1:9" ht="30">
       <c r="A204" s="29" t="s">
         <v>225</v>
       </c>
@@ -13745,7 +13746,7 @@
       </c>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="1:9" ht="60">
+    <row r="205" spans="1:9" ht="45">
       <c r="A205" s="29" t="s">
         <v>226</v>
       </c>
@@ -13820,7 +13821,7 @@
       </c>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="1:9" ht="45">
+    <row r="208" spans="1:9" ht="30">
       <c r="A208" s="29" t="s">
         <v>229</v>
       </c>
@@ -13870,7 +13871,7 @@
       </c>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="1:9" ht="75">
+    <row r="210" spans="1:9" ht="60">
       <c r="A210" s="29" t="s">
         <v>231</v>
       </c>
@@ -13895,7 +13896,7 @@
       </c>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="1:9" ht="45">
+    <row r="211" spans="1:9" ht="30">
       <c r="A211" s="29" t="s">
         <v>232</v>
       </c>
@@ -13920,7 +13921,7 @@
       </c>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="1:9" ht="45">
+    <row r="212" spans="1:9" ht="30">
       <c r="A212" s="29" t="s">
         <v>233</v>
       </c>
@@ -13945,7 +13946,7 @@
       </c>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="1:9" ht="60">
+    <row r="213" spans="1:9" ht="45">
       <c r="A213" s="29" t="s">
         <v>234</v>
       </c>
@@ -14022,7 +14023,7 @@
       </c>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="1:9" ht="30">
+    <row r="216" spans="1:9">
       <c r="A216" s="29" t="s">
         <v>237</v>
       </c>
@@ -14047,7 +14048,7 @@
       </c>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="1:9" ht="45">
+    <row r="217" spans="1:9" ht="30">
       <c r="A217" s="29" t="s">
         <v>238</v>
       </c>
@@ -14097,7 +14098,7 @@
       </c>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="1:9" ht="45">
+    <row r="219" spans="1:9" ht="30">
       <c r="A219" s="29" t="s">
         <v>240</v>
       </c>
@@ -14122,7 +14123,7 @@
       </c>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="1:9" ht="45">
+    <row r="220" spans="1:9" ht="30">
       <c r="A220" s="29" t="s">
         <v>241</v>
       </c>
@@ -14147,7 +14148,7 @@
       </c>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="1:9" ht="45">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="29" t="s">
         <v>242</v>
       </c>
@@ -14272,7 +14273,7 @@
       </c>
       <c r="I225" s="31"/>
     </row>
-    <row r="226" spans="1:9" ht="90">
+    <row r="226" spans="1:9" ht="75">
       <c r="A226" s="29" t="s">
         <v>247</v>
       </c>
@@ -14372,7 +14373,7 @@
       </c>
       <c r="I229" s="31"/>
     </row>
-    <row r="230" spans="1:9" ht="45">
+    <row r="230" spans="1:9" ht="30">
       <c r="A230" s="29" t="s">
         <v>251</v>
       </c>
@@ -14399,7 +14400,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="45">
+    <row r="231" spans="1:9" ht="30">
       <c r="A231" s="29" t="s">
         <v>252</v>
       </c>
@@ -14449,7 +14450,7 @@
       </c>
       <c r="I232" s="31"/>
     </row>
-    <row r="233" spans="1:9" ht="60">
+    <row r="233" spans="1:9" ht="45">
       <c r="A233" s="29" t="s">
         <v>254</v>
       </c>
@@ -14674,7 +14675,7 @@
       </c>
       <c r="I241" s="31"/>
     </row>
-    <row r="242" spans="1:9" ht="45">
+    <row r="242" spans="1:9" ht="30">
       <c r="A242" s="29" t="s">
         <v>263</v>
       </c>
@@ -14824,7 +14825,7 @@
       </c>
       <c r="I247" s="31"/>
     </row>
-    <row r="248" spans="1:9" ht="45">
+    <row r="248" spans="1:9" ht="30">
       <c r="A248" s="29" t="s">
         <v>269</v>
       </c>
@@ -14851,7 +14852,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="45">
+    <row r="249" spans="1:9" ht="30">
       <c r="A249" s="29" t="s">
         <v>270</v>
       </c>
@@ -15001,7 +15002,7 @@
       </c>
       <c r="I254" s="31"/>
     </row>
-    <row r="255" spans="1:9" ht="60">
+    <row r="255" spans="1:9" ht="45">
       <c r="A255" s="29" t="s">
         <v>276</v>
       </c>
@@ -15028,7 +15029,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="60">
+    <row r="256" spans="1:9" ht="45">
       <c r="A256" s="29" t="s">
         <v>277</v>
       </c>
@@ -15055,7 +15056,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="60">
+    <row r="257" spans="1:9" ht="45">
       <c r="A257" s="29" t="s">
         <v>278</v>
       </c>
@@ -15082,7 +15083,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="60">
+    <row r="258" spans="1:9" ht="45">
       <c r="A258" s="29" t="s">
         <v>279</v>
       </c>
@@ -15159,7 +15160,7 @@
       </c>
       <c r="I260" s="31"/>
     </row>
-    <row r="261" spans="1:9" ht="60">
+    <row r="261" spans="1:9" ht="45">
       <c r="A261" s="29" t="s">
         <v>282</v>
       </c>
@@ -15186,7 +15187,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="60">
+    <row r="262" spans="1:9" ht="45">
       <c r="A262" s="29" t="s">
         <v>283</v>
       </c>
@@ -15213,7 +15214,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="60">
+    <row r="263" spans="1:9" ht="45">
       <c r="A263" s="29" t="s">
         <v>284</v>
       </c>
@@ -15265,7 +15266,7 @@
       </c>
       <c r="I264" s="31"/>
     </row>
-    <row r="265" spans="1:9" ht="60">
+    <row r="265" spans="1:9" ht="45">
       <c r="A265" s="29" t="s">
         <v>286</v>
       </c>
@@ -15292,7 +15293,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="60">
+    <row r="266" spans="1:9" ht="45">
       <c r="A266" s="29" t="s">
         <v>287</v>
       </c>
@@ -15319,7 +15320,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="60">
+    <row r="267" spans="1:9" ht="45">
       <c r="A267" s="29" t="s">
         <v>288</v>
       </c>
@@ -15371,7 +15372,7 @@
       </c>
       <c r="I268" s="31"/>
     </row>
-    <row r="269" spans="1:9" ht="60">
+    <row r="269" spans="1:9" ht="45">
       <c r="A269" s="29" t="s">
         <v>290</v>
       </c>
@@ -15398,7 +15399,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="45">
+    <row r="270" spans="1:9" ht="30">
       <c r="A270" s="29" t="s">
         <v>291</v>
       </c>
@@ -15448,7 +15449,7 @@
       </c>
       <c r="I271" s="31"/>
     </row>
-    <row r="272" spans="1:9" ht="60">
+    <row r="272" spans="1:9" ht="45">
       <c r="A272" s="29" t="s">
         <v>293</v>
       </c>
@@ -15523,7 +15524,7 @@
       </c>
       <c r="I274" s="31"/>
     </row>
-    <row r="275" spans="1:9" ht="45">
+    <row r="275" spans="1:9" ht="30">
       <c r="A275" s="29" t="s">
         <v>296</v>
       </c>
@@ -15598,7 +15599,7 @@
       </c>
       <c r="I277" s="31"/>
     </row>
-    <row r="278" spans="1:9" ht="45">
+    <row r="278" spans="1:9" ht="30">
       <c r="A278" s="29" t="s">
         <v>299</v>
       </c>
@@ -15623,7 +15624,7 @@
       </c>
       <c r="I278" s="31"/>
     </row>
-    <row r="279" spans="1:9" ht="45">
+    <row r="279" spans="1:9" ht="30">
       <c r="A279" s="29" t="s">
         <v>300</v>
       </c>
@@ -15723,7 +15724,7 @@
       </c>
       <c r="I282" s="31"/>
     </row>
-    <row r="283" spans="1:9" ht="45">
+    <row r="283" spans="1:9" ht="30">
       <c r="A283" s="29" t="s">
         <v>304</v>
       </c>
@@ -15848,7 +15849,7 @@
       </c>
       <c r="I287" s="31"/>
     </row>
-    <row r="288" spans="1:9" ht="45">
+    <row r="288" spans="1:9" ht="30">
       <c r="A288" s="29" t="s">
         <v>309</v>
       </c>
@@ -15873,7 +15874,7 @@
       </c>
       <c r="I288" s="31"/>
     </row>
-    <row r="289" spans="1:9" ht="45">
+    <row r="289" spans="1:9" ht="30">
       <c r="A289" s="29" t="s">
         <v>310</v>
       </c>
@@ -15898,7 +15899,7 @@
       </c>
       <c r="I289" s="31"/>
     </row>
-    <row r="290" spans="1:9" ht="45">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="29" t="s">
         <v>311</v>
       </c>
@@ -15923,7 +15924,7 @@
       </c>
       <c r="I290" s="31"/>
     </row>
-    <row r="291" spans="1:9" ht="45">
+    <row r="291" spans="1:9" ht="30">
       <c r="A291" s="29" t="s">
         <v>312</v>
       </c>
@@ -15998,7 +15999,7 @@
       </c>
       <c r="I293" s="31"/>
     </row>
-    <row r="294" spans="1:9" ht="45">
+    <row r="294" spans="1:9" ht="30">
       <c r="A294" s="29" t="s">
         <v>315</v>
       </c>
@@ -16048,7 +16049,7 @@
       </c>
       <c r="I295" s="31"/>
     </row>
-    <row r="296" spans="1:9" ht="60">
+    <row r="296" spans="1:9" ht="45">
       <c r="A296" s="29" t="s">
         <v>317</v>
       </c>
@@ -16148,7 +16149,7 @@
       </c>
       <c r="I299" s="31"/>
     </row>
-    <row r="300" spans="1:9" ht="45">
+    <row r="300" spans="1:9" ht="30">
       <c r="A300" s="29" t="s">
         <v>321</v>
       </c>
@@ -16198,7 +16199,7 @@
       </c>
       <c r="I301" s="31"/>
     </row>
-    <row r="302" spans="1:9" ht="45">
+    <row r="302" spans="1:9" ht="30">
       <c r="A302" s="29" t="s">
         <v>323</v>
       </c>
@@ -16323,7 +16324,7 @@
       </c>
       <c r="I306" s="31"/>
     </row>
-    <row r="307" spans="1:9" ht="45">
+    <row r="307" spans="1:9" ht="30">
       <c r="A307" s="29" t="s">
         <v>328</v>
       </c>
@@ -16348,7 +16349,7 @@
       </c>
       <c r="I307" s="31"/>
     </row>
-    <row r="308" spans="1:9" ht="45">
+    <row r="308" spans="1:9" ht="30">
       <c r="A308" s="29" t="s">
         <v>329</v>
       </c>
@@ -16573,7 +16574,7 @@
       </c>
       <c r="I316" s="31"/>
     </row>
-    <row r="317" spans="1:9" ht="45">
+    <row r="317" spans="1:9" ht="30">
       <c r="A317" s="29" t="s">
         <v>338</v>
       </c>
@@ -16673,7 +16674,7 @@
       </c>
       <c r="I320" s="31"/>
     </row>
-    <row r="321" spans="1:9" ht="45">
+    <row r="321" spans="1:9" ht="30">
       <c r="A321" s="29" t="s">
         <v>342</v>
       </c>
@@ -16823,7 +16824,7 @@
       </c>
       <c r="I326" s="31"/>
     </row>
-    <row r="327" spans="1:9" ht="45">
+    <row r="327" spans="1:9" ht="30">
       <c r="A327" s="29" t="s">
         <v>348</v>
       </c>
@@ -16873,7 +16874,7 @@
       </c>
       <c r="I328" s="31"/>
     </row>
-    <row r="329" spans="1:9" ht="30">
+    <row r="329" spans="1:9">
       <c r="A329" s="29" t="s">
         <v>350</v>
       </c>
@@ -16898,7 +16899,7 @@
       </c>
       <c r="I329" s="31"/>
     </row>
-    <row r="330" spans="1:9" ht="30">
+    <row r="330" spans="1:9">
       <c r="A330" s="29" t="s">
         <v>351</v>
       </c>
@@ -17048,7 +17049,7 @@
       </c>
       <c r="I335" s="31"/>
     </row>
-    <row r="336" spans="1:9" ht="60">
+    <row r="336" spans="1:9" ht="45">
       <c r="A336" s="29" t="s">
         <v>357</v>
       </c>
@@ -17123,7 +17124,7 @@
       </c>
       <c r="I338" s="31"/>
     </row>
-    <row r="339" spans="1:9" ht="45">
+    <row r="339" spans="1:9" ht="30">
       <c r="A339" s="29" t="s">
         <v>360</v>
       </c>
@@ -17148,7 +17149,7 @@
       </c>
       <c r="I339" s="31"/>
     </row>
-    <row r="340" spans="1:9" ht="60">
+    <row r="340" spans="1:9" ht="45">
       <c r="A340" s="29" t="s">
         <v>361</v>
       </c>
@@ -17173,7 +17174,7 @@
       </c>
       <c r="I340" s="31"/>
     </row>
-    <row r="341" spans="1:9" ht="45">
+    <row r="341" spans="1:9" ht="30">
       <c r="A341" s="29" t="s">
         <v>362</v>
       </c>
@@ -17398,7 +17399,7 @@
       </c>
       <c r="I349" s="31"/>
     </row>
-    <row r="350" spans="1:9" ht="45">
+    <row r="350" spans="1:9" ht="30">
       <c r="A350" s="29" t="s">
         <v>371</v>
       </c>
@@ -17473,7 +17474,7 @@
       </c>
       <c r="I352" s="31"/>
     </row>
-    <row r="353" spans="1:9" ht="45">
+    <row r="353" spans="1:9" ht="30">
       <c r="A353" s="29" t="s">
         <v>374</v>
       </c>
@@ -17498,7 +17499,7 @@
       </c>
       <c r="I353" s="31"/>
     </row>
-    <row r="354" spans="1:9" ht="45">
+    <row r="354" spans="1:9" ht="30">
       <c r="A354" s="29" t="s">
         <v>375</v>
       </c>
@@ -17673,7 +17674,7 @@
       </c>
       <c r="I360" s="31"/>
     </row>
-    <row r="361" spans="1:9" ht="45">
+    <row r="361" spans="1:9" ht="30">
       <c r="A361" s="29" t="s">
         <v>382</v>
       </c>
@@ -17698,7 +17699,7 @@
       </c>
       <c r="I361" s="31"/>
     </row>
-    <row r="362" spans="1:9" ht="45">
+    <row r="362" spans="1:9" ht="30">
       <c r="A362" s="29" t="s">
         <v>383</v>
       </c>
@@ -17873,7 +17874,7 @@
       </c>
       <c r="I368" s="31"/>
     </row>
-    <row r="369" spans="1:9" ht="30">
+    <row r="369" spans="1:9">
       <c r="A369" s="29" t="s">
         <v>390</v>
       </c>
@@ -18098,7 +18099,7 @@
       </c>
       <c r="I377" s="31"/>
     </row>
-    <row r="378" spans="1:9" ht="45">
+    <row r="378" spans="1:9" ht="30">
       <c r="A378" s="29" t="s">
         <v>399</v>
       </c>
@@ -18323,7 +18324,7 @@
       </c>
       <c r="I386" s="31"/>
     </row>
-    <row r="387" spans="1:9" ht="45">
+    <row r="387" spans="1:9" ht="30">
       <c r="A387" s="29" t="s">
         <v>408</v>
       </c>
@@ -18348,7 +18349,7 @@
       </c>
       <c r="I387" s="31"/>
     </row>
-    <row r="388" spans="1:9" ht="45">
+    <row r="388" spans="1:9" ht="30">
       <c r="A388" s="29" t="s">
         <v>409</v>
       </c>
@@ -18772,7 +18773,7 @@
       </c>
       <c r="I403" s="31"/>
     </row>
-    <row r="404" spans="1:9" ht="30">
+    <row r="404" spans="1:9">
       <c r="A404" s="29" t="s">
         <v>425</v>
       </c>
@@ -18847,7 +18848,7 @@
       </c>
       <c r="I406" s="31"/>
     </row>
-    <row r="407" spans="1:9" ht="30">
+    <row r="407" spans="1:9">
       <c r="A407" s="29" t="s">
         <v>428</v>
       </c>
@@ -18897,7 +18898,7 @@
       </c>
       <c r="I408" s="31"/>
     </row>
-    <row r="409" spans="1:9" ht="45">
+    <row r="409" spans="1:9" ht="30">
       <c r="A409" s="29" t="s">
         <v>430</v>
       </c>
@@ -18922,7 +18923,7 @@
       </c>
       <c r="I409" s="31"/>
     </row>
-    <row r="410" spans="1:9" ht="30">
+    <row r="410" spans="1:9">
       <c r="A410" s="29" t="s">
         <v>431</v>
       </c>
@@ -19172,7 +19173,7 @@
       </c>
       <c r="I419" s="31"/>
     </row>
-    <row r="420" spans="1:9" ht="45">
+    <row r="420" spans="1:9" ht="30">
       <c r="A420" s="29" t="s">
         <v>441</v>
       </c>
@@ -19222,7 +19223,7 @@
       </c>
       <c r="I421" s="31"/>
     </row>
-    <row r="422" spans="1:9" ht="45">
+    <row r="422" spans="1:9" ht="30">
       <c r="A422" s="29" t="s">
         <v>443</v>
       </c>
@@ -19347,7 +19348,7 @@
       </c>
       <c r="I426" s="31"/>
     </row>
-    <row r="427" spans="1:9" ht="45">
+    <row r="427" spans="1:9" ht="30">
       <c r="A427" s="29" t="s">
         <v>448</v>
       </c>
@@ -19372,7 +19373,7 @@
       </c>
       <c r="I427" s="31"/>
     </row>
-    <row r="428" spans="1:9" ht="30">
+    <row r="428" spans="1:9">
       <c r="A428" s="29" t="s">
         <v>449</v>
       </c>
@@ -19397,7 +19398,7 @@
       </c>
       <c r="I428" s="31"/>
     </row>
-    <row r="429" spans="1:9" ht="45">
+    <row r="429" spans="1:9" ht="30">
       <c r="A429" s="29" t="s">
         <v>450</v>
       </c>
@@ -19472,7 +19473,7 @@
       </c>
       <c r="I431" s="31"/>
     </row>
-    <row r="432" spans="1:9" ht="30">
+    <row r="432" spans="1:9">
       <c r="A432" s="29" t="s">
         <v>453</v>
       </c>
@@ -19522,7 +19523,7 @@
       </c>
       <c r="I433" s="31"/>
     </row>
-    <row r="434" spans="1:9" ht="30">
+    <row r="434" spans="1:9">
       <c r="A434" s="29" t="s">
         <v>455</v>
       </c>
@@ -19547,7 +19548,7 @@
       </c>
       <c r="I434" s="31"/>
     </row>
-    <row r="435" spans="1:9" ht="45">
+    <row r="435" spans="1:9" ht="30">
       <c r="A435" s="29" t="s">
         <v>456</v>
       </c>
@@ -19572,7 +19573,7 @@
       </c>
       <c r="I435" s="31"/>
     </row>
-    <row r="436" spans="1:9" ht="30">
+    <row r="436" spans="1:9">
       <c r="A436" s="29" t="s">
         <v>457</v>
       </c>
@@ -19672,7 +19673,7 @@
       </c>
       <c r="I439" s="31"/>
     </row>
-    <row r="440" spans="1:9" ht="60">
+    <row r="440" spans="1:9" ht="45">
       <c r="A440" s="29" t="s">
         <v>461</v>
       </c>
@@ -19728,7 +19729,7 @@
       </c>
       <c r="I441" s="31"/>
     </row>
-    <row r="442" spans="1:9" ht="60">
+    <row r="442" spans="1:9" ht="45">
       <c r="A442" s="29" t="s">
         <v>463</v>
       </c>
@@ -19755,7 +19756,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="60">
+    <row r="443" spans="1:9" ht="45">
       <c r="A443" s="29" t="s">
         <v>464</v>
       </c>
@@ -19780,8 +19781,8 @@
       <c r="H443" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I443" s="31" t="s">
-        <v>2314</v>
+      <c r="I443" s="20" t="s">
+        <v>2417</v>
       </c>
     </row>
     <row r="444" spans="1:9">
@@ -19967,7 +19968,7 @@
       </c>
       <c r="I450" s="31"/>
     </row>
-    <row r="451" spans="1:9" ht="45">
+    <row r="451" spans="1:9" ht="30">
       <c r="A451" s="29" t="s">
         <v>472</v>
       </c>
@@ -20017,7 +20018,7 @@
       </c>
       <c r="I452" s="31"/>
     </row>
-    <row r="453" spans="1:9" ht="30">
+    <row r="453" spans="1:9">
       <c r="A453" s="29" t="s">
         <v>474</v>
       </c>
@@ -20394,7 +20395,7 @@
       </c>
       <c r="I467" s="31"/>
     </row>
-    <row r="468" spans="1:9" ht="30">
+    <row r="468" spans="1:9">
       <c r="A468" s="29" t="s">
         <v>489</v>
       </c>
@@ -20473,7 +20474,7 @@
       </c>
       <c r="I470" s="31"/>
     </row>
-    <row r="471" spans="1:9" ht="30">
+    <row r="471" spans="1:9">
       <c r="A471" s="29" t="s">
         <v>492</v>
       </c>
@@ -20498,7 +20499,7 @@
       </c>
       <c r="I471" s="31"/>
     </row>
-    <row r="472" spans="1:9" ht="30">
+    <row r="472" spans="1:9">
       <c r="A472" s="29" t="s">
         <v>493</v>
       </c>
@@ -20548,7 +20549,7 @@
       </c>
       <c r="I473" s="31"/>
     </row>
-    <row r="474" spans="1:9" ht="60">
+    <row r="474" spans="1:9" ht="45">
       <c r="A474" s="29" t="s">
         <v>495</v>
       </c>
@@ -20623,7 +20624,7 @@
       </c>
       <c r="I476" s="31"/>
     </row>
-    <row r="477" spans="1:9" ht="45">
+    <row r="477" spans="1:9" ht="30">
       <c r="A477" s="29" t="s">
         <v>498</v>
       </c>
@@ -20648,7 +20649,7 @@
       </c>
       <c r="I477" s="31"/>
     </row>
-    <row r="478" spans="1:9" ht="60">
+    <row r="478" spans="1:9" ht="45">
       <c r="A478" s="29" t="s">
         <v>499</v>
       </c>
@@ -20698,7 +20699,7 @@
       </c>
       <c r="I479" s="31"/>
     </row>
-    <row r="480" spans="1:9" ht="45">
+    <row r="480" spans="1:9" ht="30">
       <c r="A480" s="29" t="s">
         <v>501</v>
       </c>
@@ -20723,7 +20724,7 @@
       </c>
       <c r="I480" s="31"/>
     </row>
-    <row r="481" spans="1:9" ht="45">
+    <row r="481" spans="1:9" ht="30">
       <c r="A481" s="29" t="s">
         <v>502</v>
       </c>
@@ -20748,7 +20749,7 @@
       </c>
       <c r="I481" s="31"/>
     </row>
-    <row r="482" spans="1:9" ht="45">
+    <row r="482" spans="1:9" ht="30">
       <c r="A482" s="29" t="s">
         <v>503</v>
       </c>
@@ -20848,7 +20849,7 @@
       </c>
       <c r="I485" s="31"/>
     </row>
-    <row r="486" spans="1:9" ht="30">
+    <row r="486" spans="1:9">
       <c r="A486" s="29" t="s">
         <v>507</v>
       </c>
@@ -20973,7 +20974,7 @@
       </c>
       <c r="I490" s="31"/>
     </row>
-    <row r="491" spans="1:9" ht="45">
+    <row r="491" spans="1:9" ht="30">
       <c r="A491" s="29" t="s">
         <v>512</v>
       </c>
@@ -21148,7 +21149,7 @@
       </c>
       <c r="I497" s="31"/>
     </row>
-    <row r="498" spans="1:9" ht="45">
+    <row r="498" spans="1:9" ht="30">
       <c r="A498" s="29" t="s">
         <v>519</v>
       </c>
@@ -21223,7 +21224,7 @@
       </c>
       <c r="I500" s="31"/>
     </row>
-    <row r="501" spans="1:9" ht="60">
+    <row r="501" spans="1:9" ht="45">
       <c r="A501" s="29" t="s">
         <v>522</v>
       </c>
@@ -21248,7 +21249,7 @@
       </c>
       <c r="I501" s="31"/>
     </row>
-    <row r="502" spans="1:9" ht="45">
+    <row r="502" spans="1:9" ht="30">
       <c r="A502" s="29" t="s">
         <v>523</v>
       </c>
@@ -21273,7 +21274,7 @@
       </c>
       <c r="I502" s="31"/>
     </row>
-    <row r="503" spans="1:9" ht="45">
+    <row r="503" spans="1:9" ht="30">
       <c r="A503" s="29" t="s">
         <v>524</v>
       </c>
@@ -21298,7 +21299,7 @@
       </c>
       <c r="I503" s="31"/>
     </row>
-    <row r="504" spans="1:9" ht="90">
+    <row r="504" spans="1:9" ht="75">
       <c r="A504" s="29" t="s">
         <v>525</v>
       </c>
@@ -21348,7 +21349,7 @@
       </c>
       <c r="I505" s="31"/>
     </row>
-    <row r="506" spans="1:9" ht="45">
+    <row r="506" spans="1:9" ht="30">
       <c r="A506" s="29" t="s">
         <v>527</v>
       </c>
@@ -21373,7 +21374,7 @@
       </c>
       <c r="I506" s="31"/>
     </row>
-    <row r="507" spans="1:9" ht="75">
+    <row r="507" spans="1:9" ht="60">
       <c r="A507" s="29" t="s">
         <v>528</v>
       </c>
@@ -21398,7 +21399,7 @@
       </c>
       <c r="I507" s="31"/>
     </row>
-    <row r="508" spans="1:9" ht="60">
+    <row r="508" spans="1:9" ht="45">
       <c r="A508" s="29" t="s">
         <v>529</v>
       </c>
@@ -21448,7 +21449,7 @@
       </c>
       <c r="I509" s="31"/>
     </row>
-    <row r="510" spans="1:9" ht="45">
+    <row r="510" spans="1:9" ht="30">
       <c r="A510" s="29" t="s">
         <v>531</v>
       </c>
@@ -21523,7 +21524,7 @@
       </c>
       <c r="I512" s="31"/>
     </row>
-    <row r="513" spans="1:9" ht="60">
+    <row r="513" spans="1:9" ht="45">
       <c r="A513" s="29" t="s">
         <v>534</v>
       </c>
@@ -21548,7 +21549,7 @@
       </c>
       <c r="I513" s="31"/>
     </row>
-    <row r="514" spans="1:9" ht="30">
+    <row r="514" spans="1:9">
       <c r="A514" s="29" t="s">
         <v>535</v>
       </c>
@@ -21623,7 +21624,7 @@
       </c>
       <c r="I516" s="31"/>
     </row>
-    <row r="517" spans="1:9" ht="75">
+    <row r="517" spans="1:9" ht="60">
       <c r="A517" s="29" t="s">
         <v>538</v>
       </c>
@@ -21648,7 +21649,7 @@
       </c>
       <c r="I517" s="31"/>
     </row>
-    <row r="518" spans="1:9" ht="60">
+    <row r="518" spans="1:9" ht="45">
       <c r="A518" s="29" t="s">
         <v>539</v>
       </c>
@@ -21698,7 +21699,7 @@
       </c>
       <c r="I519" s="31"/>
     </row>
-    <row r="520" spans="1:9" ht="60">
+    <row r="520" spans="1:9" ht="45">
       <c r="A520" s="29" t="s">
         <v>541</v>
       </c>
@@ -21798,7 +21799,7 @@
       </c>
       <c r="I523" s="31"/>
     </row>
-    <row r="524" spans="1:9" ht="45">
+    <row r="524" spans="1:9" ht="30">
       <c r="A524" s="29" t="s">
         <v>545</v>
       </c>
@@ -21873,7 +21874,7 @@
       </c>
       <c r="I526" s="31"/>
     </row>
-    <row r="527" spans="1:9" ht="45">
+    <row r="527" spans="1:9" ht="30">
       <c r="A527" s="29" t="s">
         <v>548</v>
       </c>
@@ -22123,7 +22124,7 @@
       </c>
       <c r="I536" s="31"/>
     </row>
-    <row r="537" spans="1:9" ht="45">
+    <row r="537" spans="1:9" ht="30">
       <c r="A537" s="29" t="s">
         <v>558</v>
       </c>
@@ -22148,7 +22149,7 @@
       </c>
       <c r="I537" s="31"/>
     </row>
-    <row r="538" spans="1:9" ht="60">
+    <row r="538" spans="1:9" ht="45">
       <c r="A538" s="29" t="s">
         <v>559</v>
       </c>
@@ -22173,7 +22174,7 @@
       </c>
       <c r="I538" s="31"/>
     </row>
-    <row r="539" spans="1:9" ht="45">
+    <row r="539" spans="1:9" ht="30">
       <c r="A539" s="29" t="s">
         <v>560</v>
       </c>
@@ -22198,7 +22199,7 @@
       </c>
       <c r="I539" s="31"/>
     </row>
-    <row r="540" spans="1:9" ht="60">
+    <row r="540" spans="1:9" ht="45">
       <c r="A540" s="29" t="s">
         <v>561</v>
       </c>
@@ -22223,7 +22224,7 @@
       </c>
       <c r="I540" s="31"/>
     </row>
-    <row r="541" spans="1:9" ht="60">
+    <row r="541" spans="1:9" ht="45">
       <c r="A541" s="29" t="s">
         <v>562</v>
       </c>
@@ -22323,7 +22324,7 @@
       </c>
       <c r="I544" s="31"/>
     </row>
-    <row r="545" spans="1:9" ht="45">
+    <row r="545" spans="1:9" ht="30">
       <c r="A545" s="29" t="s">
         <v>566</v>
       </c>
@@ -22348,7 +22349,7 @@
       </c>
       <c r="I545" s="31"/>
     </row>
-    <row r="546" spans="1:9" ht="45">
+    <row r="546" spans="1:9" ht="30">
       <c r="A546" s="29" t="s">
         <v>567</v>
       </c>
@@ -22373,7 +22374,7 @@
       </c>
       <c r="I546" s="31"/>
     </row>
-    <row r="547" spans="1:9" ht="45">
+    <row r="547" spans="1:9" ht="30">
       <c r="A547" s="29" t="s">
         <v>568</v>
       </c>
@@ -22423,7 +22424,7 @@
       </c>
       <c r="I548" s="31"/>
     </row>
-    <row r="549" spans="1:9" ht="45">
+    <row r="549" spans="1:9" ht="30">
       <c r="A549" s="29" t="s">
         <v>570</v>
       </c>
@@ -22523,7 +22524,7 @@
       </c>
       <c r="I552" s="31"/>
     </row>
-    <row r="553" spans="1:9" ht="45">
+    <row r="553" spans="1:9" ht="30">
       <c r="A553" s="29" t="s">
         <v>574</v>
       </c>
@@ -22573,7 +22574,7 @@
       </c>
       <c r="I554" s="31"/>
     </row>
-    <row r="555" spans="1:9" ht="45">
+    <row r="555" spans="1:9" ht="30">
       <c r="A555" s="29" t="s">
         <v>576</v>
       </c>
@@ -22598,7 +22599,7 @@
       </c>
       <c r="I555" s="31"/>
     </row>
-    <row r="556" spans="1:9" ht="45">
+    <row r="556" spans="1:9" ht="30">
       <c r="A556" s="29" t="s">
         <v>577</v>
       </c>
@@ -22673,7 +22674,7 @@
       </c>
       <c r="I558" s="31"/>
     </row>
-    <row r="559" spans="1:9" ht="60">
+    <row r="559" spans="1:9" ht="45">
       <c r="A559" s="29" t="s">
         <v>580</v>
       </c>
@@ -22723,7 +22724,7 @@
       </c>
       <c r="I560" s="31"/>
     </row>
-    <row r="561" spans="1:9" ht="75">
+    <row r="561" spans="1:9" ht="60">
       <c r="A561" s="29" t="s">
         <v>582</v>
       </c>
@@ -22748,7 +22749,7 @@
       </c>
       <c r="I561" s="31"/>
     </row>
-    <row r="562" spans="1:9" ht="30">
+    <row r="562" spans="1:9">
       <c r="A562" s="29" t="s">
         <v>583</v>
       </c>
@@ -22773,7 +22774,7 @@
       </c>
       <c r="I562" s="31"/>
     </row>
-    <row r="563" spans="1:9" ht="30">
+    <row r="563" spans="1:9">
       <c r="A563" s="29" t="s">
         <v>584</v>
       </c>
@@ -22848,7 +22849,7 @@
       </c>
       <c r="I565" s="31"/>
     </row>
-    <row r="566" spans="1:9" ht="30">
+    <row r="566" spans="1:9">
       <c r="A566" s="29" t="s">
         <v>587</v>
       </c>
@@ -22973,7 +22974,7 @@
       </c>
       <c r="I570" s="31"/>
     </row>
-    <row r="571" spans="1:9" ht="30">
+    <row r="571" spans="1:9">
       <c r="A571" s="29" t="s">
         <v>592</v>
       </c>
@@ -23048,7 +23049,7 @@
       </c>
       <c r="I573" s="31"/>
     </row>
-    <row r="574" spans="1:9" ht="75">
+    <row r="574" spans="1:9" ht="60">
       <c r="A574" s="29" t="s">
         <v>595</v>
       </c>
@@ -23148,7 +23149,7 @@
       </c>
       <c r="I577" s="31"/>
     </row>
-    <row r="578" spans="1:9" ht="30">
+    <row r="578" spans="1:9">
       <c r="A578" s="29" t="s">
         <v>599</v>
       </c>
@@ -23198,7 +23199,7 @@
       </c>
       <c r="I579" s="31"/>
     </row>
-    <row r="580" spans="1:9" ht="45">
+    <row r="580" spans="1:9" ht="30">
       <c r="A580" s="29" t="s">
         <v>601</v>
       </c>
@@ -23223,7 +23224,7 @@
       </c>
       <c r="I580" s="31"/>
     </row>
-    <row r="581" spans="1:9" ht="45">
+    <row r="581" spans="1:9" ht="30">
       <c r="A581" s="29" t="s">
         <v>602</v>
       </c>
@@ -23273,7 +23274,7 @@
       </c>
       <c r="I582" s="31"/>
     </row>
-    <row r="583" spans="1:9" ht="45">
+    <row r="583" spans="1:9" ht="30">
       <c r="A583" s="29" t="s">
         <v>604</v>
       </c>
@@ -23348,7 +23349,7 @@
       </c>
       <c r="I585" s="31"/>
     </row>
-    <row r="586" spans="1:9" ht="60">
+    <row r="586" spans="1:9" ht="45">
       <c r="A586" s="29" t="s">
         <v>607</v>
       </c>
@@ -23373,7 +23374,7 @@
       </c>
       <c r="I586" s="31"/>
     </row>
-    <row r="587" spans="1:9" ht="45">
+    <row r="587" spans="1:9" ht="30">
       <c r="A587" s="29" t="s">
         <v>608</v>
       </c>
@@ -23431,7 +23432,7 @@
         <v>1194</v>
       </c>
       <c r="C589" s="31" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D589" s="29"/>
       <c r="E589" s="29" t="s">
@@ -23598,7 +23599,7 @@
       </c>
       <c r="I595" s="31"/>
     </row>
-    <row r="596" spans="1:9" ht="60">
+    <row r="596" spans="1:9" ht="45">
       <c r="A596" s="22" t="s">
         <v>617</v>
       </c>
@@ -23622,10 +23623,10 @@
         <v>17</v>
       </c>
       <c r="I596" s="20" t="s">
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="597" spans="1:9" ht="45">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" ht="30">
       <c r="A597" s="29" t="s">
         <v>618</v>
       </c>
@@ -23650,7 +23651,7 @@
       </c>
       <c r="I597" s="31"/>
     </row>
-    <row r="598" spans="1:9" ht="60">
+    <row r="598" spans="1:9" ht="45">
       <c r="A598" s="22" t="s">
         <v>619</v>
       </c>
@@ -23674,7 +23675,7 @@
         <v>17</v>
       </c>
       <c r="I598" s="20" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="599" spans="1:9" ht="45">
@@ -23729,9 +23730,9 @@
       </c>
       <c r="I600" s="31"/>
     </row>
-    <row r="601" spans="1:9" ht="60">
+    <row r="601" spans="1:9" ht="45">
       <c r="A601" s="22" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B601" s="30" t="s">
         <v>1196</v>
@@ -23779,7 +23780,7 @@
       </c>
       <c r="I602" s="31"/>
     </row>
-    <row r="603" spans="1:9" ht="60">
+    <row r="603" spans="1:9" ht="45">
       <c r="A603" s="22" t="s">
         <v>623</v>
       </c>
@@ -23803,7 +23804,7 @@
         <v>17</v>
       </c>
       <c r="I603" s="20" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="604" spans="1:9" ht="45">
@@ -23908,7 +23909,7 @@
       </c>
       <c r="I607" s="31"/>
     </row>
-    <row r="608" spans="1:9" ht="75">
+    <row r="608" spans="1:9" ht="60">
       <c r="A608" s="22" t="s">
         <v>628</v>
       </c>
@@ -23932,10 +23933,10 @@
         <v>17</v>
       </c>
       <c r="I608" s="31" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="609" spans="1:9" ht="75">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" ht="60">
       <c r="A609" s="29" t="s">
         <v>629</v>
       </c>
@@ -23960,7 +23961,7 @@
       </c>
       <c r="I609" s="31"/>
     </row>
-    <row r="610" spans="1:9" ht="75">
+    <row r="610" spans="1:9" ht="60">
       <c r="A610" s="29" t="s">
         <v>630</v>
       </c>
@@ -24012,7 +24013,7 @@
       </c>
       <c r="I611" s="31"/>
     </row>
-    <row r="612" spans="1:9" ht="75">
+    <row r="612" spans="1:9" ht="60">
       <c r="A612" s="29" t="s">
         <v>632</v>
       </c>
@@ -24036,7 +24037,7 @@
         <v>17</v>
       </c>
       <c r="I612" s="31" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="613" spans="1:9" ht="45">
@@ -24164,7 +24165,7 @@
       </c>
       <c r="I617" s="31"/>
     </row>
-    <row r="618" spans="1:9" ht="45">
+    <row r="618" spans="1:9" ht="30">
       <c r="A618" s="29" t="s">
         <v>638</v>
       </c>
@@ -24289,7 +24290,7 @@
       </c>
       <c r="I622" s="31"/>
     </row>
-    <row r="623" spans="1:9" ht="30">
+    <row r="623" spans="1:9">
       <c r="A623" s="29" t="s">
         <v>643</v>
       </c>
@@ -24441,7 +24442,7 @@
       </c>
       <c r="I628" s="31"/>
     </row>
-    <row r="629" spans="1:9" ht="45">
+    <row r="629" spans="1:9" ht="30">
       <c r="A629" s="29" t="s">
         <v>649</v>
       </c>
@@ -24566,7 +24567,7 @@
       </c>
       <c r="I633" s="31"/>
     </row>
-    <row r="634" spans="1:9" ht="45">
+    <row r="634" spans="1:9" ht="30">
       <c r="A634" s="29" t="s">
         <v>654</v>
       </c>
@@ -24745,7 +24746,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="641" spans="1:9" ht="45">
+    <row r="641" spans="1:9" ht="30">
       <c r="A641" s="29" t="s">
         <v>661</v>
       </c>
@@ -24772,7 +24773,7 @@
       </c>
       <c r="I641" s="31"/>
     </row>
-    <row r="642" spans="1:9" ht="60">
+    <row r="642" spans="1:9" ht="45">
       <c r="A642" s="29" t="s">
         <v>662</v>
       </c>
@@ -24797,7 +24798,7 @@
       </c>
       <c r="I642" s="31"/>
     </row>
-    <row r="643" spans="1:9" ht="60">
+    <row r="643" spans="1:9" ht="45">
       <c r="A643" s="29" t="s">
         <v>663</v>
       </c>
@@ -24822,7 +24823,7 @@
       </c>
       <c r="I643" s="31"/>
     </row>
-    <row r="644" spans="1:9" ht="60">
+    <row r="644" spans="1:9" ht="45">
       <c r="A644" s="29" t="s">
         <v>664</v>
       </c>
@@ -24847,7 +24848,7 @@
       </c>
       <c r="I644" s="31"/>
     </row>
-    <row r="645" spans="1:9" ht="60">
+    <row r="645" spans="1:9" ht="45">
       <c r="A645" s="29" t="s">
         <v>665</v>
       </c>
@@ -24897,7 +24898,7 @@
       </c>
       <c r="I646" s="31"/>
     </row>
-    <row r="647" spans="1:9" ht="45">
+    <row r="647" spans="1:9" ht="30">
       <c r="A647" s="29" t="s">
         <v>667</v>
       </c>
@@ -25072,7 +25073,7 @@
       </c>
       <c r="I653" s="31"/>
     </row>
-    <row r="654" spans="1:9" ht="30">
+    <row r="654" spans="1:9">
       <c r="A654" s="29" t="s">
         <v>674</v>
       </c>
@@ -25122,7 +25123,7 @@
       </c>
       <c r="I655" s="31"/>
     </row>
-    <row r="656" spans="1:9" ht="30">
+    <row r="656" spans="1:9">
       <c r="A656" s="29" t="s">
         <v>676</v>
       </c>
@@ -25147,7 +25148,7 @@
       </c>
       <c r="I656" s="31"/>
     </row>
-    <row r="657" spans="1:9" ht="45">
+    <row r="657" spans="1:9" ht="30">
       <c r="A657" s="29" t="s">
         <v>677</v>
       </c>
@@ -25174,7 +25175,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="658" spans="1:9" ht="30">
+    <row r="658" spans="1:9">
       <c r="A658" s="29" t="s">
         <v>678</v>
       </c>
@@ -25224,7 +25225,7 @@
       </c>
       <c r="I659" s="31"/>
     </row>
-    <row r="660" spans="1:9" ht="30">
+    <row r="660" spans="1:9">
       <c r="A660" s="29" t="s">
         <v>680</v>
       </c>
@@ -25274,7 +25275,7 @@
       </c>
       <c r="I661" s="31"/>
     </row>
-    <row r="662" spans="1:9" ht="30">
+    <row r="662" spans="1:9">
       <c r="A662" s="29" t="s">
         <v>682</v>
       </c>
@@ -25324,7 +25325,7 @@
       </c>
       <c r="I663" s="31"/>
     </row>
-    <row r="664" spans="1:9" ht="30">
+    <row r="664" spans="1:9">
       <c r="A664" s="29" t="s">
         <v>684</v>
       </c>
@@ -25349,7 +25350,7 @@
       </c>
       <c r="I664" s="31"/>
     </row>
-    <row r="665" spans="1:9" ht="30">
+    <row r="665" spans="1:9">
       <c r="A665" s="29" t="s">
         <v>685</v>
       </c>
@@ -25424,7 +25425,7 @@
       </c>
       <c r="I667" s="31"/>
     </row>
-    <row r="668" spans="1:9" ht="30">
+    <row r="668" spans="1:9">
       <c r="A668" s="29" t="s">
         <v>688</v>
       </c>
@@ -25449,7 +25450,7 @@
       </c>
       <c r="I668" s="31"/>
     </row>
-    <row r="669" spans="1:9" ht="45">
+    <row r="669" spans="1:9" ht="30">
       <c r="A669" s="29" t="s">
         <v>689</v>
       </c>
@@ -25474,7 +25475,7 @@
       </c>
       <c r="I669" s="31"/>
     </row>
-    <row r="670" spans="1:9" ht="30">
+    <row r="670" spans="1:9">
       <c r="A670" s="29" t="s">
         <v>690</v>
       </c>
@@ -25524,7 +25525,7 @@
       </c>
       <c r="I671" s="31"/>
     </row>
-    <row r="672" spans="1:9" ht="30">
+    <row r="672" spans="1:9">
       <c r="A672" s="29" t="s">
         <v>692</v>
       </c>
@@ -25574,7 +25575,7 @@
       </c>
       <c r="I673" s="31"/>
     </row>
-    <row r="674" spans="1:9" ht="30">
+    <row r="674" spans="1:9">
       <c r="A674" s="29" t="s">
         <v>694</v>
       </c>
@@ -25599,7 +25600,7 @@
       </c>
       <c r="I674" s="31"/>
     </row>
-    <row r="675" spans="1:9" ht="45">
+    <row r="675" spans="1:9" ht="30">
       <c r="A675" s="29" t="s">
         <v>695</v>
       </c>
@@ -25649,7 +25650,7 @@
       </c>
       <c r="I676" s="31"/>
     </row>
-    <row r="677" spans="1:9" ht="45">
+    <row r="677" spans="1:9" ht="30">
       <c r="A677" s="29" t="s">
         <v>697</v>
       </c>
@@ -25774,7 +25775,7 @@
       </c>
       <c r="I681" s="31"/>
     </row>
-    <row r="682" spans="1:9" ht="45">
+    <row r="682" spans="1:9" ht="30">
       <c r="A682" s="29" t="s">
         <v>702</v>
       </c>
@@ -25874,7 +25875,7 @@
       </c>
       <c r="I685" s="31"/>
     </row>
-    <row r="686" spans="1:9" ht="45">
+    <row r="686" spans="1:9" ht="30">
       <c r="A686" s="29" t="s">
         <v>706</v>
       </c>
@@ -25924,7 +25925,7 @@
       </c>
       <c r="I687" s="31"/>
     </row>
-    <row r="688" spans="1:9" ht="90">
+    <row r="688" spans="1:9" ht="75">
       <c r="A688" s="29" t="s">
         <v>708</v>
       </c>
@@ -25974,7 +25975,7 @@
       </c>
       <c r="I689" s="31"/>
     </row>
-    <row r="690" spans="1:9" ht="45">
+    <row r="690" spans="1:9" ht="30">
       <c r="A690" s="29" t="s">
         <v>710</v>
       </c>
@@ -26049,7 +26050,7 @@
       </c>
       <c r="I692" s="31"/>
     </row>
-    <row r="693" spans="1:9" ht="45">
+    <row r="693" spans="1:9" ht="30">
       <c r="A693" s="29" t="s">
         <v>713</v>
       </c>
@@ -26074,7 +26075,7 @@
       </c>
       <c r="I693" s="31"/>
     </row>
-    <row r="694" spans="1:9" ht="45">
+    <row r="694" spans="1:9" ht="30">
       <c r="A694" s="29" t="s">
         <v>714</v>
       </c>
@@ -26174,7 +26175,7 @@
       </c>
       <c r="I697" s="31"/>
     </row>
-    <row r="698" spans="1:9" ht="30">
+    <row r="698" spans="1:9">
       <c r="A698" s="29" t="s">
         <v>718</v>
       </c>
@@ -26199,7 +26200,7 @@
       </c>
       <c r="I698" s="31"/>
     </row>
-    <row r="699" spans="1:9" ht="30">
+    <row r="699" spans="1:9">
       <c r="A699" s="29" t="s">
         <v>719</v>
       </c>
@@ -26224,7 +26225,7 @@
       </c>
       <c r="I699" s="31"/>
     </row>
-    <row r="700" spans="1:9" ht="30">
+    <row r="700" spans="1:9">
       <c r="A700" s="29" t="s">
         <v>720</v>
       </c>
@@ -26249,7 +26250,7 @@
       </c>
       <c r="I700" s="31"/>
     </row>
-    <row r="701" spans="1:9" ht="45">
+    <row r="701" spans="1:9" ht="30">
       <c r="A701" s="29" t="s">
         <v>721</v>
       </c>
@@ -26349,7 +26350,7 @@
       </c>
       <c r="I704" s="31"/>
     </row>
-    <row r="705" spans="1:9" ht="45">
+    <row r="705" spans="1:9" ht="30">
       <c r="A705" s="29" t="s">
         <v>725</v>
       </c>
@@ -26424,7 +26425,7 @@
       </c>
       <c r="I707" s="31"/>
     </row>
-    <row r="708" spans="1:9" ht="45">
+    <row r="708" spans="1:9" ht="30">
       <c r="A708" s="29" t="s">
         <v>728</v>
       </c>
@@ -26474,7 +26475,7 @@
       </c>
       <c r="I709" s="31"/>
     </row>
-    <row r="710" spans="1:9" ht="45">
+    <row r="710" spans="1:9" ht="30">
       <c r="A710" s="29" t="s">
         <v>730</v>
       </c>
@@ -26524,7 +26525,7 @@
       </c>
       <c r="I711" s="31"/>
     </row>
-    <row r="712" spans="1:9" ht="45">
+    <row r="712" spans="1:9" ht="30">
       <c r="A712" s="29" t="s">
         <v>732</v>
       </c>
@@ -26599,7 +26600,7 @@
       </c>
       <c r="I714" s="31"/>
     </row>
-    <row r="715" spans="1:9" ht="45">
+    <row r="715" spans="1:9" ht="30">
       <c r="A715" s="29" t="s">
         <v>735</v>
       </c>
@@ -26749,7 +26750,7 @@
       </c>
       <c r="I720" s="31"/>
     </row>
-    <row r="721" spans="1:9" ht="60">
+    <row r="721" spans="1:9" ht="45">
       <c r="A721" s="29" t="s">
         <v>741</v>
       </c>
@@ -26874,7 +26875,7 @@
       </c>
       <c r="I725" s="31"/>
     </row>
-    <row r="726" spans="1:9" ht="30">
+    <row r="726" spans="1:9">
       <c r="A726" s="29" t="s">
         <v>746</v>
       </c>
@@ -26899,7 +26900,7 @@
       </c>
       <c r="I726" s="31"/>
     </row>
-    <row r="727" spans="1:9" ht="30">
+    <row r="727" spans="1:9">
       <c r="A727" s="29" t="s">
         <v>747</v>
       </c>
@@ -26924,7 +26925,7 @@
       </c>
       <c r="I727" s="31"/>
     </row>
-    <row r="728" spans="1:9" ht="30">
+    <row r="728" spans="1:9">
       <c r="A728" s="29" t="s">
         <v>748</v>
       </c>
@@ -26949,7 +26950,7 @@
       </c>
       <c r="I728" s="31"/>
     </row>
-    <row r="729" spans="1:9" ht="45">
+    <row r="729" spans="1:9" ht="30">
       <c r="A729" s="29" t="s">
         <v>749</v>
       </c>
@@ -26974,7 +26975,7 @@
       </c>
       <c r="I729" s="31"/>
     </row>
-    <row r="730" spans="1:9" ht="30">
+    <row r="730" spans="1:9">
       <c r="A730" s="29" t="s">
         <v>750</v>
       </c>
@@ -26999,7 +27000,7 @@
       </c>
       <c r="I730" s="31"/>
     </row>
-    <row r="731" spans="1:9" ht="45">
+    <row r="731" spans="1:9" ht="30">
       <c r="A731" s="29" t="s">
         <v>751</v>
       </c>
@@ -27024,7 +27025,7 @@
       </c>
       <c r="I731" s="31"/>
     </row>
-    <row r="732" spans="1:9" ht="30">
+    <row r="732" spans="1:9">
       <c r="A732" s="29" t="s">
         <v>752</v>
       </c>
@@ -27074,7 +27075,7 @@
       </c>
       <c r="I733" s="31"/>
     </row>
-    <row r="734" spans="1:9" ht="30">
+    <row r="734" spans="1:9">
       <c r="A734" s="29" t="s">
         <v>754</v>
       </c>
@@ -27124,7 +27125,7 @@
       </c>
       <c r="I735" s="31"/>
     </row>
-    <row r="736" spans="1:9" ht="45">
+    <row r="736" spans="1:9" ht="30">
       <c r="A736" s="29" t="s">
         <v>756</v>
       </c>
@@ -27149,7 +27150,7 @@
       </c>
       <c r="I736" s="31"/>
     </row>
-    <row r="737" spans="1:9" ht="45">
+    <row r="737" spans="1:9" ht="30">
       <c r="A737" s="29" t="s">
         <v>757</v>
       </c>
@@ -27199,7 +27200,7 @@
       </c>
       <c r="I738" s="31"/>
     </row>
-    <row r="739" spans="1:9" ht="45">
+    <row r="739" spans="1:9" ht="30">
       <c r="A739" s="29" t="s">
         <v>759</v>
       </c>
@@ -27224,7 +27225,7 @@
       </c>
       <c r="I739" s="31"/>
     </row>
-    <row r="740" spans="1:9" ht="60">
+    <row r="740" spans="1:9" ht="45">
       <c r="A740" s="29" t="s">
         <v>760</v>
       </c>
@@ -27249,7 +27250,7 @@
       </c>
       <c r="I740" s="31"/>
     </row>
-    <row r="741" spans="1:9" ht="45">
+    <row r="741" spans="1:9" ht="30">
       <c r="A741" s="29" t="s">
         <v>761</v>
       </c>
@@ -27299,7 +27300,7 @@
       </c>
       <c r="I742" s="31"/>
     </row>
-    <row r="743" spans="1:9" ht="45">
+    <row r="743" spans="1:9" ht="30">
       <c r="A743" s="29" t="s">
         <v>763</v>
       </c>
@@ -27399,7 +27400,7 @@
       </c>
       <c r="I746" s="31"/>
     </row>
-    <row r="747" spans="1:9" ht="30">
+    <row r="747" spans="1:9">
       <c r="A747" s="29" t="s">
         <v>767</v>
       </c>
@@ -27576,7 +27577,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="754" spans="1:9" ht="45">
+    <row r="754" spans="1:9" ht="30">
       <c r="A754" s="29" t="s">
         <v>774</v>
       </c>
@@ -27655,7 +27656,7 @@
       </c>
       <c r="I756" s="31"/>
     </row>
-    <row r="757" spans="1:9" ht="45">
+    <row r="757" spans="1:9" ht="30">
       <c r="A757" s="29" t="s">
         <v>777</v>
       </c>
@@ -27680,7 +27681,7 @@
       </c>
       <c r="I757" s="31"/>
     </row>
-    <row r="758" spans="1:9" ht="45">
+    <row r="758" spans="1:9" ht="30">
       <c r="A758" s="22" t="s">
         <v>778</v>
       </c>
@@ -27705,7 +27706,7 @@
       </c>
       <c r="I758" s="31"/>
     </row>
-    <row r="759" spans="1:9" ht="45">
+    <row r="759" spans="1:9" ht="30">
       <c r="A759" s="29" t="s">
         <v>779</v>
       </c>
@@ -27805,7 +27806,7 @@
       </c>
       <c r="I762" s="31"/>
     </row>
-    <row r="763" spans="1:9" ht="30">
+    <row r="763" spans="1:9">
       <c r="A763" s="29" t="s">
         <v>783</v>
       </c>
@@ -27830,7 +27831,7 @@
       </c>
       <c r="I763" s="31"/>
     </row>
-    <row r="764" spans="1:9" ht="30">
+    <row r="764" spans="1:9">
       <c r="A764" s="29" t="s">
         <v>784</v>
       </c>
@@ -27855,7 +27856,7 @@
       </c>
       <c r="I764" s="31"/>
     </row>
-    <row r="765" spans="1:9" ht="30">
+    <row r="765" spans="1:9">
       <c r="A765" s="29" t="s">
         <v>785</v>
       </c>
@@ -27905,7 +27906,7 @@
       </c>
       <c r="I766" s="31"/>
     </row>
-    <row r="767" spans="1:9" ht="30">
+    <row r="767" spans="1:9">
       <c r="A767" s="29" t="s">
         <v>787</v>
       </c>
@@ -27955,7 +27956,7 @@
       </c>
       <c r="I768" s="31"/>
     </row>
-    <row r="769" spans="1:9" ht="45">
+    <row r="769" spans="1:9" ht="30">
       <c r="A769" s="29" t="s">
         <v>789</v>
       </c>
@@ -28005,7 +28006,7 @@
       </c>
       <c r="I770" s="31"/>
     </row>
-    <row r="771" spans="1:9" ht="45">
+    <row r="771" spans="1:9" ht="30">
       <c r="A771" s="29" t="s">
         <v>791</v>
       </c>
@@ -28155,7 +28156,7 @@
       </c>
       <c r="I776" s="31"/>
     </row>
-    <row r="777" spans="1:9" ht="75">
+    <row r="777" spans="1:9" ht="60">
       <c r="A777" s="29" t="s">
         <v>797</v>
       </c>
@@ -28205,7 +28206,7 @@
       </c>
       <c r="I778" s="31"/>
     </row>
-    <row r="779" spans="1:9" ht="60">
+    <row r="779" spans="1:9" ht="45">
       <c r="A779" s="29" t="s">
         <v>799</v>
       </c>
@@ -28380,7 +28381,7 @@
       </c>
       <c r="I785" s="31"/>
     </row>
-    <row r="786" spans="1:9" ht="45">
+    <row r="786" spans="1:9" ht="30">
       <c r="A786" s="29" t="s">
         <v>806</v>
       </c>
@@ -28455,7 +28456,7 @@
       </c>
       <c r="I788" s="31"/>
     </row>
-    <row r="789" spans="1:9" ht="30">
+    <row r="789" spans="1:9">
       <c r="A789" s="29" t="s">
         <v>809</v>
       </c>
@@ -28505,7 +28506,7 @@
       </c>
       <c r="I790" s="31"/>
     </row>
-    <row r="791" spans="1:9" ht="45">
+    <row r="791" spans="1:9" ht="30">
       <c r="A791" s="29" t="s">
         <v>811</v>
       </c>
@@ -28680,7 +28681,7 @@
       </c>
       <c r="I797" s="31"/>
     </row>
-    <row r="798" spans="1:9" ht="30">
+    <row r="798" spans="1:9">
       <c r="A798" s="29" t="s">
         <v>818</v>
       </c>
@@ -28755,7 +28756,7 @@
       </c>
       <c r="I800" s="31"/>
     </row>
-    <row r="801" spans="1:9" ht="60">
+    <row r="801" spans="1:9" ht="45">
       <c r="A801" s="29" t="s">
         <v>821</v>
       </c>
@@ -28780,7 +28781,7 @@
       </c>
       <c r="I801" s="31"/>
     </row>
-    <row r="802" spans="1:9" ht="30">
+    <row r="802" spans="1:9">
       <c r="A802" s="29" t="s">
         <v>822</v>
       </c>
@@ -28830,7 +28831,7 @@
       </c>
       <c r="I803" s="31"/>
     </row>
-    <row r="804" spans="1:9" ht="45">
+    <row r="804" spans="1:9" ht="30">
       <c r="A804" s="29" t="s">
         <v>824</v>
       </c>
@@ -28880,7 +28881,7 @@
       </c>
       <c r="I805" s="31"/>
     </row>
-    <row r="806" spans="1:9" ht="60">
+    <row r="806" spans="1:9" ht="45">
       <c r="A806" s="29" t="s">
         <v>826</v>
       </c>
@@ -28905,7 +28906,7 @@
       </c>
       <c r="I806" s="31"/>
     </row>
-    <row r="807" spans="1:9" ht="45">
+    <row r="807" spans="1:9" ht="30">
       <c r="A807" s="29" t="s">
         <v>827</v>
       </c>
@@ -28930,7 +28931,7 @@
       </c>
       <c r="I807" s="31"/>
     </row>
-    <row r="808" spans="1:9" ht="45">
+    <row r="808" spans="1:9" ht="30">
       <c r="A808" s="29" t="s">
         <v>828</v>
       </c>
@@ -29055,7 +29056,7 @@
       </c>
       <c r="I812" s="31"/>
     </row>
-    <row r="813" spans="1:9" ht="75">
+    <row r="813" spans="1:9" ht="60">
       <c r="A813" s="29" t="s">
         <v>833</v>
       </c>
@@ -29105,7 +29106,7 @@
       </c>
       <c r="I814" s="31"/>
     </row>
-    <row r="815" spans="1:9" ht="60">
+    <row r="815" spans="1:9" ht="45">
       <c r="A815" s="29" t="s">
         <v>835</v>
       </c>
@@ -29155,7 +29156,7 @@
       </c>
       <c r="I816" s="31"/>
     </row>
-    <row r="817" spans="1:9" ht="45">
+    <row r="817" spans="1:9" ht="30">
       <c r="A817" s="29" t="s">
         <v>837</v>
       </c>
@@ -29230,7 +29231,7 @@
       </c>
       <c r="I819" s="31"/>
     </row>
-    <row r="820" spans="1:9" ht="45">
+    <row r="820" spans="1:9" ht="30">
       <c r="A820" s="29" t="s">
         <v>840</v>
       </c>
@@ -29430,7 +29431,7 @@
       </c>
       <c r="I827" s="31"/>
     </row>
-    <row r="828" spans="1:9" ht="30">
+    <row r="828" spans="1:9">
       <c r="A828" s="29" t="s">
         <v>848</v>
       </c>
@@ -29455,7 +29456,7 @@
       </c>
       <c r="I828" s="31"/>
     </row>
-    <row r="829" spans="1:9" ht="45">
+    <row r="829" spans="1:9" ht="30">
       <c r="A829" s="29" t="s">
         <v>849</v>
       </c>
@@ -29530,7 +29531,7 @@
       </c>
       <c r="I831" s="31"/>
     </row>
-    <row r="832" spans="1:9" ht="30">
+    <row r="832" spans="1:9">
       <c r="A832" s="29" t="s">
         <v>852</v>
       </c>
@@ -29580,7 +29581,7 @@
       </c>
       <c r="I833" s="31"/>
     </row>
-    <row r="834" spans="1:9" ht="60">
+    <row r="834" spans="1:9" ht="45">
       <c r="A834" s="29" t="s">
         <v>854</v>
       </c>
@@ -29632,7 +29633,7 @@
       </c>
       <c r="I835" s="31"/>
     </row>
-    <row r="836" spans="1:9" ht="60">
+    <row r="836" spans="1:9" ht="45">
       <c r="A836" s="29" t="s">
         <v>856</v>
       </c>
@@ -29734,7 +29735,7 @@
       </c>
       <c r="I839" s="31"/>
     </row>
-    <row r="840" spans="1:9" ht="30">
+    <row r="840" spans="1:9">
       <c r="A840" s="29" t="s">
         <v>860</v>
       </c>
@@ -29809,7 +29810,7 @@
       </c>
       <c r="I842" s="31"/>
     </row>
-    <row r="843" spans="1:9" ht="60">
+    <row r="843" spans="1:9" ht="45">
       <c r="A843" s="29" t="s">
         <v>863</v>
       </c>
@@ -29834,7 +29835,7 @@
       </c>
       <c r="I843" s="31"/>
     </row>
-    <row r="844" spans="1:9" ht="30">
+    <row r="844" spans="1:9">
       <c r="A844" s="29" t="s">
         <v>864</v>
       </c>
@@ -29934,7 +29935,7 @@
       </c>
       <c r="I847" s="31"/>
     </row>
-    <row r="848" spans="1:9" ht="60">
+    <row r="848" spans="1:9" ht="45">
       <c r="A848" s="29" t="s">
         <v>868</v>
       </c>
@@ -29942,7 +29943,7 @@
         <v>1205</v>
       </c>
       <c r="C848" s="31" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D848" s="29"/>
       <c r="E848" s="29" t="s">
@@ -29961,7 +29962,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="849" spans="1:9" ht="30">
+    <row r="849" spans="1:9">
       <c r="A849" s="29" t="s">
         <v>869</v>
       </c>
@@ -30061,7 +30062,7 @@
       </c>
       <c r="I852" s="31"/>
     </row>
-    <row r="853" spans="1:9" ht="60">
+    <row r="853" spans="1:9" ht="45">
       <c r="A853" s="29" t="s">
         <v>873</v>
       </c>
@@ -30161,7 +30162,7 @@
       </c>
       <c r="I856" s="31"/>
     </row>
-    <row r="857" spans="1:9" ht="30">
+    <row r="857" spans="1:9">
       <c r="A857" s="29" t="s">
         <v>877</v>
       </c>
@@ -30211,7 +30212,7 @@
       </c>
       <c r="I858" s="31"/>
     </row>
-    <row r="859" spans="1:9" ht="30">
+    <row r="859" spans="1:9">
       <c r="A859" s="29" t="s">
         <v>879</v>
       </c>
@@ -30261,7 +30262,7 @@
       </c>
       <c r="I860" s="31"/>
     </row>
-    <row r="861" spans="1:9" ht="45">
+    <row r="861" spans="1:9" ht="30">
       <c r="A861" s="22" t="s">
         <v>881</v>
       </c>
@@ -30269,7 +30270,7 @@
         <v>1206</v>
       </c>
       <c r="C861" s="20" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D861" s="29"/>
       <c r="E861" s="29" t="s">
@@ -30286,7 +30287,7 @@
       </c>
       <c r="I861" s="31"/>
     </row>
-    <row r="862" spans="1:9" ht="60">
+    <row r="862" spans="1:9" ht="45">
       <c r="A862" s="29" t="s">
         <v>2291</v>
       </c>
@@ -30310,7 +30311,7 @@
         <v>17</v>
       </c>
       <c r="I862" s="20" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="863" spans="1:9" ht="45">
@@ -30588,7 +30589,7 @@
       </c>
       <c r="I873" s="31"/>
     </row>
-    <row r="874" spans="1:9" ht="60">
+    <row r="874" spans="1:9" ht="45">
       <c r="A874" s="29" t="s">
         <v>893</v>
       </c>
@@ -30688,7 +30689,7 @@
       </c>
       <c r="I877" s="31"/>
     </row>
-    <row r="878" spans="1:9" ht="30">
+    <row r="878" spans="1:9">
       <c r="A878" s="29" t="s">
         <v>897</v>
       </c>
@@ -30738,7 +30739,7 @@
       </c>
       <c r="I879" s="31"/>
     </row>
-    <row r="880" spans="1:9" ht="30">
+    <row r="880" spans="1:9">
       <c r="A880" s="22" t="s">
         <v>899</v>
       </c>
@@ -30763,7 +30764,7 @@
       </c>
       <c r="I880" s="31"/>
     </row>
-    <row r="881" spans="1:9" ht="45">
+    <row r="881" spans="1:9" ht="30">
       <c r="A881" s="29" t="s">
         <v>900</v>
       </c>
@@ -30771,7 +30772,7 @@
         <v>1206</v>
       </c>
       <c r="C881" s="31" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D881" s="29"/>
       <c r="E881" s="29" t="s">
@@ -30838,7 +30839,7 @@
       </c>
       <c r="I883" s="31"/>
     </row>
-    <row r="884" spans="1:9" ht="45">
+    <row r="884" spans="1:9" ht="30">
       <c r="A884" s="29" t="s">
         <v>903</v>
       </c>
@@ -30863,7 +30864,7 @@
       </c>
       <c r="I884" s="31"/>
     </row>
-    <row r="885" spans="1:9" ht="45">
+    <row r="885" spans="1:9" ht="30">
       <c r="A885" s="29" t="s">
         <v>904</v>
       </c>
@@ -30913,7 +30914,7 @@
       </c>
       <c r="I886" s="31"/>
     </row>
-    <row r="887" spans="1:9" ht="45">
+    <row r="887" spans="1:9" ht="30">
       <c r="A887" s="29" t="s">
         <v>906</v>
       </c>
@@ -30988,7 +30989,7 @@
       </c>
       <c r="I889" s="31"/>
     </row>
-    <row r="890" spans="1:9" ht="30">
+    <row r="890" spans="1:9">
       <c r="A890" s="29" t="s">
         <v>909</v>
       </c>
@@ -31063,7 +31064,7 @@
       </c>
       <c r="I892" s="31"/>
     </row>
-    <row r="893" spans="1:9" ht="30">
+    <row r="893" spans="1:9">
       <c r="A893" s="29" t="s">
         <v>912</v>
       </c>
@@ -31188,7 +31189,7 @@
       </c>
       <c r="I897" s="31"/>
     </row>
-    <row r="898" spans="1:9" ht="45">
+    <row r="898" spans="1:9" ht="30">
       <c r="A898" s="29" t="s">
         <v>917</v>
       </c>
@@ -31263,7 +31264,7 @@
       </c>
       <c r="I900" s="31"/>
     </row>
-    <row r="901" spans="1:9" ht="45">
+    <row r="901" spans="1:9" ht="30">
       <c r="A901" s="29" t="s">
         <v>920</v>
       </c>
@@ -31338,7 +31339,7 @@
       </c>
       <c r="I903" s="31"/>
     </row>
-    <row r="904" spans="1:9" ht="30">
+    <row r="904" spans="1:9">
       <c r="A904" s="29" t="s">
         <v>923</v>
       </c>
@@ -31388,7 +31389,7 @@
       </c>
       <c r="I905" s="31"/>
     </row>
-    <row r="906" spans="1:9" ht="30">
+    <row r="906" spans="1:9">
       <c r="A906" s="29" t="s">
         <v>925</v>
       </c>
@@ -31438,7 +31439,7 @@
       </c>
       <c r="I907" s="31"/>
     </row>
-    <row r="908" spans="1:9" ht="30">
+    <row r="908" spans="1:9">
       <c r="A908" s="29" t="s">
         <v>927</v>
       </c>
@@ -31488,7 +31489,7 @@
       </c>
       <c r="I909" s="31"/>
     </row>
-    <row r="910" spans="1:9" ht="45">
+    <row r="910" spans="1:9" ht="30">
       <c r="A910" s="29" t="s">
         <v>929</v>
       </c>
@@ -31588,7 +31589,7 @@
       </c>
       <c r="I913" s="31"/>
     </row>
-    <row r="914" spans="1:9" ht="45">
+    <row r="914" spans="1:9" ht="30">
       <c r="A914" s="29" t="s">
         <v>933</v>
       </c>
@@ -31638,7 +31639,7 @@
       </c>
       <c r="I915" s="31"/>
     </row>
-    <row r="916" spans="1:9" ht="60">
+    <row r="916" spans="1:9" ht="45">
       <c r="A916" s="29" t="s">
         <v>935</v>
       </c>
@@ -31688,7 +31689,7 @@
       </c>
       <c r="I917" s="31"/>
     </row>
-    <row r="918" spans="1:9" ht="75">
+    <row r="918" spans="1:9" ht="60">
       <c r="A918" s="29" t="s">
         <v>937</v>
       </c>
@@ -31713,7 +31714,7 @@
       </c>
       <c r="I918" s="31"/>
     </row>
-    <row r="919" spans="1:9" ht="45">
+    <row r="919" spans="1:9" ht="30">
       <c r="A919" s="29" t="s">
         <v>938</v>
       </c>
@@ -31738,7 +31739,7 @@
       </c>
       <c r="I919" s="31"/>
     </row>
-    <row r="920" spans="1:9" ht="60">
+    <row r="920" spans="1:9" ht="45">
       <c r="A920" s="29" t="s">
         <v>939</v>
       </c>
@@ -31838,7 +31839,7 @@
       </c>
       <c r="I923" s="31"/>
     </row>
-    <row r="924" spans="1:9" ht="60">
+    <row r="924" spans="1:9" ht="45">
       <c r="A924" s="29" t="s">
         <v>943</v>
       </c>
@@ -31888,7 +31889,7 @@
       </c>
       <c r="I925" s="31"/>
     </row>
-    <row r="926" spans="1:9" ht="45">
+    <row r="926" spans="1:9" ht="30">
       <c r="A926" s="29" t="s">
         <v>945</v>
       </c>
@@ -31963,7 +31964,7 @@
       </c>
       <c r="I928" s="31"/>
     </row>
-    <row r="929" spans="1:9" ht="60">
+    <row r="929" spans="1:9" ht="45">
       <c r="A929" s="29" t="s">
         <v>948</v>
       </c>
@@ -32090,7 +32091,7 @@
       </c>
       <c r="I933" s="31"/>
     </row>
-    <row r="934" spans="1:9" ht="75">
+    <row r="934" spans="1:9" ht="60">
       <c r="A934" s="29" t="s">
         <v>953</v>
       </c>
@@ -32167,7 +32168,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="937" spans="1:9" ht="45">
+    <row r="937" spans="1:9" ht="30">
       <c r="A937" s="29" t="s">
         <v>956</v>
       </c>
@@ -32194,7 +32195,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="938" spans="1:9" ht="45">
+    <row r="938" spans="1:9" ht="30">
       <c r="A938" s="29" t="s">
         <v>957</v>
       </c>
@@ -32246,7 +32247,7 @@
       </c>
       <c r="I939" s="31"/>
     </row>
-    <row r="940" spans="1:9" ht="60">
+    <row r="940" spans="1:9" ht="45">
       <c r="A940" s="29" t="s">
         <v>959</v>
       </c>
@@ -32271,7 +32272,7 @@
       </c>
       <c r="I940" s="31"/>
     </row>
-    <row r="941" spans="1:9" ht="45">
+    <row r="941" spans="1:9" ht="30">
       <c r="A941" s="29" t="s">
         <v>960</v>
       </c>
@@ -32396,7 +32397,7 @@
       </c>
       <c r="I945" s="31"/>
     </row>
-    <row r="946" spans="1:9" ht="45">
+    <row r="946" spans="1:9" ht="30">
       <c r="A946" s="29" t="s">
         <v>965</v>
       </c>
@@ -32421,7 +32422,7 @@
       </c>
       <c r="I946" s="31"/>
     </row>
-    <row r="947" spans="1:9" ht="45">
+    <row r="947" spans="1:9" ht="30">
       <c r="A947" s="29" t="s">
         <v>966</v>
       </c>
@@ -32496,7 +32497,7 @@
       </c>
       <c r="I949" s="31"/>
     </row>
-    <row r="950" spans="1:9" ht="45">
+    <row r="950" spans="1:9" ht="30">
       <c r="A950" s="29" t="s">
         <v>969</v>
       </c>
@@ -32571,7 +32572,7 @@
       </c>
       <c r="I952" s="31"/>
     </row>
-    <row r="953" spans="1:9" ht="30">
+    <row r="953" spans="1:9">
       <c r="A953" s="29" t="s">
         <v>972</v>
       </c>
@@ -32771,7 +32772,7 @@
       </c>
       <c r="I960" s="31"/>
     </row>
-    <row r="961" spans="1:9" ht="45">
+    <row r="961" spans="1:9" ht="30">
       <c r="A961" s="29" t="s">
         <v>980</v>
       </c>
@@ -32821,7 +32822,7 @@
       </c>
       <c r="I962" s="31"/>
     </row>
-    <row r="963" spans="1:9" ht="45">
+    <row r="963" spans="1:9" ht="30">
       <c r="A963" s="29" t="s">
         <v>982</v>
       </c>
@@ -32846,7 +32847,7 @@
       </c>
       <c r="I963" s="31"/>
     </row>
-    <row r="964" spans="1:9" ht="45">
+    <row r="964" spans="1:9" ht="30">
       <c r="A964" s="29" t="s">
         <v>983</v>
       </c>
@@ -32921,7 +32922,7 @@
       </c>
       <c r="I966" s="31"/>
     </row>
-    <row r="967" spans="1:9" ht="45">
+    <row r="967" spans="1:9" ht="30">
       <c r="A967" s="29" t="s">
         <v>986</v>
       </c>
@@ -32946,7 +32947,7 @@
       </c>
       <c r="I967" s="31"/>
     </row>
-    <row r="968" spans="1:9" ht="45">
+    <row r="968" spans="1:9" ht="30">
       <c r="A968" s="29" t="s">
         <v>987</v>
       </c>
@@ -33046,7 +33047,7 @@
       </c>
       <c r="I971" s="31"/>
     </row>
-    <row r="972" spans="1:9" ht="45">
+    <row r="972" spans="1:9" ht="30">
       <c r="A972" s="29" t="s">
         <v>991</v>
       </c>
@@ -33071,7 +33072,7 @@
       </c>
       <c r="I972" s="31"/>
     </row>
-    <row r="973" spans="1:9" ht="45">
+    <row r="973" spans="1:9" ht="30">
       <c r="A973" s="29" t="s">
         <v>992</v>
       </c>
@@ -33096,7 +33097,7 @@
       </c>
       <c r="I973" s="31"/>
     </row>
-    <row r="974" spans="1:9" ht="45">
+    <row r="974" spans="1:9" ht="30">
       <c r="A974" s="29" t="s">
         <v>993</v>
       </c>
@@ -33121,7 +33122,7 @@
       </c>
       <c r="I974" s="31"/>
     </row>
-    <row r="975" spans="1:9" ht="45">
+    <row r="975" spans="1:9" ht="30">
       <c r="A975" s="29" t="s">
         <v>994</v>
       </c>
@@ -33171,7 +33172,7 @@
       </c>
       <c r="I976" s="31"/>
     </row>
-    <row r="977" spans="1:9" ht="45">
+    <row r="977" spans="1:9" ht="30">
       <c r="A977" s="29" t="s">
         <v>996</v>
       </c>
@@ -33221,7 +33222,7 @@
       </c>
       <c r="I978" s="31"/>
     </row>
-    <row r="979" spans="1:9" ht="45">
+    <row r="979" spans="1:9" ht="30">
       <c r="A979" s="29" t="s">
         <v>998</v>
       </c>
@@ -33246,7 +33247,7 @@
       </c>
       <c r="I979" s="31"/>
     </row>
-    <row r="980" spans="1:9" ht="60">
+    <row r="980" spans="1:9" ht="45">
       <c r="A980" s="29" t="s">
         <v>999</v>
       </c>
@@ -33346,7 +33347,7 @@
       </c>
       <c r="I983" s="31"/>
     </row>
-    <row r="984" spans="1:9" ht="30">
+    <row r="984" spans="1:9">
       <c r="A984" s="29" t="s">
         <v>1003</v>
       </c>
@@ -33396,7 +33397,7 @@
       </c>
       <c r="I985" s="31"/>
     </row>
-    <row r="986" spans="1:9" ht="45">
+    <row r="986" spans="1:9" ht="30">
       <c r="A986" s="29" t="s">
         <v>1005</v>
       </c>
@@ -33421,7 +33422,7 @@
       </c>
       <c r="I986" s="31"/>
     </row>
-    <row r="987" spans="1:9" ht="45">
+    <row r="987" spans="1:9" ht="30">
       <c r="A987" s="29" t="s">
         <v>1006</v>
       </c>
@@ -33571,7 +33572,7 @@
       </c>
       <c r="I992" s="31"/>
     </row>
-    <row r="993" spans="1:9" ht="45">
+    <row r="993" spans="1:9" ht="30">
       <c r="A993" s="29" t="s">
         <v>1012</v>
       </c>
@@ -33696,7 +33697,7 @@
       </c>
       <c r="I997" s="31"/>
     </row>
-    <row r="998" spans="1:9" ht="30">
+    <row r="998" spans="1:9">
       <c r="A998" s="29" t="s">
         <v>1017</v>
       </c>
@@ -33748,7 +33749,7 @@
       </c>
       <c r="I999" s="31"/>
     </row>
-    <row r="1000" spans="1:9" ht="60">
+    <row r="1000" spans="1:9" ht="45">
       <c r="A1000" s="29" t="s">
         <v>1019</v>
       </c>
@@ -33775,7 +33776,7 @@
       </c>
       <c r="I1000" s="31"/>
     </row>
-    <row r="1001" spans="1:9" ht="60">
+    <row r="1001" spans="1:9" ht="45">
       <c r="A1001" s="29" t="s">
         <v>1020</v>
       </c>
@@ -33935,7 +33936,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1007" spans="1:9" ht="60">
+    <row r="1007" spans="1:9" ht="45">
       <c r="A1007" s="29" t="s">
         <v>1026</v>
       </c>
@@ -33962,7 +33963,7 @@
       </c>
       <c r="I1007" s="31"/>
     </row>
-    <row r="1008" spans="1:9" ht="75">
+    <row r="1008" spans="1:9" ht="60">
       <c r="A1008" s="29" t="s">
         <v>1027</v>
       </c>
@@ -34253,7 +34254,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1019" spans="1:9" ht="60">
+    <row r="1019" spans="1:9" ht="45">
       <c r="A1019" s="29" t="s">
         <v>1038</v>
       </c>
@@ -34311,7 +34312,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1021" spans="1:9" ht="90">
+    <row r="1021" spans="1:9" ht="75">
       <c r="A1021" s="22" t="s">
         <v>1040</v>
       </c>
@@ -34340,7 +34341,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1022" spans="1:9" ht="120">
+    <row r="1022" spans="1:9" ht="90">
       <c r="A1022" s="22" t="s">
         <v>1041</v>
       </c>
@@ -34348,7 +34349,7 @@
         <v>1217</v>
       </c>
       <c r="C1022" s="20" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D1022" s="29" t="s">
         <v>2176</v>
@@ -34427,7 +34428,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1025" spans="1:9" ht="60">
+    <row r="1025" spans="1:9" ht="45">
       <c r="A1025" s="29" t="s">
         <v>1044</v>
       </c>
@@ -34456,7 +34457,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1026" spans="1:9" ht="60">
+    <row r="1026" spans="1:9" ht="45">
       <c r="A1026" s="29" t="s">
         <v>1045</v>
       </c>
@@ -34485,7 +34486,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1027" spans="1:9" ht="75">
+    <row r="1027" spans="1:9" ht="60">
       <c r="A1027" s="29" t="s">
         <v>1046</v>
       </c>
@@ -34541,7 +34542,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1029" spans="1:9" ht="45">
+    <row r="1029" spans="1:9" ht="30">
       <c r="A1029" s="29" t="s">
         <v>1048</v>
       </c>
@@ -34624,7 +34625,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1032" spans="1:9" ht="90">
+    <row r="1032" spans="1:9" ht="75">
       <c r="A1032" s="29" t="s">
         <v>1049</v>
       </c>
@@ -34684,7 +34685,7 @@
     </row>
     <row r="1034" spans="1:9" ht="45">
       <c r="A1034" s="22" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B1034" s="30" t="s">
         <v>1217</v>
@@ -34713,7 +34714,7 @@
     </row>
     <row r="1035" spans="1:9" ht="45">
       <c r="A1035" s="22" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B1035" s="30" t="s">
         <v>1217</v>
@@ -34748,10 +34749,10 @@
         <v>1217</v>
       </c>
       <c r="C1036" s="31" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D1036" s="29" t="s">
         <v>2317</v>
-      </c>
-      <c r="D1036" s="29" t="s">
-        <v>2318</v>
       </c>
       <c r="E1036" s="29" t="s">
         <v>22</v>
@@ -34778,7 +34779,7 @@
         <v>2153</v>
       </c>
       <c r="D1037" s="29" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="E1037" s="29" t="s">
         <v>22</v>
@@ -34796,7 +34797,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="1038" spans="1:9" ht="105">
+    <row r="1038" spans="1:9" ht="90">
       <c r="A1038" s="29" t="s">
         <v>1053</v>
       </c>
@@ -34804,7 +34805,7 @@
         <v>1217</v>
       </c>
       <c r="C1038" s="31" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D1038" s="29" t="s">
         <v>2181</v>
@@ -34825,16 +34826,16 @@
     </row>
     <row r="1039" spans="1:9" ht="45">
       <c r="A1039" s="29" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B1039" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1039" s="31" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D1039" s="29" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="E1039" s="29" t="s">
         <v>22</v>
@@ -34854,16 +34855,16 @@
     </row>
     <row r="1040" spans="1:9" ht="45">
       <c r="A1040" s="29" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B1040" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1040" s="31" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D1040" s="29" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="E1040" s="29" t="s">
         <v>22</v>
@@ -34881,7 +34882,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1041" spans="1:9" ht="45">
+    <row r="1041" spans="1:9" ht="30">
       <c r="A1041" s="29" t="s">
         <v>1054</v>
       </c>
@@ -34889,7 +34890,7 @@
         <v>1217</v>
       </c>
       <c r="C1041" s="20" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D1041" s="29" t="s">
         <v>2182</v>
@@ -34916,7 +34917,7 @@
         <v>1217</v>
       </c>
       <c r="C1042" s="20" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D1042" s="29" t="s">
         <v>2182</v>
@@ -34945,7 +34946,7 @@
         <v>1217</v>
       </c>
       <c r="C1043" s="20" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D1043" s="22" t="s">
         <v>2182</v>
@@ -34966,15 +34967,15 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1044" spans="1:9" ht="45">
+    <row r="1044" spans="1:9" ht="30">
       <c r="A1044" s="22" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B1044" s="24" t="s">
         <v>1217</v>
       </c>
       <c r="C1044" s="20" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D1044" s="22" t="s">
         <v>2182</v>
@@ -35001,7 +35002,7 @@
         <v>1217</v>
       </c>
       <c r="C1045" s="20" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D1045" s="29" t="s">
         <v>2183</v>
@@ -35020,7 +35021,7 @@
       </c>
       <c r="I1045" s="31"/>
     </row>
-    <row r="1046" spans="1:9" ht="60">
+    <row r="1046" spans="1:9" ht="45">
       <c r="A1046" s="29" t="s">
         <v>1058</v>
       </c>
@@ -35028,7 +35029,7 @@
         <v>1217</v>
       </c>
       <c r="C1046" s="20" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D1046" s="29" t="s">
         <v>2183</v>
@@ -35049,16 +35050,16 @@
     </row>
     <row r="1047" spans="1:9" ht="60">
       <c r="A1047" s="22" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B1047" s="24" t="s">
         <v>1217</v>
       </c>
       <c r="C1047" s="20" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D1047" s="22" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E1047" s="29" t="s">
         <v>22</v>
@@ -35076,18 +35077,18 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1048" spans="1:9" ht="60">
+    <row r="1048" spans="1:9" ht="45">
       <c r="A1048" s="22" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B1048" s="24" t="s">
         <v>1217</v>
       </c>
       <c r="C1048" s="20" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D1048" s="22" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E1048" s="29" t="s">
         <v>22</v>
@@ -35105,7 +35106,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1049" spans="1:9" ht="75">
+    <row r="1049" spans="1:9" ht="60">
       <c r="A1049" s="29" t="s">
         <v>1059</v>
       </c>
@@ -35113,7 +35114,7 @@
         <v>1217</v>
       </c>
       <c r="C1049" s="20" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D1049" s="29" t="s">
         <v>2184</v>
@@ -35140,7 +35141,7 @@
         <v>1217</v>
       </c>
       <c r="C1050" s="20" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="D1050" s="29"/>
       <c r="E1050" s="29" t="s">
@@ -35167,7 +35168,7 @@
         <v>1217</v>
       </c>
       <c r="C1051" s="20" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D1051" s="29"/>
       <c r="E1051" s="29" t="s">
@@ -35192,7 +35193,7 @@
         <v>1217</v>
       </c>
       <c r="C1052" s="20" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D1052" s="29" t="s">
         <v>2185</v>
@@ -35211,7 +35212,7 @@
       </c>
       <c r="I1052" s="31"/>
     </row>
-    <row r="1053" spans="1:9" ht="60">
+    <row r="1053" spans="1:9" ht="45">
       <c r="A1053" s="29" t="s">
         <v>1063</v>
       </c>
@@ -35219,7 +35220,7 @@
         <v>1217</v>
       </c>
       <c r="C1053" s="20" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D1053" s="29" t="s">
         <v>2185</v>
@@ -35238,7 +35239,7 @@
       </c>
       <c r="I1053" s="31"/>
     </row>
-    <row r="1054" spans="1:9" ht="75">
+    <row r="1054" spans="1:9" ht="60">
       <c r="A1054" s="29" t="s">
         <v>1064</v>
       </c>
@@ -35246,7 +35247,7 @@
         <v>1217</v>
       </c>
       <c r="C1054" s="20" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D1054" s="29" t="s">
         <v>2186</v>
@@ -35265,7 +35266,7 @@
       </c>
       <c r="I1054" s="31"/>
     </row>
-    <row r="1055" spans="1:9" ht="90">
+    <row r="1055" spans="1:9" ht="75">
       <c r="A1055" s="29" t="s">
         <v>1065</v>
       </c>
@@ -35273,7 +35274,7 @@
         <v>1217</v>
       </c>
       <c r="C1055" s="20" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D1055" s="29" t="s">
         <v>2186</v>
@@ -35292,18 +35293,18 @@
       </c>
       <c r="I1055" s="31"/>
     </row>
-    <row r="1056" spans="1:9" ht="90">
+    <row r="1056" spans="1:9" ht="75">
       <c r="A1056" s="22" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B1056" s="24" t="s">
         <v>1217</v>
       </c>
       <c r="C1056" s="20" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D1056" s="22" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E1056" s="29" t="s">
         <v>22</v>
@@ -35321,7 +35322,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1057" spans="1:9" ht="90">
+    <row r="1057" spans="1:9" ht="75">
       <c r="A1057" s="29" t="s">
         <v>1066</v>
       </c>
@@ -35329,10 +35330,10 @@
         <v>1217</v>
       </c>
       <c r="C1057" s="20" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D1057" s="29" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E1057" s="29" t="s">
         <v>22</v>
@@ -35358,7 +35359,7 @@
         <v>1217</v>
       </c>
       <c r="C1058" s="31" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D1058" s="29" t="s">
         <v>2187</v>
@@ -35387,7 +35388,7 @@
         <v>1217</v>
       </c>
       <c r="C1059" s="20" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D1059" s="29" t="s">
         <v>2187</v>
@@ -35416,7 +35417,7 @@
         <v>1217</v>
       </c>
       <c r="C1060" s="31" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D1060" s="29" t="s">
         <v>2187</v>
@@ -35437,7 +35438,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1061" spans="1:9" ht="45">
+    <row r="1061" spans="1:9" ht="30">
       <c r="A1061" s="29" t="s">
         <v>1070</v>
       </c>
@@ -35445,7 +35446,7 @@
         <v>1217</v>
       </c>
       <c r="C1061" s="31" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D1061" s="29"/>
       <c r="E1061" s="29" t="s">
@@ -35470,7 +35471,7 @@
         <v>1217</v>
       </c>
       <c r="C1062" s="31" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D1062" s="29" t="s">
         <v>2188</v>
@@ -35497,10 +35498,10 @@
         <v>1217</v>
       </c>
       <c r="C1063" s="31" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D1063" s="29" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E1063" s="29" t="s">
         <v>22</v>
@@ -35526,10 +35527,10 @@
         <v>1217</v>
       </c>
       <c r="C1064" s="31" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D1064" s="29" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E1064" s="29" t="s">
         <v>22</v>
@@ -35549,16 +35550,16 @@
     </row>
     <row r="1065" spans="1:9" ht="45">
       <c r="A1065" s="29" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B1065" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1065" s="31" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D1065" s="29" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E1065" s="29" t="s">
         <v>22</v>
@@ -35584,7 +35585,7 @@
         <v>1217</v>
       </c>
       <c r="C1066" s="31" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D1066" s="29" t="s">
         <v>2189</v>
@@ -35603,7 +35604,7 @@
       </c>
       <c r="I1066" s="31"/>
     </row>
-    <row r="1067" spans="1:9" ht="45">
+    <row r="1067" spans="1:9" ht="30">
       <c r="A1067" s="29" t="s">
         <v>1075</v>
       </c>
@@ -35611,7 +35612,7 @@
         <v>1217</v>
       </c>
       <c r="C1067" s="31" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D1067" s="29" t="s">
         <v>2189</v>
@@ -35630,7 +35631,7 @@
       </c>
       <c r="I1067" s="31"/>
     </row>
-    <row r="1068" spans="1:9" ht="60">
+    <row r="1068" spans="1:9" ht="45">
       <c r="A1068" s="29" t="s">
         <v>1076</v>
       </c>
@@ -35638,7 +35639,7 @@
         <v>1217</v>
       </c>
       <c r="C1068" s="31" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D1068" s="29" t="s">
         <v>2190</v>
@@ -35665,7 +35666,7 @@
         <v>1217</v>
       </c>
       <c r="C1069" s="31" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D1069" s="29" t="s">
         <v>2190</v>
@@ -35684,7 +35685,7 @@
       </c>
       <c r="I1069" s="31"/>
     </row>
-    <row r="1070" spans="1:9" ht="45">
+    <row r="1070" spans="1:9" ht="30">
       <c r="A1070" s="29" t="s">
         <v>1078</v>
       </c>
@@ -35692,7 +35693,7 @@
         <v>1217</v>
       </c>
       <c r="C1070" s="31" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D1070" s="29"/>
       <c r="E1070" s="29" t="s">
@@ -35717,7 +35718,7 @@
         <v>1217</v>
       </c>
       <c r="C1071" s="31" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D1071" s="29" t="s">
         <v>2191</v>
@@ -35744,7 +35745,7 @@
         <v>1217</v>
       </c>
       <c r="C1072" s="20" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D1072" s="29" t="s">
         <v>2192</v>
@@ -35773,7 +35774,7 @@
         <v>1217</v>
       </c>
       <c r="C1073" s="31" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D1073" s="29" t="s">
         <v>2192</v>
@@ -35800,7 +35801,7 @@
         <v>1217</v>
       </c>
       <c r="C1074" s="31" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1074" s="29" t="s">
         <v>2193</v>
@@ -35827,7 +35828,7 @@
         <v>1217</v>
       </c>
       <c r="C1075" s="31" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1075" s="29" t="s">
         <v>2193</v>
@@ -35854,7 +35855,7 @@
         <v>1217</v>
       </c>
       <c r="C1076" s="31" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D1076" s="29" t="s">
         <v>2194</v>
@@ -35873,7 +35874,7 @@
       </c>
       <c r="I1076" s="31"/>
     </row>
-    <row r="1077" spans="1:9" ht="45">
+    <row r="1077" spans="1:9" ht="30">
       <c r="A1077" s="29" t="s">
         <v>1085</v>
       </c>
@@ -35881,7 +35882,7 @@
         <v>1217</v>
       </c>
       <c r="C1077" s="31" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D1077" s="29" t="s">
         <v>2194</v>
@@ -35908,7 +35909,7 @@
         <v>1217</v>
       </c>
       <c r="C1078" s="31" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D1078" s="29" t="s">
         <v>2195</v>
@@ -35935,7 +35936,7 @@
         <v>1217</v>
       </c>
       <c r="C1079" s="31" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D1079" s="29" t="s">
         <v>2195</v>
@@ -35962,7 +35963,7 @@
         <v>1217</v>
       </c>
       <c r="C1080" s="31" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D1080" s="29" t="s">
         <v>2196</v>
@@ -35981,7 +35982,7 @@
       </c>
       <c r="I1080" s="31"/>
     </row>
-    <row r="1081" spans="1:9" ht="45">
+    <row r="1081" spans="1:9" ht="30">
       <c r="A1081" s="29" t="s">
         <v>1089</v>
       </c>
@@ -35989,7 +35990,7 @@
         <v>1217</v>
       </c>
       <c r="C1081" s="31" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D1081" s="29" t="s">
         <v>2196</v>
@@ -36016,7 +36017,7 @@
         <v>1217</v>
       </c>
       <c r="C1082" s="31" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1082" s="29" t="s">
         <v>2197</v>
@@ -36037,7 +36038,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1083" spans="1:9" ht="60">
+    <row r="1083" spans="1:9" ht="45">
       <c r="A1083" s="29" t="s">
         <v>1091</v>
       </c>
@@ -36045,7 +36046,7 @@
         <v>1217</v>
       </c>
       <c r="C1083" s="31" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D1083" s="29" t="s">
         <v>2197</v>
@@ -36068,16 +36069,16 @@
     </row>
     <row r="1084" spans="1:9" ht="45">
       <c r="A1084" s="22" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B1084" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1084" s="20" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D1084" s="29" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="E1084" s="29" t="s">
         <v>22</v>
@@ -36095,18 +36096,18 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1085" spans="1:9" ht="60">
+    <row r="1085" spans="1:9" ht="45">
       <c r="A1085" s="22" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B1085" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1085" s="20" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D1085" s="29" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="E1085" s="29" t="s">
         <v>22</v>
@@ -36126,16 +36127,16 @@
     </row>
     <row r="1086" spans="1:9" ht="45">
       <c r="A1086" s="29" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B1086" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1086" s="31" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D1086" s="29" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="E1086" s="29" t="s">
         <v>22</v>
@@ -36150,21 +36151,21 @@
         <v>17</v>
       </c>
       <c r="I1086" s="20" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1087" spans="1:9" ht="45">
       <c r="A1087" s="29" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B1087" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1087" s="31" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D1087" s="29" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="E1087" s="29" t="s">
         <v>22</v>
@@ -36179,7 +36180,7 @@
         <v>17</v>
       </c>
       <c r="I1087" s="20" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="1088" spans="1:9" ht="60">
@@ -36190,7 +36191,7 @@
         <v>1217</v>
       </c>
       <c r="C1088" s="31" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D1088" s="29" t="s">
         <v>2198</v>
@@ -36248,7 +36249,7 @@
         <v>1217</v>
       </c>
       <c r="C1090" s="31" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D1090" s="29" t="s">
         <v>2199</v>
@@ -36298,7 +36299,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1092" spans="1:9" ht="75">
+    <row r="1092" spans="1:9" ht="60">
       <c r="A1092" s="29" t="s">
         <v>1096</v>
       </c>
@@ -36306,7 +36307,7 @@
         <v>1217</v>
       </c>
       <c r="C1092" s="31" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D1092" s="29" t="s">
         <v>2201</v>
@@ -36327,18 +36328,18 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1093" spans="1:9" ht="45">
+    <row r="1093" spans="1:9" ht="30">
       <c r="A1093" s="22" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B1093" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1093" s="31" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D1093" s="29" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E1093" s="29" t="s">
         <v>22</v>
@@ -36354,18 +36355,18 @@
       </c>
       <c r="I1093" s="31"/>
     </row>
-    <row r="1094" spans="1:9" ht="45">
+    <row r="1094" spans="1:9" ht="30">
       <c r="A1094" s="22" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B1094" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1094" s="31" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D1094" s="29" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E1094" s="29" t="s">
         <v>22</v>
@@ -36381,18 +36382,18 @@
       </c>
       <c r="I1094" s="31"/>
     </row>
-    <row r="1095" spans="1:9" ht="45">
+    <row r="1095" spans="1:9" ht="30">
       <c r="A1095" s="22" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B1095" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1095" s="31" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D1095" s="29" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E1095" s="29" t="s">
         <v>22</v>
@@ -36410,16 +36411,16 @@
     </row>
     <row r="1096" spans="1:9" ht="45">
       <c r="A1096" s="22" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B1096" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1096" s="31" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D1096" s="29" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="E1096" s="29" t="s">
         <v>22</v>
@@ -36437,16 +36438,16 @@
     </row>
     <row r="1097" spans="1:9" ht="45">
       <c r="A1097" s="22" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B1097" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1097" s="31" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D1097" s="29" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="E1097" s="29" t="s">
         <v>22</v>
@@ -36491,7 +36492,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1099" spans="1:9" ht="60">
+    <row r="1099" spans="1:9" ht="45">
       <c r="A1099" s="29" t="s">
         <v>1098</v>
       </c>
@@ -36674,7 +36675,7 @@
       </c>
       <c r="I1105" s="31"/>
     </row>
-    <row r="1106" spans="1:9" ht="75">
+    <row r="1106" spans="1:9" ht="60">
       <c r="A1106" s="29" t="s">
         <v>1104</v>
       </c>
@@ -36699,7 +36700,7 @@
       </c>
       <c r="I1106" s="31"/>
     </row>
-    <row r="1107" spans="1:9" ht="45">
+    <row r="1107" spans="1:9" ht="30">
       <c r="A1107" s="29" t="s">
         <v>1105</v>
       </c>
@@ -36734,6 +36735,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36741,11 +36747,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1102:I1107 A20:H1040 I20:I1043 A34:I1100">
@@ -36864,6 +36865,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -36912,32 +36928,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36957,9 +36951,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -7773,6 +7773,21 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7796,21 +7811,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8777,7 +8777,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
@@ -8827,127 +8827,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8960,12 +8960,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8978,12 +8978,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8996,12 +8996,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9014,60 +9014,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -34847,7 +34847,7 @@
         <v>15</v>
       </c>
       <c r="H1039" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1039" s="31" t="s">
         <v>2230</v>
@@ -34876,7 +34876,7 @@
         <v>15</v>
       </c>
       <c r="H1040" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1040" s="31" t="s">
         <v>2230</v>
@@ -35315,8 +35315,8 @@
       <c r="G1056" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H1056" s="22" t="s">
-        <v>20</v>
+      <c r="H1056" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="I1056" s="31" t="s">
         <v>2230</v>
@@ -36735,11 +36735,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36747,6 +36742,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1102:I1107 A20:H1040 I20:I1043 A34:I1100">
@@ -36865,18 +36865,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36929,14 +36929,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -36946,6 +36938,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7876" uniqueCount="2418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7873" uniqueCount="2418">
   <si>
     <t>Req ID</t>
   </si>
@@ -7773,21 +7773,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7811,6 +7796,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8827,127 +8827,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8960,12 +8960,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8978,12 +8978,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8996,12 +8996,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9014,60 +9014,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -34849,9 +34849,7 @@
       <c r="H1039" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I1039" s="31" t="s">
-        <v>2230</v>
-      </c>
+      <c r="I1039" s="31"/>
     </row>
     <row r="1040" spans="1:9" ht="45">
       <c r="A1040" s="29" t="s">
@@ -34878,9 +34876,7 @@
       <c r="H1040" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I1040" s="31" t="s">
-        <v>2230</v>
-      </c>
+      <c r="I1040" s="31"/>
     </row>
     <row r="1041" spans="1:9" ht="30">
       <c r="A1041" s="29" t="s">
@@ -35318,9 +35314,7 @@
       <c r="H1056" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I1056" s="31" t="s">
-        <v>2230</v>
-      </c>
+      <c r="I1056" s="31"/>
     </row>
     <row r="1057" spans="1:9" ht="75">
       <c r="A1057" s="29" t="s">
@@ -36735,6 +36729,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36742,11 +36741,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1102:I1107 A20:H1040 I20:I1043 A34:I1100">
@@ -36865,18 +36859,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36929,6 +36923,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -36938,14 +36940,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7873" uniqueCount="2418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7873" uniqueCount="2415">
   <si>
     <t>Req ID</t>
   </si>
@@ -7280,12 +7280,6 @@
     <t>MS-OXCSTOR_R1046001</t>
   </si>
   <si>
-    <t>MS-OXCSTOR_R1046:I</t>
-  </si>
-  <si>
-    <t>MS-OXCSTOR_R1046:i</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] If the logon is the first on the RPC session, or if the logon is additional on the RPC session and it is to the same mailbox that is associated with the first logon, then the implementation does fail with an RPC fault. &lt;27&gt; Section 3.2.5.1.1:  In Exchange 2013, if the logon is the first on the RPC session, or if the logon is additional on the RPC session and it is to the same mailbox that is associated with the first logon, then the server fails with an RPC fault.</t>
   </si>
   <si>
@@ -7413,9 +7407,6 @@
   </si>
   <si>
     <t>MS-OXCSTOR_R603:i</t>
-  </si>
-  <si>
-    <t>MS-OXCSTOR_R603"i</t>
   </si>
   <si>
     <t>MS-OXCSTOR_R94801001</t>
@@ -7505,14 +7496,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7709,13 +7700,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7748,7 +7739,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8777,15 +8768,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
@@ -9101,7 +9092,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="20" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
@@ -9126,7 +9117,7 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A21" s="22" t="s">
         <v>44</v>
       </c>
@@ -9201,7 +9192,7 @@
       </c>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A24" s="22" t="s">
         <v>47</v>
       </c>
@@ -9251,7 +9242,7 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1">
+    <row r="26" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -9426,7 +9417,7 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A33" s="22" t="s">
         <v>56</v>
       </c>
@@ -9726,7 +9717,7 @@
       </c>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="1:9" ht="30">
+    <row r="45" spans="1:9" ht="45">
       <c r="A45" s="29" t="s">
         <v>66</v>
       </c>
@@ -9751,7 +9742,7 @@
       </c>
       <c r="I45" s="31"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" ht="30">
       <c r="A46" s="29" t="s">
         <v>67</v>
       </c>
@@ -9776,7 +9767,7 @@
       </c>
       <c r="I46" s="31"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" ht="30">
       <c r="A47" s="29" t="s">
         <v>68</v>
       </c>
@@ -9926,7 +9917,7 @@
       </c>
       <c r="I52" s="31"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" ht="45">
       <c r="A53" s="29" t="s">
         <v>74</v>
       </c>
@@ -9953,7 +9944,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="29" t="s">
         <v>75</v>
       </c>
@@ -10003,7 +9994,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" s="29" t="s">
         <v>77</v>
       </c>
@@ -10053,7 +10044,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" s="29" t="s">
         <v>79</v>
       </c>
@@ -10103,7 +10094,7 @@
       </c>
       <c r="I59" s="31"/>
     </row>
-    <row r="60" spans="1:9" ht="30">
+    <row r="60" spans="1:9" ht="45">
       <c r="A60" s="29" t="s">
         <v>81</v>
       </c>
@@ -10128,7 +10119,7 @@
       </c>
       <c r="I60" s="31"/>
     </row>
-    <row r="61" spans="1:9" ht="45">
+    <row r="61" spans="1:9" ht="60">
       <c r="A61" s="29" t="s">
         <v>82</v>
       </c>
@@ -10303,7 +10294,7 @@
       </c>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="45">
       <c r="A68" s="29" t="s">
         <v>89</v>
       </c>
@@ -10330,7 +10321,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="30">
+    <row r="69" spans="1:9" ht="45">
       <c r="A69" s="29" t="s">
         <v>90</v>
       </c>
@@ -10357,7 +10348,7 @@
       </c>
       <c r="I69" s="31"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" ht="30">
       <c r="A70" s="29" t="s">
         <v>91</v>
       </c>
@@ -10409,7 +10400,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="29" t="s">
         <v>93</v>
       </c>
@@ -10459,7 +10450,7 @@
       </c>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="1:9" ht="45">
+    <row r="74" spans="1:9" ht="60">
       <c r="A74" s="29" t="s">
         <v>95</v>
       </c>
@@ -10536,7 +10527,7 @@
       </c>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="29" t="s">
         <v>98</v>
       </c>
@@ -10561,7 +10552,7 @@
       </c>
       <c r="I77" s="31"/>
     </row>
-    <row r="78" spans="1:9" ht="45">
+    <row r="78" spans="1:9" ht="60">
       <c r="A78" s="29" t="s">
         <v>99</v>
       </c>
@@ -10611,7 +10602,7 @@
       </c>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="1:9" ht="45">
+    <row r="80" spans="1:9" ht="60">
       <c r="A80" s="29" t="s">
         <v>101</v>
       </c>
@@ -10761,7 +10752,7 @@
       </c>
       <c r="I85" s="31"/>
     </row>
-    <row r="86" spans="1:9" ht="30">
+    <row r="86" spans="1:9" ht="45">
       <c r="A86" s="29" t="s">
         <v>107</v>
       </c>
@@ -10786,7 +10777,7 @@
       </c>
       <c r="I86" s="31"/>
     </row>
-    <row r="87" spans="1:9" ht="45">
+    <row r="87" spans="1:9" ht="60">
       <c r="A87" s="29" t="s">
         <v>108</v>
       </c>
@@ -10911,7 +10902,7 @@
       </c>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="1:9" ht="75">
+    <row r="92" spans="1:9" ht="90">
       <c r="A92" s="29" t="s">
         <v>113</v>
       </c>
@@ -10936,7 +10927,7 @@
       </c>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="1:9" ht="60">
+    <row r="93" spans="1:9" ht="75">
       <c r="A93" s="29" t="s">
         <v>114</v>
       </c>
@@ -11163,7 +11154,7 @@
       </c>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" ht="30">
       <c r="A102" s="29" t="s">
         <v>123</v>
       </c>
@@ -11238,7 +11229,7 @@
       </c>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="1:9" ht="30">
+    <row r="105" spans="1:9" ht="45">
       <c r="A105" s="29" t="s">
         <v>126</v>
       </c>
@@ -11263,7 +11254,7 @@
       </c>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="1:9" ht="30">
+    <row r="106" spans="1:9" ht="45">
       <c r="A106" s="29" t="s">
         <v>127</v>
       </c>
@@ -11313,7 +11304,7 @@
       </c>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="1:9" ht="30">
+    <row r="108" spans="1:9" ht="45">
       <c r="A108" s="29" t="s">
         <v>129</v>
       </c>
@@ -11363,7 +11354,7 @@
       </c>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="45">
       <c r="A110" s="29" t="s">
         <v>131</v>
       </c>
@@ -11413,7 +11404,7 @@
       </c>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:9" ht="30">
+    <row r="112" spans="1:9" ht="45">
       <c r="A112" s="29" t="s">
         <v>133</v>
       </c>
@@ -11513,7 +11504,7 @@
       </c>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" ht="30">
       <c r="A116" s="29" t="s">
         <v>137</v>
       </c>
@@ -11538,7 +11529,7 @@
       </c>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="1:9" ht="45">
+    <row r="117" spans="1:9" ht="60">
       <c r="A117" s="29" t="s">
         <v>138</v>
       </c>
@@ -11565,7 +11556,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" ht="30">
       <c r="A118" s="29" t="s">
         <v>139</v>
       </c>
@@ -11615,7 +11606,7 @@
       </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:9" ht="30">
+    <row r="120" spans="1:9" ht="45">
       <c r="A120" s="29" t="s">
         <v>141</v>
       </c>
@@ -11742,7 +11733,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="75">
+    <row r="125" spans="1:9" ht="90">
       <c r="A125" s="29" t="s">
         <v>146</v>
       </c>
@@ -11766,7 +11757,7 @@
         <v>17</v>
       </c>
       <c r="I125" s="20" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="30">
@@ -11794,7 +11785,7 @@
       </c>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="1:9" ht="30">
+    <row r="127" spans="1:9" ht="45">
       <c r="A127" s="29" t="s">
         <v>148</v>
       </c>
@@ -11944,7 +11935,7 @@
       </c>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="1:9" ht="45">
+    <row r="133" spans="1:9" ht="60">
       <c r="A133" s="29" t="s">
         <v>154</v>
       </c>
@@ -12096,7 +12087,7 @@
       </c>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="1:9" ht="30">
+    <row r="139" spans="1:9" ht="45">
       <c r="A139" s="29" t="s">
         <v>160</v>
       </c>
@@ -12296,7 +12287,7 @@
       </c>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="1:9" ht="30">
+    <row r="147" spans="1:9" ht="45">
       <c r="A147" s="29" t="s">
         <v>168</v>
       </c>
@@ -12321,7 +12312,7 @@
       </c>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9" ht="45">
       <c r="A148" s="29" t="s">
         <v>169</v>
       </c>
@@ -12346,7 +12337,7 @@
       </c>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="1:9" ht="30">
+    <row r="149" spans="1:9" ht="45">
       <c r="A149" s="29" t="s">
         <v>170</v>
       </c>
@@ -12371,7 +12362,7 @@
       </c>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="1:9" ht="30">
+    <row r="150" spans="1:9" ht="45">
       <c r="A150" s="29" t="s">
         <v>171</v>
       </c>
@@ -12396,7 +12387,7 @@
       </c>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="1:9" ht="30">
+    <row r="151" spans="1:9" ht="45">
       <c r="A151" s="29" t="s">
         <v>172</v>
       </c>
@@ -12521,7 +12512,7 @@
       </c>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="1:9" ht="30">
+    <row r="156" spans="1:9" ht="45">
       <c r="A156" s="29" t="s">
         <v>177</v>
       </c>
@@ -12596,7 +12587,7 @@
       </c>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="1:9" ht="30">
+    <row r="159" spans="1:9" ht="45">
       <c r="A159" s="29" t="s">
         <v>180</v>
       </c>
@@ -12621,7 +12612,7 @@
       </c>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="1:9" ht="30">
+    <row r="160" spans="1:9" ht="45">
       <c r="A160" s="29" t="s">
         <v>181</v>
       </c>
@@ -12646,7 +12637,7 @@
       </c>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="1:9" ht="30">
+    <row r="161" spans="1:9" ht="45">
       <c r="A161" s="29" t="s">
         <v>182</v>
       </c>
@@ -12671,7 +12662,7 @@
       </c>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="1:9" ht="30">
+    <row r="162" spans="1:9" ht="45">
       <c r="A162" s="29" t="s">
         <v>183</v>
       </c>
@@ -12746,7 +12737,7 @@
       </c>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="1:9" ht="30">
+    <row r="165" spans="1:9" ht="45">
       <c r="A165" s="29" t="s">
         <v>186</v>
       </c>
@@ -12896,7 +12887,7 @@
       </c>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:9" ht="45">
       <c r="A171" s="29" t="s">
         <v>192</v>
       </c>
@@ -12921,7 +12912,7 @@
       </c>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="1:9" ht="30">
+    <row r="172" spans="1:9" ht="45">
       <c r="A172" s="29" t="s">
         <v>193</v>
       </c>
@@ -13046,7 +13037,7 @@
       </c>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="1:9" ht="30">
+    <row r="177" spans="1:9" ht="45">
       <c r="A177" s="29" t="s">
         <v>198</v>
       </c>
@@ -13071,7 +13062,7 @@
       </c>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="1:9" ht="30">
+    <row r="178" spans="1:9" ht="45">
       <c r="A178" s="29" t="s">
         <v>199</v>
       </c>
@@ -13121,7 +13112,7 @@
       </c>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9" ht="45">
       <c r="A180" s="29" t="s">
         <v>201</v>
       </c>
@@ -13271,7 +13262,7 @@
       </c>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="1:9" ht="30">
+    <row r="186" spans="1:9" ht="45">
       <c r="A186" s="29" t="s">
         <v>207</v>
       </c>
@@ -13371,7 +13362,7 @@
       </c>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="1:9" ht="30">
+    <row r="190" spans="1:9" ht="45">
       <c r="A190" s="29" t="s">
         <v>211</v>
       </c>
@@ -13396,7 +13387,7 @@
       </c>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" ht="30">
       <c r="A191" s="29" t="s">
         <v>212</v>
       </c>
@@ -13646,7 +13637,7 @@
       </c>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="1:9" ht="30">
+    <row r="201" spans="1:9" ht="45">
       <c r="A201" s="29" t="s">
         <v>222</v>
       </c>
@@ -13721,7 +13712,7 @@
       </c>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="1:9" ht="30">
+    <row r="204" spans="1:9" ht="45">
       <c r="A204" s="29" t="s">
         <v>225</v>
       </c>
@@ -13746,7 +13737,7 @@
       </c>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="1:9" ht="45">
+    <row r="205" spans="1:9" ht="60">
       <c r="A205" s="29" t="s">
         <v>226</v>
       </c>
@@ -13821,7 +13812,7 @@
       </c>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="1:9" ht="30">
+    <row r="208" spans="1:9" ht="45">
       <c r="A208" s="29" t="s">
         <v>229</v>
       </c>
@@ -13871,7 +13862,7 @@
       </c>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="1:9" ht="60">
+    <row r="210" spans="1:9" ht="75">
       <c r="A210" s="29" t="s">
         <v>231</v>
       </c>
@@ -13896,7 +13887,7 @@
       </c>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="1:9" ht="30">
+    <row r="211" spans="1:9" ht="45">
       <c r="A211" s="29" t="s">
         <v>232</v>
       </c>
@@ -13921,7 +13912,7 @@
       </c>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="1:9" ht="30">
+    <row r="212" spans="1:9" ht="45">
       <c r="A212" s="29" t="s">
         <v>233</v>
       </c>
@@ -13946,7 +13937,7 @@
       </c>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="1:9" ht="45">
+    <row r="213" spans="1:9" ht="60">
       <c r="A213" s="29" t="s">
         <v>234</v>
       </c>
@@ -14023,7 +14014,7 @@
       </c>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" ht="30">
       <c r="A216" s="29" t="s">
         <v>237</v>
       </c>
@@ -14048,7 +14039,7 @@
       </c>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="1:9" ht="30">
+    <row r="217" spans="1:9" ht="45">
       <c r="A217" s="29" t="s">
         <v>238</v>
       </c>
@@ -14098,7 +14089,7 @@
       </c>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="1:9" ht="30">
+    <row r="219" spans="1:9" ht="45">
       <c r="A219" s="29" t="s">
         <v>240</v>
       </c>
@@ -14123,7 +14114,7 @@
       </c>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="1:9" ht="30">
+    <row r="220" spans="1:9" ht="45">
       <c r="A220" s="29" t="s">
         <v>241</v>
       </c>
@@ -14148,7 +14139,7 @@
       </c>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="1:9" ht="30">
+    <row r="221" spans="1:9" ht="45">
       <c r="A221" s="29" t="s">
         <v>242</v>
       </c>
@@ -14273,7 +14264,7 @@
       </c>
       <c r="I225" s="31"/>
     </row>
-    <row r="226" spans="1:9" ht="75">
+    <row r="226" spans="1:9" ht="90">
       <c r="A226" s="29" t="s">
         <v>247</v>
       </c>
@@ -14373,7 +14364,7 @@
       </c>
       <c r="I229" s="31"/>
     </row>
-    <row r="230" spans="1:9" ht="30">
+    <row r="230" spans="1:9" ht="45">
       <c r="A230" s="29" t="s">
         <v>251</v>
       </c>
@@ -14400,7 +14391,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="30">
+    <row r="231" spans="1:9" ht="45">
       <c r="A231" s="29" t="s">
         <v>252</v>
       </c>
@@ -14450,7 +14441,7 @@
       </c>
       <c r="I232" s="31"/>
     </row>
-    <row r="233" spans="1:9" ht="45">
+    <row r="233" spans="1:9" ht="60">
       <c r="A233" s="29" t="s">
         <v>254</v>
       </c>
@@ -14675,7 +14666,7 @@
       </c>
       <c r="I241" s="31"/>
     </row>
-    <row r="242" spans="1:9" ht="30">
+    <row r="242" spans="1:9" ht="45">
       <c r="A242" s="29" t="s">
         <v>263</v>
       </c>
@@ -14825,7 +14816,7 @@
       </c>
       <c r="I247" s="31"/>
     </row>
-    <row r="248" spans="1:9" ht="30">
+    <row r="248" spans="1:9" ht="45">
       <c r="A248" s="29" t="s">
         <v>269</v>
       </c>
@@ -14852,7 +14843,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="30">
+    <row r="249" spans="1:9" ht="45">
       <c r="A249" s="29" t="s">
         <v>270</v>
       </c>
@@ -15002,7 +14993,7 @@
       </c>
       <c r="I254" s="31"/>
     </row>
-    <row r="255" spans="1:9" ht="45">
+    <row r="255" spans="1:9" ht="60">
       <c r="A255" s="29" t="s">
         <v>276</v>
       </c>
@@ -15029,7 +15020,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="45">
+    <row r="256" spans="1:9" ht="60">
       <c r="A256" s="29" t="s">
         <v>277</v>
       </c>
@@ -15056,7 +15047,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="45">
+    <row r="257" spans="1:9" ht="60">
       <c r="A257" s="29" t="s">
         <v>278</v>
       </c>
@@ -15083,7 +15074,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="45">
+    <row r="258" spans="1:9" ht="60">
       <c r="A258" s="29" t="s">
         <v>279</v>
       </c>
@@ -15160,7 +15151,7 @@
       </c>
       <c r="I260" s="31"/>
     </row>
-    <row r="261" spans="1:9" ht="45">
+    <row r="261" spans="1:9" ht="60">
       <c r="A261" s="29" t="s">
         <v>282</v>
       </c>
@@ -15187,7 +15178,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="45">
+    <row r="262" spans="1:9" ht="60">
       <c r="A262" s="29" t="s">
         <v>283</v>
       </c>
@@ -15214,7 +15205,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="45">
+    <row r="263" spans="1:9" ht="60">
       <c r="A263" s="29" t="s">
         <v>284</v>
       </c>
@@ -15266,7 +15257,7 @@
       </c>
       <c r="I264" s="31"/>
     </row>
-    <row r="265" spans="1:9" ht="45">
+    <row r="265" spans="1:9" ht="60">
       <c r="A265" s="29" t="s">
         <v>286</v>
       </c>
@@ -15293,7 +15284,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="45">
+    <row r="266" spans="1:9" ht="60">
       <c r="A266" s="29" t="s">
         <v>287</v>
       </c>
@@ -15320,7 +15311,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="45">
+    <row r="267" spans="1:9" ht="60">
       <c r="A267" s="29" t="s">
         <v>288</v>
       </c>
@@ -15372,7 +15363,7 @@
       </c>
       <c r="I268" s="31"/>
     </row>
-    <row r="269" spans="1:9" ht="45">
+    <row r="269" spans="1:9" ht="60">
       <c r="A269" s="29" t="s">
         <v>290</v>
       </c>
@@ -15399,7 +15390,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="30">
+    <row r="270" spans="1:9" ht="45">
       <c r="A270" s="29" t="s">
         <v>291</v>
       </c>
@@ -15449,7 +15440,7 @@
       </c>
       <c r="I271" s="31"/>
     </row>
-    <row r="272" spans="1:9" ht="45">
+    <row r="272" spans="1:9" ht="60">
       <c r="A272" s="29" t="s">
         <v>293</v>
       </c>
@@ -15524,7 +15515,7 @@
       </c>
       <c r="I274" s="31"/>
     </row>
-    <row r="275" spans="1:9" ht="30">
+    <row r="275" spans="1:9" ht="45">
       <c r="A275" s="29" t="s">
         <v>296</v>
       </c>
@@ -15599,7 +15590,7 @@
       </c>
       <c r="I277" s="31"/>
     </row>
-    <row r="278" spans="1:9" ht="30">
+    <row r="278" spans="1:9" ht="45">
       <c r="A278" s="29" t="s">
         <v>299</v>
       </c>
@@ -15624,7 +15615,7 @@
       </c>
       <c r="I278" s="31"/>
     </row>
-    <row r="279" spans="1:9" ht="30">
+    <row r="279" spans="1:9" ht="45">
       <c r="A279" s="29" t="s">
         <v>300</v>
       </c>
@@ -15724,7 +15715,7 @@
       </c>
       <c r="I282" s="31"/>
     </row>
-    <row r="283" spans="1:9" ht="30">
+    <row r="283" spans="1:9" ht="45">
       <c r="A283" s="29" t="s">
         <v>304</v>
       </c>
@@ -15849,7 +15840,7 @@
       </c>
       <c r="I287" s="31"/>
     </row>
-    <row r="288" spans="1:9" ht="30">
+    <row r="288" spans="1:9" ht="45">
       <c r="A288" s="29" t="s">
         <v>309</v>
       </c>
@@ -15874,7 +15865,7 @@
       </c>
       <c r="I288" s="31"/>
     </row>
-    <row r="289" spans="1:9" ht="30">
+    <row r="289" spans="1:9" ht="45">
       <c r="A289" s="29" t="s">
         <v>310</v>
       </c>
@@ -15899,7 +15890,7 @@
       </c>
       <c r="I289" s="31"/>
     </row>
-    <row r="290" spans="1:9" ht="30">
+    <row r="290" spans="1:9" ht="45">
       <c r="A290" s="29" t="s">
         <v>311</v>
       </c>
@@ -15924,7 +15915,7 @@
       </c>
       <c r="I290" s="31"/>
     </row>
-    <row r="291" spans="1:9" ht="30">
+    <row r="291" spans="1:9" ht="45">
       <c r="A291" s="29" t="s">
         <v>312</v>
       </c>
@@ -15999,7 +15990,7 @@
       </c>
       <c r="I293" s="31"/>
     </row>
-    <row r="294" spans="1:9" ht="30">
+    <row r="294" spans="1:9" ht="45">
       <c r="A294" s="29" t="s">
         <v>315</v>
       </c>
@@ -16049,7 +16040,7 @@
       </c>
       <c r="I295" s="31"/>
     </row>
-    <row r="296" spans="1:9" ht="45">
+    <row r="296" spans="1:9" ht="60">
       <c r="A296" s="29" t="s">
         <v>317</v>
       </c>
@@ -16149,7 +16140,7 @@
       </c>
       <c r="I299" s="31"/>
     </row>
-    <row r="300" spans="1:9" ht="30">
+    <row r="300" spans="1:9" ht="45">
       <c r="A300" s="29" t="s">
         <v>321</v>
       </c>
@@ -16199,7 +16190,7 @@
       </c>
       <c r="I301" s="31"/>
     </row>
-    <row r="302" spans="1:9" ht="30">
+    <row r="302" spans="1:9" ht="45">
       <c r="A302" s="29" t="s">
         <v>323</v>
       </c>
@@ -16324,7 +16315,7 @@
       </c>
       <c r="I306" s="31"/>
     </row>
-    <row r="307" spans="1:9" ht="30">
+    <row r="307" spans="1:9" ht="45">
       <c r="A307" s="29" t="s">
         <v>328</v>
       </c>
@@ -16349,7 +16340,7 @@
       </c>
       <c r="I307" s="31"/>
     </row>
-    <row r="308" spans="1:9" ht="30">
+    <row r="308" spans="1:9" ht="45">
       <c r="A308" s="29" t="s">
         <v>329</v>
       </c>
@@ -16574,7 +16565,7 @@
       </c>
       <c r="I316" s="31"/>
     </row>
-    <row r="317" spans="1:9" ht="30">
+    <row r="317" spans="1:9" ht="45">
       <c r="A317" s="29" t="s">
         <v>338</v>
       </c>
@@ -16674,7 +16665,7 @@
       </c>
       <c r="I320" s="31"/>
     </row>
-    <row r="321" spans="1:9" ht="30">
+    <row r="321" spans="1:9" ht="45">
       <c r="A321" s="29" t="s">
         <v>342</v>
       </c>
@@ -16824,7 +16815,7 @@
       </c>
       <c r="I326" s="31"/>
     </row>
-    <row r="327" spans="1:9" ht="30">
+    <row r="327" spans="1:9" ht="45">
       <c r="A327" s="29" t="s">
         <v>348</v>
       </c>
@@ -16874,7 +16865,7 @@
       </c>
       <c r="I328" s="31"/>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" ht="30">
       <c r="A329" s="29" t="s">
         <v>350</v>
       </c>
@@ -16899,7 +16890,7 @@
       </c>
       <c r="I329" s="31"/>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" ht="30">
       <c r="A330" s="29" t="s">
         <v>351</v>
       </c>
@@ -17049,7 +17040,7 @@
       </c>
       <c r="I335" s="31"/>
     </row>
-    <row r="336" spans="1:9" ht="45">
+    <row r="336" spans="1:9" ht="60">
       <c r="A336" s="29" t="s">
         <v>357</v>
       </c>
@@ -17124,7 +17115,7 @@
       </c>
       <c r="I338" s="31"/>
     </row>
-    <row r="339" spans="1:9" ht="30">
+    <row r="339" spans="1:9" ht="45">
       <c r="A339" s="29" t="s">
         <v>360</v>
       </c>
@@ -17149,7 +17140,7 @@
       </c>
       <c r="I339" s="31"/>
     </row>
-    <row r="340" spans="1:9" ht="45">
+    <row r="340" spans="1:9" ht="60">
       <c r="A340" s="29" t="s">
         <v>361</v>
       </c>
@@ -17174,7 +17165,7 @@
       </c>
       <c r="I340" s="31"/>
     </row>
-    <row r="341" spans="1:9" ht="30">
+    <row r="341" spans="1:9" ht="45">
       <c r="A341" s="29" t="s">
         <v>362</v>
       </c>
@@ -17399,7 +17390,7 @@
       </c>
       <c r="I349" s="31"/>
     </row>
-    <row r="350" spans="1:9" ht="30">
+    <row r="350" spans="1:9" ht="45">
       <c r="A350" s="29" t="s">
         <v>371</v>
       </c>
@@ -17474,7 +17465,7 @@
       </c>
       <c r="I352" s="31"/>
     </row>
-    <row r="353" spans="1:9" ht="30">
+    <row r="353" spans="1:9" ht="45">
       <c r="A353" s="29" t="s">
         <v>374</v>
       </c>
@@ -17499,7 +17490,7 @@
       </c>
       <c r="I353" s="31"/>
     </row>
-    <row r="354" spans="1:9" ht="30">
+    <row r="354" spans="1:9" ht="45">
       <c r="A354" s="29" t="s">
         <v>375</v>
       </c>
@@ -17674,7 +17665,7 @@
       </c>
       <c r="I360" s="31"/>
     </row>
-    <row r="361" spans="1:9" ht="30">
+    <row r="361" spans="1:9" ht="45">
       <c r="A361" s="29" t="s">
         <v>382</v>
       </c>
@@ -17699,7 +17690,7 @@
       </c>
       <c r="I361" s="31"/>
     </row>
-    <row r="362" spans="1:9" ht="30">
+    <row r="362" spans="1:9" ht="45">
       <c r="A362" s="29" t="s">
         <v>383</v>
       </c>
@@ -17874,7 +17865,7 @@
       </c>
       <c r="I368" s="31"/>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" ht="30">
       <c r="A369" s="29" t="s">
         <v>390</v>
       </c>
@@ -18099,7 +18090,7 @@
       </c>
       <c r="I377" s="31"/>
     </row>
-    <row r="378" spans="1:9" ht="30">
+    <row r="378" spans="1:9" ht="45">
       <c r="A378" s="29" t="s">
         <v>399</v>
       </c>
@@ -18324,7 +18315,7 @@
       </c>
       <c r="I386" s="31"/>
     </row>
-    <row r="387" spans="1:9" ht="30">
+    <row r="387" spans="1:9" ht="45">
       <c r="A387" s="29" t="s">
         <v>408</v>
       </c>
@@ -18349,7 +18340,7 @@
       </c>
       <c r="I387" s="31"/>
     </row>
-    <row r="388" spans="1:9" ht="30">
+    <row r="388" spans="1:9" ht="45">
       <c r="A388" s="29" t="s">
         <v>409</v>
       </c>
@@ -18773,7 +18764,7 @@
       </c>
       <c r="I403" s="31"/>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" ht="30">
       <c r="A404" s="29" t="s">
         <v>425</v>
       </c>
@@ -18848,7 +18839,7 @@
       </c>
       <c r="I406" s="31"/>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" ht="30">
       <c r="A407" s="29" t="s">
         <v>428</v>
       </c>
@@ -18898,7 +18889,7 @@
       </c>
       <c r="I408" s="31"/>
     </row>
-    <row r="409" spans="1:9" ht="30">
+    <row r="409" spans="1:9" ht="45">
       <c r="A409" s="29" t="s">
         <v>430</v>
       </c>
@@ -18923,7 +18914,7 @@
       </c>
       <c r="I409" s="31"/>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" ht="30">
       <c r="A410" s="29" t="s">
         <v>431</v>
       </c>
@@ -19173,7 +19164,7 @@
       </c>
       <c r="I419" s="31"/>
     </row>
-    <row r="420" spans="1:9" ht="30">
+    <row r="420" spans="1:9" ht="45">
       <c r="A420" s="29" t="s">
         <v>441</v>
       </c>
@@ -19223,7 +19214,7 @@
       </c>
       <c r="I421" s="31"/>
     </row>
-    <row r="422" spans="1:9" ht="30">
+    <row r="422" spans="1:9" ht="45">
       <c r="A422" s="29" t="s">
         <v>443</v>
       </c>
@@ -19348,7 +19339,7 @@
       </c>
       <c r="I426" s="31"/>
     </row>
-    <row r="427" spans="1:9" ht="30">
+    <row r="427" spans="1:9" ht="45">
       <c r="A427" s="29" t="s">
         <v>448</v>
       </c>
@@ -19373,7 +19364,7 @@
       </c>
       <c r="I427" s="31"/>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" ht="30">
       <c r="A428" s="29" t="s">
         <v>449</v>
       </c>
@@ -19398,7 +19389,7 @@
       </c>
       <c r="I428" s="31"/>
     </row>
-    <row r="429" spans="1:9" ht="30">
+    <row r="429" spans="1:9" ht="45">
       <c r="A429" s="29" t="s">
         <v>450</v>
       </c>
@@ -19473,7 +19464,7 @@
       </c>
       <c r="I431" s="31"/>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" ht="30">
       <c r="A432" s="29" t="s">
         <v>453</v>
       </c>
@@ -19523,7 +19514,7 @@
       </c>
       <c r="I433" s="31"/>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" ht="30">
       <c r="A434" s="29" t="s">
         <v>455</v>
       </c>
@@ -19548,7 +19539,7 @@
       </c>
       <c r="I434" s="31"/>
     </row>
-    <row r="435" spans="1:9" ht="30">
+    <row r="435" spans="1:9" ht="45">
       <c r="A435" s="29" t="s">
         <v>456</v>
       </c>
@@ -19573,7 +19564,7 @@
       </c>
       <c r="I435" s="31"/>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" ht="30">
       <c r="A436" s="29" t="s">
         <v>457</v>
       </c>
@@ -19669,11 +19660,11 @@
         <v>15</v>
       </c>
       <c r="H439" s="29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I439" s="31"/>
     </row>
-    <row r="440" spans="1:9" ht="45">
+    <row r="440" spans="1:9" ht="60">
       <c r="A440" s="29" t="s">
         <v>461</v>
       </c>
@@ -19729,7 +19720,7 @@
       </c>
       <c r="I441" s="31"/>
     </row>
-    <row r="442" spans="1:9" ht="45">
+    <row r="442" spans="1:9" ht="60">
       <c r="A442" s="29" t="s">
         <v>463</v>
       </c>
@@ -19756,7 +19747,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="45">
+    <row r="443" spans="1:9" ht="60">
       <c r="A443" s="29" t="s">
         <v>464</v>
       </c>
@@ -19782,7 +19773,7 @@
         <v>17</v>
       </c>
       <c r="I443" s="20" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="444" spans="1:9">
@@ -19968,7 +19959,7 @@
       </c>
       <c r="I450" s="31"/>
     </row>
-    <row r="451" spans="1:9" ht="30">
+    <row r="451" spans="1:9" ht="45">
       <c r="A451" s="29" t="s">
         <v>472</v>
       </c>
@@ -20018,7 +20009,7 @@
       </c>
       <c r="I452" s="31"/>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" ht="30">
       <c r="A453" s="29" t="s">
         <v>474</v>
       </c>
@@ -20395,7 +20386,7 @@
       </c>
       <c r="I467" s="31"/>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" ht="30">
       <c r="A468" s="29" t="s">
         <v>489</v>
       </c>
@@ -20474,7 +20465,7 @@
       </c>
       <c r="I470" s="31"/>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" ht="30">
       <c r="A471" s="29" t="s">
         <v>492</v>
       </c>
@@ -20499,7 +20490,7 @@
       </c>
       <c r="I471" s="31"/>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" ht="30">
       <c r="A472" s="29" t="s">
         <v>493</v>
       </c>
@@ -20549,7 +20540,7 @@
       </c>
       <c r="I473" s="31"/>
     </row>
-    <row r="474" spans="1:9" ht="45">
+    <row r="474" spans="1:9" ht="60">
       <c r="A474" s="29" t="s">
         <v>495</v>
       </c>
@@ -20624,7 +20615,7 @@
       </c>
       <c r="I476" s="31"/>
     </row>
-    <row r="477" spans="1:9" ht="30">
+    <row r="477" spans="1:9" ht="45">
       <c r="A477" s="29" t="s">
         <v>498</v>
       </c>
@@ -20649,7 +20640,7 @@
       </c>
       <c r="I477" s="31"/>
     </row>
-    <row r="478" spans="1:9" ht="45">
+    <row r="478" spans="1:9" ht="60">
       <c r="A478" s="29" t="s">
         <v>499</v>
       </c>
@@ -20699,7 +20690,7 @@
       </c>
       <c r="I479" s="31"/>
     </row>
-    <row r="480" spans="1:9" ht="30">
+    <row r="480" spans="1:9" ht="45">
       <c r="A480" s="29" t="s">
         <v>501</v>
       </c>
@@ -20724,7 +20715,7 @@
       </c>
       <c r="I480" s="31"/>
     </row>
-    <row r="481" spans="1:9" ht="30">
+    <row r="481" spans="1:9" ht="45">
       <c r="A481" s="29" t="s">
         <v>502</v>
       </c>
@@ -20749,7 +20740,7 @@
       </c>
       <c r="I481" s="31"/>
     </row>
-    <row r="482" spans="1:9" ht="30">
+    <row r="482" spans="1:9" ht="45">
       <c r="A482" s="29" t="s">
         <v>503</v>
       </c>
@@ -20849,7 +20840,7 @@
       </c>
       <c r="I485" s="31"/>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" ht="30">
       <c r="A486" s="29" t="s">
         <v>507</v>
       </c>
@@ -20974,7 +20965,7 @@
       </c>
       <c r="I490" s="31"/>
     </row>
-    <row r="491" spans="1:9" ht="30">
+    <row r="491" spans="1:9" ht="45">
       <c r="A491" s="29" t="s">
         <v>512</v>
       </c>
@@ -21149,7 +21140,7 @@
       </c>
       <c r="I497" s="31"/>
     </row>
-    <row r="498" spans="1:9" ht="30">
+    <row r="498" spans="1:9" ht="45">
       <c r="A498" s="29" t="s">
         <v>519</v>
       </c>
@@ -21224,7 +21215,7 @@
       </c>
       <c r="I500" s="31"/>
     </row>
-    <row r="501" spans="1:9" ht="45">
+    <row r="501" spans="1:9" ht="60">
       <c r="A501" s="29" t="s">
         <v>522</v>
       </c>
@@ -21249,7 +21240,7 @@
       </c>
       <c r="I501" s="31"/>
     </row>
-    <row r="502" spans="1:9" ht="30">
+    <row r="502" spans="1:9" ht="45">
       <c r="A502" s="29" t="s">
         <v>523</v>
       </c>
@@ -21274,7 +21265,7 @@
       </c>
       <c r="I502" s="31"/>
     </row>
-    <row r="503" spans="1:9" ht="30">
+    <row r="503" spans="1:9" ht="45">
       <c r="A503" s="29" t="s">
         <v>524</v>
       </c>
@@ -21299,7 +21290,7 @@
       </c>
       <c r="I503" s="31"/>
     </row>
-    <row r="504" spans="1:9" ht="75">
+    <row r="504" spans="1:9" ht="90">
       <c r="A504" s="29" t="s">
         <v>525</v>
       </c>
@@ -21349,7 +21340,7 @@
       </c>
       <c r="I505" s="31"/>
     </row>
-    <row r="506" spans="1:9" ht="30">
+    <row r="506" spans="1:9" ht="45">
       <c r="A506" s="29" t="s">
         <v>527</v>
       </c>
@@ -21374,7 +21365,7 @@
       </c>
       <c r="I506" s="31"/>
     </row>
-    <row r="507" spans="1:9" ht="60">
+    <row r="507" spans="1:9" ht="75">
       <c r="A507" s="29" t="s">
         <v>528</v>
       </c>
@@ -21399,7 +21390,7 @@
       </c>
       <c r="I507" s="31"/>
     </row>
-    <row r="508" spans="1:9" ht="45">
+    <row r="508" spans="1:9" ht="60">
       <c r="A508" s="29" t="s">
         <v>529</v>
       </c>
@@ -21449,7 +21440,7 @@
       </c>
       <c r="I509" s="31"/>
     </row>
-    <row r="510" spans="1:9" ht="30">
+    <row r="510" spans="1:9" ht="45">
       <c r="A510" s="29" t="s">
         <v>531</v>
       </c>
@@ -21524,7 +21515,7 @@
       </c>
       <c r="I512" s="31"/>
     </row>
-    <row r="513" spans="1:9" ht="45">
+    <row r="513" spans="1:9" ht="60">
       <c r="A513" s="29" t="s">
         <v>534</v>
       </c>
@@ -21549,7 +21540,7 @@
       </c>
       <c r="I513" s="31"/>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:9" ht="30">
       <c r="A514" s="29" t="s">
         <v>535</v>
       </c>
@@ -21624,7 +21615,7 @@
       </c>
       <c r="I516" s="31"/>
     </row>
-    <row r="517" spans="1:9" ht="60">
+    <row r="517" spans="1:9" ht="75">
       <c r="A517" s="29" t="s">
         <v>538</v>
       </c>
@@ -21649,7 +21640,7 @@
       </c>
       <c r="I517" s="31"/>
     </row>
-    <row r="518" spans="1:9" ht="45">
+    <row r="518" spans="1:9" ht="60">
       <c r="A518" s="29" t="s">
         <v>539</v>
       </c>
@@ -21699,7 +21690,7 @@
       </c>
       <c r="I519" s="31"/>
     </row>
-    <row r="520" spans="1:9" ht="45">
+    <row r="520" spans="1:9" ht="60">
       <c r="A520" s="29" t="s">
         <v>541</v>
       </c>
@@ -21799,7 +21790,7 @@
       </c>
       <c r="I523" s="31"/>
     </row>
-    <row r="524" spans="1:9" ht="30">
+    <row r="524" spans="1:9" ht="45">
       <c r="A524" s="29" t="s">
         <v>545</v>
       </c>
@@ -21874,7 +21865,7 @@
       </c>
       <c r="I526" s="31"/>
     </row>
-    <row r="527" spans="1:9" ht="30">
+    <row r="527" spans="1:9" ht="45">
       <c r="A527" s="29" t="s">
         <v>548</v>
       </c>
@@ -22124,7 +22115,7 @@
       </c>
       <c r="I536" s="31"/>
     </row>
-    <row r="537" spans="1:9" ht="30">
+    <row r="537" spans="1:9" ht="45">
       <c r="A537" s="29" t="s">
         <v>558</v>
       </c>
@@ -22149,7 +22140,7 @@
       </c>
       <c r="I537" s="31"/>
     </row>
-    <row r="538" spans="1:9" ht="45">
+    <row r="538" spans="1:9" ht="60">
       <c r="A538" s="29" t="s">
         <v>559</v>
       </c>
@@ -22174,7 +22165,7 @@
       </c>
       <c r="I538" s="31"/>
     </row>
-    <row r="539" spans="1:9" ht="30">
+    <row r="539" spans="1:9" ht="45">
       <c r="A539" s="29" t="s">
         <v>560</v>
       </c>
@@ -22199,7 +22190,7 @@
       </c>
       <c r="I539" s="31"/>
     </row>
-    <row r="540" spans="1:9" ht="45">
+    <row r="540" spans="1:9" ht="60">
       <c r="A540" s="29" t="s">
         <v>561</v>
       </c>
@@ -22224,7 +22215,7 @@
       </c>
       <c r="I540" s="31"/>
     </row>
-    <row r="541" spans="1:9" ht="45">
+    <row r="541" spans="1:9" ht="60">
       <c r="A541" s="29" t="s">
         <v>562</v>
       </c>
@@ -22324,7 +22315,7 @@
       </c>
       <c r="I544" s="31"/>
     </row>
-    <row r="545" spans="1:9" ht="30">
+    <row r="545" spans="1:9" ht="45">
       <c r="A545" s="29" t="s">
         <v>566</v>
       </c>
@@ -22349,7 +22340,7 @@
       </c>
       <c r="I545" s="31"/>
     </row>
-    <row r="546" spans="1:9" ht="30">
+    <row r="546" spans="1:9" ht="45">
       <c r="A546" s="29" t="s">
         <v>567</v>
       </c>
@@ -22374,7 +22365,7 @@
       </c>
       <c r="I546" s="31"/>
     </row>
-    <row r="547" spans="1:9" ht="30">
+    <row r="547" spans="1:9" ht="45">
       <c r="A547" s="29" t="s">
         <v>568</v>
       </c>
@@ -22424,7 +22415,7 @@
       </c>
       <c r="I548" s="31"/>
     </row>
-    <row r="549" spans="1:9" ht="30">
+    <row r="549" spans="1:9" ht="45">
       <c r="A549" s="29" t="s">
         <v>570</v>
       </c>
@@ -22524,7 +22515,7 @@
       </c>
       <c r="I552" s="31"/>
     </row>
-    <row r="553" spans="1:9" ht="30">
+    <row r="553" spans="1:9" ht="45">
       <c r="A553" s="29" t="s">
         <v>574</v>
       </c>
@@ -22574,7 +22565,7 @@
       </c>
       <c r="I554" s="31"/>
     </row>
-    <row r="555" spans="1:9" ht="30">
+    <row r="555" spans="1:9" ht="45">
       <c r="A555" s="29" t="s">
         <v>576</v>
       </c>
@@ -22599,7 +22590,7 @@
       </c>
       <c r="I555" s="31"/>
     </row>
-    <row r="556" spans="1:9" ht="30">
+    <row r="556" spans="1:9" ht="45">
       <c r="A556" s="29" t="s">
         <v>577</v>
       </c>
@@ -22674,7 +22665,7 @@
       </c>
       <c r="I558" s="31"/>
     </row>
-    <row r="559" spans="1:9" ht="45">
+    <row r="559" spans="1:9" ht="60">
       <c r="A559" s="29" t="s">
         <v>580</v>
       </c>
@@ -22724,7 +22715,7 @@
       </c>
       <c r="I560" s="31"/>
     </row>
-    <row r="561" spans="1:9" ht="60">
+    <row r="561" spans="1:9" ht="75">
       <c r="A561" s="29" t="s">
         <v>582</v>
       </c>
@@ -22749,7 +22740,7 @@
       </c>
       <c r="I561" s="31"/>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:9" ht="30">
       <c r="A562" s="29" t="s">
         <v>583</v>
       </c>
@@ -22774,7 +22765,7 @@
       </c>
       <c r="I562" s="31"/>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:9" ht="30">
       <c r="A563" s="29" t="s">
         <v>584</v>
       </c>
@@ -22849,7 +22840,7 @@
       </c>
       <c r="I565" s="31"/>
     </row>
-    <row r="566" spans="1:9">
+    <row r="566" spans="1:9" ht="30">
       <c r="A566" s="29" t="s">
         <v>587</v>
       </c>
@@ -22974,7 +22965,7 @@
       </c>
       <c r="I570" s="31"/>
     </row>
-    <row r="571" spans="1:9">
+    <row r="571" spans="1:9" ht="30">
       <c r="A571" s="29" t="s">
         <v>592</v>
       </c>
@@ -23049,7 +23040,7 @@
       </c>
       <c r="I573" s="31"/>
     </row>
-    <row r="574" spans="1:9" ht="60">
+    <row r="574" spans="1:9" ht="75">
       <c r="A574" s="29" t="s">
         <v>595</v>
       </c>
@@ -23149,7 +23140,7 @@
       </c>
       <c r="I577" s="31"/>
     </row>
-    <row r="578" spans="1:9">
+    <row r="578" spans="1:9" ht="30">
       <c r="A578" s="29" t="s">
         <v>599</v>
       </c>
@@ -23199,7 +23190,7 @@
       </c>
       <c r="I579" s="31"/>
     </row>
-    <row r="580" spans="1:9" ht="30">
+    <row r="580" spans="1:9" ht="45">
       <c r="A580" s="29" t="s">
         <v>601</v>
       </c>
@@ -23224,7 +23215,7 @@
       </c>
       <c r="I580" s="31"/>
     </row>
-    <row r="581" spans="1:9" ht="30">
+    <row r="581" spans="1:9" ht="45">
       <c r="A581" s="29" t="s">
         <v>602</v>
       </c>
@@ -23274,7 +23265,7 @@
       </c>
       <c r="I582" s="31"/>
     </row>
-    <row r="583" spans="1:9" ht="30">
+    <row r="583" spans="1:9" ht="45">
       <c r="A583" s="29" t="s">
         <v>604</v>
       </c>
@@ -23349,7 +23340,7 @@
       </c>
       <c r="I585" s="31"/>
     </row>
-    <row r="586" spans="1:9" ht="45">
+    <row r="586" spans="1:9" ht="60">
       <c r="A586" s="29" t="s">
         <v>607</v>
       </c>
@@ -23374,7 +23365,7 @@
       </c>
       <c r="I586" s="31"/>
     </row>
-    <row r="587" spans="1:9" ht="30">
+    <row r="587" spans="1:9" ht="45">
       <c r="A587" s="29" t="s">
         <v>608</v>
       </c>
@@ -23599,7 +23590,7 @@
       </c>
       <c r="I595" s="31"/>
     </row>
-    <row r="596" spans="1:9" ht="45">
+    <row r="596" spans="1:9" ht="60">
       <c r="A596" s="22" t="s">
         <v>617</v>
       </c>
@@ -23623,10 +23614,10 @@
         <v>17</v>
       </c>
       <c r="I596" s="20" t="s">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="597" spans="1:9" ht="30">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" ht="45">
       <c r="A597" s="29" t="s">
         <v>618</v>
       </c>
@@ -23651,7 +23642,7 @@
       </c>
       <c r="I597" s="31"/>
     </row>
-    <row r="598" spans="1:9" ht="45">
+    <row r="598" spans="1:9" ht="60">
       <c r="A598" s="22" t="s">
         <v>619</v>
       </c>
@@ -23730,9 +23721,9 @@
       </c>
       <c r="I600" s="31"/>
     </row>
-    <row r="601" spans="1:9" ht="45">
+    <row r="601" spans="1:9" ht="60">
       <c r="A601" s="22" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="B601" s="30" t="s">
         <v>1196</v>
@@ -23780,7 +23771,7 @@
       </c>
       <c r="I602" s="31"/>
     </row>
-    <row r="603" spans="1:9" ht="45">
+    <row r="603" spans="1:9" ht="60">
       <c r="A603" s="22" t="s">
         <v>623</v>
       </c>
@@ -23909,7 +23900,7 @@
       </c>
       <c r="I607" s="31"/>
     </row>
-    <row r="608" spans="1:9" ht="60">
+    <row r="608" spans="1:9" ht="75">
       <c r="A608" s="22" t="s">
         <v>628</v>
       </c>
@@ -23933,10 +23924,10 @@
         <v>17</v>
       </c>
       <c r="I608" s="31" t="s">
-        <v>2349</v>
-      </c>
-    </row>
-    <row r="609" spans="1:9" ht="60">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" ht="75">
       <c r="A609" s="29" t="s">
         <v>629</v>
       </c>
@@ -23961,7 +23952,7 @@
       </c>
       <c r="I609" s="31"/>
     </row>
-    <row r="610" spans="1:9" ht="60">
+    <row r="610" spans="1:9" ht="75">
       <c r="A610" s="29" t="s">
         <v>630</v>
       </c>
@@ -24013,7 +24004,7 @@
       </c>
       <c r="I611" s="31"/>
     </row>
-    <row r="612" spans="1:9" ht="60">
+    <row r="612" spans="1:9" ht="75">
       <c r="A612" s="29" t="s">
         <v>632</v>
       </c>
@@ -24037,7 +24028,7 @@
         <v>17</v>
       </c>
       <c r="I612" s="31" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="613" spans="1:9" ht="45">
@@ -24165,7 +24156,7 @@
       </c>
       <c r="I617" s="31"/>
     </row>
-    <row r="618" spans="1:9" ht="30">
+    <row r="618" spans="1:9" ht="45">
       <c r="A618" s="29" t="s">
         <v>638</v>
       </c>
@@ -24290,7 +24281,7 @@
       </c>
       <c r="I622" s="31"/>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" spans="1:9" ht="30">
       <c r="A623" s="29" t="s">
         <v>643</v>
       </c>
@@ -24442,7 +24433,7 @@
       </c>
       <c r="I628" s="31"/>
     </row>
-    <row r="629" spans="1:9" ht="30">
+    <row r="629" spans="1:9" ht="45">
       <c r="A629" s="29" t="s">
         <v>649</v>
       </c>
@@ -24567,7 +24558,7 @@
       </c>
       <c r="I633" s="31"/>
     </row>
-    <row r="634" spans="1:9" ht="30">
+    <row r="634" spans="1:9" ht="45">
       <c r="A634" s="29" t="s">
         <v>654</v>
       </c>
@@ -24746,7 +24737,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="641" spans="1:9" ht="30">
+    <row r="641" spans="1:9" ht="45">
       <c r="A641" s="29" t="s">
         <v>661</v>
       </c>
@@ -24773,7 +24764,7 @@
       </c>
       <c r="I641" s="31"/>
     </row>
-    <row r="642" spans="1:9" ht="45">
+    <row r="642" spans="1:9" ht="60">
       <c r="A642" s="29" t="s">
         <v>662</v>
       </c>
@@ -24798,7 +24789,7 @@
       </c>
       <c r="I642" s="31"/>
     </row>
-    <row r="643" spans="1:9" ht="45">
+    <row r="643" spans="1:9" ht="60">
       <c r="A643" s="29" t="s">
         <v>663</v>
       </c>
@@ -24823,7 +24814,7 @@
       </c>
       <c r="I643" s="31"/>
     </row>
-    <row r="644" spans="1:9" ht="45">
+    <row r="644" spans="1:9" ht="60">
       <c r="A644" s="29" t="s">
         <v>664</v>
       </c>
@@ -24848,7 +24839,7 @@
       </c>
       <c r="I644" s="31"/>
     </row>
-    <row r="645" spans="1:9" ht="45">
+    <row r="645" spans="1:9" ht="60">
       <c r="A645" s="29" t="s">
         <v>665</v>
       </c>
@@ -24898,7 +24889,7 @@
       </c>
       <c r="I646" s="31"/>
     </row>
-    <row r="647" spans="1:9" ht="30">
+    <row r="647" spans="1:9" ht="45">
       <c r="A647" s="29" t="s">
         <v>667</v>
       </c>
@@ -25073,7 +25064,7 @@
       </c>
       <c r="I653" s="31"/>
     </row>
-    <row r="654" spans="1:9">
+    <row r="654" spans="1:9" ht="30">
       <c r="A654" s="29" t="s">
         <v>674</v>
       </c>
@@ -25123,7 +25114,7 @@
       </c>
       <c r="I655" s="31"/>
     </row>
-    <row r="656" spans="1:9">
+    <row r="656" spans="1:9" ht="30">
       <c r="A656" s="29" t="s">
         <v>676</v>
       </c>
@@ -25148,7 +25139,7 @@
       </c>
       <c r="I656" s="31"/>
     </row>
-    <row r="657" spans="1:9" ht="30">
+    <row r="657" spans="1:9" ht="45">
       <c r="A657" s="29" t="s">
         <v>677</v>
       </c>
@@ -25175,7 +25166,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="658" spans="1:9">
+    <row r="658" spans="1:9" ht="30">
       <c r="A658" s="29" t="s">
         <v>678</v>
       </c>
@@ -25225,7 +25216,7 @@
       </c>
       <c r="I659" s="31"/>
     </row>
-    <row r="660" spans="1:9">
+    <row r="660" spans="1:9" ht="30">
       <c r="A660" s="29" t="s">
         <v>680</v>
       </c>
@@ -25275,7 +25266,7 @@
       </c>
       <c r="I661" s="31"/>
     </row>
-    <row r="662" spans="1:9">
+    <row r="662" spans="1:9" ht="30">
       <c r="A662" s="29" t="s">
         <v>682</v>
       </c>
@@ -25325,7 +25316,7 @@
       </c>
       <c r="I663" s="31"/>
     </row>
-    <row r="664" spans="1:9">
+    <row r="664" spans="1:9" ht="30">
       <c r="A664" s="29" t="s">
         <v>684</v>
       </c>
@@ -25350,7 +25341,7 @@
       </c>
       <c r="I664" s="31"/>
     </row>
-    <row r="665" spans="1:9">
+    <row r="665" spans="1:9" ht="30">
       <c r="A665" s="29" t="s">
         <v>685</v>
       </c>
@@ -25425,7 +25416,7 @@
       </c>
       <c r="I667" s="31"/>
     </row>
-    <row r="668" spans="1:9">
+    <row r="668" spans="1:9" ht="30">
       <c r="A668" s="29" t="s">
         <v>688</v>
       </c>
@@ -25450,7 +25441,7 @@
       </c>
       <c r="I668" s="31"/>
     </row>
-    <row r="669" spans="1:9" ht="30">
+    <row r="669" spans="1:9" ht="45">
       <c r="A669" s="29" t="s">
         <v>689</v>
       </c>
@@ -25475,7 +25466,7 @@
       </c>
       <c r="I669" s="31"/>
     </row>
-    <row r="670" spans="1:9">
+    <row r="670" spans="1:9" ht="30">
       <c r="A670" s="29" t="s">
         <v>690</v>
       </c>
@@ -25525,7 +25516,7 @@
       </c>
       <c r="I671" s="31"/>
     </row>
-    <row r="672" spans="1:9">
+    <row r="672" spans="1:9" ht="30">
       <c r="A672" s="29" t="s">
         <v>692</v>
       </c>
@@ -25575,7 +25566,7 @@
       </c>
       <c r="I673" s="31"/>
     </row>
-    <row r="674" spans="1:9">
+    <row r="674" spans="1:9" ht="30">
       <c r="A674" s="29" t="s">
         <v>694</v>
       </c>
@@ -25600,7 +25591,7 @@
       </c>
       <c r="I674" s="31"/>
     </row>
-    <row r="675" spans="1:9" ht="30">
+    <row r="675" spans="1:9" ht="45">
       <c r="A675" s="29" t="s">
         <v>695</v>
       </c>
@@ -25650,7 +25641,7 @@
       </c>
       <c r="I676" s="31"/>
     </row>
-    <row r="677" spans="1:9" ht="30">
+    <row r="677" spans="1:9" ht="45">
       <c r="A677" s="29" t="s">
         <v>697</v>
       </c>
@@ -25775,7 +25766,7 @@
       </c>
       <c r="I681" s="31"/>
     </row>
-    <row r="682" spans="1:9" ht="30">
+    <row r="682" spans="1:9" ht="45">
       <c r="A682" s="29" t="s">
         <v>702</v>
       </c>
@@ -25875,7 +25866,7 @@
       </c>
       <c r="I685" s="31"/>
     </row>
-    <row r="686" spans="1:9" ht="30">
+    <row r="686" spans="1:9" ht="45">
       <c r="A686" s="29" t="s">
         <v>706</v>
       </c>
@@ -25925,7 +25916,7 @@
       </c>
       <c r="I687" s="31"/>
     </row>
-    <row r="688" spans="1:9" ht="75">
+    <row r="688" spans="1:9" ht="90">
       <c r="A688" s="29" t="s">
         <v>708</v>
       </c>
@@ -25975,7 +25966,7 @@
       </c>
       <c r="I689" s="31"/>
     </row>
-    <row r="690" spans="1:9" ht="30">
+    <row r="690" spans="1:9" ht="45">
       <c r="A690" s="29" t="s">
         <v>710</v>
       </c>
@@ -26050,7 +26041,7 @@
       </c>
       <c r="I692" s="31"/>
     </row>
-    <row r="693" spans="1:9" ht="30">
+    <row r="693" spans="1:9" ht="45">
       <c r="A693" s="29" t="s">
         <v>713</v>
       </c>
@@ -26075,7 +26066,7 @@
       </c>
       <c r="I693" s="31"/>
     </row>
-    <row r="694" spans="1:9" ht="30">
+    <row r="694" spans="1:9" ht="45">
       <c r="A694" s="29" t="s">
         <v>714</v>
       </c>
@@ -26175,7 +26166,7 @@
       </c>
       <c r="I697" s="31"/>
     </row>
-    <row r="698" spans="1:9">
+    <row r="698" spans="1:9" ht="30">
       <c r="A698" s="29" t="s">
         <v>718</v>
       </c>
@@ -26200,7 +26191,7 @@
       </c>
       <c r="I698" s="31"/>
     </row>
-    <row r="699" spans="1:9">
+    <row r="699" spans="1:9" ht="30">
       <c r="A699" s="29" t="s">
         <v>719</v>
       </c>
@@ -26225,7 +26216,7 @@
       </c>
       <c r="I699" s="31"/>
     </row>
-    <row r="700" spans="1:9">
+    <row r="700" spans="1:9" ht="30">
       <c r="A700" s="29" t="s">
         <v>720</v>
       </c>
@@ -26250,7 +26241,7 @@
       </c>
       <c r="I700" s="31"/>
     </row>
-    <row r="701" spans="1:9" ht="30">
+    <row r="701" spans="1:9" ht="45">
       <c r="A701" s="29" t="s">
         <v>721</v>
       </c>
@@ -26350,7 +26341,7 @@
       </c>
       <c r="I704" s="31"/>
     </row>
-    <row r="705" spans="1:9" ht="30">
+    <row r="705" spans="1:9" ht="45">
       <c r="A705" s="29" t="s">
         <v>725</v>
       </c>
@@ -26425,7 +26416,7 @@
       </c>
       <c r="I707" s="31"/>
     </row>
-    <row r="708" spans="1:9" ht="30">
+    <row r="708" spans="1:9" ht="45">
       <c r="A708" s="29" t="s">
         <v>728</v>
       </c>
@@ -26475,7 +26466,7 @@
       </c>
       <c r="I709" s="31"/>
     </row>
-    <row r="710" spans="1:9" ht="30">
+    <row r="710" spans="1:9" ht="45">
       <c r="A710" s="29" t="s">
         <v>730</v>
       </c>
@@ -26525,7 +26516,7 @@
       </c>
       <c r="I711" s="31"/>
     </row>
-    <row r="712" spans="1:9" ht="30">
+    <row r="712" spans="1:9" ht="45">
       <c r="A712" s="29" t="s">
         <v>732</v>
       </c>
@@ -26600,7 +26591,7 @@
       </c>
       <c r="I714" s="31"/>
     </row>
-    <row r="715" spans="1:9" ht="30">
+    <row r="715" spans="1:9" ht="45">
       <c r="A715" s="29" t="s">
         <v>735</v>
       </c>
@@ -26750,7 +26741,7 @@
       </c>
       <c r="I720" s="31"/>
     </row>
-    <row r="721" spans="1:9" ht="45">
+    <row r="721" spans="1:9" ht="60">
       <c r="A721" s="29" t="s">
         <v>741</v>
       </c>
@@ -26875,7 +26866,7 @@
       </c>
       <c r="I725" s="31"/>
     </row>
-    <row r="726" spans="1:9">
+    <row r="726" spans="1:9" ht="30">
       <c r="A726" s="29" t="s">
         <v>746</v>
       </c>
@@ -26900,7 +26891,7 @@
       </c>
       <c r="I726" s="31"/>
     </row>
-    <row r="727" spans="1:9">
+    <row r="727" spans="1:9" ht="30">
       <c r="A727" s="29" t="s">
         <v>747</v>
       </c>
@@ -26925,7 +26916,7 @@
       </c>
       <c r="I727" s="31"/>
     </row>
-    <row r="728" spans="1:9">
+    <row r="728" spans="1:9" ht="30">
       <c r="A728" s="29" t="s">
         <v>748</v>
       </c>
@@ -26950,7 +26941,7 @@
       </c>
       <c r="I728" s="31"/>
     </row>
-    <row r="729" spans="1:9" ht="30">
+    <row r="729" spans="1:9" ht="45">
       <c r="A729" s="29" t="s">
         <v>749</v>
       </c>
@@ -26975,7 +26966,7 @@
       </c>
       <c r="I729" s="31"/>
     </row>
-    <row r="730" spans="1:9">
+    <row r="730" spans="1:9" ht="30">
       <c r="A730" s="29" t="s">
         <v>750</v>
       </c>
@@ -27000,7 +26991,7 @@
       </c>
       <c r="I730" s="31"/>
     </row>
-    <row r="731" spans="1:9" ht="30">
+    <row r="731" spans="1:9" ht="45">
       <c r="A731" s="29" t="s">
         <v>751</v>
       </c>
@@ -27025,7 +27016,7 @@
       </c>
       <c r="I731" s="31"/>
     </row>
-    <row r="732" spans="1:9">
+    <row r="732" spans="1:9" ht="30">
       <c r="A732" s="29" t="s">
         <v>752</v>
       </c>
@@ -27075,7 +27066,7 @@
       </c>
       <c r="I733" s="31"/>
     </row>
-    <row r="734" spans="1:9">
+    <row r="734" spans="1:9" ht="30">
       <c r="A734" s="29" t="s">
         <v>754</v>
       </c>
@@ -27125,7 +27116,7 @@
       </c>
       <c r="I735" s="31"/>
     </row>
-    <row r="736" spans="1:9" ht="30">
+    <row r="736" spans="1:9" ht="45">
       <c r="A736" s="29" t="s">
         <v>756</v>
       </c>
@@ -27150,7 +27141,7 @@
       </c>
       <c r="I736" s="31"/>
     </row>
-    <row r="737" spans="1:9" ht="30">
+    <row r="737" spans="1:9" ht="45">
       <c r="A737" s="29" t="s">
         <v>757</v>
       </c>
@@ -27200,7 +27191,7 @@
       </c>
       <c r="I738" s="31"/>
     </row>
-    <row r="739" spans="1:9" ht="30">
+    <row r="739" spans="1:9" ht="45">
       <c r="A739" s="29" t="s">
         <v>759</v>
       </c>
@@ -27225,7 +27216,7 @@
       </c>
       <c r="I739" s="31"/>
     </row>
-    <row r="740" spans="1:9" ht="45">
+    <row r="740" spans="1:9" ht="60">
       <c r="A740" s="29" t="s">
         <v>760</v>
       </c>
@@ -27250,7 +27241,7 @@
       </c>
       <c r="I740" s="31"/>
     </row>
-    <row r="741" spans="1:9" ht="30">
+    <row r="741" spans="1:9" ht="45">
       <c r="A741" s="29" t="s">
         <v>761</v>
       </c>
@@ -27300,7 +27291,7 @@
       </c>
       <c r="I742" s="31"/>
     </row>
-    <row r="743" spans="1:9" ht="30">
+    <row r="743" spans="1:9" ht="45">
       <c r="A743" s="29" t="s">
         <v>763</v>
       </c>
@@ -27400,7 +27391,7 @@
       </c>
       <c r="I746" s="31"/>
     </row>
-    <row r="747" spans="1:9">
+    <row r="747" spans="1:9" ht="30">
       <c r="A747" s="29" t="s">
         <v>767</v>
       </c>
@@ -27577,7 +27568,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="754" spans="1:9" ht="30">
+    <row r="754" spans="1:9" ht="45">
       <c r="A754" s="29" t="s">
         <v>774</v>
       </c>
@@ -27656,7 +27647,7 @@
       </c>
       <c r="I756" s="31"/>
     </row>
-    <row r="757" spans="1:9" ht="30">
+    <row r="757" spans="1:9" ht="45">
       <c r="A757" s="29" t="s">
         <v>777</v>
       </c>
@@ -27681,7 +27672,7 @@
       </c>
       <c r="I757" s="31"/>
     </row>
-    <row r="758" spans="1:9" ht="30">
+    <row r="758" spans="1:9" ht="45">
       <c r="A758" s="22" t="s">
         <v>778</v>
       </c>
@@ -27706,7 +27697,7 @@
       </c>
       <c r="I758" s="31"/>
     </row>
-    <row r="759" spans="1:9" ht="30">
+    <row r="759" spans="1:9" ht="45">
       <c r="A759" s="29" t="s">
         <v>779</v>
       </c>
@@ -27806,7 +27797,7 @@
       </c>
       <c r="I762" s="31"/>
     </row>
-    <row r="763" spans="1:9">
+    <row r="763" spans="1:9" ht="30">
       <c r="A763" s="29" t="s">
         <v>783</v>
       </c>
@@ -27831,7 +27822,7 @@
       </c>
       <c r="I763" s="31"/>
     </row>
-    <row r="764" spans="1:9">
+    <row r="764" spans="1:9" ht="30">
       <c r="A764" s="29" t="s">
         <v>784</v>
       </c>
@@ -27856,7 +27847,7 @@
       </c>
       <c r="I764" s="31"/>
     </row>
-    <row r="765" spans="1:9">
+    <row r="765" spans="1:9" ht="30">
       <c r="A765" s="29" t="s">
         <v>785</v>
       </c>
@@ -27906,7 +27897,7 @@
       </c>
       <c r="I766" s="31"/>
     </row>
-    <row r="767" spans="1:9">
+    <row r="767" spans="1:9" ht="30">
       <c r="A767" s="29" t="s">
         <v>787</v>
       </c>
@@ -27956,7 +27947,7 @@
       </c>
       <c r="I768" s="31"/>
     </row>
-    <row r="769" spans="1:9" ht="30">
+    <row r="769" spans="1:9" ht="45">
       <c r="A769" s="29" t="s">
         <v>789</v>
       </c>
@@ -28006,7 +27997,7 @@
       </c>
       <c r="I770" s="31"/>
     </row>
-    <row r="771" spans="1:9" ht="30">
+    <row r="771" spans="1:9" ht="45">
       <c r="A771" s="29" t="s">
         <v>791</v>
       </c>
@@ -28156,7 +28147,7 @@
       </c>
       <c r="I776" s="31"/>
     </row>
-    <row r="777" spans="1:9" ht="60">
+    <row r="777" spans="1:9" ht="75">
       <c r="A777" s="29" t="s">
         <v>797</v>
       </c>
@@ -28206,7 +28197,7 @@
       </c>
       <c r="I778" s="31"/>
     </row>
-    <row r="779" spans="1:9" ht="45">
+    <row r="779" spans="1:9" ht="60">
       <c r="A779" s="29" t="s">
         <v>799</v>
       </c>
@@ -28381,7 +28372,7 @@
       </c>
       <c r="I785" s="31"/>
     </row>
-    <row r="786" spans="1:9" ht="30">
+    <row r="786" spans="1:9" ht="45">
       <c r="A786" s="29" t="s">
         <v>806</v>
       </c>
@@ -28456,7 +28447,7 @@
       </c>
       <c r="I788" s="31"/>
     </row>
-    <row r="789" spans="1:9">
+    <row r="789" spans="1:9" ht="30">
       <c r="A789" s="29" t="s">
         <v>809</v>
       </c>
@@ -28506,7 +28497,7 @@
       </c>
       <c r="I790" s="31"/>
     </row>
-    <row r="791" spans="1:9" ht="30">
+    <row r="791" spans="1:9" ht="45">
       <c r="A791" s="29" t="s">
         <v>811</v>
       </c>
@@ -28681,7 +28672,7 @@
       </c>
       <c r="I797" s="31"/>
     </row>
-    <row r="798" spans="1:9">
+    <row r="798" spans="1:9" ht="30">
       <c r="A798" s="29" t="s">
         <v>818</v>
       </c>
@@ -28756,7 +28747,7 @@
       </c>
       <c r="I800" s="31"/>
     </row>
-    <row r="801" spans="1:9" ht="45">
+    <row r="801" spans="1:9" ht="60">
       <c r="A801" s="29" t="s">
         <v>821</v>
       </c>
@@ -28781,7 +28772,7 @@
       </c>
       <c r="I801" s="31"/>
     </row>
-    <row r="802" spans="1:9">
+    <row r="802" spans="1:9" ht="30">
       <c r="A802" s="29" t="s">
         <v>822</v>
       </c>
@@ -28831,7 +28822,7 @@
       </c>
       <c r="I803" s="31"/>
     </row>
-    <row r="804" spans="1:9" ht="30">
+    <row r="804" spans="1:9" ht="45">
       <c r="A804" s="29" t="s">
         <v>824</v>
       </c>
@@ -28881,7 +28872,7 @@
       </c>
       <c r="I805" s="31"/>
     </row>
-    <row r="806" spans="1:9" ht="45">
+    <row r="806" spans="1:9" ht="60">
       <c r="A806" s="29" t="s">
         <v>826</v>
       </c>
@@ -28906,7 +28897,7 @@
       </c>
       <c r="I806" s="31"/>
     </row>
-    <row r="807" spans="1:9" ht="30">
+    <row r="807" spans="1:9" ht="45">
       <c r="A807" s="29" t="s">
         <v>827</v>
       </c>
@@ -28931,7 +28922,7 @@
       </c>
       <c r="I807" s="31"/>
     </row>
-    <row r="808" spans="1:9" ht="30">
+    <row r="808" spans="1:9" ht="45">
       <c r="A808" s="29" t="s">
         <v>828</v>
       </c>
@@ -29056,7 +29047,7 @@
       </c>
       <c r="I812" s="31"/>
     </row>
-    <row r="813" spans="1:9" ht="60">
+    <row r="813" spans="1:9" ht="75">
       <c r="A813" s="29" t="s">
         <v>833</v>
       </c>
@@ -29106,7 +29097,7 @@
       </c>
       <c r="I814" s="31"/>
     </row>
-    <row r="815" spans="1:9" ht="45">
+    <row r="815" spans="1:9" ht="60">
       <c r="A815" s="29" t="s">
         <v>835</v>
       </c>
@@ -29156,7 +29147,7 @@
       </c>
       <c r="I816" s="31"/>
     </row>
-    <row r="817" spans="1:9" ht="30">
+    <row r="817" spans="1:9" ht="45">
       <c r="A817" s="29" t="s">
         <v>837</v>
       </c>
@@ -29231,7 +29222,7 @@
       </c>
       <c r="I819" s="31"/>
     </row>
-    <row r="820" spans="1:9" ht="30">
+    <row r="820" spans="1:9" ht="45">
       <c r="A820" s="29" t="s">
         <v>840</v>
       </c>
@@ -29431,7 +29422,7 @@
       </c>
       <c r="I827" s="31"/>
     </row>
-    <row r="828" spans="1:9">
+    <row r="828" spans="1:9" ht="30">
       <c r="A828" s="29" t="s">
         <v>848</v>
       </c>
@@ -29456,7 +29447,7 @@
       </c>
       <c r="I828" s="31"/>
     </row>
-    <row r="829" spans="1:9" ht="30">
+    <row r="829" spans="1:9" ht="45">
       <c r="A829" s="29" t="s">
         <v>849</v>
       </c>
@@ -29531,7 +29522,7 @@
       </c>
       <c r="I831" s="31"/>
     </row>
-    <row r="832" spans="1:9">
+    <row r="832" spans="1:9" ht="30">
       <c r="A832" s="29" t="s">
         <v>852</v>
       </c>
@@ -29581,7 +29572,7 @@
       </c>
       <c r="I833" s="31"/>
     </row>
-    <row r="834" spans="1:9" ht="45">
+    <row r="834" spans="1:9" ht="60">
       <c r="A834" s="29" t="s">
         <v>854</v>
       </c>
@@ -29633,7 +29624,7 @@
       </c>
       <c r="I835" s="31"/>
     </row>
-    <row r="836" spans="1:9" ht="45">
+    <row r="836" spans="1:9" ht="60">
       <c r="A836" s="29" t="s">
         <v>856</v>
       </c>
@@ -29735,7 +29726,7 @@
       </c>
       <c r="I839" s="31"/>
     </row>
-    <row r="840" spans="1:9">
+    <row r="840" spans="1:9" ht="30">
       <c r="A840" s="29" t="s">
         <v>860</v>
       </c>
@@ -29810,7 +29801,7 @@
       </c>
       <c r="I842" s="31"/>
     </row>
-    <row r="843" spans="1:9" ht="45">
+    <row r="843" spans="1:9" ht="60">
       <c r="A843" s="29" t="s">
         <v>863</v>
       </c>
@@ -29835,7 +29826,7 @@
       </c>
       <c r="I843" s="31"/>
     </row>
-    <row r="844" spans="1:9">
+    <row r="844" spans="1:9" ht="30">
       <c r="A844" s="29" t="s">
         <v>864</v>
       </c>
@@ -29935,7 +29926,7 @@
       </c>
       <c r="I847" s="31"/>
     </row>
-    <row r="848" spans="1:9" ht="45">
+    <row r="848" spans="1:9" ht="60">
       <c r="A848" s="29" t="s">
         <v>868</v>
       </c>
@@ -29943,7 +29934,7 @@
         <v>1205</v>
       </c>
       <c r="C848" s="31" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="D848" s="29"/>
       <c r="E848" s="29" t="s">
@@ -29962,7 +29953,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="849" spans="1:9">
+    <row r="849" spans="1:9" ht="30">
       <c r="A849" s="29" t="s">
         <v>869</v>
       </c>
@@ -30062,7 +30053,7 @@
       </c>
       <c r="I852" s="31"/>
     </row>
-    <row r="853" spans="1:9" ht="45">
+    <row r="853" spans="1:9" ht="60">
       <c r="A853" s="29" t="s">
         <v>873</v>
       </c>
@@ -30162,7 +30153,7 @@
       </c>
       <c r="I856" s="31"/>
     </row>
-    <row r="857" spans="1:9">
+    <row r="857" spans="1:9" ht="30">
       <c r="A857" s="29" t="s">
         <v>877</v>
       </c>
@@ -30212,7 +30203,7 @@
       </c>
       <c r="I858" s="31"/>
     </row>
-    <row r="859" spans="1:9">
+    <row r="859" spans="1:9" ht="30">
       <c r="A859" s="29" t="s">
         <v>879</v>
       </c>
@@ -30262,7 +30253,7 @@
       </c>
       <c r="I860" s="31"/>
     </row>
-    <row r="861" spans="1:9" ht="30">
+    <row r="861" spans="1:9" ht="45">
       <c r="A861" s="22" t="s">
         <v>881</v>
       </c>
@@ -30270,7 +30261,7 @@
         <v>1206</v>
       </c>
       <c r="C861" s="20" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="D861" s="29"/>
       <c r="E861" s="29" t="s">
@@ -30287,7 +30278,7 @@
       </c>
       <c r="I861" s="31"/>
     </row>
-    <row r="862" spans="1:9" ht="45">
+    <row r="862" spans="1:9" ht="60">
       <c r="A862" s="29" t="s">
         <v>2291</v>
       </c>
@@ -30311,7 +30302,7 @@
         <v>17</v>
       </c>
       <c r="I862" s="20" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="863" spans="1:9" ht="45">
@@ -30589,7 +30580,7 @@
       </c>
       <c r="I873" s="31"/>
     </row>
-    <row r="874" spans="1:9" ht="45">
+    <row r="874" spans="1:9" ht="60">
       <c r="A874" s="29" t="s">
         <v>893</v>
       </c>
@@ -30689,7 +30680,7 @@
       </c>
       <c r="I877" s="31"/>
     </row>
-    <row r="878" spans="1:9">
+    <row r="878" spans="1:9" ht="30">
       <c r="A878" s="29" t="s">
         <v>897</v>
       </c>
@@ -30739,7 +30730,7 @@
       </c>
       <c r="I879" s="31"/>
     </row>
-    <row r="880" spans="1:9">
+    <row r="880" spans="1:9" ht="30">
       <c r="A880" s="22" t="s">
         <v>899</v>
       </c>
@@ -30764,7 +30755,7 @@
       </c>
       <c r="I880" s="31"/>
     </row>
-    <row r="881" spans="1:9" ht="30">
+    <row r="881" spans="1:9" ht="45">
       <c r="A881" s="29" t="s">
         <v>900</v>
       </c>
@@ -30772,7 +30763,7 @@
         <v>1206</v>
       </c>
       <c r="C881" s="31" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="D881" s="29"/>
       <c r="E881" s="29" t="s">
@@ -30839,7 +30830,7 @@
       </c>
       <c r="I883" s="31"/>
     </row>
-    <row r="884" spans="1:9" ht="30">
+    <row r="884" spans="1:9" ht="45">
       <c r="A884" s="29" t="s">
         <v>903</v>
       </c>
@@ -30864,7 +30855,7 @@
       </c>
       <c r="I884" s="31"/>
     </row>
-    <row r="885" spans="1:9" ht="30">
+    <row r="885" spans="1:9" ht="45">
       <c r="A885" s="29" t="s">
         <v>904</v>
       </c>
@@ -30914,7 +30905,7 @@
       </c>
       <c r="I886" s="31"/>
     </row>
-    <row r="887" spans="1:9" ht="30">
+    <row r="887" spans="1:9" ht="45">
       <c r="A887" s="29" t="s">
         <v>906</v>
       </c>
@@ -30989,7 +30980,7 @@
       </c>
       <c r="I889" s="31"/>
     </row>
-    <row r="890" spans="1:9">
+    <row r="890" spans="1:9" ht="30">
       <c r="A890" s="29" t="s">
         <v>909</v>
       </c>
@@ -31064,7 +31055,7 @@
       </c>
       <c r="I892" s="31"/>
     </row>
-    <row r="893" spans="1:9">
+    <row r="893" spans="1:9" ht="30">
       <c r="A893" s="29" t="s">
         <v>912</v>
       </c>
@@ -31189,7 +31180,7 @@
       </c>
       <c r="I897" s="31"/>
     </row>
-    <row r="898" spans="1:9" ht="30">
+    <row r="898" spans="1:9" ht="45">
       <c r="A898" s="29" t="s">
         <v>917</v>
       </c>
@@ -31264,7 +31255,7 @@
       </c>
       <c r="I900" s="31"/>
     </row>
-    <row r="901" spans="1:9" ht="30">
+    <row r="901" spans="1:9" ht="45">
       <c r="A901" s="29" t="s">
         <v>920</v>
       </c>
@@ -31339,7 +31330,7 @@
       </c>
       <c r="I903" s="31"/>
     </row>
-    <row r="904" spans="1:9">
+    <row r="904" spans="1:9" ht="30">
       <c r="A904" s="29" t="s">
         <v>923</v>
       </c>
@@ -31389,7 +31380,7 @@
       </c>
       <c r="I905" s="31"/>
     </row>
-    <row r="906" spans="1:9">
+    <row r="906" spans="1:9" ht="30">
       <c r="A906" s="29" t="s">
         <v>925</v>
       </c>
@@ -31439,7 +31430,7 @@
       </c>
       <c r="I907" s="31"/>
     </row>
-    <row r="908" spans="1:9">
+    <row r="908" spans="1:9" ht="30">
       <c r="A908" s="29" t="s">
         <v>927</v>
       </c>
@@ -31489,7 +31480,7 @@
       </c>
       <c r="I909" s="31"/>
     </row>
-    <row r="910" spans="1:9" ht="30">
+    <row r="910" spans="1:9" ht="45">
       <c r="A910" s="29" t="s">
         <v>929</v>
       </c>
@@ -31589,7 +31580,7 @@
       </c>
       <c r="I913" s="31"/>
     </row>
-    <row r="914" spans="1:9" ht="30">
+    <row r="914" spans="1:9" ht="45">
       <c r="A914" s="29" t="s">
         <v>933</v>
       </c>
@@ -31639,7 +31630,7 @@
       </c>
       <c r="I915" s="31"/>
     </row>
-    <row r="916" spans="1:9" ht="45">
+    <row r="916" spans="1:9" ht="60">
       <c r="A916" s="29" t="s">
         <v>935</v>
       </c>
@@ -31689,7 +31680,7 @@
       </c>
       <c r="I917" s="31"/>
     </row>
-    <row r="918" spans="1:9" ht="60">
+    <row r="918" spans="1:9" ht="75">
       <c r="A918" s="29" t="s">
         <v>937</v>
       </c>
@@ -31714,7 +31705,7 @@
       </c>
       <c r="I918" s="31"/>
     </row>
-    <row r="919" spans="1:9" ht="30">
+    <row r="919" spans="1:9" ht="45">
       <c r="A919" s="29" t="s">
         <v>938</v>
       </c>
@@ -31739,7 +31730,7 @@
       </c>
       <c r="I919" s="31"/>
     </row>
-    <row r="920" spans="1:9" ht="45">
+    <row r="920" spans="1:9" ht="60">
       <c r="A920" s="29" t="s">
         <v>939</v>
       </c>
@@ -31839,7 +31830,7 @@
       </c>
       <c r="I923" s="31"/>
     </row>
-    <row r="924" spans="1:9" ht="45">
+    <row r="924" spans="1:9" ht="60">
       <c r="A924" s="29" t="s">
         <v>943</v>
       </c>
@@ -31889,7 +31880,7 @@
       </c>
       <c r="I925" s="31"/>
     </row>
-    <row r="926" spans="1:9" ht="30">
+    <row r="926" spans="1:9" ht="45">
       <c r="A926" s="29" t="s">
         <v>945</v>
       </c>
@@ -31964,7 +31955,7 @@
       </c>
       <c r="I928" s="31"/>
     </row>
-    <row r="929" spans="1:9" ht="45">
+    <row r="929" spans="1:9" ht="60">
       <c r="A929" s="29" t="s">
         <v>948</v>
       </c>
@@ -32091,7 +32082,7 @@
       </c>
       <c r="I933" s="31"/>
     </row>
-    <row r="934" spans="1:9" ht="60">
+    <row r="934" spans="1:9" ht="75">
       <c r="A934" s="29" t="s">
         <v>953</v>
       </c>
@@ -32168,7 +32159,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="937" spans="1:9" ht="30">
+    <row r="937" spans="1:9" ht="45">
       <c r="A937" s="29" t="s">
         <v>956</v>
       </c>
@@ -32195,7 +32186,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="938" spans="1:9" ht="30">
+    <row r="938" spans="1:9" ht="45">
       <c r="A938" s="29" t="s">
         <v>957</v>
       </c>
@@ -32247,7 +32238,7 @@
       </c>
       <c r="I939" s="31"/>
     </row>
-    <row r="940" spans="1:9" ht="45">
+    <row r="940" spans="1:9" ht="60">
       <c r="A940" s="29" t="s">
         <v>959</v>
       </c>
@@ -32272,7 +32263,7 @@
       </c>
       <c r="I940" s="31"/>
     </row>
-    <row r="941" spans="1:9" ht="30">
+    <row r="941" spans="1:9" ht="45">
       <c r="A941" s="29" t="s">
         <v>960</v>
       </c>
@@ -32397,7 +32388,7 @@
       </c>
       <c r="I945" s="31"/>
     </row>
-    <row r="946" spans="1:9" ht="30">
+    <row r="946" spans="1:9" ht="45">
       <c r="A946" s="29" t="s">
         <v>965</v>
       </c>
@@ -32422,7 +32413,7 @@
       </c>
       <c r="I946" s="31"/>
     </row>
-    <row r="947" spans="1:9" ht="30">
+    <row r="947" spans="1:9" ht="45">
       <c r="A947" s="29" t="s">
         <v>966</v>
       </c>
@@ -32497,7 +32488,7 @@
       </c>
       <c r="I949" s="31"/>
     </row>
-    <row r="950" spans="1:9" ht="30">
+    <row r="950" spans="1:9" ht="45">
       <c r="A950" s="29" t="s">
         <v>969</v>
       </c>
@@ -32572,7 +32563,7 @@
       </c>
       <c r="I952" s="31"/>
     </row>
-    <row r="953" spans="1:9">
+    <row r="953" spans="1:9" ht="30">
       <c r="A953" s="29" t="s">
         <v>972</v>
       </c>
@@ -32772,7 +32763,7 @@
       </c>
       <c r="I960" s="31"/>
     </row>
-    <row r="961" spans="1:9" ht="30">
+    <row r="961" spans="1:9" ht="45">
       <c r="A961" s="29" t="s">
         <v>980</v>
       </c>
@@ -32822,7 +32813,7 @@
       </c>
       <c r="I962" s="31"/>
     </row>
-    <row r="963" spans="1:9" ht="30">
+    <row r="963" spans="1:9" ht="45">
       <c r="A963" s="29" t="s">
         <v>982</v>
       </c>
@@ -32847,7 +32838,7 @@
       </c>
       <c r="I963" s="31"/>
     </row>
-    <row r="964" spans="1:9" ht="30">
+    <row r="964" spans="1:9" ht="45">
       <c r="A964" s="29" t="s">
         <v>983</v>
       </c>
@@ -32922,7 +32913,7 @@
       </c>
       <c r="I966" s="31"/>
     </row>
-    <row r="967" spans="1:9" ht="30">
+    <row r="967" spans="1:9" ht="45">
       <c r="A967" s="29" t="s">
         <v>986</v>
       </c>
@@ -32947,7 +32938,7 @@
       </c>
       <c r="I967" s="31"/>
     </row>
-    <row r="968" spans="1:9" ht="30">
+    <row r="968" spans="1:9" ht="45">
       <c r="A968" s="29" t="s">
         <v>987</v>
       </c>
@@ -33047,7 +33038,7 @@
       </c>
       <c r="I971" s="31"/>
     </row>
-    <row r="972" spans="1:9" ht="30">
+    <row r="972" spans="1:9" ht="45">
       <c r="A972" s="29" t="s">
         <v>991</v>
       </c>
@@ -33072,7 +33063,7 @@
       </c>
       <c r="I972" s="31"/>
     </row>
-    <row r="973" spans="1:9" ht="30">
+    <row r="973" spans="1:9" ht="45">
       <c r="A973" s="29" t="s">
         <v>992</v>
       </c>
@@ -33097,7 +33088,7 @@
       </c>
       <c r="I973" s="31"/>
     </row>
-    <row r="974" spans="1:9" ht="30">
+    <row r="974" spans="1:9" ht="45">
       <c r="A974" s="29" t="s">
         <v>993</v>
       </c>
@@ -33122,7 +33113,7 @@
       </c>
       <c r="I974" s="31"/>
     </row>
-    <row r="975" spans="1:9" ht="30">
+    <row r="975" spans="1:9" ht="45">
       <c r="A975" s="29" t="s">
         <v>994</v>
       </c>
@@ -33172,7 +33163,7 @@
       </c>
       <c r="I976" s="31"/>
     </row>
-    <row r="977" spans="1:9" ht="30">
+    <row r="977" spans="1:9" ht="45">
       <c r="A977" s="29" t="s">
         <v>996</v>
       </c>
@@ -33222,7 +33213,7 @@
       </c>
       <c r="I978" s="31"/>
     </row>
-    <row r="979" spans="1:9" ht="30">
+    <row r="979" spans="1:9" ht="45">
       <c r="A979" s="29" t="s">
         <v>998</v>
       </c>
@@ -33247,7 +33238,7 @@
       </c>
       <c r="I979" s="31"/>
     </row>
-    <row r="980" spans="1:9" ht="45">
+    <row r="980" spans="1:9" ht="60">
       <c r="A980" s="29" t="s">
         <v>999</v>
       </c>
@@ -33347,7 +33338,7 @@
       </c>
       <c r="I983" s="31"/>
     </row>
-    <row r="984" spans="1:9">
+    <row r="984" spans="1:9" ht="30">
       <c r="A984" s="29" t="s">
         <v>1003</v>
       </c>
@@ -33397,7 +33388,7 @@
       </c>
       <c r="I985" s="31"/>
     </row>
-    <row r="986" spans="1:9" ht="30">
+    <row r="986" spans="1:9" ht="45">
       <c r="A986" s="29" t="s">
         <v>1005</v>
       </c>
@@ -33422,7 +33413,7 @@
       </c>
       <c r="I986" s="31"/>
     </row>
-    <row r="987" spans="1:9" ht="30">
+    <row r="987" spans="1:9" ht="45">
       <c r="A987" s="29" t="s">
         <v>1006</v>
       </c>
@@ -33572,7 +33563,7 @@
       </c>
       <c r="I992" s="31"/>
     </row>
-    <row r="993" spans="1:9" ht="30">
+    <row r="993" spans="1:9" ht="45">
       <c r="A993" s="29" t="s">
         <v>1012</v>
       </c>
@@ -33648,7 +33639,7 @@
       <c r="I995" s="31"/>
     </row>
     <row r="996" spans="1:9" ht="45">
-      <c r="A996" s="29" t="s">
+      <c r="A996" s="22" t="s">
         <v>1015</v>
       </c>
       <c r="B996" s="30" t="s">
@@ -33697,7 +33688,7 @@
       </c>
       <c r="I997" s="31"/>
     </row>
-    <row r="998" spans="1:9">
+    <row r="998" spans="1:9" ht="30">
       <c r="A998" s="29" t="s">
         <v>1017</v>
       </c>
@@ -33749,7 +33740,7 @@
       </c>
       <c r="I999" s="31"/>
     </row>
-    <row r="1000" spans="1:9" ht="45">
+    <row r="1000" spans="1:9" ht="60">
       <c r="A1000" s="29" t="s">
         <v>1019</v>
       </c>
@@ -33776,7 +33767,7 @@
       </c>
       <c r="I1000" s="31"/>
     </row>
-    <row r="1001" spans="1:9" ht="45">
+    <row r="1001" spans="1:9" ht="60">
       <c r="A1001" s="29" t="s">
         <v>1020</v>
       </c>
@@ -33936,7 +33927,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1007" spans="1:9" ht="45">
+    <row r="1007" spans="1:9" ht="60">
       <c r="A1007" s="29" t="s">
         <v>1026</v>
       </c>
@@ -33963,7 +33954,7 @@
       </c>
       <c r="I1007" s="31"/>
     </row>
-    <row r="1008" spans="1:9" ht="60">
+    <row r="1008" spans="1:9" ht="75">
       <c r="A1008" s="29" t="s">
         <v>1027</v>
       </c>
@@ -34254,7 +34245,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1019" spans="1:9" ht="45">
+    <row r="1019" spans="1:9" ht="60">
       <c r="A1019" s="29" t="s">
         <v>1038</v>
       </c>
@@ -34312,7 +34303,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1021" spans="1:9" ht="75">
+    <row r="1021" spans="1:9" ht="90">
       <c r="A1021" s="22" t="s">
         <v>1040</v>
       </c>
@@ -34341,7 +34332,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1022" spans="1:9" ht="90">
+    <row r="1022" spans="1:9" ht="120">
       <c r="A1022" s="22" t="s">
         <v>1041</v>
       </c>
@@ -34349,7 +34340,7 @@
         <v>1217</v>
       </c>
       <c r="C1022" s="20" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="D1022" s="29" t="s">
         <v>2176</v>
@@ -34428,7 +34419,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1025" spans="1:9" ht="45">
+    <row r="1025" spans="1:9" ht="60">
       <c r="A1025" s="29" t="s">
         <v>1044</v>
       </c>
@@ -34457,7 +34448,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1026" spans="1:9" ht="45">
+    <row r="1026" spans="1:9" ht="60">
       <c r="A1026" s="29" t="s">
         <v>1045</v>
       </c>
@@ -34486,7 +34477,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1027" spans="1:9" ht="60">
+    <row r="1027" spans="1:9" ht="75">
       <c r="A1027" s="29" t="s">
         <v>1046</v>
       </c>
@@ -34542,7 +34533,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1029" spans="1:9" ht="30">
+    <row r="1029" spans="1:9" ht="45">
       <c r="A1029" s="29" t="s">
         <v>1048</v>
       </c>
@@ -34625,7 +34616,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1032" spans="1:9" ht="75">
+    <row r="1032" spans="1:9" ht="90">
       <c r="A1032" s="29" t="s">
         <v>1049</v>
       </c>
@@ -34685,7 +34676,7 @@
     </row>
     <row r="1034" spans="1:9" ht="45">
       <c r="A1034" s="22" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="B1034" s="30" t="s">
         <v>1217</v>
@@ -34714,7 +34705,7 @@
     </row>
     <row r="1035" spans="1:9" ht="45">
       <c r="A1035" s="22" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="B1035" s="30" t="s">
         <v>1217</v>
@@ -34797,7 +34788,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="1038" spans="1:9" ht="90">
+    <row r="1038" spans="1:9" ht="105">
       <c r="A1038" s="29" t="s">
         <v>1053</v>
       </c>
@@ -34878,7 +34869,7 @@
       </c>
       <c r="I1040" s="31"/>
     </row>
-    <row r="1041" spans="1:9" ht="30">
+    <row r="1041" spans="1:9" ht="45">
       <c r="A1041" s="29" t="s">
         <v>1054</v>
       </c>
@@ -34963,7 +34954,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1044" spans="1:9" ht="30">
+    <row r="1044" spans="1:9" ht="45">
       <c r="A1044" s="22" t="s">
         <v>2326</v>
       </c>
@@ -35017,7 +35008,7 @@
       </c>
       <c r="I1045" s="31"/>
     </row>
-    <row r="1046" spans="1:9" ht="45">
+    <row r="1046" spans="1:9" ht="60">
       <c r="A1046" s="29" t="s">
         <v>1058</v>
       </c>
@@ -35073,7 +35064,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1048" spans="1:9" ht="45">
+    <row r="1048" spans="1:9" ht="60">
       <c r="A1048" s="22" t="s">
         <v>2333</v>
       </c>
@@ -35102,7 +35093,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1049" spans="1:9" ht="60">
+    <row r="1049" spans="1:9" ht="75">
       <c r="A1049" s="29" t="s">
         <v>1059</v>
       </c>
@@ -35208,7 +35199,7 @@
       </c>
       <c r="I1052" s="31"/>
     </row>
-    <row r="1053" spans="1:9" ht="45">
+    <row r="1053" spans="1:9" ht="60">
       <c r="A1053" s="29" t="s">
         <v>1063</v>
       </c>
@@ -35235,7 +35226,7 @@
       </c>
       <c r="I1053" s="31"/>
     </row>
-    <row r="1054" spans="1:9" ht="60">
+    <row r="1054" spans="1:9" ht="75">
       <c r="A1054" s="29" t="s">
         <v>1064</v>
       </c>
@@ -35262,7 +35253,7 @@
       </c>
       <c r="I1054" s="31"/>
     </row>
-    <row r="1055" spans="1:9" ht="75">
+    <row r="1055" spans="1:9" ht="90">
       <c r="A1055" s="29" t="s">
         <v>1065</v>
       </c>
@@ -35289,7 +35280,7 @@
       </c>
       <c r="I1055" s="31"/>
     </row>
-    <row r="1056" spans="1:9" ht="75">
+    <row r="1056" spans="1:9" ht="90">
       <c r="A1056" s="22" t="s">
         <v>2344</v>
       </c>
@@ -35297,10 +35288,10 @@
         <v>1217</v>
       </c>
       <c r="C1056" s="20" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="D1056" s="22" t="s">
-        <v>2345</v>
+        <v>2186</v>
       </c>
       <c r="E1056" s="29" t="s">
         <v>22</v>
@@ -35316,7 +35307,7 @@
       </c>
       <c r="I1056" s="31"/>
     </row>
-    <row r="1057" spans="1:9" ht="75">
+    <row r="1057" spans="1:9" ht="90">
       <c r="A1057" s="29" t="s">
         <v>1066</v>
       </c>
@@ -35324,10 +35315,10 @@
         <v>1217</v>
       </c>
       <c r="C1057" s="20" t="s">
-        <v>2348</v>
-      </c>
-      <c r="D1057" s="29" t="s">
         <v>2346</v>
+      </c>
+      <c r="D1057" s="22" t="s">
+        <v>2186</v>
       </c>
       <c r="E1057" s="29" t="s">
         <v>22</v>
@@ -35353,7 +35344,7 @@
         <v>1217</v>
       </c>
       <c r="C1058" s="31" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="D1058" s="29" t="s">
         <v>2187</v>
@@ -35382,7 +35373,7 @@
         <v>1217</v>
       </c>
       <c r="C1059" s="20" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="D1059" s="29" t="s">
         <v>2187</v>
@@ -35411,7 +35402,7 @@
         <v>1217</v>
       </c>
       <c r="C1060" s="31" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="D1060" s="29" t="s">
         <v>2187</v>
@@ -35432,7 +35423,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1061" spans="1:9" ht="30">
+    <row r="1061" spans="1:9" ht="45">
       <c r="A1061" s="29" t="s">
         <v>1070</v>
       </c>
@@ -35440,7 +35431,7 @@
         <v>1217</v>
       </c>
       <c r="C1061" s="31" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="D1061" s="29"/>
       <c r="E1061" s="29" t="s">
@@ -35465,7 +35456,7 @@
         <v>1217</v>
       </c>
       <c r="C1062" s="31" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="D1062" s="29" t="s">
         <v>2188</v>
@@ -35492,10 +35483,10 @@
         <v>1217</v>
       </c>
       <c r="C1063" s="31" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="D1063" s="29" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="E1063" s="29" t="s">
         <v>22</v>
@@ -35521,10 +35512,10 @@
         <v>1217</v>
       </c>
       <c r="C1064" s="31" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="D1064" s="29" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="E1064" s="29" t="s">
         <v>22</v>
@@ -35544,16 +35535,16 @@
     </row>
     <row r="1065" spans="1:9" ht="45">
       <c r="A1065" s="29" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B1065" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1065" s="31" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="D1065" s="29" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="E1065" s="29" t="s">
         <v>22</v>
@@ -35579,7 +35570,7 @@
         <v>1217</v>
       </c>
       <c r="C1066" s="31" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="D1066" s="29" t="s">
         <v>2189</v>
@@ -35598,7 +35589,7 @@
       </c>
       <c r="I1066" s="31"/>
     </row>
-    <row r="1067" spans="1:9" ht="30">
+    <row r="1067" spans="1:9" ht="45">
       <c r="A1067" s="29" t="s">
         <v>1075</v>
       </c>
@@ -35606,7 +35597,7 @@
         <v>1217</v>
       </c>
       <c r="C1067" s="31" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="D1067" s="29" t="s">
         <v>2189</v>
@@ -35625,7 +35616,7 @@
       </c>
       <c r="I1067" s="31"/>
     </row>
-    <row r="1068" spans="1:9" ht="45">
+    <row r="1068" spans="1:9" ht="60">
       <c r="A1068" s="29" t="s">
         <v>1076</v>
       </c>
@@ -35633,7 +35624,7 @@
         <v>1217</v>
       </c>
       <c r="C1068" s="31" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="D1068" s="29" t="s">
         <v>2190</v>
@@ -35660,7 +35651,7 @@
         <v>1217</v>
       </c>
       <c r="C1069" s="31" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="D1069" s="29" t="s">
         <v>2190</v>
@@ -35679,7 +35670,7 @@
       </c>
       <c r="I1069" s="31"/>
     </row>
-    <row r="1070" spans="1:9" ht="30">
+    <row r="1070" spans="1:9" ht="45">
       <c r="A1070" s="29" t="s">
         <v>1078</v>
       </c>
@@ -35687,7 +35678,7 @@
         <v>1217</v>
       </c>
       <c r="C1070" s="31" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="D1070" s="29"/>
       <c r="E1070" s="29" t="s">
@@ -35712,7 +35703,7 @@
         <v>1217</v>
       </c>
       <c r="C1071" s="31" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="D1071" s="29" t="s">
         <v>2191</v>
@@ -35739,7 +35730,7 @@
         <v>1217</v>
       </c>
       <c r="C1072" s="20" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="D1072" s="29" t="s">
         <v>2192</v>
@@ -35768,7 +35759,7 @@
         <v>1217</v>
       </c>
       <c r="C1073" s="31" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="D1073" s="29" t="s">
         <v>2192</v>
@@ -35795,7 +35786,7 @@
         <v>1217</v>
       </c>
       <c r="C1074" s="31" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D1074" s="29" t="s">
         <v>2193</v>
@@ -35822,7 +35813,7 @@
         <v>1217</v>
       </c>
       <c r="C1075" s="31" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="D1075" s="29" t="s">
         <v>2193</v>
@@ -35849,7 +35840,7 @@
         <v>1217</v>
       </c>
       <c r="C1076" s="31" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="D1076" s="29" t="s">
         <v>2194</v>
@@ -35868,7 +35859,7 @@
       </c>
       <c r="I1076" s="31"/>
     </row>
-    <row r="1077" spans="1:9" ht="30">
+    <row r="1077" spans="1:9" ht="45">
       <c r="A1077" s="29" t="s">
         <v>1085</v>
       </c>
@@ -35876,7 +35867,7 @@
         <v>1217</v>
       </c>
       <c r="C1077" s="31" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="D1077" s="29" t="s">
         <v>2194</v>
@@ -35903,7 +35894,7 @@
         <v>1217</v>
       </c>
       <c r="C1078" s="31" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="D1078" s="29" t="s">
         <v>2195</v>
@@ -35930,7 +35921,7 @@
         <v>1217</v>
       </c>
       <c r="C1079" s="31" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="D1079" s="29" t="s">
         <v>2195</v>
@@ -35957,7 +35948,7 @@
         <v>1217</v>
       </c>
       <c r="C1080" s="31" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="D1080" s="29" t="s">
         <v>2196</v>
@@ -35976,7 +35967,7 @@
       </c>
       <c r="I1080" s="31"/>
     </row>
-    <row r="1081" spans="1:9" ht="30">
+    <row r="1081" spans="1:9" ht="45">
       <c r="A1081" s="29" t="s">
         <v>1089</v>
       </c>
@@ -35984,7 +35975,7 @@
         <v>1217</v>
       </c>
       <c r="C1081" s="31" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="D1081" s="29" t="s">
         <v>2196</v>
@@ -36011,7 +36002,7 @@
         <v>1217</v>
       </c>
       <c r="C1082" s="31" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="D1082" s="29" t="s">
         <v>2197</v>
@@ -36032,7 +36023,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1083" spans="1:9" ht="45">
+    <row r="1083" spans="1:9" ht="60">
       <c r="A1083" s="29" t="s">
         <v>1091</v>
       </c>
@@ -36040,7 +36031,7 @@
         <v>1217</v>
       </c>
       <c r="C1083" s="31" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="D1083" s="29" t="s">
         <v>2197</v>
@@ -36063,16 +36054,16 @@
     </row>
     <row r="1084" spans="1:9" ht="45">
       <c r="A1084" s="22" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="B1084" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1084" s="20" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="D1084" s="29" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="E1084" s="29" t="s">
         <v>22</v>
@@ -36090,18 +36081,18 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1085" spans="1:9" ht="45">
+    <row r="1085" spans="1:9" ht="60">
       <c r="A1085" s="22" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="B1085" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1085" s="20" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="D1085" s="29" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="E1085" s="29" t="s">
         <v>22</v>
@@ -36121,16 +36112,16 @@
     </row>
     <row r="1086" spans="1:9" ht="45">
       <c r="A1086" s="29" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="B1086" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1086" s="31" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="D1086" s="29" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="E1086" s="29" t="s">
         <v>22</v>
@@ -36145,21 +36136,21 @@
         <v>17</v>
       </c>
       <c r="I1086" s="20" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="1087" spans="1:9" ht="45">
       <c r="A1087" s="29" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="B1087" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1087" s="31" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D1087" s="29" t="s">
         <v>2400</v>
-      </c>
-      <c r="D1087" s="29" t="s">
-        <v>2403</v>
       </c>
       <c r="E1087" s="29" t="s">
         <v>22</v>
@@ -36174,7 +36165,7 @@
         <v>17</v>
       </c>
       <c r="I1087" s="20" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1088" spans="1:9" ht="60">
@@ -36185,7 +36176,7 @@
         <v>1217</v>
       </c>
       <c r="C1088" s="31" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="D1088" s="29" t="s">
         <v>2198</v>
@@ -36243,7 +36234,7 @@
         <v>1217</v>
       </c>
       <c r="C1090" s="31" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="D1090" s="29" t="s">
         <v>2199</v>
@@ -36293,7 +36284,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1092" spans="1:9" ht="60">
+    <row r="1092" spans="1:9" ht="75">
       <c r="A1092" s="29" t="s">
         <v>1096</v>
       </c>
@@ -36301,7 +36292,7 @@
         <v>1217</v>
       </c>
       <c r="C1092" s="31" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="D1092" s="29" t="s">
         <v>2201</v>
@@ -36322,18 +36313,18 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1093" spans="1:9" ht="30">
+    <row r="1093" spans="1:9" ht="45">
       <c r="A1093" s="22" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="B1093" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1093" s="31" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="D1093" s="29" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="E1093" s="29" t="s">
         <v>22</v>
@@ -36349,18 +36340,18 @@
       </c>
       <c r="I1093" s="31"/>
     </row>
-    <row r="1094" spans="1:9" ht="30">
+    <row r="1094" spans="1:9" ht="45">
       <c r="A1094" s="22" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="B1094" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1094" s="31" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="D1094" s="29" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="E1094" s="29" t="s">
         <v>22</v>
@@ -36376,18 +36367,18 @@
       </c>
       <c r="I1094" s="31"/>
     </row>
-    <row r="1095" spans="1:9" ht="30">
+    <row r="1095" spans="1:9" ht="45">
       <c r="A1095" s="22" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="B1095" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1095" s="31" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="D1095" s="29" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="E1095" s="29" t="s">
         <v>22</v>
@@ -36405,16 +36396,16 @@
     </row>
     <row r="1096" spans="1:9" ht="45">
       <c r="A1096" s="22" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="B1096" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1096" s="31" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="D1096" s="29" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="E1096" s="29" t="s">
         <v>22</v>
@@ -36432,16 +36423,16 @@
     </row>
     <row r="1097" spans="1:9" ht="45">
       <c r="A1097" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="B1097" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C1097" s="31" t="s">
-        <v>2386</v>
-      </c>
-      <c r="D1097" s="29" t="s">
-        <v>2390</v>
+        <v>2384</v>
+      </c>
+      <c r="D1097" s="22" t="s">
+        <v>2387</v>
       </c>
       <c r="E1097" s="29" t="s">
         <v>22</v>
@@ -36486,7 +36477,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1099" spans="1:9" ht="45">
+    <row r="1099" spans="1:9" ht="60">
       <c r="A1099" s="29" t="s">
         <v>1098</v>
       </c>
@@ -36669,7 +36660,7 @@
       </c>
       <c r="I1105" s="31"/>
     </row>
-    <row r="1106" spans="1:9" ht="60">
+    <row r="1106" spans="1:9" ht="75">
       <c r="A1106" s="29" t="s">
         <v>1104</v>
       </c>
@@ -36694,7 +36685,7 @@
       </c>
       <c r="I1106" s="31"/>
     </row>
-    <row r="1107" spans="1:9" ht="30">
+    <row r="1107" spans="1:9" ht="45">
       <c r="A1107" s="29" t="s">
         <v>1105</v>
       </c>
@@ -36849,7 +36840,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B19:B41 B44:B861 B863:B1029 B1032:B1033 B1036:B1038 B1041:B1043 B1045:B1046 B1049:B1054 B1057:B1064 B1098:B1109 B1066:B1073 B1088:B1092 B1074:B1083" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B1065 B1097:B1109 B1066:B1073 B1087:B1096 B1074:B1086 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -7787,21 +7787,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7825,6 +7810,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8753,8 +8753,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1012" sqref="A1012:XFD1012"/>
+    <sheetView tabSelected="1" topLeftCell="D878" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A886" sqref="A886:XFD886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8809,127 +8809,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8942,12 +8942,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8960,12 +8960,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8978,12 +8978,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -8996,60 +8996,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -30898,7 +30898,7 @@
         <v>15</v>
       </c>
       <c r="H886" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I886" s="31"/>
     </row>
@@ -36742,6 +36742,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36749,11 +36754,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1103:I1108 A20:I1101">
@@ -36872,18 +36872,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36936,6 +36936,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -36945,14 +36953,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -7787,6 +7787,21 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7810,21 +7825,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8753,8 +8753,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D878" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A886" sqref="A886:XFD886"/>
+    <sheetView tabSelected="1" topLeftCell="E206" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8809,127 +8809,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8942,12 +8942,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8960,12 +8960,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8978,12 +8978,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -8996,60 +8996,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -36742,11 +36742,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36754,6 +36749,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1103:I1108 A20:I1101">
@@ -36872,21 +36872,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -36935,10 +36920,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36958,16 +36965,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15766" uniqueCount="2422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7882" uniqueCount="2417">
   <si>
     <t>Req ID</t>
   </si>
@@ -7127,10 +7127,6 @@
     <t>[In Appendix A: Product Behavior]  Implementation returns the Folder ID of all of the following folders in this field [FolderIds in RopLogon ROP Success Response Buffer for Public Folders]: Public Folders Root Folder (All other folders listed here are direct or indirect children of this folder), Interpersonal messages subtree, Non-interpersonal messages subtree, EForms Registry, Free/Busy Data, Offline address book Data, EForms Registry for the user's locale, Local Site's Free/Busy Data, Local Site's Offline Address Book Data, NNTP Article Index, Empty, Empty, Empty. (Exchange 2003, Exchange 2007 and Exchange 2010 follow this behavior)</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-OXCSTOR_R306800301, MS-OXCSTOR_R306800302.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -7285,9 +7281,6 @@
   </si>
   <si>
     <t>[In Read/Write Properties] The PidTagDeleteAfterSubmit property is writable.&lt;15&gt;</t>
-  </si>
-  <si>
-    <t>[In Read/Write Properties] The PidTagDisplayName property is read/write.&lt;16&gt;</t>
   </si>
   <si>
     <t>[In PidTagComment Property] The PidTagComment property ([MS-OXPROPS] section 2.631) contains a mailbox comment.</t>
@@ -7500,23 +7493,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagComment property by using the RopSetProperties ROP ([MS-OXCROPS] section 2.2.8.6).(Microsoft Exchange Server 2013 Service Pack 1 (SP1) and Exchange 2016 follow this behavior).</t>
+    <t>[In Appendix A: Product Behavior] Implementation does return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagDisplayName property by using the RopSetProperties ROP.(Microsoft Exchange Server 2013 Service Pack 1 (SP1) and Exchange 2016 follow this behavior)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation don't return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagComment property by using the RopSetProperties ROP ([MS-OXCROPS] section 2.2.8.6).(Exchange 2007 and Exchange 2010 follow this behavior).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does support PidTagDisplayName  property as read-only. &lt;16&gt; Section 2.2.2.1.2.3:  In Exchange 2013 SP1 and Exchange 2016 this property is read-only.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagDisplayName property by using the RopSetProperties ROP.(Exchange 2007, Exchange 2010 follow this behavior)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagDisplayName property by using the RopSetProperties ROP.(Microsoft Exchange Server 2013 Service Pack 1 (SP1) and Exchange 2016 follow this behavior)</t>
+    <t>[In Read/Write Properties] The PidTagDisplayName property is read/write.&lt;16&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7807,21 +7788,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7845,6 +7811,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8440,6 +8421,7 @@
   <autoFilter ref="A19:I1108">
     <filterColumn colId="0">
       <filters>
+        <filter val="MS-OXCSTOR_R3068003"/>
         <filter val="MS-OXCSTOR_R306800301"/>
         <filter val="MS-OXCSTOR_R306800302"/>
       </filters>
@@ -8815,7 +8797,7 @@
   <dimension ref="A1:L1110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1041" sqref="C1041"/>
+      <selection activeCell="C448" sqref="C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8859,7 +8841,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -8870,127 +8852,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -9003,12 +8985,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9021,12 +9003,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9039,12 +9021,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9057,60 +9039,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -10229,7 +10211,7 @@
         <v>1109</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29" t="s">
@@ -10245,7 +10227,7 @@
         <v>17</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10281,7 +10263,7 @@
         <v>1109</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="29" t="s">
@@ -10385,7 +10367,7 @@
         <v>1109</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="29" t="s">
@@ -11541,7 +11523,7 @@
         <v>1111</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29" t="s">
@@ -11745,7 +11727,7 @@
         <v>1112</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="29" t="s">
@@ -11947,7 +11929,7 @@
         <v>1112</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D131" s="29"/>
       <c r="E131" s="29" t="s">
@@ -13574,7 +13556,7 @@
         <v>1122</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D196" s="29"/>
       <c r="E196" s="29" t="s">
@@ -13624,7 +13606,7 @@
         <v>1122</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
@@ -13874,7 +13856,7 @@
         <v>1122</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D208" s="29"/>
       <c r="E208" s="29" t="s">
@@ -13949,7 +13931,7 @@
         <v>1124</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D211" s="29"/>
       <c r="E211" s="29" t="s">
@@ -14376,7 +14358,7 @@
         <v>1129</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D228" s="29"/>
       <c r="E228" s="29" t="s">
@@ -14753,7 +14735,7 @@
         <v>1132</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D243" s="29"/>
       <c r="E243" s="29" t="s">
@@ -14769,7 +14751,7 @@
         <v>17</v>
       </c>
       <c r="I243" s="20" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -18429,7 +18411,7 @@
         <v>1161</v>
       </c>
       <c r="C389" s="20" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D389" s="29"/>
       <c r="E389" s="29" t="s">
@@ -18803,7 +18785,7 @@
         <v>1162</v>
       </c>
       <c r="C403" s="20" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D403" s="29"/>
       <c r="E403" s="29" t="s">
@@ -18878,7 +18860,7 @@
         <v>1163</v>
       </c>
       <c r="C406" s="20" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D406" s="29"/>
       <c r="E406" s="29" t="s">
@@ -18953,7 +18935,7 @@
         <v>1164</v>
       </c>
       <c r="C409" s="20" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D409" s="29"/>
       <c r="E409" s="29" t="s">
@@ -19028,7 +19010,7 @@
         <v>1165</v>
       </c>
       <c r="C412" s="20" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D412" s="29"/>
       <c r="E412" s="29" t="s">
@@ -19103,7 +19085,7 @@
         <v>1166</v>
       </c>
       <c r="C415" s="20" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D415" s="29"/>
       <c r="E415" s="29" t="s">
@@ -19178,7 +19160,7 @@
         <v>1167</v>
       </c>
       <c r="C418" s="20" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D418" s="29"/>
       <c r="E418" s="29" t="s">
@@ -19228,7 +19210,7 @@
         <v>1168</v>
       </c>
       <c r="C420" s="20" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D420" s="29"/>
       <c r="E420" s="29" t="s">
@@ -19278,7 +19260,7 @@
         <v>1169</v>
       </c>
       <c r="C422" s="20" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D422" s="29"/>
       <c r="E422" s="29" t="s">
@@ -19328,7 +19310,7 @@
         <v>1170</v>
       </c>
       <c r="C424" s="20" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D424" s="29"/>
       <c r="E424" s="29" t="s">
@@ -19403,7 +19385,7 @@
         <v>1171</v>
       </c>
       <c r="C427" s="20" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D427" s="29"/>
       <c r="E427" s="29" t="s">
@@ -19453,7 +19435,7 @@
         <v>1172</v>
       </c>
       <c r="C429" s="20" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D429" s="29"/>
       <c r="E429" s="29" t="s">
@@ -19503,7 +19485,7 @@
         <v>1173</v>
       </c>
       <c r="C431" s="20" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D431" s="29"/>
       <c r="E431" s="29" t="s">
@@ -19522,13 +19504,13 @@
     </row>
     <row r="432" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="22" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B432" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C432" s="36" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D432" s="34"/>
       <c r="E432" s="29" t="s">
@@ -19547,13 +19529,13 @@
     </row>
     <row r="433" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="22" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B433" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C433" s="36" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D433" s="34"/>
       <c r="E433" s="29" t="s">
@@ -19572,13 +19554,13 @@
     </row>
     <row r="434" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="22" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B434" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C434" s="36" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D434" s="34"/>
       <c r="E434" s="29" t="s">
@@ -19597,13 +19579,13 @@
     </row>
     <row r="435" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="22" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B435" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C435" s="36" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D435" s="34"/>
       <c r="E435" s="29" t="s">
@@ -19622,13 +19604,13 @@
     </row>
     <row r="436" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="22" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B436" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C436" s="36" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D436" s="34"/>
       <c r="E436" s="34" t="s">
@@ -19647,13 +19629,13 @@
     </row>
     <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="22" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B437" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C437" s="36" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D437" s="34"/>
       <c r="E437" s="34" t="s">
@@ -19672,13 +19654,13 @@
     </row>
     <row r="438" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="22" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B438" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C438" s="36" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D438" s="34"/>
       <c r="E438" s="29" t="s">
@@ -19728,7 +19710,7 @@
         <v>1175</v>
       </c>
       <c r="C440" s="20" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D440" s="29"/>
       <c r="E440" s="29" t="s">
@@ -19775,7 +19757,7 @@
         <v>456</v>
       </c>
       <c r="B442" s="24" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="C442" s="31" t="s">
         <v>1605</v>
@@ -19800,10 +19782,10 @@
         <v>457</v>
       </c>
       <c r="B443" s="24" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C443" s="20" t="s">
         <v>2342</v>
-      </c>
-      <c r="C443" s="20" t="s">
-        <v>2343</v>
       </c>
       <c r="D443" s="29"/>
       <c r="E443" s="29" t="s">
@@ -19828,7 +19810,7 @@
         <v>1176</v>
       </c>
       <c r="C444" s="20" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D444" s="29"/>
       <c r="E444" s="29" t="s">
@@ -19853,7 +19835,7 @@
         <v>1176</v>
       </c>
       <c r="C445" s="20" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D445" s="29" t="s">
         <v>2132</v>
@@ -19909,7 +19891,7 @@
         <v>1176</v>
       </c>
       <c r="C447" s="20" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D447" s="29"/>
       <c r="E447" s="29" t="s">
@@ -19928,7 +19910,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="29" t="s">
         <v>462</v>
       </c>
@@ -19936,7 +19918,7 @@
         <v>1176</v>
       </c>
       <c r="C448" s="20" t="s">
-        <v>2347</v>
+        <v>2416</v>
       </c>
       <c r="D448" s="29" t="s">
         <v>2132</v>
@@ -19951,11 +19933,9 @@
         <v>15</v>
       </c>
       <c r="H448" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I448" s="20" t="s">
-        <v>2294</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I448" s="20"/>
     </row>
     <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="29" t="s">
@@ -20098,7 +20078,7 @@
         <v>1177</v>
       </c>
       <c r="C454" s="20" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="D454" s="29"/>
       <c r="E454" s="29" t="s">
@@ -20148,7 +20128,7 @@
         <v>1178</v>
       </c>
       <c r="C456" s="20" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="D456" s="29"/>
       <c r="E456" s="29" t="s">
@@ -20298,7 +20278,7 @@
         <v>1180</v>
       </c>
       <c r="C462" s="20" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="D462" s="29"/>
       <c r="E462" s="29" t="s">
@@ -20423,7 +20403,7 @@
         <v>1181</v>
       </c>
       <c r="C467" s="20" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="D467" s="29"/>
       <c r="E467" s="29" t="s">
@@ -20629,7 +20609,7 @@
         <v>1183</v>
       </c>
       <c r="C475" s="20" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="D475" s="29"/>
       <c r="E475" s="29" t="s">
@@ -20704,7 +20684,7 @@
         <v>1184</v>
       </c>
       <c r="C478" s="20" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="D478" s="29"/>
       <c r="E478" s="29" t="s">
@@ -20929,7 +20909,7 @@
         <v>32</v>
       </c>
       <c r="C487" s="20" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="D487" s="29"/>
       <c r="E487" s="29" t="s">
@@ -23504,7 +23484,7 @@
         <v>1191</v>
       </c>
       <c r="C590" s="20" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="D590" s="29"/>
       <c r="E590" s="29" t="s">
@@ -23604,7 +23584,7 @@
         <v>1192</v>
       </c>
       <c r="C594" s="20" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="D594" s="29"/>
       <c r="E594" s="29" t="s">
@@ -23620,7 +23600,7 @@
         <v>17</v>
       </c>
       <c r="I594" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="595" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -23781,7 +23761,7 @@
         <v>1194</v>
       </c>
       <c r="C601" s="20" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="D601" s="29"/>
       <c r="E601" s="29" t="s">
@@ -23833,7 +23813,7 @@
         <v>1194</v>
       </c>
       <c r="C603" s="20" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="D603" s="29"/>
       <c r="E603" s="29" t="s">
@@ -23849,7 +23829,7 @@
         <v>17</v>
       </c>
       <c r="I603" s="20" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="604" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -23937,7 +23917,7 @@
         <v>1194</v>
       </c>
       <c r="C607" s="20" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="D607" s="29"/>
       <c r="E607" s="29" t="s">
@@ -23953,7 +23933,7 @@
         <v>17</v>
       </c>
       <c r="I607" s="20" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="608" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -23964,7 +23944,7 @@
         <v>1194</v>
       </c>
       <c r="C608" s="20" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="D608" s="29"/>
       <c r="E608" s="29" t="s">
@@ -24107,7 +24087,7 @@
         <v>17</v>
       </c>
       <c r="I613" s="20" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="614" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -26932,7 +26912,7 @@
         <v>1198</v>
       </c>
       <c r="C726" s="20" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="D726" s="29"/>
       <c r="E726" s="29" t="s">
@@ -26982,7 +26962,7 @@
         <v>1198</v>
       </c>
       <c r="C728" s="20" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="D728" s="29"/>
       <c r="E728" s="29" t="s">
@@ -27007,7 +26987,7 @@
         <v>1198</v>
       </c>
       <c r="C729" s="20" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="D729" s="29"/>
       <c r="E729" s="29" t="s">
@@ -30946,7 +30926,7 @@
         <v>1204</v>
       </c>
       <c r="C886" s="20" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="D886" s="29"/>
       <c r="E886" s="29" t="s">
@@ -31746,7 +31726,7 @@
         <v>1208</v>
       </c>
       <c r="C918" s="20" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="D918" s="29"/>
       <c r="E918" s="29" t="s">
@@ -32146,7 +32126,7 @@
         <v>1208</v>
       </c>
       <c r="C934" s="20" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="D934" s="29"/>
       <c r="E934" s="29" t="s">
@@ -32323,7 +32303,7 @@
         <v>1208</v>
       </c>
       <c r="C941" s="20" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="D941" s="29"/>
       <c r="E941" s="29" t="s">
@@ -32377,7 +32357,7 @@
         <v>1208</v>
       </c>
       <c r="C943" s="20" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="D943" s="29"/>
       <c r="E943" s="29" t="s">
@@ -33404,7 +33384,7 @@
         <v>1212</v>
       </c>
       <c r="C984" s="20" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D984" s="29"/>
       <c r="E984" s="29" t="s">
@@ -33420,7 +33400,7 @@
         <v>17</v>
       </c>
       <c r="I984" s="20" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="985" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -33456,7 +33436,7 @@
         <v>1212</v>
       </c>
       <c r="C986" s="20" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="D986" s="29"/>
       <c r="E986" s="29" t="s">
@@ -33631,7 +33611,7 @@
         <v>1212</v>
       </c>
       <c r="C993" s="20" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="D993" s="29"/>
       <c r="E993" s="29" t="s">
@@ -33656,7 +33636,7 @@
         <v>1212</v>
       </c>
       <c r="C994" s="20" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="D994" s="29"/>
       <c r="E994" s="29" t="s">
@@ -34195,16 +34175,16 @@
     </row>
     <row r="1015" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="34" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B1015" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="C1015" s="36" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D1015" s="34" t="s">
         <v>2302</v>
-      </c>
-      <c r="D1015" s="34" t="s">
-        <v>2303</v>
       </c>
       <c r="E1015" s="29" t="s">
         <v>22</v>
@@ -34222,16 +34202,16 @@
     </row>
     <row r="1016" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="34" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B1016" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="C1016" s="36" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D1016" s="34" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="E1016" s="29" t="s">
         <v>22</v>
@@ -34255,7 +34235,7 @@
         <v>1215</v>
       </c>
       <c r="C1017" s="20" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="D1017" s="29"/>
       <c r="E1017" s="29" t="s">
@@ -34280,7 +34260,7 @@
         <v>1215</v>
       </c>
       <c r="C1018" s="20" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="D1018" s="29"/>
       <c r="E1018" s="29" t="s">
@@ -34305,7 +34285,7 @@
         <v>1215</v>
       </c>
       <c r="C1019" s="20" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="D1019" s="29"/>
       <c r="E1019" s="29" t="s">
@@ -34332,7 +34312,7 @@
         <v>1215</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="D1020" s="29"/>
       <c r="E1020" s="29" t="s">
@@ -34357,7 +34337,7 @@
         <v>1215</v>
       </c>
       <c r="C1021" s="20" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="D1021" s="29" t="s">
         <v>2138</v>
@@ -34384,7 +34364,7 @@
         <v>1215</v>
       </c>
       <c r="C1022" s="20" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="D1022" s="29"/>
       <c r="E1022" s="29" t="s">
@@ -34409,7 +34389,7 @@
         <v>1215</v>
       </c>
       <c r="C1023" s="20" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="D1023" s="29"/>
       <c r="E1023" s="29" t="s">
@@ -34434,7 +34414,7 @@
         <v>1215</v>
       </c>
       <c r="C1024" s="20" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="D1024" s="29" t="s">
         <v>2139</v>
@@ -34492,7 +34472,7 @@
         <v>1215</v>
       </c>
       <c r="C1026" s="20" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="D1026" s="29" t="s">
         <v>2140</v>
@@ -34550,7 +34530,7 @@
         <v>1215</v>
       </c>
       <c r="C1028" s="20" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="D1028" s="29" t="s">
         <v>2141</v>
@@ -34608,7 +34588,7 @@
         <v>1215</v>
       </c>
       <c r="C1030" s="20" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="D1030" s="29" t="s">
         <v>2142</v>
@@ -34666,7 +34646,7 @@
         <v>1215</v>
       </c>
       <c r="C1032" s="20" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="D1032" s="29" t="s">
         <v>2143</v>
@@ -34695,7 +34675,7 @@
         <v>1215</v>
       </c>
       <c r="C1033" s="20" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="D1033" s="29" t="s">
         <v>2143</v>
@@ -34724,7 +34704,7 @@
         <v>1215</v>
       </c>
       <c r="C1034" s="20" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="D1034" s="29" t="s">
         <v>2144</v>
@@ -34805,7 +34785,7 @@
         <v>1215</v>
       </c>
       <c r="C1037" s="20" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="D1037" s="29" t="s">
         <v>2233</v>
@@ -34834,7 +34814,7 @@
         <v>1215</v>
       </c>
       <c r="C1038" s="20" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="D1038" s="29" t="s">
         <v>2233</v>
@@ -34863,7 +34843,7 @@
         <v>1215</v>
       </c>
       <c r="C1039" s="20" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="D1039" s="29" t="s">
         <v>2145</v>
@@ -34921,7 +34901,7 @@
         <v>1215</v>
       </c>
       <c r="C1041" s="20" t="s">
-        <v>2421</v>
+        <v>2415</v>
       </c>
       <c r="D1041" s="29" t="s">
         <v>2235</v>
@@ -34950,7 +34930,7 @@
         <v>1215</v>
       </c>
       <c r="C1042" s="20" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="D1042" s="29" t="s">
         <v>2235</v>
@@ -34979,7 +34959,7 @@
         <v>1215</v>
       </c>
       <c r="C1043" s="20" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="D1043" s="29" t="s">
         <v>2236</v>
@@ -35035,7 +35015,7 @@
         <v>1215</v>
       </c>
       <c r="C1045" s="20" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="D1045" s="29" t="s">
         <v>2146</v>
@@ -35089,7 +35069,7 @@
         <v>1215</v>
       </c>
       <c r="C1047" s="20" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="D1047" s="29" t="s">
         <v>2240</v>
@@ -35116,7 +35096,7 @@
         <v>1215</v>
       </c>
       <c r="C1048" s="20" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="D1048" s="29" t="s">
         <v>2147</v>
@@ -35143,7 +35123,7 @@
         <v>1215</v>
       </c>
       <c r="C1049" s="20" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="D1049" s="29" t="s">
         <v>2147</v>
@@ -35172,7 +35152,7 @@
         <v>1215</v>
       </c>
       <c r="C1050" s="20" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="D1050" s="22" t="s">
         <v>2147</v>
@@ -35201,7 +35181,7 @@
         <v>1215</v>
       </c>
       <c r="C1051" s="20" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="D1051" s="29" t="s">
         <v>2148</v>
@@ -35230,7 +35210,7 @@
         <v>1215</v>
       </c>
       <c r="C1052" s="20" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="D1052" s="29" t="s">
         <v>2148</v>
@@ -35253,13 +35233,13 @@
     </row>
     <row r="1053" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1053" s="29" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="B1053" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="C1053" s="20" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="D1053" s="29" t="s">
         <v>2148</v>
@@ -35473,7 +35453,7 @@
         <v>1215</v>
       </c>
       <c r="C1061" s="20" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="D1061" s="22" t="s">
         <v>2151</v>
@@ -35496,13 +35476,13 @@
     </row>
     <row r="1062" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1062" s="22" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="B1062" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="C1062" s="20" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="D1062" s="22" t="s">
         <v>2151</v>
@@ -36278,7 +36258,7 @@
         <v>1215</v>
       </c>
       <c r="C1090" s="20" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="D1090" s="29" t="s">
         <v>2281</v>
@@ -36307,7 +36287,7 @@
         <v>1215</v>
       </c>
       <c r="C1091" s="20" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="D1091" s="29" t="s">
         <v>2281</v>
@@ -36336,7 +36316,7 @@
         <v>1215</v>
       </c>
       <c r="C1092" s="20" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="D1092" s="29" t="s">
         <v>2163</v>
@@ -36394,7 +36374,7 @@
         <v>1215</v>
       </c>
       <c r="C1094" s="20" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="D1094" s="29" t="s">
         <v>2164</v>
@@ -36452,7 +36432,7 @@
         <v>1215</v>
       </c>
       <c r="C1096" s="20" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="D1096" s="29" t="s">
         <v>2166</v>
@@ -36481,7 +36461,7 @@
         <v>1215</v>
       </c>
       <c r="C1097" s="20" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="D1097" s="29" t="s">
         <v>2278</v>
@@ -36510,7 +36490,7 @@
         <v>1215</v>
       </c>
       <c r="C1098" s="20" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="D1098" s="22" t="s">
         <v>2278</v>
@@ -36803,6 +36783,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36810,11 +36795,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1103:I1108 A20:I1101">
@@ -36933,6 +36913,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -36981,32 +36976,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37026,9 +36999,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1112</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -20,15 +20,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmpBE30" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="tmpBE30" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-rexu\AppData\Local\Temp\tmpBE30.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7882" uniqueCount="2417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7918" uniqueCount="2425">
   <si>
     <t>Req ID</t>
   </si>
@@ -7127,9 +7127,6 @@
     <t>[In Appendix A: Product Behavior]  Implementation returns the Folder ID of all of the following folders in this field [FolderIds in RopLogon ROP Success Response Buffer for Public Folders]: Public Folders Root Folder (All other folders listed here are direct or indirect children of this folder), Interpersonal messages subtree, Non-interpersonal messages subtree, EForms Registry, Free/Busy Data, Offline address book Data, EForms Registry for the user's locale, Local Site's Free/Busy Data, Local Site's Offline Address Book Data, NNTP Article Index, Empty, Empty, Empty. (Exchange 2003, Exchange 2007 and Exchange 2010 follow this behavior)</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>[In RopLogon ROP Request Buffer] [OpenFlags] The description of flag NO_MAIL: This flag is ignored.&lt;4&gt;</t>
   </si>
   <si>
@@ -7451,9 +7448,6 @@
     <t>[In Appendix A: Product Behavior] Implementation's maximum value of MaxDataSize is 4096. (If MaxDataSize &gt; [server's suitable maximum (4096)], then Implementation does adjust the value of MaxDataSize to the suitable maximum value (4096) in Microsoft Exchanges. &lt;47&gt; Section 3.2.5.12.1: Exchange 2003, Exchange 2007, Exchange 2010, Exchange 2013 and Exchange 2016 use 4096 for the maximum value.)</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] If the data is not properly formed, the implementation does fail with a ReturnValue of 0x8004011B.(Exchange 2013 and above follow this behavior.)</t>
-  </si>
-  <si>
     <t>Verified by derived requirements: MS-OXCSTOR_R193, MS-OXCSTOR_R1268001.</t>
   </si>
   <si>
@@ -7467,12 +7461,6 @@
   </si>
   <si>
     <t xml:space="preserve">Verified by derived requirement: MS-OXCSTOR_R1329, MS-OXCSTOR_R3102001. </t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] If the data is not properly formed, the implementation does fail with a ReturnValue of 0x000004ED. &lt;48&gt; Section 3.2.5.13.1:  Exchange 2007 and Exchange 2010 fail the operation with 0x000004ED (ecFmtError) if the data is not properly formed. ((Exchange 2007 and Exchange 2010 follow this behavior.))</t>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-OXCSTOR_R1021001, MS-OXCSTOR_R1021002.</t>
   </si>
   <si>
     <t>[In Behavior Common to Both Private Mailbox and Public Folder Logon] The error code ecCorruptData: The data cumulatively written could not be parsed as a proper serialized IDSET with REPLGUIDs, as specified in [MS-OXCFXICS] section 2.2.2.4.2.</t>
@@ -7499,12 +7487,48 @@
   <si>
     <t>[In Read/Write Properties] The PidTagDisplayName property is read/write.&lt;16&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] If the data is not properly formed, the implementation does fail with a ReturnValue of 0x000004ED. &lt;48&gt; Section 3.2.5.13.1: If the data is not properly formed, Exchange 2007 fails the operation with 0x000004ED (ecFmtError)  ((Exchange 2007 follows this behavior.))</t>
+  </si>
+  <si>
+    <t>MS-OXCSTOR_R1021003</t>
+  </si>
+  <si>
+    <t>MS-OXCSTOR_R1021004</t>
+  </si>
+  <si>
+    <t>MS-OXCSTOR_R1021005</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] If the data is not properly formed, the implementation does fail with a ReturnValue of 0x8004011B. (Exchange 2016 follows this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-OXCSTOR_R1021006</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior]  For public folder logon, if the data is not properly formed,  the implementation does fail with a ReturnValue of 0x000004ED. &lt;48&gt; Section 3.2.5.13.1: For public folder logon, Exchange 2010 fails the operation with 0x000004ED. (Exchange 2010 follows this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] For public folder logon, if the data is not properly formed,  the implementation does fail with a ReturnValue of 0x8004011B. &lt;48&gt; Section 3.2.5.13.1: For public folder logon, Exchange 2013 fails the operation with 0x8004011B. (Exchange 2013 follows this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] For private mailbox logon, if the data is not properly formed, the implementation does returns 0x00000000. &lt;48&gt; Section 3.2.5.13.1: For private mailbox logon, Exchange 2013 returns 0x00000000. (Exchange 2013 follows this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] For private mailbox logon, if the data is not properly formed, the implementation does fail with a ReturnValue of 0x80070057. &lt;48&gt; Section 3.2.5.13.1: For private mailbox logon, Exchange 2010 fails the operation with 0x80070057. (Exchange 2010 follows this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXCSTOR_R1021001, MS-OXCSTOR_R1021002,MS-OXCSTOR_R1021003,MS-OXCSTOR_R1021004,MS-OXCSTOR_R1021005,MS-OXCSTOR_R1021006.</t>
+  </si>
+  <si>
+    <t>21.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -7559,6 +7583,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -7788,21 +7813,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7827,11 +7837,144 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8170,124 +8313,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8417,34 +8442,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1108" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I1108" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1112" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="1">
+  <autoFilter ref="A19:I1112"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="38">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="37">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="36">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="35">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="34">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="33">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="32">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="31">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="30">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8453,12 +8478,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="24"/>
+    <tableColumn id="2" name="Test" dataDxfId="23"/>
+    <tableColumn id="3" name="Description" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8540,23 +8565,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8592,23 +8600,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8784,9 +8775,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L1110"/>
+  <dimension ref="A1:L1114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -8831,138 +8822,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>2294</v>
+        <v>2424</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>43021</v>
+        <v>43081</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8975,12 +8966,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8993,12 +8984,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9011,12 +9002,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9029,60 +9020,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -10201,7 +10192,7 @@
         <v>1109</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29" t="s">
@@ -10217,7 +10208,7 @@
         <v>17</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30">
@@ -10253,7 +10244,7 @@
         <v>1109</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="29" t="s">
@@ -10357,7 +10348,7 @@
         <v>1109</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="29" t="s">
@@ -11513,7 +11504,7 @@
         <v>1111</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29" t="s">
@@ -11717,7 +11708,7 @@
         <v>1112</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="29" t="s">
@@ -11919,7 +11910,7 @@
         <v>1112</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D131" s="29"/>
       <c r="E131" s="29" t="s">
@@ -13546,7 +13537,7 @@
         <v>1122</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D196" s="29"/>
       <c r="E196" s="29" t="s">
@@ -13596,7 +13587,7 @@
         <v>1122</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
@@ -13846,7 +13837,7 @@
         <v>1122</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D208" s="29"/>
       <c r="E208" s="29" t="s">
@@ -13921,7 +13912,7 @@
         <v>1124</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D211" s="29"/>
       <c r="E211" s="29" t="s">
@@ -14348,7 +14339,7 @@
         <v>1129</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D228" s="29"/>
       <c r="E228" s="29" t="s">
@@ -14725,7 +14716,7 @@
         <v>1132</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D243" s="29"/>
       <c r="E243" s="29" t="s">
@@ -14741,7 +14732,7 @@
         <v>17</v>
       </c>
       <c r="I243" s="20" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="30">
@@ -18401,7 +18392,7 @@
         <v>1161</v>
       </c>
       <c r="C389" s="20" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D389" s="29"/>
       <c r="E389" s="29" t="s">
@@ -18775,7 +18766,7 @@
         <v>1162</v>
       </c>
       <c r="C403" s="20" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D403" s="29"/>
       <c r="E403" s="29" t="s">
@@ -18850,7 +18841,7 @@
         <v>1163</v>
       </c>
       <c r="C406" s="20" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D406" s="29"/>
       <c r="E406" s="29" t="s">
@@ -18925,7 +18916,7 @@
         <v>1164</v>
       </c>
       <c r="C409" s="20" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D409" s="29"/>
       <c r="E409" s="29" t="s">
@@ -19000,7 +18991,7 @@
         <v>1165</v>
       </c>
       <c r="C412" s="20" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D412" s="29"/>
       <c r="E412" s="29" t="s">
@@ -19075,7 +19066,7 @@
         <v>1166</v>
       </c>
       <c r="C415" s="20" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D415" s="29"/>
       <c r="E415" s="29" t="s">
@@ -19150,7 +19141,7 @@
         <v>1167</v>
       </c>
       <c r="C418" s="20" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D418" s="29"/>
       <c r="E418" s="29" t="s">
@@ -19200,7 +19191,7 @@
         <v>1168</v>
       </c>
       <c r="C420" s="20" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D420" s="29"/>
       <c r="E420" s="29" t="s">
@@ -19250,7 +19241,7 @@
         <v>1169</v>
       </c>
       <c r="C422" s="20" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D422" s="29"/>
       <c r="E422" s="29" t="s">
@@ -19300,7 +19291,7 @@
         <v>1170</v>
       </c>
       <c r="C424" s="20" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D424" s="29"/>
       <c r="E424" s="29" t="s">
@@ -19375,7 +19366,7 @@
         <v>1171</v>
       </c>
       <c r="C427" s="20" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D427" s="29"/>
       <c r="E427" s="29" t="s">
@@ -19425,7 +19416,7 @@
         <v>1172</v>
       </c>
       <c r="C429" s="20" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D429" s="29"/>
       <c r="E429" s="29" t="s">
@@ -19475,7 +19466,7 @@
         <v>1173</v>
       </c>
       <c r="C431" s="20" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D431" s="29"/>
       <c r="E431" s="29" t="s">
@@ -19494,13 +19485,13 @@
     </row>
     <row r="432" spans="1:9" ht="30">
       <c r="A432" s="22" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B432" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C432" s="36" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D432" s="34"/>
       <c r="E432" s="29" t="s">
@@ -19519,13 +19510,13 @@
     </row>
     <row r="433" spans="1:9" ht="45">
       <c r="A433" s="22" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B433" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C433" s="36" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D433" s="34"/>
       <c r="E433" s="29" t="s">
@@ -19544,13 +19535,13 @@
     </row>
     <row r="434" spans="1:9" ht="75">
       <c r="A434" s="22" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B434" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C434" s="36" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D434" s="34"/>
       <c r="E434" s="29" t="s">
@@ -19569,13 +19560,13 @@
     </row>
     <row r="435" spans="1:9" ht="45">
       <c r="A435" s="22" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B435" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C435" s="36" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D435" s="34"/>
       <c r="E435" s="29" t="s">
@@ -19594,13 +19585,13 @@
     </row>
     <row r="436" spans="1:9" ht="45">
       <c r="A436" s="22" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B436" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C436" s="36" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D436" s="34"/>
       <c r="E436" s="34" t="s">
@@ -19619,13 +19610,13 @@
     </row>
     <row r="437" spans="1:9" ht="30">
       <c r="A437" s="22" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B437" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C437" s="36" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D437" s="34"/>
       <c r="E437" s="34" t="s">
@@ -19644,13 +19635,13 @@
     </row>
     <row r="438" spans="1:9" ht="30">
       <c r="A438" s="22" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B438" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C438" s="36" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D438" s="34"/>
       <c r="E438" s="29" t="s">
@@ -19700,7 +19691,7 @@
         <v>1175</v>
       </c>
       <c r="C440" s="20" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D440" s="29"/>
       <c r="E440" s="29" t="s">
@@ -19747,7 +19738,7 @@
         <v>456</v>
       </c>
       <c r="B442" s="24" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="C442" s="31" t="s">
         <v>1605</v>
@@ -19772,10 +19763,10 @@
         <v>457</v>
       </c>
       <c r="B443" s="24" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C443" s="20" t="s">
         <v>2341</v>
-      </c>
-      <c r="C443" s="20" t="s">
-        <v>2342</v>
       </c>
       <c r="D443" s="29"/>
       <c r="E443" s="29" t="s">
@@ -19800,7 +19791,7 @@
         <v>1176</v>
       </c>
       <c r="C444" s="20" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D444" s="29"/>
       <c r="E444" s="29" t="s">
@@ -19825,7 +19816,7 @@
         <v>1176</v>
       </c>
       <c r="C445" s="20" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D445" s="29" t="s">
         <v>2132</v>
@@ -19881,7 +19872,7 @@
         <v>1176</v>
       </c>
       <c r="C447" s="20" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D447" s="29"/>
       <c r="E447" s="29" t="s">
@@ -19908,7 +19899,7 @@
         <v>1176</v>
       </c>
       <c r="C448" s="20" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="D448" s="29" t="s">
         <v>2132</v>
@@ -20068,7 +20059,7 @@
         <v>1177</v>
       </c>
       <c r="C454" s="20" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D454" s="29"/>
       <c r="E454" s="29" t="s">
@@ -20118,7 +20109,7 @@
         <v>1178</v>
       </c>
       <c r="C456" s="20" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D456" s="29"/>
       <c r="E456" s="29" t="s">
@@ -20268,7 +20259,7 @@
         <v>1180</v>
       </c>
       <c r="C462" s="20" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D462" s="29"/>
       <c r="E462" s="29" t="s">
@@ -20393,7 +20384,7 @@
         <v>1181</v>
       </c>
       <c r="C467" s="20" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D467" s="29"/>
       <c r="E467" s="29" t="s">
@@ -20599,7 +20590,7 @@
         <v>1183</v>
       </c>
       <c r="C475" s="20" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D475" s="29"/>
       <c r="E475" s="29" t="s">
@@ -20674,7 +20665,7 @@
         <v>1184</v>
       </c>
       <c r="C478" s="20" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D478" s="29"/>
       <c r="E478" s="29" t="s">
@@ -20899,7 +20890,7 @@
         <v>32</v>
       </c>
       <c r="C487" s="20" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D487" s="29"/>
       <c r="E487" s="29" t="s">
@@ -23474,7 +23465,7 @@
         <v>1191</v>
       </c>
       <c r="C590" s="20" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D590" s="29"/>
       <c r="E590" s="29" t="s">
@@ -23574,7 +23565,7 @@
         <v>1192</v>
       </c>
       <c r="C594" s="20" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D594" s="29"/>
       <c r="E594" s="29" t="s">
@@ -23590,7 +23581,7 @@
         <v>17</v>
       </c>
       <c r="I594" s="20" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="595" spans="1:9" ht="30">
@@ -23751,7 +23742,7 @@
         <v>1194</v>
       </c>
       <c r="C601" s="20" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D601" s="29"/>
       <c r="E601" s="29" t="s">
@@ -23803,7 +23794,7 @@
         <v>1194</v>
       </c>
       <c r="C603" s="20" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D603" s="29"/>
       <c r="E603" s="29" t="s">
@@ -23819,7 +23810,7 @@
         <v>17</v>
       </c>
       <c r="I603" s="20" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="604" spans="1:9" ht="45">
@@ -23907,7 +23898,7 @@
         <v>1194</v>
       </c>
       <c r="C607" s="20" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D607" s="29"/>
       <c r="E607" s="29" t="s">
@@ -23923,7 +23914,7 @@
         <v>17</v>
       </c>
       <c r="I607" s="20" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="608" spans="1:9" ht="45">
@@ -23934,7 +23925,7 @@
         <v>1194</v>
       </c>
       <c r="C608" s="20" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D608" s="29"/>
       <c r="E608" s="29" t="s">
@@ -24077,7 +24068,7 @@
         <v>17</v>
       </c>
       <c r="I613" s="20" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="614" spans="1:9" ht="75">
@@ -26902,7 +26893,7 @@
         <v>1198</v>
       </c>
       <c r="C726" s="20" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D726" s="29"/>
       <c r="E726" s="29" t="s">
@@ -26952,7 +26943,7 @@
         <v>1198</v>
       </c>
       <c r="C728" s="20" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D728" s="29"/>
       <c r="E728" s="29" t="s">
@@ -26977,7 +26968,7 @@
         <v>1198</v>
       </c>
       <c r="C729" s="20" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D729" s="29"/>
       <c r="E729" s="29" t="s">
@@ -30916,7 +30907,7 @@
         <v>1204</v>
       </c>
       <c r="C886" s="20" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D886" s="29"/>
       <c r="E886" s="29" t="s">
@@ -31716,7 +31707,7 @@
         <v>1208</v>
       </c>
       <c r="C918" s="20" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D918" s="29"/>
       <c r="E918" s="29" t="s">
@@ -32116,7 +32107,7 @@
         <v>1208</v>
       </c>
       <c r="C934" s="20" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D934" s="29"/>
       <c r="E934" s="29" t="s">
@@ -32293,7 +32284,7 @@
         <v>1208</v>
       </c>
       <c r="C941" s="20" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D941" s="29"/>
       <c r="E941" s="29" t="s">
@@ -32347,7 +32338,7 @@
         <v>1208</v>
       </c>
       <c r="C943" s="20" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D943" s="29"/>
       <c r="E943" s="29" t="s">
@@ -33366,7 +33357,7 @@
       </c>
       <c r="I983" s="31"/>
     </row>
-    <row r="984" spans="1:9" ht="60">
+    <row r="984" spans="1:9" ht="120">
       <c r="A984" s="29" t="s">
         <v>996</v>
       </c>
@@ -33374,7 +33365,7 @@
         <v>1212</v>
       </c>
       <c r="C984" s="20" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D984" s="29"/>
       <c r="E984" s="29" t="s">
@@ -33390,7 +33381,7 @@
         <v>17</v>
       </c>
       <c r="I984" s="20" t="s">
-        <v>2409</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="985" spans="1:9" ht="60">
@@ -33426,7 +33417,7 @@
         <v>1212</v>
       </c>
       <c r="C986" s="20" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="D986" s="29"/>
       <c r="E986" s="29" t="s">
@@ -33601,7 +33592,7 @@
         <v>1212</v>
       </c>
       <c r="C993" s="20" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D993" s="29"/>
       <c r="E993" s="29" t="s">
@@ -33626,7 +33617,7 @@
         <v>1212</v>
       </c>
       <c r="C994" s="20" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="D994" s="29"/>
       <c r="E994" s="29" t="s">
@@ -34165,16 +34156,16 @@
     </row>
     <row r="1015" spans="1:9" ht="60">
       <c r="A1015" s="34" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B1015" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="C1015" s="36" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D1015" s="34" t="s">
         <v>2301</v>
-      </c>
-      <c r="D1015" s="34" t="s">
-        <v>2302</v>
       </c>
       <c r="E1015" s="29" t="s">
         <v>22</v>
@@ -34192,16 +34183,16 @@
     </row>
     <row r="1016" spans="1:9" ht="45">
       <c r="A1016" s="34" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B1016" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="C1016" s="36" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D1016" s="34" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E1016" s="29" t="s">
         <v>22</v>
@@ -34225,7 +34216,7 @@
         <v>1215</v>
       </c>
       <c r="C1017" s="20" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D1017" s="29"/>
       <c r="E1017" s="29" t="s">
@@ -34250,7 +34241,7 @@
         <v>1215</v>
       </c>
       <c r="C1018" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1018" s="29"/>
       <c r="E1018" s="29" t="s">
@@ -34275,7 +34266,7 @@
         <v>1215</v>
       </c>
       <c r="C1019" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1019" s="29"/>
       <c r="E1019" s="29" t="s">
@@ -34302,7 +34293,7 @@
         <v>1215</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D1020" s="29"/>
       <c r="E1020" s="29" t="s">
@@ -34327,7 +34318,7 @@
         <v>1215</v>
       </c>
       <c r="C1021" s="20" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D1021" s="29" t="s">
         <v>2138</v>
@@ -34354,7 +34345,7 @@
         <v>1215</v>
       </c>
       <c r="C1022" s="20" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D1022" s="29"/>
       <c r="E1022" s="29" t="s">
@@ -34379,7 +34370,7 @@
         <v>1215</v>
       </c>
       <c r="C1023" s="20" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D1023" s="29"/>
       <c r="E1023" s="29" t="s">
@@ -34404,7 +34395,7 @@
         <v>1215</v>
       </c>
       <c r="C1024" s="20" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D1024" s="29" t="s">
         <v>2139</v>
@@ -34462,7 +34453,7 @@
         <v>1215</v>
       </c>
       <c r="C1026" s="20" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D1026" s="29" t="s">
         <v>2140</v>
@@ -34520,7 +34511,7 @@
         <v>1215</v>
       </c>
       <c r="C1028" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1028" s="29" t="s">
         <v>2141</v>
@@ -34578,7 +34569,7 @@
         <v>1215</v>
       </c>
       <c r="C1030" s="20" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D1030" s="29" t="s">
         <v>2142</v>
@@ -34636,7 +34627,7 @@
         <v>1215</v>
       </c>
       <c r="C1032" s="20" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D1032" s="29" t="s">
         <v>2143</v>
@@ -34665,7 +34656,7 @@
         <v>1215</v>
       </c>
       <c r="C1033" s="20" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D1033" s="29" t="s">
         <v>2143</v>
@@ -34694,7 +34685,7 @@
         <v>1215</v>
       </c>
       <c r="C1034" s="20" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D1034" s="29" t="s">
         <v>2144</v>
@@ -34775,7 +34766,7 @@
         <v>1215</v>
       </c>
       <c r="C1037" s="20" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="D1037" s="29" t="s">
         <v>2233</v>
@@ -34804,7 +34795,7 @@
         <v>1215</v>
       </c>
       <c r="C1038" s="20" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="D1038" s="29" t="s">
         <v>2233</v>
@@ -34833,7 +34824,7 @@
         <v>1215</v>
       </c>
       <c r="C1039" s="20" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D1039" s="29" t="s">
         <v>2145</v>
@@ -34891,7 +34882,7 @@
         <v>1215</v>
       </c>
       <c r="C1041" s="20" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="D1041" s="29" t="s">
         <v>2235</v>
@@ -34920,7 +34911,7 @@
         <v>1215</v>
       </c>
       <c r="C1042" s="20" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="D1042" s="29" t="s">
         <v>2235</v>
@@ -34949,7 +34940,7 @@
         <v>1215</v>
       </c>
       <c r="C1043" s="20" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D1043" s="29" t="s">
         <v>2236</v>
@@ -35005,7 +34996,7 @@
         <v>1215</v>
       </c>
       <c r="C1045" s="20" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D1045" s="29" t="s">
         <v>2146</v>
@@ -35059,7 +35050,7 @@
         <v>1215</v>
       </c>
       <c r="C1047" s="20" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D1047" s="29" t="s">
         <v>2240</v>
@@ -35086,7 +35077,7 @@
         <v>1215</v>
       </c>
       <c r="C1048" s="20" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D1048" s="29" t="s">
         <v>2147</v>
@@ -35113,7 +35104,7 @@
         <v>1215</v>
       </c>
       <c r="C1049" s="20" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D1049" s="29" t="s">
         <v>2147</v>
@@ -35142,7 +35133,7 @@
         <v>1215</v>
       </c>
       <c r="C1050" s="20" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D1050" s="22" t="s">
         <v>2147</v>
@@ -35171,7 +35162,7 @@
         <v>1215</v>
       </c>
       <c r="C1051" s="20" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D1051" s="29" t="s">
         <v>2148</v>
@@ -35200,7 +35191,7 @@
         <v>1215</v>
       </c>
       <c r="C1052" s="20" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="D1052" s="29" t="s">
         <v>2148</v>
@@ -35223,13 +35214,13 @@
     </row>
     <row r="1053" spans="1:9" ht="45">
       <c r="A1053" s="29" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="B1053" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="C1053" s="20" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="D1053" s="29" t="s">
         <v>2148</v>
@@ -35443,7 +35434,7 @@
         <v>1215</v>
       </c>
       <c r="C1061" s="20" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D1061" s="22" t="s">
         <v>2151</v>
@@ -35466,13 +35457,13 @@
     </row>
     <row r="1062" spans="1:9" ht="90">
       <c r="A1062" s="22" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B1062" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="C1062" s="20" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D1062" s="22" t="s">
         <v>2151</v>
@@ -36248,7 +36239,7 @@
         <v>1215</v>
       </c>
       <c r="C1090" s="20" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D1090" s="29" t="s">
         <v>2281</v>
@@ -36277,7 +36268,7 @@
         <v>1215</v>
       </c>
       <c r="C1091" s="20" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D1091" s="29" t="s">
         <v>2281</v>
@@ -36306,7 +36297,7 @@
         <v>1215</v>
       </c>
       <c r="C1092" s="20" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D1092" s="29" t="s">
         <v>2163</v>
@@ -36364,7 +36355,7 @@
         <v>1215</v>
       </c>
       <c r="C1094" s="20" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D1094" s="29" t="s">
         <v>2164</v>
@@ -36422,7 +36413,7 @@
         <v>1215</v>
       </c>
       <c r="C1096" s="20" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D1096" s="29" t="s">
         <v>2166</v>
@@ -36451,7 +36442,7 @@
         <v>1215</v>
       </c>
       <c r="C1097" s="20" t="s">
-        <v>2408</v>
+        <v>2413</v>
       </c>
       <c r="D1097" s="29" t="s">
         <v>2278</v>
@@ -36472,7 +36463,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="1098" spans="1:9" ht="45">
+    <row r="1098" spans="1:9" ht="60">
       <c r="A1098" s="22" t="s">
         <v>2277</v>
       </c>
@@ -36480,7 +36471,7 @@
         <v>1215</v>
       </c>
       <c r="C1098" s="20" t="s">
-        <v>2402</v>
+        <v>2420</v>
       </c>
       <c r="D1098" s="22" t="s">
         <v>2278</v>
@@ -36501,184 +36492,196 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="1099" spans="1:9" ht="45">
-      <c r="A1099" s="29" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B1099" s="30" t="s">
+    <row r="1099" spans="1:9" ht="60">
+      <c r="A1099" s="22" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B1099" s="24" t="s">
         <v>1215</v>
       </c>
-      <c r="C1099" s="31" t="s">
-        <v>2121</v>
+      <c r="C1099" s="20" t="s">
+        <v>2419</v>
       </c>
       <c r="D1099" s="29" t="s">
-        <v>2167</v>
+        <v>2278</v>
       </c>
       <c r="E1099" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F1099" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1099" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H1099" s="29" t="s">
+      <c r="H1099" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I1099" s="31" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="1100" spans="1:9" ht="60">
-      <c r="A1100" s="29" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B1100" s="30" t="s">
+    <row r="1100" spans="1:9" ht="45">
+      <c r="A1100" s="22" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B1100" s="24" t="s">
         <v>1215</v>
       </c>
-      <c r="C1100" s="31" t="s">
-        <v>2122</v>
+      <c r="C1100" s="20" t="s">
+        <v>2421</v>
       </c>
       <c r="D1100" s="29" t="s">
-        <v>2168</v>
+        <v>2278</v>
       </c>
       <c r="E1100" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F1100" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1100" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H1100" s="29" t="s">
+      <c r="H1100" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I1100" s="31" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="1101" spans="1:9" ht="45">
-      <c r="A1101" s="29" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B1101" s="30" t="s">
+    <row r="1101" spans="1:9" ht="60">
+      <c r="A1101" s="22" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B1101" s="24" t="s">
         <v>1215</v>
       </c>
-      <c r="C1101" s="31" t="s">
-        <v>2123</v>
-      </c>
-      <c r="D1101" s="29"/>
+      <c r="C1101" s="20" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D1101" s="29" t="s">
+        <v>2278</v>
+      </c>
       <c r="E1101" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F1101" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1101" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H1101" s="29" t="s">
-        <v>21</v>
+      <c r="H1101" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="I1101" s="31" t="s">
         <v>2195</v>
       </c>
     </row>
     <row r="1102" spans="1:9" ht="45">
-      <c r="A1102" s="29" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B1102" s="30" t="s">
+      <c r="A1102" s="22" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B1102" s="24" t="s">
         <v>1215</v>
       </c>
-      <c r="C1102" s="31" t="s">
-        <v>2200</v>
-      </c>
-      <c r="D1102" s="29"/>
+      <c r="C1102" s="20" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D1102" s="29" t="s">
+        <v>2278</v>
+      </c>
       <c r="E1102" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F1102" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1102" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H1102" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1102" s="32" t="s">
+      <c r="H1102" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1102" s="31" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="1103" spans="1:9" ht="30">
+    <row r="1103" spans="1:9" ht="45">
       <c r="A1103" s="29" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B1103" s="30" t="s">
-        <v>1118</v>
+        <v>1215</v>
       </c>
       <c r="C1103" s="31" t="s">
-        <v>2124</v>
-      </c>
-      <c r="D1103" s="29"/>
+        <v>2121</v>
+      </c>
+      <c r="D1103" s="29" t="s">
+        <v>2167</v>
+      </c>
       <c r="E1103" s="29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1103" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1103" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H1103" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1103" s="31"/>
-    </row>
-    <row r="1104" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="I1103" s="31" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:9" ht="60">
       <c r="A1104" s="29" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B1104" s="30" t="s">
-        <v>1118</v>
+        <v>1215</v>
       </c>
       <c r="C1104" s="31" t="s">
-        <v>2125</v>
-      </c>
-      <c r="D1104" s="29"/>
+        <v>2122</v>
+      </c>
+      <c r="D1104" s="29" t="s">
+        <v>2168</v>
+      </c>
       <c r="E1104" s="29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1104" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1104" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H1104" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1104" s="31"/>
-    </row>
-    <row r="1105" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="I1104" s="31" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:9" ht="45">
       <c r="A1105" s="29" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B1105" s="30" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C1105" s="31" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="D1105" s="29"/>
       <c r="E1105" s="29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1105" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1105" s="29" t="s">
         <v>15</v>
@@ -36686,24 +36689,26 @@
       <c r="H1105" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I1105" s="31"/>
-    </row>
-    <row r="1106" spans="1:9" ht="30">
+      <c r="I1105" s="31" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:9" ht="45">
       <c r="A1106" s="29" t="s">
-        <v>1101</v>
+        <v>2199</v>
       </c>
       <c r="B1106" s="30" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C1106" s="31" t="s">
-        <v>2127</v>
+        <v>2200</v>
       </c>
       <c r="D1106" s="29"/>
       <c r="E1106" s="29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1106" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1106" s="29" t="s">
         <v>15</v>
@@ -36711,17 +36716,19 @@
       <c r="H1106" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I1106" s="31"/>
-    </row>
-    <row r="1107" spans="1:9" ht="75">
+      <c r="I1106" s="32" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:9" ht="30">
       <c r="A1107" s="29" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B1107" s="30" t="s">
-        <v>1216</v>
+        <v>1118</v>
       </c>
       <c r="C1107" s="31" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="D1107" s="29"/>
       <c r="E1107" s="29" t="s">
@@ -36738,15 +36745,15 @@
       </c>
       <c r="I1107" s="31"/>
     </row>
-    <row r="1108" spans="1:9" ht="45">
+    <row r="1108" spans="1:9">
       <c r="A1108" s="29" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B1108" s="30" t="s">
-        <v>1217</v>
+        <v>1118</v>
       </c>
       <c r="C1108" s="31" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="D1108" s="29"/>
       <c r="E1108" s="29" t="s">
@@ -36764,15 +36771,120 @@
       <c r="I1108" s="31"/>
     </row>
     <row r="1109" spans="1:9">
-      <c r="A1109" s="3"/>
-      <c r="B1109" s="10"/>
-    </row>
-    <row r="1110" spans="1:9">
-      <c r="A1110" s="3"/>
-      <c r="B1110" s="10"/>
+      <c r="A1109" s="29" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B1109" s="30" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1109" s="31" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D1109" s="29"/>
+      <c r="E1109" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1109" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1109" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1109" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1109" s="31"/>
+    </row>
+    <row r="1110" spans="1:9" ht="30">
+      <c r="A1110" s="29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1110" s="30" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1110" s="31" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D1110" s="29"/>
+      <c r="E1110" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1110" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1110" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1110" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1110" s="31"/>
+    </row>
+    <row r="1111" spans="1:9" ht="75">
+      <c r="A1111" s="29" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1111" s="30" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1111" s="31" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D1111" s="29"/>
+      <c r="E1111" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1111" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1111" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1111" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1111" s="31"/>
+    </row>
+    <row r="1112" spans="1:9" ht="45">
+      <c r="A1112" s="29" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1112" s="30" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C1112" s="31" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D1112" s="29"/>
+      <c r="E1112" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1112" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1112" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1112" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1112" s="31"/>
+    </row>
+    <row r="1113" spans="1:9">
+      <c r="A1113" s="3"/>
+      <c r="B1113" s="10"/>
+    </row>
+    <row r="1114" spans="1:9">
+      <c r="A1114" s="3"/>
+      <c r="B1114" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36780,110 +36892,105 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1103:I1108 A20:I1101">
-    <cfRule type="expression" dxfId="40" priority="67">
+  <conditionalFormatting sqref="A1107:I1112 A20:I1105">
+    <cfRule type="expression" dxfId="21" priority="67">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="68">
+    <cfRule type="expression" dxfId="20" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="75">
+    <cfRule type="expression" dxfId="19" priority="75">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1103:I1108 A20:I1101">
-    <cfRule type="expression" dxfId="37" priority="21">
+  <conditionalFormatting sqref="A1107:I1112 A20:I1105">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="22">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="23">
+    <cfRule type="expression" dxfId="16" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1103:F1108 F20:F1101">
-    <cfRule type="expression" dxfId="34" priority="27">
+  <conditionalFormatting sqref="F1107:F1112 F20:F1105">
+    <cfRule type="expression" dxfId="15" priority="27">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="14" priority="28">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1103:I1108">
-    <cfRule type="expression" dxfId="32" priority="18">
+  <conditionalFormatting sqref="I1107:I1112">
+    <cfRule type="expression" dxfId="13" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="19">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="20">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1103:I1108">
-    <cfRule type="expression" dxfId="29" priority="15">
+  <conditionalFormatting sqref="I1107:I1112">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" dxfId="9" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1102:H1102">
-    <cfRule type="expression" dxfId="26" priority="12">
+  <conditionalFormatting sqref="A1106:H1106">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="13">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="14">
+    <cfRule type="expression" dxfId="5" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1102:H1102">
-    <cfRule type="expression" dxfId="23" priority="7">
+  <conditionalFormatting sqref="A1106:H1106">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1102">
-    <cfRule type="expression" dxfId="20" priority="10">
-      <formula>NOT(VLOOKUP(F1102,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F1106">
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>NOT(VLOOKUP(F1106,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11">
-      <formula>(VLOOKUP(F1102,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>(VLOOKUP(F1106,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1108" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1112">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1108" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1112">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1108" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1112">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1108" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1112">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36893,7 +37000,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B19:B431 B444:B1014 B1054:B1061 B1063:B1098 B1099:B1110 B1017:B1052" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B431 B444:B1014 B1054:B1061 B1063:B1098 B1103:B1114 B1017:B1052" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -36903,18 +37010,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36967,6 +37074,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -36976,14 +37091,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -7469,14 +7469,6 @@
     <t>[In Behavior Common to Both Private Mailbox and Public Folder Logon] The following specific error codes [0x00000000, 0x80004005, 0x8004011B] apply to this ROP.</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation don't return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagComment property by using the RopSetProperties ROP ([MS-OXCROPS] section 2.2.8.6).(Exchange 2007 and Exchange 2010 follow this behavior).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagComment property by using the RopSetProperties ROP ([MS-OXCROPS] section 2.2.8.6).(Microsoft Exchange Server 2013 Service Pack 1 (SP1) and Exchange 2016 follow this behavior).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does not return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagDisplayName property by using the RopSetProperties ROP.(Exchange 2007, Exchange 2010 follow this behavior)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7523,6 +7515,12 @@
   </si>
   <si>
     <t>21.1</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagComment property by using the RopSetProperties ROP ([MS-OXCROPS] section 2.2.8.6).(Microsoft Exchange Server 2013 Service Pack 1 (SP1) and Exchange 2016 follow this behavior).</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagComment property by using the RopSetProperties ROP ([MS-OXCROPS] section 2.2.8.6).(Exchange 2007 and Exchange 2010 follow this behavior).</t>
   </si>
 </sst>
 </file>
@@ -7813,6 +7811,21 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7837,144 +7850,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8313,6 +8193,124 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8442,34 +8440,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1112" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1112" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I1112"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="38">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="37">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="36">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="35">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="34">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="33">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="32">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="31">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="30">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8478,12 +8476,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="24"/>
-    <tableColumn id="2" name="Test" dataDxfId="23"/>
-    <tableColumn id="3" name="Description" dataDxfId="22"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8822,7 +8820,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -8833,127 +8831,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8966,12 +8964,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8984,12 +8982,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9002,12 +9000,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9020,60 +9018,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -19899,7 +19897,7 @@
         <v>1176</v>
       </c>
       <c r="C448" s="20" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="D448" s="29" t="s">
         <v>2132</v>
@@ -33381,7 +33379,7 @@
         <v>17</v>
       </c>
       <c r="I984" s="20" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="985" spans="1:9" ht="60">
@@ -34766,7 +34764,7 @@
         <v>1215</v>
       </c>
       <c r="C1037" s="20" t="s">
-        <v>2409</v>
+        <v>2423</v>
       </c>
       <c r="D1037" s="29" t="s">
         <v>2233</v>
@@ -34795,7 +34793,7 @@
         <v>1215</v>
       </c>
       <c r="C1038" s="20" t="s">
-        <v>2408</v>
+        <v>2424</v>
       </c>
       <c r="D1038" s="29" t="s">
         <v>2233</v>
@@ -34882,7 +34880,7 @@
         <v>1215</v>
       </c>
       <c r="C1041" s="20" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="D1041" s="29" t="s">
         <v>2235</v>
@@ -34911,7 +34909,7 @@
         <v>1215</v>
       </c>
       <c r="C1042" s="20" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="D1042" s="29" t="s">
         <v>2235</v>
@@ -36442,7 +36440,7 @@
         <v>1215</v>
       </c>
       <c r="C1097" s="20" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="D1097" s="29" t="s">
         <v>2278</v>
@@ -36471,7 +36469,7 @@
         <v>1215</v>
       </c>
       <c r="C1098" s="20" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="D1098" s="22" t="s">
         <v>2278</v>
@@ -36494,13 +36492,13 @@
     </row>
     <row r="1099" spans="1:9" ht="60">
       <c r="A1099" s="22" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="B1099" s="24" t="s">
         <v>1215</v>
       </c>
       <c r="C1099" s="20" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="D1099" s="29" t="s">
         <v>2278</v>
@@ -36523,13 +36521,13 @@
     </row>
     <row r="1100" spans="1:9" ht="45">
       <c r="A1100" s="22" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="B1100" s="24" t="s">
         <v>1215</v>
       </c>
       <c r="C1100" s="20" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="D1100" s="29" t="s">
         <v>2278</v>
@@ -36552,13 +36550,13 @@
     </row>
     <row r="1101" spans="1:9" ht="60">
       <c r="A1101" s="22" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="B1101" s="24" t="s">
         <v>1215</v>
       </c>
       <c r="C1101" s="20" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="D1101" s="29" t="s">
         <v>2278</v>
@@ -36581,13 +36579,13 @@
     </row>
     <row r="1102" spans="1:9" ht="45">
       <c r="A1102" s="22" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="B1102" s="24" t="s">
         <v>1215</v>
       </c>
       <c r="C1102" s="20" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="D1102" s="29" t="s">
         <v>2278</v>
@@ -36880,11 +36878,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36892,87 +36885,92 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1107:I1112 A20:I1105">
-    <cfRule type="expression" dxfId="21" priority="67">
+    <cfRule type="expression" dxfId="40" priority="67">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="68">
+    <cfRule type="expression" dxfId="39" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="75">
+    <cfRule type="expression" dxfId="38" priority="75">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1107:I1112 A20:I1105">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="22">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1107:F1112 F20:F1105">
-    <cfRule type="expression" dxfId="15" priority="27">
+    <cfRule type="expression" dxfId="34" priority="27">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="33" priority="28">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1107:I1112">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="32" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="19">
+    <cfRule type="expression" dxfId="31" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="20">
+    <cfRule type="expression" dxfId="30" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1107:I1112">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="29" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="16">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="17">
+    <cfRule type="expression" dxfId="27" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1106:H1106">
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="14">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1106:H1106">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1106">
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>NOT(VLOOKUP(F1106,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>(VLOOKUP(F1106,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37019,12 +37017,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -37073,6 +37065,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
@@ -37082,20 +37080,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37108,4 +37092,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7520A6B4-6162-4AB6-9DB9-DA39DC1926A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -20,8 +21,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmpBE30" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmpBE30" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-rexu\AppData\Local\Temp\tmpBE30.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -7531,7 +7532,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -7821,6 +7822,27 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7845,150 +7867,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8327,6 +8210,124 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8456,34 +8457,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1113" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="1">
-  <autoFilter ref="A19:I1113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1113" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I1113" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="37">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="36">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="35">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="34">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="33">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="32">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="31">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="30">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8492,12 +8493,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="24"/>
-    <tableColumn id="2" name="Test" dataDxfId="23"/>
-    <tableColumn id="3" name="Description" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8579,6 +8580,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8614,6 +8632,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8789,13 +8824,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -8849,127 +8882,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8982,12 +9015,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9000,12 +9033,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9018,12 +9051,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9036,60 +9069,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -19131,23 +19164,23 @@
       <c r="B417" s="30" t="s">
         <v>1166</v>
       </c>
-      <c r="C417" s="51" t="s">
+      <c r="C417" s="38" t="s">
         <v>2401</v>
       </c>
-      <c r="D417" s="50"/>
+      <c r="D417" s="37"/>
       <c r="E417" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F417" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G417" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="H417" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I417" s="51"/>
+      <c r="G417" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H417" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I417" s="38"/>
     </row>
     <row r="418" spans="1:9">
       <c r="A418" s="29" t="s">
@@ -36921,11 +36954,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36933,105 +36961,110 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1108:I1113 A20:I1106">
-    <cfRule type="expression" dxfId="21" priority="67">
+    <cfRule type="expression" dxfId="40" priority="67">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="68">
+    <cfRule type="expression" dxfId="39" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="75">
+    <cfRule type="expression" dxfId="38" priority="75">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1108:I1113 A20:I1106">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="22">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1108:F1113 F20:F1106">
-    <cfRule type="expression" dxfId="15" priority="27">
+    <cfRule type="expression" dxfId="34" priority="27">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="33" priority="28">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1108:I1113">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="32" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="19">
+    <cfRule type="expression" dxfId="31" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="20">
+    <cfRule type="expression" dxfId="30" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1108:I1113">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="29" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="16">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="17">
+    <cfRule type="expression" dxfId="27" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1107:H1107">
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="14">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1107:H1107">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1107">
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>NOT(VLOOKUP(F1107,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>(VLOOKUP(F1107,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1113" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1113" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1113" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1113">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1113" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37051,18 +37084,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37115,14 +37148,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -37132,6 +37157,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7520A6B4-6162-4AB6-9DB9-DA39DC1926A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -21,8 +20,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmpBE30" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="tmpBE30" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-rexu\AppData\Local\Temp\tmpBE30.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -7116,24 +7115,12 @@
     <t>[In RopLogon ROP Request Buffer] [OpenFlags] The description of flag SUPPORT_PROGRESS: Indicates that the client supports asynchronous processing of RopSetReadFlags, as specified in [MS-OXCMSG] section 2.2.3.10.1.&lt;6&gt;</t>
   </si>
   <si>
-    <t>[In RopLogon ROP Success Response Buffer for Private Mailbox] StoreState: This field MUST be set to 0x00000000 by the server. &lt;8&gt;</t>
-  </si>
-  <si>
     <t>[In RopLogon ROP Success Response Buffer for Public Folders] FolderIds: This field contains the Folder ID of the following folders: &lt;9&gt; Public Folders Root Folder (All other folders listed here are direct or indirect children of this folder), Interpersonal messages subtree, Non-interpersonal messages subtree, EForms Registry, Free/Busy Data, Offline address book Data, EForms Registry for the user's locale, Local Site's Free/Busy Data, Local Site's Offline Address, Book Data, NNTP Article Index, Empty, Empty, Empty.</t>
   </si>
   <si>
     <t>[In RopLogon ROP Success Response Buffer for Public Folders] PerUserGuid: The server SHOULD set this field to an empty GUID (all zeroes).&lt;10&gt;</t>
   </si>
   <si>
-    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] 	[Rows] PidTagFolderId property ([MS-OXPROPS] section 2.694): A PtypInteger64 value that specifies the folder ID (FID) ([MS-OXCDATA] section 2.2.1.1) of the Receive folder, which is the folder to which messages of the specified message class will be delivered.</t>
-  </si>
-  <si>
-    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] [Rows] PidTagMessageClass property ([MS-OXPROPS] section 2.781): A PtypString8 value.</t>
-  </si>
-  <si>
-    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer]  [Rows] PidTagLastModificationTime property: PidTagLastModificationTime property ([MS-OXPROPS] section 2.758) -- A PtypTime value that specifies the time, in Coordinated Universal Time (UTC), when the server created or last modified the row in the Receive folder table.</t>
-  </si>
-  <si>
     <t>[In RopGetStoreState ROP] The RopGetStoreState ROP ([MS-OXCROPS] section 2.2.3.5) is used to obtain state information about the current mailbox.&lt;11&gt;</t>
   </si>
   <si>
@@ -7146,51 +7133,12 @@
     <t>[In Read-Only Properties] The read-only properties that are available on a private mailbox logon are specified in section 2.2.2.1.1.1 through section 2.2.2.1.1.15.</t>
   </si>
   <si>
-    <t>[In PidTagExtendedRuleSizeLimit Property] The PidTagExtendedRuleSizeLimit property ([MS-OXPROPS] section 2.688) contains the Maximum size, in bytes, the user is allowed to accumulate for a single "extended" rule.</t>
-  </si>
-  <si>
-    <t>[In PidTagMaximumSubmitMessageSize Property] The PidTagMaximumSubmitMessageSize property ([MS-OXPROPS] section 2.775) contains the maximum size, in kilobytes, of a message a user is allowed to submit for transmission to another user.</t>
-  </si>
-  <si>
-    <t>[In PidTagProhibitReceiveQuota Property] The PidTagProhibitReceiveQuota property ([MS-OXPROPS] section 2.868) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before no further mail will be delivered.</t>
-  </si>
-  <si>
-    <t>[In PidTagProhibitSendQuota Property] The PidTagProhibitSendQuota property ([MS-OXPROPS] section 2.869) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before the user can no longer submit any more mail.</t>
-  </si>
-  <si>
-    <t>[In PidTagStoreState Property] The PidTagStoreState property ([MS-OXPROPS] section 2.1023) indicates whether the mailbox has any active search folders.</t>
-  </si>
-  <si>
-    <t>[In PidTagContentCount Property] The PidTagContentCount property ([MS-OXPROPS] section 2.640) contains the cumulative count of non-folder associated information (FAI) messages in the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMailboxOwnerEntryId Property] The PidTagMailboxOwnerEntryId property ([MS-OXPROPS] section 2.771) contains the EntryID in the Global Address List (GAL) of the owner of the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMailboxOwnerName Property] The PidTagMailboxOwnerName property ([MS-OXPROPS] section 2.772) contains the display name of the owner of the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMessageSize Property] The PidTagMessageSize property ([MS-OXPROPS] section 2.790) contains the cumulative size, in bytes, of all content in the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMessageSizeExtended Property] The PidTagMessageSizeExtended property ([MS-OXPROPS] section 2.791) contains the cumulative size, in bytes, of all content in the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1047) contains the Address book EntryID of the user logged on to the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagLocaleId Property] The PidTagLocaleId property ([MS-OXPROPS] section 2.768) establishes the language locale for translating system-generated messages, such as delivery reports. For more details, see [MS-LCID].</t>
-  </si>
-  <si>
     <t>[In PidTagSerializedReplidGuidMap Property] Type of PidTagSerializedReplidGuidMap: PtypBinary ([MS-OXCDATA] section 2.11.1)</t>
   </si>
   <si>
     <t>MS-OXCSTOR_R4003001</t>
   </si>
   <si>
-    <t xml:space="preserve">[In PidTagSerializedReplidGuidMap Property] The PidTagSerializedReplidGuidMap property ([MS-OXPROPS] section 2.1013) contains a serialized list of REPLID and REPLGUID pairs which represents all or part of the REPLID /REPLGUID mapping of the associated Logon object. </t>
-  </si>
-  <si>
     <t>[In PidTagSerializedReplidGuidMap Property] For additional information on REPLID and REPLGUID mapping, please see section 3.2.5.8 and section 3.2.5.9.</t>
   </si>
   <si>
@@ -7224,39 +7172,15 @@
     <t>MS-OXCSTOR_R4003007</t>
   </si>
   <si>
-    <t>[In PidTagSortLocaleId Property] The PidTagSortLocaleId property ([MS-OXPROPS] section 2.1015) establishes the language locale for sorting the contents of tables. For more details, see [MS-LCID].</t>
-  </si>
-  <si>
     <t>2.2.2.1.1.15</t>
   </si>
   <si>
-    <t>[In PidTagCodePageId Property] The PidTagCodePageId property ([MS-OXPROPS] section 2.630) establishes the client code page for Unicode to double-byte character set (DBCS) string conversion. For details, see [MS-UCODEREF].</t>
-  </si>
-  <si>
     <t>[In Read/Write Properties] The PidTagComment property is read/write. &lt;14&gt;</t>
   </si>
   <si>
     <t>[In Read/Write Properties] The PidTagDeleteAfterSubmit property is writable.&lt;15&gt;</t>
   </si>
   <si>
-    <t>[In PidTagComment Property] The PidTagComment property ([MS-OXPROPS] section 2.631) contains a mailbox comment.</t>
-  </si>
-  <si>
-    <t>[In PidTagDeleteAfterSubmit Property] The PidTagDeleteAfterSubmit property ([MS-OXPROPS] section 2.662) indicates whether a transport deletes all submitted mail after transmission.</t>
-  </si>
-  <si>
-    <t>[In PidTagOutOfOfficeState Property] The PidTagOutOfOfficeState property ([MS-OXPROPS] section 2.849) indicates whether the user is Out of Office (OOF).</t>
-  </si>
-  <si>
-    <t>[In PidTagSentMailSvrEID Property] The PidTagSentMailSvrEID property ([MS-OXPROPS] section 2.1005) contains the structure identifying the Sent Items folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1047) contains the Address book EntryID of the user logged on to the public folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagAddressBookMessageId Property] The PidTagAddressBookMessageId property ([MS-OXPROPS] section 2.545) contains the short-term MID of the first message in the local site's offline address book public folder, if it exists and has a local replica.</t>
-  </si>
-  <si>
     <t>[In Initialization] These steps [to ensure that the server does not re-issue a REPLGUID that was issued prior to the restoration] are implementation-specific. &lt;18&gt;</t>
   </si>
   <si>
@@ -7272,19 +7196,7 @@
     <t>[In Private Mailbox Logon] If the client has made more than five attempts within a 10-second period to log on to a mailbox that is not hosted on the server, the server MUST fail the operation with ecServerPaused, as specified in section 3.2.5.1.3, in the ReturnValue field.</t>
   </si>
   <si>
-    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Folder ID" column (PidTagFolderId property ([MS-OXPROPS] section 2.694)) - Contains the Folder ID, as specified in [MS-OXCDATA] section 2.2.1.1, of the Receive folder, which is the folder to which messages of the specified message class will be delivered.</t>
-  </si>
-  <si>
-    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Message Class" column (PidTagMessageClass property ([MS-OXPROPS] section 2.781)) - Contains a string that specifies the message class that is configured for the Receive folder.</t>
-  </si>
-  <si>
-    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Last-modification Time" column (PidTagLastModificationTime property ([MS-OXPROPS] section 2.758)) - Contains the current system-time, in UTC, when the entry was created or last modified.</t>
-  </si>
-  <si>
     <t xml:space="preserve">[In Receiving a RopIdFromLongTermId ROP Request] The error code ecInvalidParam: The LongTermId field of the request contained zeros for either the replica GUID component. </t>
-  </si>
-  <si>
-    <t>[In Behavior Common to Both Private Mailbox and Public Folder Logon] If the user marks a message as read, the current value of that message's PidTagChangeNumber property ([MS-OXPROPS] section 2.626) is added to the change number set (CNSET).</t>
   </si>
   <si>
     <t>[In Behavior Common to Both Private Mailbox and Public Folder Logon] If the value of the DataOffset field is less than zero, the server SHOULD&lt;45&gt; fail the operation with 0x80004005 (ecError) in the ReturnValue field.</t>
@@ -7460,79 +7372,166 @@
     <t>[In Read/Write Properties] The read/write properties that are available on a private mailbox logon are specified in section 2.2.2.1.2.1 through section 2.2.2.1.2.5.</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support the Ghosted flag.  (&lt;1&gt; Section 2.2.1.1.1: Exchange 2013, Exchange 2016 and Exchange 2019 Preview follows this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does implement SUPPORT_PROGRESS flag. ( &lt;6&gt; Section 2.2.1.1.1: Microsoft Exchange Server 2010 Service Pack 1 (SP1), Exchange 2013, Exchange 2016 and Exchange 2019 Preview implement this flag [SUPPORT_PROGRESS].)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] &lt;6&gt; Section 2.2.1.1.1: Microsoft Outlook 2010 Service Pack 1 (SP1), Outlook 2013, and Outlook 2016 and outlook 2019 Preview implement this flag [SUPPORT_PROGRESS].</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] The implementation returns the empty Folder ID structures for the following folders: Free/Busy Data, Offline Address Book Data, Local Site's Free/Busy Data, Local Site's Offline Address Book Data, and NNTP Article Index. (&lt;9&gt; Section 2.2.1.1.4: Exchange 2013 Exchange 2016 and Exchange 2019 Preview returns the empty Folder ID structures for the following folders: Free/Busy Data, Offline Address Book Data, Local Site's Free/Busy Data, Local Site's Offline Address Book Data, and NNTP Article Index.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] The implementation does not implement the RopGetStoreState remote operation (ROP). (&lt;11&gt; Section 2.2.1.5: Exchange 2010, Exchange 2013,  Exchange 2016 and Exchange 2019 Preview does not implement the RopGetStoreState remote operation (ROP) ([MS-OXCROPS] section 2.2.3.5))</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does support each public folder has exactly one replica, the folder's content mailbox. (Exchange 2013, Exchange 16 and Exchange 2019 Preview follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagComment property by using the RopSetProperties ROP ([MS-OXCROPS] section 2.2.8.6).(Microsoft Exchange Server 2013 Service Pack 1 (SP1), Exchange 2016 and Exchange 2019 Preview follow this behavior).</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] The implementation returns 0x80070005 (ecAccessDenied) when the client attempts to set PidTagDeleteAfterSubmit property by using the RopSetProperties ROP. (&lt;15&gt; Section 2.2.2.1.2.2: In Exchange 2013, Exchange 2016 and Exchange 2019 Preview the server returns 0x80070005 (ecAccessDenied) when the client attempts to set this property [PidTagDeleteAfterSubmit] by using the RopSetProperties ROP ([MS-OXCROPS] section 2.2.8.6).)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagDisplayName property by using the RopSetProperties ROP.(Microsoft Exchange Server 2013 Service Pack 1 (SP1), Exchange 2016 and Exchange 2019 Preview follow this behavior)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] The behavior of the implementation is undefined if the client sets an undefined flag in either the LogonFlags field or the OpenFlags field. (&lt;23&gt; Section 3.2.5.1.1: The behavior of Exchange 2003, Exchange 2007, Exchange 2010, Exchange 2013,  Exchange 2016 and Exchange 2019 Preview is undefined if the client sets an undefined flag in either the LogonFlags field or the OpenFlags field.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] The implementation does implement the SUPPORT_PROGRESS flag. (&lt;24&gt; Section 3.2.5.1.1: Exchange 2010 SP1, Exchange 2013, Exchange 2016 and Exchange 2019 Preview implement the SUPPORT_PROGRESS flag.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] The implementation does support the GET/read operation for the PidTagSortLocaleId property.(&lt;25&gt; Section 3.2.5.1.1: Exchange 2010, Exchange 2013,  Exchange 2016 and Exchange 2019 Preview support the GET/read operation for the PidTagSortLocaleId property.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] If the logon is the first on the RPC session, then the implementation does fail with an RPC fault. (&lt;27&gt; Section 3.2.5.1.1: In Exchange 2013, Exchange 2016 and Exchange 2019 Preview, if the logon is the first on the RPC session, then the server fails with an RPC fault; if the logon is additional on the RPC session and it is to the same mailbox that is associated with the first logon, then the server returns ecInvalidParameter.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior]  Implementation does not fail the operation [RopLogon] with ecAccessDenied [if the user does not match the owner of the mailbox]. (&lt;31&gt; Section 3.2.5.1.1: Exchange 2016, Exchange 2013 and Exchange 2019 Preview return ecNone.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does support the USE_AUTODISCOVER_FOR_PUBLIC_FOLDER_CONFIGURATION flag. (&lt;34&gt; Section 3.2.5.1.2: Exchange 2013, Exchange 2016 and Exchange 2019 Preview always set the USE_AUTODISCOVER_FOR_PUBLIC_FOLDER_CONFIGURATION flag.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] &lt;35&gt; Section 3.2.5.1.2: The behavior of Exchange 2003, Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 Preview is undefined if the client sets an undefined flag in either the LogonFlags field or the OpenFlags field.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior]&lt;39&gt; Section 3.2.5.6: Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 Preview remove servers that have a connection cost greater than 500.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior]&lt;41&gt; Section 3.2.5.7: Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 Preview query Active Directory for cost information.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior]&lt;42&gt; Section 3.2.5.7: Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 Preview remove servers that have a connection cost greater than 500.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not fail the operation [RopLongTermIdFromId] with 0x8004010F, but ecNone. &lt;43&gt; Section 3.2.5.8: If the ObjectId field is set to zero, Exchange 2013, Exchange 2016 and Exchange 2019 Preview returns ecNone.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation's default value of MaxDataSize is 4096. (If MaxDataSize equals 0, then the server MUST adjust the value of MaxDataSize to a suitable default value (4096). &lt;46&gt; Section 3.2.5.12.1: Exchange 2003, Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 Preview use 4096 for the default value.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation's maximum value of MaxDataSize is 4096. (If MaxDataSize &gt; [server's suitable maximum (4096)], then Implementation does adjust the value of MaxDataSize to the suitable maximum value (4096) in Microsoft Exchanges. &lt;47&gt; Section 3.2.5.12.1: Exchange 2003, Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 Preview use 4096 for the maximum value.)</t>
-  </si>
-  <si>
-    <t>22.0</t>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>[In RopLogon ROP Success Response Buffer for Private Mailbox] StoreState: This field SHOULD be set to 0x00000000 by the server. &lt;8&gt;</t>
+  </si>
+  <si>
+    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] 	[Rows] PidTagFolderId property ([MS-OXPROPS] section 2.696): A PtypInteger64 value that specifies the folder ID (FID) ([MS-OXCDATA] section 2.2.1.1) of the Receive folder, which is the folder to which messages of the specified message class will be delivered.</t>
+  </si>
+  <si>
+    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] [Rows] PidTagMessageClass property ([MS-OXPROPS] section 2.783): A PtypString8 value.</t>
+  </si>
+  <si>
+    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer]  [Rows] PidTagLastModificationTime property: PidTagLastModificationTime property ([MS-OXPROPS] section 2.760) -- A PtypTime value that specifies the time, in Coordinated Universal Time (UTC), when the server created or last modified the row in the Receive folder table.</t>
+  </si>
+  <si>
+    <t>[In PidTagExtendedRuleSizeLimit Property] The PidTagExtendedRuleSizeLimit property ([MS-OXPROPS] section 2.690) contains the Maximum size, in bytes, the user is allowed to accumulate for a single "extended" rule.</t>
+  </si>
+  <si>
+    <t>[In PidTagMaximumSubmitMessageSize Property] The PidTagMaximumSubmitMessageSize property ([MS-OXPROPS] section 2.777) contains the maximum size, in kilobytes, of a message a user is allowed to submit for transmission to another user.</t>
+  </si>
+  <si>
+    <t>[In PidTagProhibitReceiveQuota Property] The PidTagProhibitReceiveQuota property ([MS-OXPROPS] section 2.870) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before no further mail will be delivered.</t>
+  </si>
+  <si>
+    <t>[In PidTagProhibitSendQuota Property] The PidTagProhibitSendQuota property ([MS-OXPROPS] section 2.871) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before the user can no longer submit any more mail.</t>
+  </si>
+  <si>
+    <t>[In PidTagStoreState Property] The PidTagStoreState property ([MS-OXPROPS] section 2.1025) indicates whether the mailbox has any active search folders.</t>
+  </si>
+  <si>
+    <t>[In PidTagContentCount Property] The PidTagContentCount property ([MS-OXPROPS] section 2.642) contains the cumulative count of non-folder associated information (FAI) messages in the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMailboxOwnerEntryId Property] The PidTagMailboxOwnerEntryId property ([MS-OXPROPS] section 2.773) contains the EntryID in the Global Address List (GAL) of the owner of the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMailboxOwnerName Property] The PidTagMailboxOwnerName property ([MS-OXPROPS] section 2.774) contains the display name of the owner of the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSize Property] The PidTagMessageSize property ([MS-OXPROPS] section 2.792) contains the cumulative size, in bytes, of all content in the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSizeExtended Property] The PidTagMessageSizeExtended property ([MS-OXPROPS] section 2.793) contains the cumulative size, in bytes, of all content in the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1049) contains the Address book EntryID of the user logged on to the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagLocaleId Property] The PidTagLocaleId property ([MS-OXPROPS] section 2.770) establishes the language locale for translating system-generated messages, such as delivery reports. For more details, see [MS-LCID].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In PidTagSerializedReplidGuidMap Property] The PidTagSerializedReplidGuidMap property ([MS-OXPROPS] section 2.1015) contains a serialized list of REPLID and REPLGUID pairs which represents all or part of the REPLID /REPLGUID mapping of the associated Logon object. </t>
+  </si>
+  <si>
+    <t>[In PidTagSortLocaleId Property] The PidTagSortLocaleId property ([MS-OXPROPS] section 2.1017) establishes the language locale for sorting the contents of tables. For more details, see [MS-LCID].</t>
+  </si>
+  <si>
+    <t>[In PidTagCodePageId Property] The PidTagCodePageId property ([MS-OXPROPS] section 2.632) establishes the client code page for Unicode to double-byte character set (DBCS) string conversion. For details, see [MS-UCODEREF].</t>
+  </si>
+  <si>
+    <t>[In PidTagComment Property] The PidTagComment property ([MS-OXPROPS] section 2.633) contains a mailbox comment.</t>
+  </si>
+  <si>
+    <t>[In PidTagDeleteAfterSubmit Property] The PidTagDeleteAfterSubmit property ([MS-OXPROPS] section 2.664) indicates whether a transport deletes all submitted mail after transmission.</t>
+  </si>
+  <si>
+    <t>[In PidTagOutOfOfficeState Property] The PidTagOutOfOfficeState property ([MS-OXPROPS] section 2.851) indicates whether the user is Out of Office (OOF).</t>
+  </si>
+  <si>
+    <t>[In PidTagSentMailSvrEID Property] The PidTagSentMailSvrEID property ([MS-OXPROPS] section 2.1007) contains the structure identifying the Sent Items folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1049) contains the Address book EntryID of the user logged on to the public folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagAddressBookMessageId Property] The PidTagAddressBookMessageId property ([MS-OXPROPS] section 2.547) contains the short-term MID of the first message in the local site's offline address book public folder, if it exists and has a local replica.</t>
+  </si>
+  <si>
+    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Folder ID" column (PidTagFolderId property ([MS-OXPROPS] section 2.696)) - Contains the Folder ID, as specified in [MS-OXCDATA] section 2.2.1.1, of the Receive folder, which is the folder to which messages of the specified message class will be delivered.</t>
+  </si>
+  <si>
+    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Message Class" column (PidTagMessageClass property ([MS-OXPROPS] section 2.783)) - Contains a string that specifies the message class that is configured for the Receive folder.</t>
+  </si>
+  <si>
+    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Last-modification Time" column (PidTagLastModificationTime property ([MS-OXPROPS] section 2.760)) - Contains the current system-time, in UTC, when the entry was created or last modified.</t>
+  </si>
+  <si>
+    <t>[In Behavior Common to Both Private Mailbox and Public Folder Logon] If the user marks a message as read, the current value of that message's PidTagChangeNumber property ([MS-OXPROPS] section 2.628) is added to the change number set (CNSET).</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not support the Ghosted flag.  (&lt;1&gt; Section 2.2.1.1.1: Exchange 2013, Exchange 2016 and Exchange 2019 follows this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does support each public folder has exactly one replica, the folder's content mailbox. (Exchange 2013, Exchange 16 and Exchange 2019 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagDisplayName property by using the RopSetProperties ROP.(Microsoft Exchange Server 2013 Service Pack 1 (SP1), Exchange 2016 and Exchange 2019 follow this behavior)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] The behavior of the implementation is undefined if the client sets an undefined flag in either the LogonFlags field or the OpenFlags field. (&lt;23&gt; Section 3.2.5.1.1: The behavior of Exchange 2003, Exchange 2007, Exchange 2010, Exchange 2013,  Exchange 2016 and Exchange 2019 is undefined if the client sets an undefined flag in either the LogonFlags field or the OpenFlags field.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] The implementation does support the GET/read operation for the PidTagSortLocaleId property.(&lt;25&gt; Section 3.2.5.1.1: Exchange 2010, Exchange 2013,  Exchange 2016 and Exchange 2019 support the GET/read operation for the PidTagSortLocaleId property.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagComment property by using the RopSetProperties ROP ([MS-OXCROPS] section 2.2.8.6).(Microsoft Exchange Server 2013 Service Pack 1 (SP1), Exchange 2016 and Exchange 2019 follow this behavior).</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does implement SUPPORT_PROGRESS flag. ( &lt;6&gt; Section 2.2.1.1.1: Microsoft Exchange Server 2010 Service Pack 1 (SP1), Exchange 2013, Exchange 2016 and Exchange 2019 implement this flag [SUPPORT_PROGRESS].)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] &lt;6&gt; Section 2.2.1.1.1: Microsoft Outlook 2010 Service Pack 1 (SP1), Outlook 2013, and Outlook 2016 and outlook 2019 implement this flag [SUPPORT_PROGRESS].</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] The implementation returns the empty Folder ID structures for the following folders: Free/Busy Data, Offline Address Book Data, Local Site's Free/Busy Data, Local Site's Offline Address Book Data, and NNTP Article Index. (&lt;9&gt; Section 2.2.1.1.4: Exchange 2013 Exchange 2016 and Exchange 2019 returns the empty Folder ID structures for the following folders: Free/Busy Data, Offline Address Book Data, Local Site's Free/Busy Data, Local Site's Offline Address Book Data, and NNTP Article Index.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] The implementation does not implement the RopGetStoreState remote operation (ROP). (&lt;11&gt; Section 2.2.1.5: Exchange 2010, Exchange 2013,  Exchange 2016 and Exchange 2019 does not implement the RopGetStoreState remote operation (ROP) ([MS-OXCROPS] section 2.2.3.5))</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] The implementation does implement the SUPPORT_PROGRESS flag. (&lt;24&gt; Section 3.2.5.1.1: Exchange 2010 SP1, Exchange 2013, Exchange 2016 and Exchange 2019 implement the SUPPORT_PROGRESS flag.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] &lt;35&gt; Section 3.2.5.1.2: The behavior of Exchange 2003, Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 is undefined if the client sets an undefined flag in either the LogonFlags field or the OpenFlags field.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] If the logon is the first on the RPC session, then the implementation does fail with an RPC fault. (&lt;27&gt; Section 3.2.5.1.1: In Exchange 2013, Exchange 2016 and Exchange 2019 if the logon is the first on the RPC session, then the server fails with an RPC fault; if the logon is additional on the RPC session and it is to the same mailbox that is associated with the first logon, then the server returns ecInvalidParameter.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] The implementation returns 0x80070005 (ecAccessDenied) when the client attempts to set PidTagDeleteAfterSubmit property by using the RopSetProperties ROP. (&lt;15&gt; Section 2.2.2.1.2.2: In Exchange 2013, Exchange 2016 and Exchange 2019 the server returns 0x80070005 (ecAccessDenied) when the client attempts to set this property [PidTagDeleteAfterSubmit] by using the RopSetProperties ROP ([MS-OXCROPS] section 2.2.8.6).)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior]  Implementation does not fail the operation [RopLogon] with ecAccessDenied [if the user does not match the owner of the mailbox]. (&lt;31&gt; Section 3.2.5.1.1: Exchange 2016, Exchange 2013 and Exchange 2019 return ecNone.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior]&lt;39&gt; Section 3.2.5.6: Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 remove servers that have a connection cost greater than 500.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation's default value of MaxDataSize is 4096. (If MaxDataSize equals 0, then the server MUST adjust the value of MaxDataSize to a suitable default value (4096). &lt;46&gt; Section 3.2.5.12.1: Exchange 2003, Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 use 4096 for the default value.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not fail the operation [RopLongTermIdFromId] with 0x8004010F, but ecNone. &lt;43&gt; Section 3.2.5.8: If the ObjectId field is set to zero, Exchange 2013, Exchange 2016 and Exchange 2019 returns ecNone.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior]&lt;42&gt; Section 3.2.5.7: Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 remove servers that have a connection cost greater than 500.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior]&lt;41&gt; Section 3.2.5.7: Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 query Active Directory for cost information.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does support the USE_AUTODISCOVER_FOR_PUBLIC_FOLDER_CONFIGURATION flag. (&lt;34&gt; Section 3.2.5.1.2: Exchange 2013, Exchange 2016 and Exchange 2019 always set the USE_AUTODISCOVER_FOR_PUBLIC_FOLDER_CONFIGURATION flag.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation's maximum value of MaxDataSize is 4096. (If MaxDataSize &gt; [server's suitable maximum (4096)], then Implementation does adjust the value of MaxDataSize to the suitable maximum value (4096) in Microsoft Exchanges. &lt;47&gt; Section 3.2.5.12.1: Exchange 2003, Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 use 4096 for the maximum value.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -7828,21 +7827,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7866,6 +7850,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8457,34 +8456,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1113" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I1113" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1113" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I1113"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8493,12 +8492,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8580,23 +8579,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8632,23 +8614,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8824,11 +8789,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1089" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1097" sqref="C1097"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -8871,138 +8838,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>2426</v>
+        <v>2375</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>43305</v>
+        <v>43374</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9015,12 +8982,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9033,12 +9000,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9051,12 +9018,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9069,60 +9036,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -11553,7 +11520,7 @@
         <v>1111</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>2290</v>
+        <v>2376</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29" t="s">
@@ -11579,7 +11546,7 @@
       <c r="B116" s="30" t="s">
         <v>1111</v>
       </c>
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="20" t="s">
         <v>1308</v>
       </c>
       <c r="D116" s="29"/>
@@ -11757,7 +11724,7 @@
         <v>1112</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="29" t="s">
@@ -11959,7 +11926,7 @@
         <v>1112</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D131" s="29"/>
       <c r="E131" s="29" t="s">
@@ -13586,7 +13553,7 @@
         <v>1122</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>2293</v>
+        <v>2377</v>
       </c>
       <c r="D196" s="29"/>
       <c r="E196" s="29" t="s">
@@ -13636,7 +13603,7 @@
         <v>1122</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>2294</v>
+        <v>2378</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
@@ -13886,7 +13853,7 @@
         <v>1122</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>2295</v>
+        <v>2379</v>
       </c>
       <c r="D208" s="29"/>
       <c r="E208" s="29" t="s">
@@ -13961,7 +13928,7 @@
         <v>1124</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="D211" s="29"/>
       <c r="E211" s="29" t="s">
@@ -14388,7 +14355,7 @@
         <v>1129</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="D228" s="29"/>
       <c r="E228" s="29" t="s">
@@ -14765,7 +14732,7 @@
         <v>1132</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="D243" s="29"/>
       <c r="E243" s="29" t="s">
@@ -14781,7 +14748,7 @@
         <v>17</v>
       </c>
       <c r="I243" s="20" t="s">
-        <v>2362</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="30">
@@ -18441,7 +18408,7 @@
         <v>1161</v>
       </c>
       <c r="C389" s="20" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="D389" s="29"/>
       <c r="E389" s="29" t="s">
@@ -18815,7 +18782,7 @@
         <v>1162</v>
       </c>
       <c r="C403" s="20" t="s">
-        <v>2300</v>
+        <v>2380</v>
       </c>
       <c r="D403" s="29"/>
       <c r="E403" s="29" t="s">
@@ -18890,7 +18857,7 @@
         <v>1163</v>
       </c>
       <c r="C406" s="20" t="s">
-        <v>2301</v>
+        <v>2381</v>
       </c>
       <c r="D406" s="29"/>
       <c r="E406" s="29" t="s">
@@ -18965,7 +18932,7 @@
         <v>1164</v>
       </c>
       <c r="C409" s="20" t="s">
-        <v>2302</v>
+        <v>2382</v>
       </c>
       <c r="D409" s="29"/>
       <c r="E409" s="29" t="s">
@@ -18989,7 +18956,7 @@
       <c r="B410" s="30" t="s">
         <v>1164</v>
       </c>
-      <c r="C410" s="31" t="s">
+      <c r="C410" s="20" t="s">
         <v>1590</v>
       </c>
       <c r="D410" s="29"/>
@@ -19040,7 +19007,7 @@
         <v>1165</v>
       </c>
       <c r="C412" s="20" t="s">
-        <v>2303</v>
+        <v>2383</v>
       </c>
       <c r="D412" s="29"/>
       <c r="E412" s="29" t="s">
@@ -19115,7 +19082,7 @@
         <v>1166</v>
       </c>
       <c r="C415" s="20" t="s">
-        <v>2304</v>
+        <v>2384</v>
       </c>
       <c r="D415" s="29"/>
       <c r="E415" s="29" t="s">
@@ -19140,7 +19107,7 @@
         <v>1166</v>
       </c>
       <c r="C416" s="20" t="s">
-        <v>2400</v>
+        <v>2371</v>
       </c>
       <c r="D416" s="29"/>
       <c r="E416" s="29" t="s">
@@ -19159,13 +19126,13 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="22" t="s">
-        <v>2402</v>
+        <v>2373</v>
       </c>
       <c r="B417" s="30" t="s">
         <v>1166</v>
       </c>
       <c r="C417" s="38" t="s">
-        <v>2401</v>
+        <v>2372</v>
       </c>
       <c r="D417" s="37"/>
       <c r="E417" s="29" t="s">
@@ -19215,7 +19182,7 @@
         <v>1167</v>
       </c>
       <c r="C419" s="20" t="s">
-        <v>2305</v>
+        <v>2385</v>
       </c>
       <c r="D419" s="29"/>
       <c r="E419" s="29" t="s">
@@ -19265,7 +19232,7 @@
         <v>1168</v>
       </c>
       <c r="C421" s="20" t="s">
-        <v>2306</v>
+        <v>2386</v>
       </c>
       <c r="D421" s="29"/>
       <c r="E421" s="29" t="s">
@@ -19315,7 +19282,7 @@
         <v>1169</v>
       </c>
       <c r="C423" s="20" t="s">
-        <v>2307</v>
+        <v>2387</v>
       </c>
       <c r="D423" s="29"/>
       <c r="E423" s="29" t="s">
@@ -19365,7 +19332,7 @@
         <v>1170</v>
       </c>
       <c r="C425" s="20" t="s">
-        <v>2308</v>
+        <v>2388</v>
       </c>
       <c r="D425" s="29"/>
       <c r="E425" s="29" t="s">
@@ -19440,7 +19407,7 @@
         <v>1171</v>
       </c>
       <c r="C428" s="20" t="s">
-        <v>2309</v>
+        <v>2389</v>
       </c>
       <c r="D428" s="29"/>
       <c r="E428" s="29" t="s">
@@ -19490,7 +19457,7 @@
         <v>1172</v>
       </c>
       <c r="C430" s="20" t="s">
-        <v>2310</v>
+        <v>2390</v>
       </c>
       <c r="D430" s="29"/>
       <c r="E430" s="29" t="s">
@@ -19540,7 +19507,7 @@
         <v>1173</v>
       </c>
       <c r="C432" s="20" t="s">
-        <v>2311</v>
+        <v>2391</v>
       </c>
       <c r="D432" s="29"/>
       <c r="E432" s="29" t="s">
@@ -19559,13 +19526,13 @@
     </row>
     <row r="433" spans="1:9" ht="30">
       <c r="A433" s="22" t="s">
-        <v>2313</v>
+        <v>2297</v>
       </c>
       <c r="B433" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C433" s="36" t="s">
-        <v>2312</v>
+        <v>2296</v>
       </c>
       <c r="D433" s="34"/>
       <c r="E433" s="29" t="s">
@@ -19584,13 +19551,13 @@
     </row>
     <row r="434" spans="1:9" ht="45">
       <c r="A434" s="22" t="s">
-        <v>2320</v>
+        <v>2303</v>
       </c>
       <c r="B434" s="30" t="s">
         <v>1174</v>
       </c>
-      <c r="C434" s="36" t="s">
-        <v>2314</v>
+      <c r="C434" s="20" t="s">
+        <v>2392</v>
       </c>
       <c r="D434" s="34"/>
       <c r="E434" s="29" t="s">
@@ -19609,13 +19576,13 @@
     </row>
     <row r="435" spans="1:9" ht="75">
       <c r="A435" s="22" t="s">
-        <v>2321</v>
+        <v>2304</v>
       </c>
       <c r="B435" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C435" s="36" t="s">
-        <v>2316</v>
+        <v>2299</v>
       </c>
       <c r="D435" s="34"/>
       <c r="E435" s="29" t="s">
@@ -19634,13 +19601,13 @@
     </row>
     <row r="436" spans="1:9" ht="45">
       <c r="A436" s="22" t="s">
-        <v>2322</v>
+        <v>2305</v>
       </c>
       <c r="B436" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C436" s="36" t="s">
-        <v>2317</v>
+        <v>2300</v>
       </c>
       <c r="D436" s="34"/>
       <c r="E436" s="29" t="s">
@@ -19659,13 +19626,13 @@
     </row>
     <row r="437" spans="1:9" ht="45">
       <c r="A437" s="22" t="s">
-        <v>2323</v>
+        <v>2306</v>
       </c>
       <c r="B437" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C437" s="36" t="s">
-        <v>2319</v>
+        <v>2302</v>
       </c>
       <c r="D437" s="34"/>
       <c r="E437" s="34" t="s">
@@ -19684,13 +19651,13 @@
     </row>
     <row r="438" spans="1:9" ht="30">
       <c r="A438" s="22" t="s">
-        <v>2324</v>
+        <v>2307</v>
       </c>
       <c r="B438" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C438" s="36" t="s">
-        <v>2318</v>
+        <v>2301</v>
       </c>
       <c r="D438" s="34"/>
       <c r="E438" s="34" t="s">
@@ -19709,13 +19676,13 @@
     </row>
     <row r="439" spans="1:9" ht="30">
       <c r="A439" s="22" t="s">
-        <v>2325</v>
+        <v>2308</v>
       </c>
       <c r="B439" s="30" t="s">
         <v>1174</v>
       </c>
       <c r="C439" s="36" t="s">
-        <v>2315</v>
+        <v>2298</v>
       </c>
       <c r="D439" s="34"/>
       <c r="E439" s="29" t="s">
@@ -19765,7 +19732,7 @@
         <v>1175</v>
       </c>
       <c r="C441" s="20" t="s">
-        <v>2326</v>
+        <v>2393</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="29" t="s">
@@ -19812,7 +19779,7 @@
         <v>456</v>
       </c>
       <c r="B443" s="24" t="s">
-        <v>2327</v>
+        <v>2309</v>
       </c>
       <c r="C443" s="31" t="s">
         <v>1604</v>
@@ -19837,10 +19804,10 @@
         <v>457</v>
       </c>
       <c r="B444" s="24" t="s">
-        <v>2327</v>
+        <v>2309</v>
       </c>
       <c r="C444" s="20" t="s">
-        <v>2328</v>
+        <v>2394</v>
       </c>
       <c r="D444" s="29"/>
       <c r="E444" s="29" t="s">
@@ -19865,7 +19832,7 @@
         <v>1176</v>
       </c>
       <c r="C445" s="20" t="s">
-        <v>2403</v>
+        <v>2374</v>
       </c>
       <c r="D445" s="29"/>
       <c r="E445" s="29" t="s">
@@ -19890,7 +19857,7 @@
         <v>1176</v>
       </c>
       <c r="C446" s="20" t="s">
-        <v>2329</v>
+        <v>2310</v>
       </c>
       <c r="D446" s="29" t="s">
         <v>2131</v>
@@ -19946,7 +19913,7 @@
         <v>1176</v>
       </c>
       <c r="C448" s="20" t="s">
-        <v>2330</v>
+        <v>2311</v>
       </c>
       <c r="D448" s="29"/>
       <c r="E448" s="29" t="s">
@@ -19973,7 +19940,7 @@
         <v>1176</v>
       </c>
       <c r="C449" s="20" t="s">
-        <v>2387</v>
+        <v>2358</v>
       </c>
       <c r="D449" s="29" t="s">
         <v>2131</v>
@@ -20133,7 +20100,7 @@
         <v>1177</v>
       </c>
       <c r="C455" s="20" t="s">
-        <v>2331</v>
+        <v>2395</v>
       </c>
       <c r="D455" s="29"/>
       <c r="E455" s="29" t="s">
@@ -20183,7 +20150,7 @@
         <v>1178</v>
       </c>
       <c r="C457" s="20" t="s">
-        <v>2332</v>
+        <v>2396</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29" t="s">
@@ -20282,7 +20249,7 @@
       <c r="B461" s="30" t="s">
         <v>1179</v>
       </c>
-      <c r="C461" s="31" t="s">
+      <c r="C461" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="D461" s="29"/>
@@ -20333,7 +20300,7 @@
         <v>1180</v>
       </c>
       <c r="C463" s="20" t="s">
-        <v>2333</v>
+        <v>2397</v>
       </c>
       <c r="D463" s="29"/>
       <c r="E463" s="29" t="s">
@@ -20458,7 +20425,7 @@
         <v>1181</v>
       </c>
       <c r="C468" s="20" t="s">
-        <v>2334</v>
+        <v>2398</v>
       </c>
       <c r="D468" s="29"/>
       <c r="E468" s="29" t="s">
@@ -20664,7 +20631,7 @@
         <v>1183</v>
       </c>
       <c r="C476" s="20" t="s">
-        <v>2335</v>
+        <v>2399</v>
       </c>
       <c r="D476" s="29"/>
       <c r="E476" s="29" t="s">
@@ -20739,7 +20706,7 @@
         <v>1184</v>
       </c>
       <c r="C479" s="20" t="s">
-        <v>2336</v>
+        <v>2400</v>
       </c>
       <c r="D479" s="29"/>
       <c r="E479" s="29" t="s">
@@ -20964,7 +20931,7 @@
         <v>32</v>
       </c>
       <c r="C488" s="20" t="s">
-        <v>2365</v>
+        <v>2336</v>
       </c>
       <c r="D488" s="29"/>
       <c r="E488" s="29" t="s">
@@ -23539,7 +23506,7 @@
         <v>1191</v>
       </c>
       <c r="C591" s="20" t="s">
-        <v>2337</v>
+        <v>2312</v>
       </c>
       <c r="D591" s="29"/>
       <c r="E591" s="29" t="s">
@@ -23639,7 +23606,7 @@
         <v>1192</v>
       </c>
       <c r="C595" s="20" t="s">
-        <v>2364</v>
+        <v>2335</v>
       </c>
       <c r="D595" s="29"/>
       <c r="E595" s="29" t="s">
@@ -23655,7 +23622,7 @@
         <v>17</v>
       </c>
       <c r="I595" s="20" t="s">
-        <v>2367</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="596" spans="1:9" ht="30">
@@ -23816,7 +23783,7 @@
         <v>1194</v>
       </c>
       <c r="C602" s="20" t="s">
-        <v>2338</v>
+        <v>2313</v>
       </c>
       <c r="D602" s="29"/>
       <c r="E602" s="29" t="s">
@@ -23868,7 +23835,7 @@
         <v>1194</v>
       </c>
       <c r="C604" s="20" t="s">
-        <v>2339</v>
+        <v>2314</v>
       </c>
       <c r="D604" s="29"/>
       <c r="E604" s="29" t="s">
@@ -23884,7 +23851,7 @@
         <v>17</v>
       </c>
       <c r="I604" s="20" t="s">
-        <v>2379</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="605" spans="1:9" ht="45">
@@ -23972,7 +23939,7 @@
         <v>1194</v>
       </c>
       <c r="C608" s="20" t="s">
-        <v>2340</v>
+        <v>2315</v>
       </c>
       <c r="D608" s="29"/>
       <c r="E608" s="29" t="s">
@@ -23988,7 +23955,7 @@
         <v>17</v>
       </c>
       <c r="I608" s="20" t="s">
-        <v>2383</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="609" spans="1:9" ht="45">
@@ -23999,7 +23966,7 @@
         <v>1194</v>
       </c>
       <c r="C609" s="20" t="s">
-        <v>2341</v>
+        <v>2316</v>
       </c>
       <c r="D609" s="29"/>
       <c r="E609" s="29" t="s">
@@ -24142,7 +24109,7 @@
         <v>17</v>
       </c>
       <c r="I614" s="20" t="s">
-        <v>2375</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="615" spans="1:9" ht="75">
@@ -26967,7 +26934,7 @@
         <v>1198</v>
       </c>
       <c r="C727" s="20" t="s">
-        <v>2342</v>
+        <v>2401</v>
       </c>
       <c r="D727" s="29"/>
       <c r="E727" s="29" t="s">
@@ -27017,7 +26984,7 @@
         <v>1198</v>
       </c>
       <c r="C729" s="20" t="s">
-        <v>2343</v>
+        <v>2402</v>
       </c>
       <c r="D729" s="29"/>
       <c r="E729" s="29" t="s">
@@ -27042,7 +27009,7 @@
         <v>1198</v>
       </c>
       <c r="C730" s="20" t="s">
-        <v>2344</v>
+        <v>2403</v>
       </c>
       <c r="D730" s="29"/>
       <c r="E730" s="29" t="s">
@@ -30981,7 +30948,7 @@
         <v>1204</v>
       </c>
       <c r="C887" s="20" t="s">
-        <v>2345</v>
+        <v>2317</v>
       </c>
       <c r="D887" s="29"/>
       <c r="E887" s="29" t="s">
@@ -31781,7 +31748,7 @@
         <v>1208</v>
       </c>
       <c r="C919" s="20" t="s">
-        <v>2346</v>
+        <v>2404</v>
       </c>
       <c r="D919" s="29"/>
       <c r="E919" s="29" t="s">
@@ -32181,7 +32148,7 @@
         <v>1208</v>
       </c>
       <c r="C935" s="20" t="s">
-        <v>2347</v>
+        <v>2318</v>
       </c>
       <c r="D935" s="29"/>
       <c r="E935" s="29" t="s">
@@ -32358,7 +32325,7 @@
         <v>1208</v>
       </c>
       <c r="C942" s="20" t="s">
-        <v>2348</v>
+        <v>2319</v>
       </c>
       <c r="D942" s="29"/>
       <c r="E942" s="29" t="s">
@@ -32412,7 +32379,7 @@
         <v>1208</v>
       </c>
       <c r="C944" s="20" t="s">
-        <v>2349</v>
+        <v>2320</v>
       </c>
       <c r="D944" s="29"/>
       <c r="E944" s="29" t="s">
@@ -33439,7 +33406,7 @@
         <v>1212</v>
       </c>
       <c r="C985" s="20" t="s">
-        <v>2350</v>
+        <v>2321</v>
       </c>
       <c r="D985" s="29"/>
       <c r="E985" s="29" t="s">
@@ -33455,7 +33422,7 @@
         <v>17</v>
       </c>
       <c r="I985" s="20" t="s">
-        <v>2398</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="986" spans="1:9" ht="60">
@@ -33491,7 +33458,7 @@
         <v>1212</v>
       </c>
       <c r="C987" s="20" t="s">
-        <v>2385</v>
+        <v>2356</v>
       </c>
       <c r="D987" s="29"/>
       <c r="E987" s="29" t="s">
@@ -33666,7 +33633,7 @@
         <v>1212</v>
       </c>
       <c r="C994" s="20" t="s">
-        <v>2351</v>
+        <v>2322</v>
       </c>
       <c r="D994" s="29"/>
       <c r="E994" s="29" t="s">
@@ -33691,7 +33658,7 @@
         <v>1212</v>
       </c>
       <c r="C995" s="20" t="s">
-        <v>2384</v>
+        <v>2355</v>
       </c>
       <c r="D995" s="29"/>
       <c r="E995" s="29" t="s">
@@ -34064,7 +34031,7 @@
       </c>
       <c r="I1009" s="31"/>
     </row>
-    <row r="1010" spans="1:9" ht="45">
+    <row r="1010" spans="1:9" ht="30">
       <c r="A1010" s="29" t="s">
         <v>1021</v>
       </c>
@@ -34072,7 +34039,7 @@
         <v>1215</v>
       </c>
       <c r="C1010" s="20" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="D1010" s="29" t="s">
         <v>2134</v>
@@ -34290,7 +34257,7 @@
         <v>1215</v>
       </c>
       <c r="C1018" s="20" t="s">
-        <v>2352</v>
+        <v>2323</v>
       </c>
       <c r="D1018" s="29"/>
       <c r="E1018" s="29" t="s">
@@ -34315,7 +34282,7 @@
         <v>1215</v>
       </c>
       <c r="C1019" s="20" t="s">
-        <v>2353</v>
+        <v>2324</v>
       </c>
       <c r="D1019" s="29"/>
       <c r="E1019" s="29" t="s">
@@ -34340,7 +34307,7 @@
         <v>1215</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>2405</v>
+        <v>2411</v>
       </c>
       <c r="D1020" s="29"/>
       <c r="E1020" s="29" t="s">
@@ -34367,7 +34334,7 @@
         <v>1215</v>
       </c>
       <c r="C1021" s="20" t="s">
-        <v>2406</v>
+        <v>2412</v>
       </c>
       <c r="D1021" s="29"/>
       <c r="E1021" s="29" t="s">
@@ -34392,7 +34359,7 @@
         <v>1215</v>
       </c>
       <c r="C1022" s="20" t="s">
-        <v>2354</v>
+        <v>2325</v>
       </c>
       <c r="D1022" s="29" t="s">
         <v>2137</v>
@@ -34419,7 +34386,7 @@
         <v>1215</v>
       </c>
       <c r="C1023" s="20" t="s">
-        <v>2355</v>
+        <v>2326</v>
       </c>
       <c r="D1023" s="29"/>
       <c r="E1023" s="29" t="s">
@@ -34444,7 +34411,7 @@
         <v>1215</v>
       </c>
       <c r="C1024" s="20" t="s">
-        <v>2356</v>
+        <v>2327</v>
       </c>
       <c r="D1024" s="29"/>
       <c r="E1024" s="29" t="s">
@@ -34469,7 +34436,7 @@
         <v>1215</v>
       </c>
       <c r="C1025" s="20" t="s">
-        <v>2357</v>
+        <v>2328</v>
       </c>
       <c r="D1025" s="29" t="s">
         <v>2138</v>
@@ -34527,7 +34494,7 @@
         <v>1215</v>
       </c>
       <c r="C1027" s="20" t="s">
-        <v>2358</v>
+        <v>2329</v>
       </c>
       <c r="D1027" s="29" t="s">
         <v>2139</v>
@@ -34585,7 +34552,7 @@
         <v>1215</v>
       </c>
       <c r="C1029" s="20" t="s">
-        <v>2407</v>
+        <v>2413</v>
       </c>
       <c r="D1029" s="29" t="s">
         <v>2140</v>
@@ -34643,7 +34610,7 @@
         <v>1215</v>
       </c>
       <c r="C1031" s="20" t="s">
-        <v>2359</v>
+        <v>2330</v>
       </c>
       <c r="D1031" s="29" t="s">
         <v>2141</v>
@@ -34701,7 +34668,7 @@
         <v>1215</v>
       </c>
       <c r="C1033" s="20" t="s">
-        <v>2408</v>
+        <v>2414</v>
       </c>
       <c r="D1033" s="29" t="s">
         <v>2142</v>
@@ -34730,7 +34697,7 @@
         <v>1215</v>
       </c>
       <c r="C1034" s="20" t="s">
-        <v>2360</v>
+        <v>2331</v>
       </c>
       <c r="D1034" s="29" t="s">
         <v>2142</v>
@@ -34759,7 +34726,7 @@
         <v>1215</v>
       </c>
       <c r="C1035" s="20" t="s">
-        <v>2361</v>
+        <v>2332</v>
       </c>
       <c r="D1035" s="29" t="s">
         <v>2143</v>
@@ -34815,7 +34782,7 @@
         <v>1215</v>
       </c>
       <c r="C1037" s="20" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="D1037" s="29"/>
       <c r="E1037" s="29" t="s">
@@ -34869,7 +34836,7 @@
         <v>1215</v>
       </c>
       <c r="C1039" s="20" t="s">
-        <v>2399</v>
+        <v>2370</v>
       </c>
       <c r="D1039" s="29" t="s">
         <v>2230</v>
@@ -34898,7 +34865,7 @@
         <v>1215</v>
       </c>
       <c r="C1040" s="20" t="s">
-        <v>2411</v>
+        <v>2418</v>
       </c>
       <c r="D1040" s="29" t="s">
         <v>2144</v>
@@ -34956,7 +34923,7 @@
         <v>1215</v>
       </c>
       <c r="C1042" s="20" t="s">
-        <v>2412</v>
+        <v>2407</v>
       </c>
       <c r="D1042" s="29" t="s">
         <v>2232</v>
@@ -34985,7 +34952,7 @@
         <v>1215</v>
       </c>
       <c r="C1043" s="20" t="s">
-        <v>2386</v>
+        <v>2357</v>
       </c>
       <c r="D1043" s="29" t="s">
         <v>2232</v>
@@ -35014,7 +34981,7 @@
         <v>1215</v>
       </c>
       <c r="C1044" s="20" t="s">
-        <v>2366</v>
+        <v>2337</v>
       </c>
       <c r="D1044" s="29" t="s">
         <v>2233</v>
@@ -35070,7 +35037,7 @@
         <v>1215</v>
       </c>
       <c r="C1046" s="20" t="s">
-        <v>2363</v>
+        <v>2334</v>
       </c>
       <c r="D1046" s="29" t="s">
         <v>2145</v>
@@ -35124,7 +35091,7 @@
         <v>1215</v>
       </c>
       <c r="C1048" s="20" t="s">
-        <v>2368</v>
+        <v>2339</v>
       </c>
       <c r="D1048" s="29" t="s">
         <v>2237</v>
@@ -35151,7 +35118,7 @@
         <v>1215</v>
       </c>
       <c r="C1049" s="20" t="s">
-        <v>2369</v>
+        <v>2340</v>
       </c>
       <c r="D1049" s="29" t="s">
         <v>2146</v>
@@ -35178,7 +35145,7 @@
         <v>1215</v>
       </c>
       <c r="C1050" s="20" t="s">
-        <v>2370</v>
+        <v>2341</v>
       </c>
       <c r="D1050" s="29" t="s">
         <v>2146</v>
@@ -35207,7 +35174,7 @@
         <v>1215</v>
       </c>
       <c r="C1051" s="20" t="s">
-        <v>2371</v>
+        <v>2342</v>
       </c>
       <c r="D1051" s="22" t="s">
         <v>2146</v>
@@ -35236,7 +35203,7 @@
         <v>1215</v>
       </c>
       <c r="C1052" s="20" t="s">
-        <v>2372</v>
+        <v>2343</v>
       </c>
       <c r="D1052" s="29" t="s">
         <v>2147</v>
@@ -35265,7 +35232,7 @@
         <v>1215</v>
       </c>
       <c r="C1053" s="20" t="s">
-        <v>2382</v>
+        <v>2353</v>
       </c>
       <c r="D1053" s="29" t="s">
         <v>2147</v>
@@ -35288,13 +35255,13 @@
     </row>
     <row r="1054" spans="1:9" ht="45">
       <c r="A1054" s="29" t="s">
-        <v>2381</v>
+        <v>2352</v>
       </c>
       <c r="B1054" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="C1054" s="20" t="s">
-        <v>2380</v>
+        <v>2351</v>
       </c>
       <c r="D1054" s="29" t="s">
         <v>2147</v>
@@ -35321,7 +35288,7 @@
         <v>1215</v>
       </c>
       <c r="C1055" s="20" t="s">
-        <v>2413</v>
+        <v>2408</v>
       </c>
       <c r="D1055" s="29" t="s">
         <v>2148</v>
@@ -35348,7 +35315,7 @@
         <v>1215</v>
       </c>
       <c r="C1056" s="20" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="D1056" s="29"/>
       <c r="E1056" s="29" t="s">
@@ -35427,7 +35394,7 @@
         <v>1215</v>
       </c>
       <c r="C1059" s="20" t="s">
-        <v>2415</v>
+        <v>2409</v>
       </c>
       <c r="D1059" s="29" t="s">
         <v>2149</v>
@@ -35500,7 +35467,7 @@
       </c>
       <c r="I1061" s="31"/>
     </row>
-    <row r="1062" spans="1:9" ht="90">
+    <row r="1062" spans="1:9" ht="75">
       <c r="A1062" s="22" t="s">
         <v>2242</v>
       </c>
@@ -35508,7 +35475,7 @@
         <v>1215</v>
       </c>
       <c r="C1062" s="20" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="D1062" s="22" t="s">
         <v>2150</v>
@@ -35531,13 +35498,13 @@
     </row>
     <row r="1063" spans="1:9" ht="90">
       <c r="A1063" s="22" t="s">
-        <v>2374</v>
+        <v>2345</v>
       </c>
       <c r="B1063" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="C1063" s="20" t="s">
-        <v>2373</v>
+        <v>2344</v>
       </c>
       <c r="D1063" s="22" t="s">
         <v>2150</v>
@@ -35792,7 +35759,7 @@
         <v>1215</v>
       </c>
       <c r="C1072" s="20" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="D1072" s="29" t="s">
         <v>2253</v>
@@ -35875,7 +35842,7 @@
         <v>1215</v>
       </c>
       <c r="C1075" s="20" t="s">
-        <v>2418</v>
+        <v>2425</v>
       </c>
       <c r="D1075" s="29" t="s">
         <v>2154</v>
@@ -35956,7 +35923,7 @@
         <v>1215</v>
       </c>
       <c r="C1078" s="20" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="D1078" s="29" t="s">
         <v>2155</v>
@@ -36174,7 +36141,7 @@
         <v>1215</v>
       </c>
       <c r="C1086" s="20" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="D1086" s="29" t="s">
         <v>2159</v>
@@ -36228,7 +36195,7 @@
         <v>1215</v>
       </c>
       <c r="C1088" s="20" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="D1088" s="29" t="s">
         <v>2160</v>
@@ -36247,7 +36214,7 @@
       </c>
       <c r="I1088" s="31"/>
     </row>
-    <row r="1089" spans="1:9" ht="60">
+    <row r="1089" spans="1:9" ht="45">
       <c r="A1089" s="29" t="s">
         <v>1088</v>
       </c>
@@ -36255,7 +36222,7 @@
         <v>1215</v>
       </c>
       <c r="C1089" s="20" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D1089" s="29" t="s">
         <v>2161</v>
@@ -36313,7 +36280,7 @@
         <v>1215</v>
       </c>
       <c r="C1091" s="20" t="s">
-        <v>2377</v>
+        <v>2348</v>
       </c>
       <c r="D1091" s="29" t="s">
         <v>2268</v>
@@ -36342,7 +36309,7 @@
         <v>1215</v>
       </c>
       <c r="C1092" s="20" t="s">
-        <v>2376</v>
+        <v>2347</v>
       </c>
       <c r="D1092" s="29" t="s">
         <v>2268</v>
@@ -36371,7 +36338,7 @@
         <v>1215</v>
       </c>
       <c r="C1093" s="20" t="s">
-        <v>2378</v>
+        <v>2349</v>
       </c>
       <c r="D1093" s="29" t="s">
         <v>2162</v>
@@ -36429,7 +36396,7 @@
         <v>1215</v>
       </c>
       <c r="C1095" s="20" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="D1095" s="29" t="s">
         <v>2163</v>
@@ -36487,7 +36454,7 @@
         <v>1215</v>
       </c>
       <c r="C1097" s="20" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="D1097" s="29" t="s">
         <v>2165</v>
@@ -36516,7 +36483,7 @@
         <v>1215</v>
       </c>
       <c r="C1098" s="20" t="s">
-        <v>2388</v>
+        <v>2359</v>
       </c>
       <c r="D1098" s="29" t="s">
         <v>2265</v>
@@ -36545,7 +36512,7 @@
         <v>1215</v>
       </c>
       <c r="C1099" s="20" t="s">
-        <v>2395</v>
+        <v>2366</v>
       </c>
       <c r="D1099" s="22" t="s">
         <v>2265</v>
@@ -36568,13 +36535,13 @@
     </row>
     <row r="1100" spans="1:9" ht="60">
       <c r="A1100" s="22" t="s">
-        <v>2389</v>
+        <v>2360</v>
       </c>
       <c r="B1100" s="24" t="s">
         <v>1215</v>
       </c>
       <c r="C1100" s="20" t="s">
-        <v>2394</v>
+        <v>2365</v>
       </c>
       <c r="D1100" s="29" t="s">
         <v>2265</v>
@@ -36597,13 +36564,13 @@
     </row>
     <row r="1101" spans="1:9" ht="45">
       <c r="A1101" s="22" t="s">
-        <v>2390</v>
+        <v>2361</v>
       </c>
       <c r="B1101" s="24" t="s">
         <v>1215</v>
       </c>
       <c r="C1101" s="20" t="s">
-        <v>2396</v>
+        <v>2367</v>
       </c>
       <c r="D1101" s="29" t="s">
         <v>2265</v>
@@ -36626,13 +36593,13 @@
     </row>
     <row r="1102" spans="1:9" ht="60">
       <c r="A1102" s="22" t="s">
-        <v>2391</v>
+        <v>2362</v>
       </c>
       <c r="B1102" s="24" t="s">
         <v>1215</v>
       </c>
       <c r="C1102" s="20" t="s">
-        <v>2397</v>
+        <v>2368</v>
       </c>
       <c r="D1102" s="29" t="s">
         <v>2265</v>
@@ -36655,13 +36622,13 @@
     </row>
     <row r="1103" spans="1:9" ht="45">
       <c r="A1103" s="22" t="s">
-        <v>2393</v>
+        <v>2364</v>
       </c>
       <c r="B1103" s="24" t="s">
         <v>1215</v>
       </c>
       <c r="C1103" s="20" t="s">
-        <v>2392</v>
+        <v>2363</v>
       </c>
       <c r="D1103" s="29" t="s">
         <v>2265</v>
@@ -36954,6 +36921,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36961,11 +36933,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1108:I1113 A20:I1106">
@@ -37051,20 +37018,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1113" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1113">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1113" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1113">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1113" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1113">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1113" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1113">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37084,18 +37051,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37148,6 +37115,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -37157,14 +37132,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007C6D03-DD4A-4284-9281-9742C7F93E71}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -20,8 +21,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmpBE30" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmpBE30" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-rexu\AppData\Local\Temp\tmpBE30.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -7531,7 +7532,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -8456,34 +8457,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1113" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I1113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1113" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I1113" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8492,12 +8493,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8579,6 +8580,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8614,6 +8632,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8789,17 +8824,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1089" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1097" sqref="C1097"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
@@ -37018,20 +37051,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1113" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1113" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1113" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1113">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1113" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37041,7 +37074,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B418:B432 B445:B1015 B1055:B1062 B1064:B1099 B1104:B1115 B1018:B1053 B19:B416" numberStoredAsText="1"/>
+    <ignoredError sqref="B417:B1017 B1054:B1103 B1104:B1115 B1018:B1053 B19:B416 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007C6D03-DD4A-4284-9281-9742C7F93E71}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8CE4EE-FDB4-49C4-B372-228D28DE72E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -7290,9 +7290,6 @@
     <t>[In Appendix A: Product Behavior] When the LongTermId field of the request contains zeros for the replica GUID (REPLGUID) component, the implementation does fail the operation with 0x80070057 (ecInvalidParam) in the ReturnValue field.  (Exchange 2010, Exchange 2013 and above follow this behavior).</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] When the LongTermId field of the request contains zeros for the replica GUID (REPLGUID) component, the implementation does return ecNone in the ReturnValue field.  &lt;44&gt; Section 3.2.5.9:  Exchange 2007 returns ecNone if the LongTermId field of the request contains zeros for the replica GUID (REPLGUID) component..</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] The implementation does fail the operation with 0x000004B6 (ecRpcFormat) in the ReturnValue field, if the value of the DataOffset field is less than zero. (&lt;45&gt; Section 3.2.5.12.1: Exchange 2003, Exchange 2007, and Exchange 2010 fail the operation with 0x000004B6 (ecRpcFormat).)</t>
   </si>
   <si>
@@ -7379,90 +7376,6 @@
     <t>[In RopLogon ROP Success Response Buffer for Private Mailbox] StoreState: This field SHOULD be set to 0x00000000 by the server. &lt;8&gt;</t>
   </si>
   <si>
-    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] 	[Rows] PidTagFolderId property ([MS-OXPROPS] section 2.696): A PtypInteger64 value that specifies the folder ID (FID) ([MS-OXCDATA] section 2.2.1.1) of the Receive folder, which is the folder to which messages of the specified message class will be delivered.</t>
-  </si>
-  <si>
-    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] [Rows] PidTagMessageClass property ([MS-OXPROPS] section 2.783): A PtypString8 value.</t>
-  </si>
-  <si>
-    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer]  [Rows] PidTagLastModificationTime property: PidTagLastModificationTime property ([MS-OXPROPS] section 2.760) -- A PtypTime value that specifies the time, in Coordinated Universal Time (UTC), when the server created or last modified the row in the Receive folder table.</t>
-  </si>
-  <si>
-    <t>[In PidTagExtendedRuleSizeLimit Property] The PidTagExtendedRuleSizeLimit property ([MS-OXPROPS] section 2.690) contains the Maximum size, in bytes, the user is allowed to accumulate for a single "extended" rule.</t>
-  </si>
-  <si>
-    <t>[In PidTagMaximumSubmitMessageSize Property] The PidTagMaximumSubmitMessageSize property ([MS-OXPROPS] section 2.777) contains the maximum size, in kilobytes, of a message a user is allowed to submit for transmission to another user.</t>
-  </si>
-  <si>
-    <t>[In PidTagProhibitReceiveQuota Property] The PidTagProhibitReceiveQuota property ([MS-OXPROPS] section 2.870) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before no further mail will be delivered.</t>
-  </si>
-  <si>
-    <t>[In PidTagProhibitSendQuota Property] The PidTagProhibitSendQuota property ([MS-OXPROPS] section 2.871) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before the user can no longer submit any more mail.</t>
-  </si>
-  <si>
-    <t>[In PidTagStoreState Property] The PidTagStoreState property ([MS-OXPROPS] section 2.1025) indicates whether the mailbox has any active search folders.</t>
-  </si>
-  <si>
-    <t>[In PidTagContentCount Property] The PidTagContentCount property ([MS-OXPROPS] section 2.642) contains the cumulative count of non-folder associated information (FAI) messages in the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMailboxOwnerEntryId Property] The PidTagMailboxOwnerEntryId property ([MS-OXPROPS] section 2.773) contains the EntryID in the Global Address List (GAL) of the owner of the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMailboxOwnerName Property] The PidTagMailboxOwnerName property ([MS-OXPROPS] section 2.774) contains the display name of the owner of the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMessageSize Property] The PidTagMessageSize property ([MS-OXPROPS] section 2.792) contains the cumulative size, in bytes, of all content in the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMessageSizeExtended Property] The PidTagMessageSizeExtended property ([MS-OXPROPS] section 2.793) contains the cumulative size, in bytes, of all content in the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1049) contains the Address book EntryID of the user logged on to the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagLocaleId Property] The PidTagLocaleId property ([MS-OXPROPS] section 2.770) establishes the language locale for translating system-generated messages, such as delivery reports. For more details, see [MS-LCID].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In PidTagSerializedReplidGuidMap Property] The PidTagSerializedReplidGuidMap property ([MS-OXPROPS] section 2.1015) contains a serialized list of REPLID and REPLGUID pairs which represents all or part of the REPLID /REPLGUID mapping of the associated Logon object. </t>
-  </si>
-  <si>
-    <t>[In PidTagSortLocaleId Property] The PidTagSortLocaleId property ([MS-OXPROPS] section 2.1017) establishes the language locale for sorting the contents of tables. For more details, see [MS-LCID].</t>
-  </si>
-  <si>
-    <t>[In PidTagCodePageId Property] The PidTagCodePageId property ([MS-OXPROPS] section 2.632) establishes the client code page for Unicode to double-byte character set (DBCS) string conversion. For details, see [MS-UCODEREF].</t>
-  </si>
-  <si>
-    <t>[In PidTagComment Property] The PidTagComment property ([MS-OXPROPS] section 2.633) contains a mailbox comment.</t>
-  </si>
-  <si>
-    <t>[In PidTagDeleteAfterSubmit Property] The PidTagDeleteAfterSubmit property ([MS-OXPROPS] section 2.664) indicates whether a transport deletes all submitted mail after transmission.</t>
-  </si>
-  <si>
-    <t>[In PidTagOutOfOfficeState Property] The PidTagOutOfOfficeState property ([MS-OXPROPS] section 2.851) indicates whether the user is Out of Office (OOF).</t>
-  </si>
-  <si>
-    <t>[In PidTagSentMailSvrEID Property] The PidTagSentMailSvrEID property ([MS-OXPROPS] section 2.1007) contains the structure identifying the Sent Items folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1049) contains the Address book EntryID of the user logged on to the public folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagAddressBookMessageId Property] The PidTagAddressBookMessageId property ([MS-OXPROPS] section 2.547) contains the short-term MID of the first message in the local site's offline address book public folder, if it exists and has a local replica.</t>
-  </si>
-  <si>
-    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Folder ID" column (PidTagFolderId property ([MS-OXPROPS] section 2.696)) - Contains the Folder ID, as specified in [MS-OXCDATA] section 2.2.1.1, of the Receive folder, which is the folder to which messages of the specified message class will be delivered.</t>
-  </si>
-  <si>
-    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Message Class" column (PidTagMessageClass property ([MS-OXPROPS] section 2.783)) - Contains a string that specifies the message class that is configured for the Receive folder.</t>
-  </si>
-  <si>
-    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Last-modification Time" column (PidTagLastModificationTime property ([MS-OXPROPS] section 2.760)) - Contains the current system-time, in UTC, when the entry was created or last modified.</t>
-  </si>
-  <si>
-    <t>[In Behavior Common to Both Private Mailbox and Public Folder Logon] If the user marks a message as read, the current value of that message's PidTagChangeNumber property ([MS-OXPROPS] section 2.628) is added to the change number set (CNSET).</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does not support the Ghosted flag.  (&lt;1&gt; Section 2.2.1.1.1: Exchange 2013, Exchange 2016 and Exchange 2019 follows this behavior.)</t>
   </si>
   <si>
@@ -7527,6 +7440,93 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] Implementation's maximum value of MaxDataSize is 4096. (If MaxDataSize &gt; [server's suitable maximum (4096)], then Implementation does adjust the value of MaxDataSize to the suitable maximum value (4096) in Microsoft Exchanges. &lt;47&gt; Section 3.2.5.12.1: Exchange 2003, Exchange 2007, Exchange 2010, Exchange 2013, Exchange 2016 and Exchange 2019 use 4096 for the maximum value.)</t>
+  </si>
+  <si>
+    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] 	[Rows] PidTagFolderId property ([MS-OXPROPS] section 2.700): A PtypInteger64 value that specifies the folder ID (FID) ([MS-OXCDATA] section 2.2.1.1) of the Receive folder, which is the folder to which messages of the specified message class will be delivered.</t>
+  </si>
+  <si>
+    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] [Rows] PidTagMessageClass property ([MS-OXPROPS] section 2.787): A PtypString8 value.</t>
+  </si>
+  <si>
+    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer]  [Rows] PidTagLastModificationTime property: PidTagLastModificationTime property ([MS-OXPROPS] section 2.764) -- A PtypTime value that specifies the time, in Coordinated Universal Time (UTC), when the server created or last modified the row in the Receive folder table.</t>
+  </si>
+  <si>
+    <t>[In PidTagExtendedRuleSizeLimit Property] The PidTagExtendedRuleSizeLimit property ([MS-OXPROPS] section 2.694) contains the Maximum size, in bytes, the user is allowed to accumulate for a single "extended" rule.</t>
+  </si>
+  <si>
+    <t>[In PidTagMaximumSubmitMessageSize Property] The PidTagMaximumSubmitMessageSize property ([MS-OXPROPS] section 2.781) contains the maximum size, in kilobytes, of a message a user is allowed to submit for transmission to another user.</t>
+  </si>
+  <si>
+    <t>[In PidTagProhibitReceiveQuota Property] The PidTagProhibitReceiveQuota property ([MS-OXPROPS] section 2.874) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before no further mail will be delivered.</t>
+  </si>
+  <si>
+    <t>[In PidTagProhibitSendQuota Property] The PidTagProhibitSendQuota property ([MS-OXPROPS] section 2.875) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before the user can no longer submit any more mail.</t>
+  </si>
+  <si>
+    <t>[In PidTagStoreState Property] The PidTagStoreState property ([MS-OXPROPS] section 2.1029) indicates whether the mailbox has any active search folders.</t>
+  </si>
+  <si>
+    <t>[In PidTagContentCount Property] The PidTagContentCount property ([MS-OXPROPS] section 2.646) contains the cumulative count of non-folder associated information (FAI) messages in the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMailboxOwnerEntryId Property] The PidTagMailboxOwnerEntryId property ([MS-OXPROPS] section 2.777) contains the EntryID in the Global Address List (GAL) of the owner of the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMailboxOwnerName Property] The PidTagMailboxOwnerName property ([MS-OXPROPS] section 2.778) contains the display name of the owner of the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSize Property] The PidTagMessageSize property ([MS-OXPROPS] section 2.796) contains the cumulative size, in bytes, of all content in the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSizeExtended Property] The PidTagMessageSizeExtended property ([MS-OXPROPS] section 2.797) contains the cumulative size, in bytes, of all content in the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1053) contains the Address book EntryID of the user logged on to the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagLocaleId Property] The PidTagLocaleId property ([MS-OXPROPS] section 2.774) establishes the language locale for translating system-generated messages, such as delivery reports. For more details, see [MS-LCID].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In PidTagSerializedReplidGuidMap Property] The PidTagSerializedReplidGuidMap property ([MS-OXPROPS] section 2.1019) contains a serialized list of REPLID and REPLGUID pairs which represents all or part of the REPLID /REPLGUID mapping of the associated Logon object. </t>
+  </si>
+  <si>
+    <t>[In PidTagSortLocaleId Property] The PidTagSortLocaleId property ([MS-OXPROPS] section 2.1021) establishes the language locale for sorting the contents of tables. For more details, see [MS-LCID].</t>
+  </si>
+  <si>
+    <t>[In PidTagCodePageId Property] The PidTagCodePageId property ([MS-OXPROPS] section 2.636) establishes the client code page for Unicode to double-byte character set (DBCS) string conversion. For details, see [MS-UCODEREF].</t>
+  </si>
+  <si>
+    <t>[In PidTagComment Property] The PidTagComment property ([MS-OXPROPS] section 2.637) contains a mailbox comment.</t>
+  </si>
+  <si>
+    <t>[In PidTagDeleteAfterSubmit Property] The PidTagDeleteAfterSubmit property ([MS-OXPROPS] section 2.668) indicates whether a transport deletes all submitted mail after transmission.</t>
+  </si>
+  <si>
+    <t>[In PidTagOutOfOfficeState Property] The PidTagOutOfOfficeState property ([MS-OXPROPS] section 2.855) indicates whether the user is Out of Office (OOF).</t>
+  </si>
+  <si>
+    <t>[In PidTagSentMailSvrEID Property] The PidTagSentMailSvrEID property ([MS-OXPROPS] section 2.1011) contains the structure identifying the Sent Items folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1053) contains the Address book EntryID of the user logged on to the public folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagAddressBookMessageId Property] The PidTagAddressBookMessageId property ([MS-OXPROPS] section 2.551) contains the short-term MID of the first message in the local site's offline address book public folder, if it exists and has a local replica.</t>
+  </si>
+  <si>
+    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Folder ID" column (PidTagFolderId property ([MS-OXPROPS] section 2.700)) - Contains the Folder ID, as specified in [MS-OXCDATA] section 2.2.1.1, of the Receive folder, which is the folder to which messages of the specified message class will be delivered.</t>
+  </si>
+  <si>
+    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Message Class" column (PidTagMessageClass property ([MS-OXPROPS] section 2.787)) - Contains a string that specifies the message class that is configured for the Receive folder.</t>
+  </si>
+  <si>
+    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Last-modification Time" column (PidTagLastModificationTime property ([MS-OXPROPS] section 2.764)) - Contains the current system-time, in UTC, when the entry was created or last modified.</t>
+  </si>
+  <si>
+    <t>[In Behavior Common to Both Private Mailbox and Public Folder Logon] If the user marks a message as read, the current value of that message's PidTagChangeNumber property ([MS-OXPROPS] section 2.632) is added to the change number set (CNSET).</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] When the LongTermId field of the request contains zeros for the replica GUID (REPLGUID) component, the implementation does return ecNone in the ReturnValue field.  &lt;44&gt; Section 3.2.5.9:  Exchange 2007 and Exchange 2019 return ecNone if the LongTermId field of the request contains zeros for the replica GUID (REPLGUID) component..</t>
   </si>
 </sst>
 </file>
@@ -7828,6 +7828,21 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7851,21 +7866,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8828,7 +8828,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1081" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1091" sqref="A1091"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -8871,7 +8873,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -8882,127 +8884,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9015,12 +9017,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9033,12 +9035,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9051,12 +9053,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9069,60 +9071,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -11553,7 +11555,7 @@
         <v>1111</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29" t="s">
@@ -13586,7 +13588,7 @@
         <v>1122</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>2377</v>
+        <v>2398</v>
       </c>
       <c r="D196" s="29"/>
       <c r="E196" s="29" t="s">
@@ -13636,7 +13638,7 @@
         <v>1122</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>2378</v>
+        <v>2399</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
@@ -13886,7 +13888,7 @@
         <v>1122</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>2379</v>
+        <v>2400</v>
       </c>
       <c r="D208" s="29"/>
       <c r="E208" s="29" t="s">
@@ -18815,7 +18817,7 @@
         <v>1162</v>
       </c>
       <c r="C403" s="20" t="s">
-        <v>2380</v>
+        <v>2401</v>
       </c>
       <c r="D403" s="29"/>
       <c r="E403" s="29" t="s">
@@ -18890,7 +18892,7 @@
         <v>1163</v>
       </c>
       <c r="C406" s="20" t="s">
-        <v>2381</v>
+        <v>2402</v>
       </c>
       <c r="D406" s="29"/>
       <c r="E406" s="29" t="s">
@@ -18965,7 +18967,7 @@
         <v>1164</v>
       </c>
       <c r="C409" s="20" t="s">
-        <v>2382</v>
+        <v>2403</v>
       </c>
       <c r="D409" s="29"/>
       <c r="E409" s="29" t="s">
@@ -19040,7 +19042,7 @@
         <v>1165</v>
       </c>
       <c r="C412" s="20" t="s">
-        <v>2383</v>
+        <v>2404</v>
       </c>
       <c r="D412" s="29"/>
       <c r="E412" s="29" t="s">
@@ -19115,7 +19117,7 @@
         <v>1166</v>
       </c>
       <c r="C415" s="20" t="s">
-        <v>2384</v>
+        <v>2405</v>
       </c>
       <c r="D415" s="29"/>
       <c r="E415" s="29" t="s">
@@ -19140,7 +19142,7 @@
         <v>1166</v>
       </c>
       <c r="C416" s="20" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D416" s="29"/>
       <c r="E416" s="29" t="s">
@@ -19159,13 +19161,13 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="22" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B417" s="30" t="s">
         <v>1166</v>
       </c>
       <c r="C417" s="38" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D417" s="37"/>
       <c r="E417" s="29" t="s">
@@ -19215,7 +19217,7 @@
         <v>1167</v>
       </c>
       <c r="C419" s="20" t="s">
-        <v>2385</v>
+        <v>2406</v>
       </c>
       <c r="D419" s="29"/>
       <c r="E419" s="29" t="s">
@@ -19265,7 +19267,7 @@
         <v>1168</v>
       </c>
       <c r="C421" s="20" t="s">
-        <v>2386</v>
+        <v>2407</v>
       </c>
       <c r="D421" s="29"/>
       <c r="E421" s="29" t="s">
@@ -19315,7 +19317,7 @@
         <v>1169</v>
       </c>
       <c r="C423" s="20" t="s">
-        <v>2387</v>
+        <v>2408</v>
       </c>
       <c r="D423" s="29"/>
       <c r="E423" s="29" t="s">
@@ -19365,7 +19367,7 @@
         <v>1170</v>
       </c>
       <c r="C425" s="20" t="s">
-        <v>2388</v>
+        <v>2409</v>
       </c>
       <c r="D425" s="29"/>
       <c r="E425" s="29" t="s">
@@ -19433,14 +19435,14 @@
       <c r="I427" s="31"/>
     </row>
     <row r="428" spans="1:9" ht="45">
-      <c r="A428" s="29" t="s">
+      <c r="A428" s="22" t="s">
         <v>448</v>
       </c>
       <c r="B428" s="30" t="s">
         <v>1171</v>
       </c>
       <c r="C428" s="20" t="s">
-        <v>2389</v>
+        <v>2410</v>
       </c>
       <c r="D428" s="29"/>
       <c r="E428" s="29" t="s">
@@ -19490,7 +19492,7 @@
         <v>1172</v>
       </c>
       <c r="C430" s="20" t="s">
-        <v>2390</v>
+        <v>2411</v>
       </c>
       <c r="D430" s="29"/>
       <c r="E430" s="29" t="s">
@@ -19540,7 +19542,7 @@
         <v>1173</v>
       </c>
       <c r="C432" s="20" t="s">
-        <v>2391</v>
+        <v>2412</v>
       </c>
       <c r="D432" s="29"/>
       <c r="E432" s="29" t="s">
@@ -19590,7 +19592,7 @@
         <v>1174</v>
       </c>
       <c r="C434" s="20" t="s">
-        <v>2392</v>
+        <v>2413</v>
       </c>
       <c r="D434" s="34"/>
       <c r="E434" s="29" t="s">
@@ -19765,7 +19767,7 @@
         <v>1175</v>
       </c>
       <c r="C441" s="20" t="s">
-        <v>2393</v>
+        <v>2414</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="29" t="s">
@@ -19840,7 +19842,7 @@
         <v>2309</v>
       </c>
       <c r="C444" s="20" t="s">
-        <v>2394</v>
+        <v>2415</v>
       </c>
       <c r="D444" s="29"/>
       <c r="E444" s="29" t="s">
@@ -19865,7 +19867,7 @@
         <v>1176</v>
       </c>
       <c r="C445" s="20" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D445" s="29"/>
       <c r="E445" s="29" t="s">
@@ -19973,7 +19975,7 @@
         <v>1176</v>
       </c>
       <c r="C449" s="20" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D449" s="29" t="s">
         <v>2131</v>
@@ -20126,14 +20128,14 @@
       <c r="I454" s="31"/>
     </row>
     <row r="455" spans="1:9" ht="30">
-      <c r="A455" s="29" t="s">
+      <c r="A455" s="22" t="s">
         <v>468</v>
       </c>
       <c r="B455" s="30" t="s">
         <v>1177</v>
       </c>
       <c r="C455" s="20" t="s">
-        <v>2395</v>
+        <v>2416</v>
       </c>
       <c r="D455" s="29"/>
       <c r="E455" s="29" t="s">
@@ -20183,7 +20185,7 @@
         <v>1178</v>
       </c>
       <c r="C457" s="20" t="s">
-        <v>2396</v>
+        <v>2417</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29" t="s">
@@ -20333,7 +20335,7 @@
         <v>1180</v>
       </c>
       <c r="C463" s="20" t="s">
-        <v>2397</v>
+        <v>2418</v>
       </c>
       <c r="D463" s="29"/>
       <c r="E463" s="29" t="s">
@@ -20458,7 +20460,7 @@
         <v>1181</v>
       </c>
       <c r="C468" s="20" t="s">
-        <v>2398</v>
+        <v>2419</v>
       </c>
       <c r="D468" s="29"/>
       <c r="E468" s="29" t="s">
@@ -20664,7 +20666,7 @@
         <v>1183</v>
       </c>
       <c r="C476" s="20" t="s">
-        <v>2399</v>
+        <v>2420</v>
       </c>
       <c r="D476" s="29"/>
       <c r="E476" s="29" t="s">
@@ -20739,7 +20741,7 @@
         <v>1184</v>
       </c>
       <c r="C479" s="20" t="s">
-        <v>2400</v>
+        <v>2421</v>
       </c>
       <c r="D479" s="29"/>
       <c r="E479" s="29" t="s">
@@ -23884,7 +23886,7 @@
         <v>17</v>
       </c>
       <c r="I604" s="20" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="605" spans="1:9" ht="45">
@@ -23988,7 +23990,7 @@
         <v>17</v>
       </c>
       <c r="I608" s="20" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="609" spans="1:9" ht="45">
@@ -26967,7 +26969,7 @@
         <v>1198</v>
       </c>
       <c r="C727" s="20" t="s">
-        <v>2401</v>
+        <v>2422</v>
       </c>
       <c r="D727" s="29"/>
       <c r="E727" s="29" t="s">
@@ -27017,7 +27019,7 @@
         <v>1198</v>
       </c>
       <c r="C729" s="20" t="s">
-        <v>2402</v>
+        <v>2423</v>
       </c>
       <c r="D729" s="29"/>
       <c r="E729" s="29" t="s">
@@ -27042,7 +27044,7 @@
         <v>1198</v>
       </c>
       <c r="C730" s="20" t="s">
-        <v>2403</v>
+        <v>2424</v>
       </c>
       <c r="D730" s="29"/>
       <c r="E730" s="29" t="s">
@@ -31781,7 +31783,7 @@
         <v>1208</v>
       </c>
       <c r="C919" s="20" t="s">
-        <v>2404</v>
+        <v>2425</v>
       </c>
       <c r="D919" s="29"/>
       <c r="E919" s="29" t="s">
@@ -33455,7 +33457,7 @@
         <v>17</v>
       </c>
       <c r="I985" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="986" spans="1:9" ht="60">
@@ -33491,7 +33493,7 @@
         <v>1212</v>
       </c>
       <c r="C987" s="20" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D987" s="29"/>
       <c r="E987" s="29" t="s">
@@ -33691,7 +33693,7 @@
         <v>1212</v>
       </c>
       <c r="C995" s="20" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D995" s="29"/>
       <c r="E995" s="29" t="s">
@@ -34072,7 +34074,7 @@
         <v>1215</v>
       </c>
       <c r="C1010" s="20" t="s">
-        <v>2405</v>
+        <v>2376</v>
       </c>
       <c r="D1010" s="29" t="s">
         <v>2134</v>
@@ -34340,7 +34342,7 @@
         <v>1215</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>2411</v>
+        <v>2382</v>
       </c>
       <c r="D1020" s="29"/>
       <c r="E1020" s="29" t="s">
@@ -34367,7 +34369,7 @@
         <v>1215</v>
       </c>
       <c r="C1021" s="20" t="s">
-        <v>2412</v>
+        <v>2383</v>
       </c>
       <c r="D1021" s="29"/>
       <c r="E1021" s="29" t="s">
@@ -34585,7 +34587,7 @@
         <v>1215</v>
       </c>
       <c r="C1029" s="20" t="s">
-        <v>2413</v>
+        <v>2384</v>
       </c>
       <c r="D1029" s="29" t="s">
         <v>2140</v>
@@ -34701,7 +34703,7 @@
         <v>1215</v>
       </c>
       <c r="C1033" s="20" t="s">
-        <v>2414</v>
+        <v>2385</v>
       </c>
       <c r="D1033" s="29" t="s">
         <v>2142</v>
@@ -34815,7 +34817,7 @@
         <v>1215</v>
       </c>
       <c r="C1037" s="20" t="s">
-        <v>2406</v>
+        <v>2377</v>
       </c>
       <c r="D1037" s="29"/>
       <c r="E1037" s="29" t="s">
@@ -34840,7 +34842,7 @@
         <v>1215</v>
       </c>
       <c r="C1038" s="20" t="s">
-        <v>2410</v>
+        <v>2381</v>
       </c>
       <c r="D1038" s="29" t="s">
         <v>2230</v>
@@ -34869,7 +34871,7 @@
         <v>1215</v>
       </c>
       <c r="C1039" s="20" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D1039" s="29" t="s">
         <v>2230</v>
@@ -34898,7 +34900,7 @@
         <v>1215</v>
       </c>
       <c r="C1040" s="20" t="s">
-        <v>2418</v>
+        <v>2389</v>
       </c>
       <c r="D1040" s="29" t="s">
         <v>2144</v>
@@ -34956,7 +34958,7 @@
         <v>1215</v>
       </c>
       <c r="C1042" s="20" t="s">
-        <v>2407</v>
+        <v>2378</v>
       </c>
       <c r="D1042" s="29" t="s">
         <v>2232</v>
@@ -34985,7 +34987,7 @@
         <v>1215</v>
       </c>
       <c r="C1043" s="20" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D1043" s="29" t="s">
         <v>2232</v>
@@ -35265,7 +35267,7 @@
         <v>1215</v>
       </c>
       <c r="C1053" s="20" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D1053" s="29" t="s">
         <v>2147</v>
@@ -35288,13 +35290,13 @@
     </row>
     <row r="1054" spans="1:9" ht="45">
       <c r="A1054" s="29" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B1054" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="C1054" s="20" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D1054" s="29" t="s">
         <v>2147</v>
@@ -35321,7 +35323,7 @@
         <v>1215</v>
       </c>
       <c r="C1055" s="20" t="s">
-        <v>2408</v>
+        <v>2379</v>
       </c>
       <c r="D1055" s="29" t="s">
         <v>2148</v>
@@ -35348,7 +35350,7 @@
         <v>1215</v>
       </c>
       <c r="C1056" s="20" t="s">
-        <v>2415</v>
+        <v>2386</v>
       </c>
       <c r="D1056" s="29"/>
       <c r="E1056" s="29" t="s">
@@ -35427,7 +35429,7 @@
         <v>1215</v>
       </c>
       <c r="C1059" s="20" t="s">
-        <v>2409</v>
+        <v>2380</v>
       </c>
       <c r="D1059" s="29" t="s">
         <v>2149</v>
@@ -35508,7 +35510,7 @@
         <v>1215</v>
       </c>
       <c r="C1062" s="20" t="s">
-        <v>2417</v>
+        <v>2388</v>
       </c>
       <c r="D1062" s="22" t="s">
         <v>2150</v>
@@ -35792,7 +35794,7 @@
         <v>1215</v>
       </c>
       <c r="C1072" s="20" t="s">
-        <v>2419</v>
+        <v>2390</v>
       </c>
       <c r="D1072" s="29" t="s">
         <v>2253</v>
@@ -35875,7 +35877,7 @@
         <v>1215</v>
       </c>
       <c r="C1075" s="20" t="s">
-        <v>2425</v>
+        <v>2396</v>
       </c>
       <c r="D1075" s="29" t="s">
         <v>2154</v>
@@ -35956,7 +35958,7 @@
         <v>1215</v>
       </c>
       <c r="C1078" s="20" t="s">
-        <v>2416</v>
+        <v>2387</v>
       </c>
       <c r="D1078" s="29" t="s">
         <v>2155</v>
@@ -36120,7 +36122,7 @@
         <v>1215</v>
       </c>
       <c r="C1084" s="20" t="s">
-        <v>2420</v>
+        <v>2391</v>
       </c>
       <c r="D1084" s="29" t="s">
         <v>2158</v>
@@ -36174,7 +36176,7 @@
         <v>1215</v>
       </c>
       <c r="C1086" s="20" t="s">
-        <v>2424</v>
+        <v>2395</v>
       </c>
       <c r="D1086" s="29" t="s">
         <v>2159</v>
@@ -36228,7 +36230,7 @@
         <v>1215</v>
       </c>
       <c r="C1088" s="20" t="s">
-        <v>2423</v>
+        <v>2394</v>
       </c>
       <c r="D1088" s="29" t="s">
         <v>2160</v>
@@ -36255,7 +36257,7 @@
         <v>1215</v>
       </c>
       <c r="C1089" s="20" t="s">
-        <v>2422</v>
+        <v>2393</v>
       </c>
       <c r="D1089" s="29" t="s">
         <v>2161</v>
@@ -36305,7 +36307,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="1091" spans="1:9" ht="60">
+    <row r="1091" spans="1:9" ht="75">
       <c r="A1091" s="22" t="s">
         <v>2266</v>
       </c>
@@ -36313,7 +36315,7 @@
         <v>1215</v>
       </c>
       <c r="C1091" s="20" t="s">
-        <v>2348</v>
+        <v>2426</v>
       </c>
       <c r="D1091" s="29" t="s">
         <v>2268</v>
@@ -36371,7 +36373,7 @@
         <v>1215</v>
       </c>
       <c r="C1093" s="20" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D1093" s="29" t="s">
         <v>2162</v>
@@ -36429,7 +36431,7 @@
         <v>1215</v>
       </c>
       <c r="C1095" s="20" t="s">
-        <v>2421</v>
+        <v>2392</v>
       </c>
       <c r="D1095" s="29" t="s">
         <v>2163</v>
@@ -36487,7 +36489,7 @@
         <v>1215</v>
       </c>
       <c r="C1097" s="20" t="s">
-        <v>2426</v>
+        <v>2397</v>
       </c>
       <c r="D1097" s="29" t="s">
         <v>2165</v>
@@ -36516,7 +36518,7 @@
         <v>1215</v>
       </c>
       <c r="C1098" s="20" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D1098" s="29" t="s">
         <v>2265</v>
@@ -36545,7 +36547,7 @@
         <v>1215</v>
       </c>
       <c r="C1099" s="20" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D1099" s="22" t="s">
         <v>2265</v>
@@ -36568,13 +36570,13 @@
     </row>
     <row r="1100" spans="1:9" ht="60">
       <c r="A1100" s="22" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B1100" s="24" t="s">
         <v>1215</v>
       </c>
       <c r="C1100" s="20" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D1100" s="29" t="s">
         <v>2265</v>
@@ -36597,13 +36599,13 @@
     </row>
     <row r="1101" spans="1:9" ht="45">
       <c r="A1101" s="22" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B1101" s="24" t="s">
         <v>1215</v>
       </c>
       <c r="C1101" s="20" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D1101" s="29" t="s">
         <v>2265</v>
@@ -36626,13 +36628,13 @@
     </row>
     <row r="1102" spans="1:9" ht="60">
       <c r="A1102" s="22" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B1102" s="24" t="s">
         <v>1215</v>
       </c>
       <c r="C1102" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1102" s="29" t="s">
         <v>2265</v>
@@ -36655,13 +36657,13 @@
     </row>
     <row r="1103" spans="1:9" ht="45">
       <c r="A1103" s="22" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B1103" s="24" t="s">
         <v>1215</v>
       </c>
       <c r="C1103" s="20" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D1103" s="29" t="s">
         <v>2265</v>
@@ -36954,11 +36956,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36966,6 +36963,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1108:I1113 A20:I1106">
@@ -37093,12 +37095,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -37147,6 +37143,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
@@ -37156,20 +37158,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37182,4 +37170,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8CE4EE-FDB4-49C4-B372-228D28DE72E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B44E457-7D60-458C-A600-D119AE7560E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7370,9 +7370,6 @@
     <t>[In Read/Write Properties] The read/write properties that are available on a private mailbox logon are specified in section 2.2.2.1.2.1 through section 2.2.2.1.2.5.</t>
   </si>
   <si>
-    <t>23.0</t>
-  </si>
-  <si>
     <t>[In RopLogon ROP Success Response Buffer for Private Mailbox] StoreState: This field SHOULD be set to 0x00000000 by the server. &lt;8&gt;</t>
   </si>
   <si>
@@ -7527,6 +7524,9 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] When the LongTermId field of the request contains zeros for the replica GUID (REPLGUID) component, the implementation does return ecNone in the ReturnValue field.  &lt;44&gt; Section 3.2.5.9:  Exchange 2007 and Exchange 2019 return ecNone if the LongTermId field of the request contains zeros for the replica GUID (REPLGUID) component..</t>
+  </si>
+  <si>
+    <t>24.0</t>
   </si>
 </sst>
 </file>
@@ -7828,21 +7828,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7866,6 +7851,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8828,8 +8828,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1081" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1091" sqref="A1091"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8873,138 +8873,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>2374</v>
+        <v>2426</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>43374</v>
+        <v>44308</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9017,12 +9017,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9035,12 +9035,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9053,12 +9053,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9071,60 +9071,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -11555,7 +11555,7 @@
         <v>1111</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29" t="s">
@@ -13588,7 +13588,7 @@
         <v>1122</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D196" s="29"/>
       <c r="E196" s="29" t="s">
@@ -13638,7 +13638,7 @@
         <v>1122</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
@@ -13888,7 +13888,7 @@
         <v>1122</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D208" s="29"/>
       <c r="E208" s="29" t="s">
@@ -18817,7 +18817,7 @@
         <v>1162</v>
       </c>
       <c r="C403" s="20" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D403" s="29"/>
       <c r="E403" s="29" t="s">
@@ -18892,7 +18892,7 @@
         <v>1163</v>
       </c>
       <c r="C406" s="20" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D406" s="29"/>
       <c r="E406" s="29" t="s">
@@ -18967,7 +18967,7 @@
         <v>1164</v>
       </c>
       <c r="C409" s="20" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D409" s="29"/>
       <c r="E409" s="29" t="s">
@@ -19042,7 +19042,7 @@
         <v>1165</v>
       </c>
       <c r="C412" s="20" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D412" s="29"/>
       <c r="E412" s="29" t="s">
@@ -19117,7 +19117,7 @@
         <v>1166</v>
       </c>
       <c r="C415" s="20" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D415" s="29"/>
       <c r="E415" s="29" t="s">
@@ -19217,7 +19217,7 @@
         <v>1167</v>
       </c>
       <c r="C419" s="20" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D419" s="29"/>
       <c r="E419" s="29" t="s">
@@ -19267,7 +19267,7 @@
         <v>1168</v>
       </c>
       <c r="C421" s="20" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D421" s="29"/>
       <c r="E421" s="29" t="s">
@@ -19317,7 +19317,7 @@
         <v>1169</v>
       </c>
       <c r="C423" s="20" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D423" s="29"/>
       <c r="E423" s="29" t="s">
@@ -19367,7 +19367,7 @@
         <v>1170</v>
       </c>
       <c r="C425" s="20" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D425" s="29"/>
       <c r="E425" s="29" t="s">
@@ -19442,7 +19442,7 @@
         <v>1171</v>
       </c>
       <c r="C428" s="20" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D428" s="29"/>
       <c r="E428" s="29" t="s">
@@ -19492,7 +19492,7 @@
         <v>1172</v>
       </c>
       <c r="C430" s="20" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D430" s="29"/>
       <c r="E430" s="29" t="s">
@@ -19542,7 +19542,7 @@
         <v>1173</v>
       </c>
       <c r="C432" s="20" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D432" s="29"/>
       <c r="E432" s="29" t="s">
@@ -19592,7 +19592,7 @@
         <v>1174</v>
       </c>
       <c r="C434" s="20" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D434" s="34"/>
       <c r="E434" s="29" t="s">
@@ -19767,7 +19767,7 @@
         <v>1175</v>
       </c>
       <c r="C441" s="20" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="29" t="s">
@@ -19842,7 +19842,7 @@
         <v>2309</v>
       </c>
       <c r="C444" s="20" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D444" s="29"/>
       <c r="E444" s="29" t="s">
@@ -20135,7 +20135,7 @@
         <v>1177</v>
       </c>
       <c r="C455" s="20" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D455" s="29"/>
       <c r="E455" s="29" t="s">
@@ -20185,7 +20185,7 @@
         <v>1178</v>
       </c>
       <c r="C457" s="20" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29" t="s">
@@ -20335,7 +20335,7 @@
         <v>1180</v>
       </c>
       <c r="C463" s="20" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D463" s="29"/>
       <c r="E463" s="29" t="s">
@@ -20460,7 +20460,7 @@
         <v>1181</v>
       </c>
       <c r="C468" s="20" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D468" s="29"/>
       <c r="E468" s="29" t="s">
@@ -20666,7 +20666,7 @@
         <v>1183</v>
       </c>
       <c r="C476" s="20" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D476" s="29"/>
       <c r="E476" s="29" t="s">
@@ -20741,7 +20741,7 @@
         <v>1184</v>
       </c>
       <c r="C479" s="20" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D479" s="29"/>
       <c r="E479" s="29" t="s">
@@ -26969,7 +26969,7 @@
         <v>1198</v>
       </c>
       <c r="C727" s="20" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D727" s="29"/>
       <c r="E727" s="29" t="s">
@@ -27019,7 +27019,7 @@
         <v>1198</v>
       </c>
       <c r="C729" s="20" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D729" s="29"/>
       <c r="E729" s="29" t="s">
@@ -27044,7 +27044,7 @@
         <v>1198</v>
       </c>
       <c r="C730" s="20" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D730" s="29"/>
       <c r="E730" s="29" t="s">
@@ -31783,7 +31783,7 @@
         <v>1208</v>
       </c>
       <c r="C919" s="20" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D919" s="29"/>
       <c r="E919" s="29" t="s">
@@ -34074,7 +34074,7 @@
         <v>1215</v>
       </c>
       <c r="C1010" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1010" s="29" t="s">
         <v>2134</v>
@@ -34342,7 +34342,7 @@
         <v>1215</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D1020" s="29"/>
       <c r="E1020" s="29" t="s">
@@ -34369,7 +34369,7 @@
         <v>1215</v>
       </c>
       <c r="C1021" s="20" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D1021" s="29"/>
       <c r="E1021" s="29" t="s">
@@ -34587,7 +34587,7 @@
         <v>1215</v>
       </c>
       <c r="C1029" s="20" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D1029" s="29" t="s">
         <v>2140</v>
@@ -34703,7 +34703,7 @@
         <v>1215</v>
       </c>
       <c r="C1033" s="20" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D1033" s="29" t="s">
         <v>2142</v>
@@ -34817,7 +34817,7 @@
         <v>1215</v>
       </c>
       <c r="C1037" s="20" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D1037" s="29"/>
       <c r="E1037" s="29" t="s">
@@ -34842,7 +34842,7 @@
         <v>1215</v>
       </c>
       <c r="C1038" s="20" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D1038" s="29" t="s">
         <v>2230</v>
@@ -34900,7 +34900,7 @@
         <v>1215</v>
       </c>
       <c r="C1040" s="20" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D1040" s="29" t="s">
         <v>2144</v>
@@ -34958,7 +34958,7 @@
         <v>1215</v>
       </c>
       <c r="C1042" s="20" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D1042" s="29" t="s">
         <v>2232</v>
@@ -35323,7 +35323,7 @@
         <v>1215</v>
       </c>
       <c r="C1055" s="20" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D1055" s="29" t="s">
         <v>2148</v>
@@ -35350,7 +35350,7 @@
         <v>1215</v>
       </c>
       <c r="C1056" s="20" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D1056" s="29"/>
       <c r="E1056" s="29" t="s">
@@ -35429,7 +35429,7 @@
         <v>1215</v>
       </c>
       <c r="C1059" s="20" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D1059" s="29" t="s">
         <v>2149</v>
@@ -35510,7 +35510,7 @@
         <v>1215</v>
       </c>
       <c r="C1062" s="20" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D1062" s="22" t="s">
         <v>2150</v>
@@ -35794,7 +35794,7 @@
         <v>1215</v>
       </c>
       <c r="C1072" s="20" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D1072" s="29" t="s">
         <v>2253</v>
@@ -35877,7 +35877,7 @@
         <v>1215</v>
       </c>
       <c r="C1075" s="20" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D1075" s="29" t="s">
         <v>2154</v>
@@ -35958,7 +35958,7 @@
         <v>1215</v>
       </c>
       <c r="C1078" s="20" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D1078" s="29" t="s">
         <v>2155</v>
@@ -36122,7 +36122,7 @@
         <v>1215</v>
       </c>
       <c r="C1084" s="20" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D1084" s="29" t="s">
         <v>2158</v>
@@ -36176,7 +36176,7 @@
         <v>1215</v>
       </c>
       <c r="C1086" s="20" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D1086" s="29" t="s">
         <v>2159</v>
@@ -36230,7 +36230,7 @@
         <v>1215</v>
       </c>
       <c r="C1088" s="20" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D1088" s="29" t="s">
         <v>2160</v>
@@ -36257,7 +36257,7 @@
         <v>1215</v>
       </c>
       <c r="C1089" s="20" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D1089" s="29" t="s">
         <v>2161</v>
@@ -36315,7 +36315,7 @@
         <v>1215</v>
       </c>
       <c r="C1091" s="20" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D1091" s="29" t="s">
         <v>2268</v>
@@ -36431,7 +36431,7 @@
         <v>1215</v>
       </c>
       <c r="C1095" s="20" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D1095" s="29" t="s">
         <v>2163</v>
@@ -36489,7 +36489,7 @@
         <v>1215</v>
       </c>
       <c r="C1097" s="20" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D1097" s="29" t="s">
         <v>2165</v>
@@ -36956,6 +36956,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36963,11 +36968,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1108:I1113 A20:I1106">
@@ -37076,7 +37076,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B417:B1017 B1054:B1103 B1104:B1115 B1018:B1053 B19:B416 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B417:B1017 B1054:B1103 B1104:B1115 B1018:B1053 B19:B416" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -37095,6 +37095,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -37143,12 +37149,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
@@ -37158,6 +37158,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37170,18 +37184,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCSTOR/MS-OXCSTOR_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2E4517-C573-417C-A523-2C128F4E97B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C23FF3-4885-4E67-B2A5-572AE25579FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -5010,21 +5010,12 @@
     <t>[In PidTagMaximumSubmitMessageSize Property] Type: PtypInteger32 ([MS-OXCDATA] section 2.11.1)</t>
   </si>
   <si>
-    <t>[In PidTagMaximumSubmitMessageSize Property] The PidTagMaximumSubmitMessageSize ([MS-OXPROPS] section 2.770) property: An unset value or a value of -1 indicates that there is no limit.</t>
-  </si>
-  <si>
     <t>[In PidTagProhibitReceiveQuota Property] Type: PtypInteger32 ([MS-OXCDATA] section 2.11.1)</t>
   </si>
   <si>
-    <t>[In PidTagProhibitReceiveQuota Property] The PidTagProhibitReceiveQuota ([MS-OXPROPS] section 2.863) property: An unset value or a value of -1 indicates that there is no limit.</t>
-  </si>
-  <si>
     <t>[In PidTagProhibitSendQuota Property] Type: PtypInteger32 ([MS-OXCDATA] section 2.11.1)</t>
   </si>
   <si>
-    <t>[In PidTagProhibitSendQuota Property] The PidTagProhibitSendQuota ([MS-OXPROPS] section 2.864) property: An unset value or a value of -1 indicates that there is no limit.</t>
-  </si>
-  <si>
     <t>[in PidTagStoreState Property] Type: PtypInteger32 ([MS-OXCDATA] section 2.11.1)</t>
   </si>
   <si>
@@ -5040,9 +5031,6 @@
     <t>[In PidTagMessageSize Property] Type: PtypInteger32 ([MS-OXCDATA] section 2.11.1)</t>
   </si>
   <si>
-    <t>[In PidTagMessageSize Property] The PidTagMessageSize ([MS-OXPROPS] section 2.785) property: Value is limited to 32 bits and becomes undefined if the content size exceeds four gigabytes.</t>
-  </si>
-  <si>
     <t>[In PidTagMessageSizeExtended Property] Type: PtypInteger64 ([MS-OXCDATA] section 2.11.1)</t>
   </si>
   <si>
@@ -5095,12 +5083,6 @@
   </si>
   <si>
     <t>[In PidTagOutOfOfficeState Property] Type: PtypBoolean ([MS-OXCDATA] section 2.11.1)</t>
-  </si>
-  <si>
-    <t>[In PidTagOutOfOfficeState Property] The PidTagOutOfOfficeState ([MS-OXPROPS] section 2.910) property: The value TRUE indicates that the user is OOF, in which case the out of office rules are evaluated and executed.</t>
-  </si>
-  <si>
-    <t>[In PidTagOutOfOfficeState Property] The PidTagOutOfOfficeState ([MS-OXPROPS] section 2.910) property: When the value of this property is reset, regardless of the value, the accumulated OOF history is cleared for all OOF rules.</t>
   </si>
   <si>
     <t>[In PidTagOutOfOfficeState Property] For more details about rules, see [MS-OXORULE].</t>
@@ -7358,9 +7340,6 @@
     <t>[In Appendix A: Product Behavior] Implementation does not return 0x80070005 (ecAccessDenied) when the client attempts to set the PidTagComment property by using the RopSetProperties ROP ([MS-OXCROPS] section 2.2.8.6).(Exchange 2007 and Exchange 2010 follow this behavior).</t>
   </si>
   <si>
-    <t>[In PidTagStoreState Property] PidTagStoreState ([MS-OXPROPS] section 2.1017): The value 0x00000000 indicates that the mailbox does not have active search folders.</t>
-  </si>
-  <si>
     <t>The value 0x01000000 indicates that one or more active search folders have been created.</t>
   </si>
   <si>
@@ -7445,30 +7424,9 @@
     <t>[In Behavior Common to Both Private Mailbox and Public Folder Logon] If the user marks a message as read, the current value of that message's PidTagChangeNumber property ([MS-OXPROPS] section 2.632) is added to the change number set (CNSET).</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] When the LongTermId field of the request contains zeros for the replica GUID (REPLGUID) component, the implementation does return ecNone in the ReturnValue field.  &lt;44&gt; Section 3.2.5.9:  Exchange 2007 and Exchange 2019 return ecNone if the LongTermId field of the request contains zeros for the replica GUID (REPLGUID) component..</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Last-modification Time" column (PidTagLastModificationTime property ([MS-OXPROPS] section 2.765)) - Contains the current system-time, in UTC, when the entry was created or last modified.</t>
-  </si>
-  <si>
-    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Message Class" column (PidTagMessageClass property ([MS-OXPROPS] section 2.788)) - Contains a string that specifies the message class that is configured for the Receive folder.</t>
-  </si>
-  <si>
     <t>[In Receiving a RopSetReceiveFolder ROP Request] "Folder ID" column (PidTagFolderId property ([MS-OXPROPS] section 2.702)) - Contains the Folder ID, as specified in [MS-OXCDATA] section 2.2.1.1, of the Receive folder, which is the folder to which messages of the specified message class will be delivered.</t>
   </si>
   <si>
-    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1054) contains the Address book EntryID of the user logged on to the public folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagSentMailSvrEID Property] The PidTagSentMailSvrEID property ([MS-OXPROPS] section 2.1012) contains the structure identifying the Sent Items folder.</t>
-  </si>
-  <si>
-    <t>[In PidTagOutOfOfficeState Property] The PidTagOutOfOfficeState property ([MS-OXPROPS] section 2.856) indicates whether the user is Out of Office (OOF).</t>
-  </si>
-  <si>
     <t>[In PidTagDeleteAfterSubmit Property] The PidTagDeleteAfterSubmit property ([MS-OXPROPS] section 2.669) indicates whether a transport deletes all submitted mail after transmission.</t>
   </si>
   <si>
@@ -7478,55 +7436,97 @@
     <t>[In PidTagCodePageId Property] The PidTagCodePageId property ([MS-OXPROPS] section 2.637) establishes the client code page for Unicode to double-byte character set (DBCS) string conversion. For details, see [MS-UCODEREF].</t>
   </si>
   <si>
-    <t>[In PidTagSortLocaleId Property] The PidTagSortLocaleId property ([MS-OXPROPS] section 2.1022) establishes the language locale for sorting the contents of tables. For more details, see [MS-LCID].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In PidTagSerializedReplidGuidMap Property] The PidTagSerializedReplidGuidMap property ([MS-OXPROPS] section 2.1020) contains a serialized list of REPLID and REPLGUID pairs which represents all or part of the REPLID /REPLGUID mapping of the associated Logon object. </t>
-  </si>
-  <si>
-    <t>[In PidTagLocaleId Property] The PidTagLocaleId property ([MS-OXPROPS] section 2.775) establishes the language locale for translating system-generated messages, such as delivery reports. For more details, see [MS-LCID].</t>
-  </si>
-  <si>
-    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1054) contains the Address book EntryID of the user logged on to the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMessageSizeExtended Property] The PidTagMessageSizeExtended property ([MS-OXPROPS] section 2.798) contains the cumulative size, in bytes, of all content in the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMessageSize Property] The PidTagMessageSize property ([MS-OXPROPS] section 2.797) contains the cumulative size, in bytes, of all content in the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMailboxOwnerName Property] The PidTagMailboxOwnerName property ([MS-OXPROPS] section 2.779) contains the display name of the owner of the mailbox.</t>
-  </si>
-  <si>
-    <t>[In PidTagMailboxOwnerEntryId Property] The PidTagMailboxOwnerEntryId property ([MS-OXPROPS] section 2.778) contains the EntryID in the Global Address List (GAL) of the owner of the mailbox.</t>
-  </si>
-  <si>
     <t>[In PidTagContentCount Property] The PidTagContentCount property ([MS-OXPROPS] section 2.647) contains the cumulative count of non-folder associated information (FAI) messages in the mailbox.</t>
   </si>
   <si>
-    <t>[In PidTagStoreState Property] The PidTagStoreState property ([MS-OXPROPS] section 2.1030) indicates whether the mailbox has any active search folders.</t>
-  </si>
-  <si>
-    <t>[In PidTagProhibitSendQuota Property] The PidTagProhibitSendQuota property ([MS-OXPROPS] section 2.876) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before the user can no longer submit any more mail.</t>
-  </si>
-  <si>
-    <t>[In PidTagProhibitReceiveQuota Property] The PidTagProhibitReceiveQuota property ([MS-OXPROPS] section 2.875) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before no further mail will be delivered.</t>
-  </si>
-  <si>
-    <t>[In PidTagMaximumSubmitMessageSize Property] The PidTagMaximumSubmitMessageSize property ([MS-OXPROPS] section 2.782) contains the maximum size, in kilobytes, of a message a user is allowed to submit for transmission to another user.</t>
-  </si>
-  <si>
     <t>[In PidTagExtendedRuleSizeLimit Property] The PidTagExtendedRuleSizeLimit property ([MS-OXPROPS] section 2.695) contains the Maximum size, in bytes, the user is allowed to accumulate for a single "extended" rule.</t>
   </si>
   <si>
-    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer]  [Rows] PidTagLastModificationTime property: PidTagLastModificationTime property ([MS-OXPROPS] section 2.765) -- A PtypTime value that specifies the time, in Coordinated Universal Time (UTC), when the server created or last modified the row in the Receive folder table.</t>
-  </si>
-  <si>
-    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] [Rows] PidTagMessageClass property ([MS-OXPROPS] section 2.788): A PtypString8 value.</t>
-  </si>
-  <si>
     <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] 	[Rows] PidTagFolderId property ([MS-OXPROPS] section 2.702): A PtypInteger64 value that specifies the folder ID (FID) ([MS-OXCDATA] section 2.2.1.1) of the Receive folder, which is the folder to which messages of the specified message class will be delivered.</t>
+  </si>
+  <si>
+    <t>26.1</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] When the LongTermId field of the request contains zeros for the replica GUID (REPLGUID) component, the implementation does return ecNone in the ReturnValue field.  &lt;44&gt; Section 3.2.5.9:  Exchange 2007, Exchange 2016 and Exchange 2019 return ecNone if the LongTermId field of the request contains zeros for the replica GUID (REPLGUID) component..</t>
+  </si>
+  <si>
+    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer] [Rows] PidTagMessageClass property ([MS-OXPROPS] section 2.789): A PtypString8 value.</t>
+  </si>
+  <si>
+    <t>[In RopGetReceiveFolderTable ROP Success Response Buffer]  [Rows] PidTagLastModificationTime property: PidTagLastModificationTime property ([MS-OXPROPS] section 2.766) -- A PtypTime value that specifies the time, in Coordinated Universal Time (UTC), when the server created or last modified the row in the Receive folder table.</t>
+  </si>
+  <si>
+    <t>[In PidTagMaximumSubmitMessageSize Property] The PidTagMaximumSubmitMessageSize property ([MS-OXPROPS] section 2.783) contains the maximum size, in kilobytes, of a message a user is allowed to submit for transmission to another user.</t>
+  </si>
+  <si>
+    <t>[In PidTagMaximumSubmitMessageSize Property] The PidTagMaximumSubmitMessageSize ([MS-OXPROPS] section 2.783) property: An unset value or a value of -1 indicates that there is no limit.</t>
+  </si>
+  <si>
+    <t>[In PidTagProhibitReceiveQuota Property] The PidTagProhibitReceiveQuota property ([MS-OXPROPS] section 2.876) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before no further mail will be delivered.</t>
+  </si>
+  <si>
+    <t>[In PidTagProhibitReceiveQuota Property] The PidTagProhibitReceiveQuota ([MS-OXPROPS] section 2.876) property: An unset value or a value of -1 indicates that there is no limit.</t>
+  </si>
+  <si>
+    <t>[In PidTagProhibitSendQuota Property] The PidTagProhibitSendQuota property ([MS-OXPROPS] section 2.877) contains the maximum size, in kilobytes, a user is allowed to accumulate in their mailbox, before the user can no longer submit any more mail.</t>
+  </si>
+  <si>
+    <t>[In PidTagProhibitSendQuota Property] The PidTagProhibitSendQuota ([MS-OXPROPS] section 2.877) property: An unset value or a value of -1 indicates that there is no limit.</t>
+  </si>
+  <si>
+    <t>[In PidTagStoreState Property] The PidTagStoreState property ([MS-OXPROPS] section 2.1031) indicates whether the mailbox has any active search folders.</t>
+  </si>
+  <si>
+    <t>[In PidTagStoreState Property] PidTagStoreState ([MS-OXPROPS] section 2.1031): The value 0x00000000 indicates that the mailbox does not have active search folders.</t>
+  </si>
+  <si>
+    <t>[In PidTagMailboxOwnerEntryId Property] The PidTagMailboxOwnerEntryId property ([MS-OXPROPS] section 2.779) contains the EntryID in the Global Address List (GAL) of the owner of the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMailboxOwnerName Property] The PidTagMailboxOwnerName property ([MS-OXPROPS] section 2.780) contains the display name of the owner of the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSize Property] The PidTagMessageSize property ([MS-OXPROPS] section 2.798) contains the cumulative size, in bytes, of all content in the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSize Property] The PidTagMessageSize ([MS-OXPROPS] section 2.798) property: Value is limited to 32 bits and becomes undefined if the content size exceeds four gigabytes.</t>
+  </si>
+  <si>
+    <t>[In PidTagMessageSizeExtended Property] The PidTagMessageSizeExtended property ([MS-OXPROPS] section 2.799) contains the cumulative size, in bytes, of all content in the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1055) contains the Address book EntryID of the user logged on to the mailbox.</t>
+  </si>
+  <si>
+    <t>[In PidTagLocaleId Property] The PidTagLocaleId property ([MS-OXPROPS] section 2.776) establishes the language locale for translating system-generated messages, such as delivery reports. For more details, see [MS-LCID].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In PidTagSerializedReplidGuidMap Property] The PidTagSerializedReplidGuidMap property ([MS-OXPROPS] section 2.1021) contains a serialized list of REPLID and REPLGUID pairs which represents all or part of the REPLID /REPLGUID mapping of the associated Logon object. </t>
+  </si>
+  <si>
+    <t>[In PidTagSortLocaleId Property] The PidTagSortLocaleId property ([MS-OXPROPS] section 2.1023) establishes the language locale for sorting the contents of tables. For more details, see [MS-LCID].</t>
+  </si>
+  <si>
+    <t>[In PidTagOutOfOfficeState Property] The PidTagOutOfOfficeState property ([MS-OXPROPS] section 2.857) indicates whether the user is Out of Office (OOF).</t>
+  </si>
+  <si>
+    <t>[In PidTagOutOfOfficeState Property] The PidTagOutOfOfficeState ([MS-OXPROPS] section 2.857) property: The value TRUE indicates that the user is OOF, in which case the out of office rules are evaluated and executed.</t>
+  </si>
+  <si>
+    <t>[In PidTagOutOfOfficeState Property] The PidTagOutOfOfficeState ([MS-OXPROPS] section 2.857) property: When the value of this property is reset, regardless of the value, the accumulated OOF history is cleared for all OOF rules.</t>
+  </si>
+  <si>
+    <t>[In PidTagSentMailSvrEID Property] The PidTagSentMailSvrEID property ([MS-OXPROPS] section 2.1013) contains the structure identifying the Sent Items folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagUserEntryId Property] The PidTagUserEntryId property ([MS-OXPROPS] section 2.1055) contains the Address book EntryID of the user logged on to the public folder.</t>
+  </si>
+  <si>
+    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Message Class" column (PidTagMessageClass property ([MS-OXPROPS] section 2.789)) - Contains a string that specifies the message class that is configured for the Receive folder.</t>
+  </si>
+  <si>
+    <t>[In Receiving a RopSetReceiveFolder ROP Request] "Last-modification Time" column (PidTagLastModificationTime property ([MS-OXPROPS] section 2.766)) - Contains the current system-time, in UTC, when the entry was created or last modified.</t>
   </si>
 </sst>
 </file>
@@ -7822,21 +7822,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7860,6 +7845,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8744,13 +8744,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.54296875" style="3" customWidth="1"/>
@@ -8765,7 +8765,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -8788,138 +8788,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="9">
-        <v>44308</v>
+        <v>45706</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
@@ -8932,12 +8932,12 @@
       <c r="C12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8950,12 +8950,12 @@
       <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
@@ -8968,12 +8968,12 @@
       <c r="C14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
@@ -8986,60 +8986,60 @@
       <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="64.5" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -9623,13 +9623,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="25" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>1109</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="25" t="s">
@@ -9648,13 +9648,13 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="25" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>1109</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25" t="s">
@@ -9920,7 +9920,7 @@
         <v>17</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -10156,7 +10156,7 @@
         <v>1109</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="25" t="s">
@@ -10172,7 +10172,7 @@
         <v>17</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="29">
@@ -10208,7 +10208,7 @@
         <v>1109</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="25" t="s">
@@ -10249,7 +10249,7 @@
         <v>17</v>
       </c>
       <c r="I66" s="27" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="43.5">
@@ -10263,7 +10263,7 @@
         <v>1261</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>2129</v>
+        <v>2123</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>19</v>
@@ -10312,7 +10312,7 @@
         <v>1109</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>2289</v>
+        <v>2283</v>
       </c>
       <c r="D69" s="25"/>
       <c r="E69" s="25" t="s">
@@ -10328,7 +10328,7 @@
         <v>17</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -10405,7 +10405,7 @@
         <v>17</v>
       </c>
       <c r="I72" s="27" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="29">
@@ -10882,7 +10882,7 @@
         <v>17</v>
       </c>
       <c r="I91" s="27" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="43.5">
@@ -11468,7 +11468,7 @@
         <v>1111</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>2374</v>
+        <v>2367</v>
       </c>
       <c r="D115" s="25"/>
       <c r="E115" s="25" t="s">
@@ -11484,7 +11484,7 @@
         <v>17</v>
       </c>
       <c r="I115" s="27" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="29">
@@ -11661,7 +11661,7 @@
         <v>17</v>
       </c>
       <c r="I122" s="27" t="s">
-        <v>2174</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="87">
@@ -11672,7 +11672,7 @@
         <v>1112</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="D123" s="25"/>
       <c r="E123" s="25" t="s">
@@ -11688,7 +11688,7 @@
         <v>17</v>
       </c>
       <c r="I123" s="17" t="s">
-        <v>2278</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="29">
@@ -11874,7 +11874,7 @@
         <v>1112</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>2291</v>
+        <v>2285</v>
       </c>
       <c r="D131" s="25"/>
       <c r="E131" s="25" t="s">
@@ -11890,7 +11890,7 @@
         <v>17</v>
       </c>
       <c r="I131" s="27" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="29">
@@ -13501,7 +13501,7 @@
         <v>1122</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>2426</v>
+        <v>2398</v>
       </c>
       <c r="D196" s="25"/>
       <c r="E196" s="25" t="s">
@@ -13551,7 +13551,7 @@
         <v>1122</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>2425</v>
+        <v>2401</v>
       </c>
       <c r="D198" s="25"/>
       <c r="E198" s="25" t="s">
@@ -13801,7 +13801,7 @@
         <v>1122</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>2424</v>
+        <v>2402</v>
       </c>
       <c r="D208" s="25"/>
       <c r="E208" s="25" t="s">
@@ -13876,7 +13876,7 @@
         <v>1124</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>2292</v>
+        <v>2286</v>
       </c>
       <c r="D211" s="25"/>
       <c r="E211" s="25" t="s">
@@ -13892,7 +13892,7 @@
         <v>17</v>
       </c>
       <c r="I211" s="27" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="29">
@@ -14303,7 +14303,7 @@
         <v>1129</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>2293</v>
+        <v>2287</v>
       </c>
       <c r="D228" s="25"/>
       <c r="E228" s="25" t="s">
@@ -14319,7 +14319,7 @@
         <v>17</v>
       </c>
       <c r="I228" s="27" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="29">
@@ -14680,7 +14680,7 @@
         <v>1132</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>2294</v>
+        <v>2288</v>
       </c>
       <c r="D243" s="25"/>
       <c r="E243" s="25" t="s">
@@ -14696,7 +14696,7 @@
         <v>17</v>
       </c>
       <c r="I243" s="17" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="29">
@@ -14773,7 +14773,7 @@
         <v>17</v>
       </c>
       <c r="I246" s="27" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="43.5">
@@ -14950,7 +14950,7 @@
         <v>17</v>
       </c>
       <c r="I253" s="27" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="58">
@@ -14977,7 +14977,7 @@
         <v>17</v>
       </c>
       <c r="I254" s="27" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="58">
@@ -15004,7 +15004,7 @@
         <v>17</v>
       </c>
       <c r="I255" s="27" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="58">
@@ -15031,7 +15031,7 @@
         <v>17</v>
       </c>
       <c r="I256" s="27" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="29">
@@ -15108,7 +15108,7 @@
         <v>17</v>
       </c>
       <c r="I259" s="27" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="58">
@@ -15135,7 +15135,7 @@
         <v>17</v>
       </c>
       <c r="I260" s="27" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="58">
@@ -15162,7 +15162,7 @@
         <v>17</v>
       </c>
       <c r="I261" s="27" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="29">
@@ -15214,7 +15214,7 @@
         <v>17</v>
       </c>
       <c r="I263" s="27" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="58">
@@ -15241,7 +15241,7 @@
         <v>17</v>
       </c>
       <c r="I264" s="27" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="58">
@@ -15268,7 +15268,7 @@
         <v>17</v>
       </c>
       <c r="I265" s="27" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="29">
@@ -15320,7 +15320,7 @@
         <v>17</v>
       </c>
       <c r="I267" s="27" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="43.5">
@@ -18356,7 +18356,7 @@
         <v>1161</v>
       </c>
       <c r="C389" s="17" t="s">
-        <v>2295</v>
+        <v>2289</v>
       </c>
       <c r="D389" s="25"/>
       <c r="E389" s="25" t="s">
@@ -18384,7 +18384,7 @@
         <v>1573</v>
       </c>
       <c r="D390" s="25" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="E390" s="25" t="s">
         <v>19</v>
@@ -18411,7 +18411,7 @@
         <v>1574</v>
       </c>
       <c r="D391" s="25" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="E391" s="25" t="s">
         <v>19</v>
@@ -18438,7 +18438,7 @@
         <v>1575</v>
       </c>
       <c r="D392" s="25" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="E392" s="25" t="s">
         <v>19</v>
@@ -18465,7 +18465,7 @@
         <v>1576</v>
       </c>
       <c r="D393" s="25" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="E393" s="25" t="s">
         <v>19</v>
@@ -18492,7 +18492,7 @@
         <v>1577</v>
       </c>
       <c r="D394" s="25" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="E394" s="25" t="s">
         <v>19</v>
@@ -18519,7 +18519,7 @@
         <v>1578</v>
       </c>
       <c r="D395" s="25" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="E395" s="25" t="s">
         <v>19</v>
@@ -18546,7 +18546,7 @@
         <v>1579</v>
       </c>
       <c r="D396" s="25" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="E396" s="25" t="s">
         <v>19</v>
@@ -18573,7 +18573,7 @@
         <v>1580</v>
       </c>
       <c r="D397" s="25" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="E397" s="25" t="s">
         <v>19</v>
@@ -18600,7 +18600,7 @@
         <v>1581</v>
       </c>
       <c r="D398" s="25" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="E398" s="25" t="s">
         <v>19</v>
@@ -18627,7 +18627,7 @@
         <v>1582</v>
       </c>
       <c r="D399" s="25" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="E399" s="25" t="s">
         <v>19</v>
@@ -18654,7 +18654,7 @@
         <v>1583</v>
       </c>
       <c r="D400" s="25" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="E400" s="25" t="s">
         <v>19</v>
@@ -18681,7 +18681,7 @@
         <v>1584</v>
       </c>
       <c r="D401" s="25" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="E401" s="25" t="s">
         <v>19</v>
@@ -18730,7 +18730,7 @@
         <v>1162</v>
       </c>
       <c r="C403" s="17" t="s">
-        <v>2423</v>
+        <v>2397</v>
       </c>
       <c r="D403" s="25"/>
       <c r="E403" s="25" t="s">
@@ -18805,7 +18805,7 @@
         <v>1163</v>
       </c>
       <c r="C406" s="17" t="s">
-        <v>2422</v>
+        <v>2403</v>
       </c>
       <c r="D406" s="25"/>
       <c r="E406" s="25" t="s">
@@ -18829,8 +18829,8 @@
       <c r="B407" s="26" t="s">
         <v>1163</v>
       </c>
-      <c r="C407" s="27" t="s">
-        <v>1588</v>
+      <c r="C407" s="17" t="s">
+        <v>2404</v>
       </c>
       <c r="D407" s="25"/>
       <c r="E407" s="25" t="s">
@@ -18855,7 +18855,7 @@
         <v>1164</v>
       </c>
       <c r="C408" s="27" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D408" s="25"/>
       <c r="E408" s="25" t="s">
@@ -18880,7 +18880,7 @@
         <v>1164</v>
       </c>
       <c r="C409" s="17" t="s">
-        <v>2421</v>
+        <v>2405</v>
       </c>
       <c r="D409" s="25"/>
       <c r="E409" s="25" t="s">
@@ -18905,7 +18905,7 @@
         <v>1164</v>
       </c>
       <c r="C410" s="17" t="s">
-        <v>1590</v>
+        <v>2406</v>
       </c>
       <c r="D410" s="25"/>
       <c r="E410" s="25" t="s">
@@ -18930,7 +18930,7 @@
         <v>1165</v>
       </c>
       <c r="C411" s="27" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D411" s="25"/>
       <c r="E411" s="25" t="s">
@@ -18955,7 +18955,7 @@
         <v>1165</v>
       </c>
       <c r="C412" s="17" t="s">
-        <v>2420</v>
+        <v>2407</v>
       </c>
       <c r="D412" s="25"/>
       <c r="E412" s="25" t="s">
@@ -18979,8 +18979,8 @@
       <c r="B413" s="26" t="s">
         <v>1165</v>
       </c>
-      <c r="C413" s="27" t="s">
-        <v>1592</v>
+      <c r="C413" s="17" t="s">
+        <v>2408</v>
       </c>
       <c r="D413" s="25"/>
       <c r="E413" s="25" t="s">
@@ -19005,7 +19005,7 @@
         <v>1166</v>
       </c>
       <c r="C414" s="27" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="D414" s="25"/>
       <c r="E414" s="25" t="s">
@@ -19030,7 +19030,7 @@
         <v>1166</v>
       </c>
       <c r="C415" s="17" t="s">
-        <v>2419</v>
+        <v>2409</v>
       </c>
       <c r="D415" s="25"/>
       <c r="E415" s="25" t="s">
@@ -19055,7 +19055,7 @@
         <v>1166</v>
       </c>
       <c r="C416" s="17" t="s">
-        <v>2370</v>
+        <v>2410</v>
       </c>
       <c r="D416" s="25"/>
       <c r="E416" s="25" t="s">
@@ -19074,13 +19074,13 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="18" t="s">
-        <v>2372</v>
+        <v>2365</v>
       </c>
       <c r="B417" s="26" t="s">
         <v>1166</v>
       </c>
       <c r="C417" s="34" t="s">
-        <v>2371</v>
+        <v>2364</v>
       </c>
       <c r="D417" s="33"/>
       <c r="E417" s="25" t="s">
@@ -19105,7 +19105,7 @@
         <v>1167</v>
       </c>
       <c r="C418" s="27" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D418" s="25"/>
       <c r="E418" s="25" t="s">
@@ -19130,7 +19130,7 @@
         <v>1167</v>
       </c>
       <c r="C419" s="17" t="s">
-        <v>2418</v>
+        <v>2396</v>
       </c>
       <c r="D419" s="25"/>
       <c r="E419" s="25" t="s">
@@ -19155,7 +19155,7 @@
         <v>1168</v>
       </c>
       <c r="C420" s="27" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="D420" s="25"/>
       <c r="E420" s="25" t="s">
@@ -19180,7 +19180,7 @@
         <v>1168</v>
       </c>
       <c r="C421" s="17" t="s">
-        <v>2417</v>
+        <v>2411</v>
       </c>
       <c r="D421" s="25"/>
       <c r="E421" s="25" t="s">
@@ -19205,7 +19205,7 @@
         <v>1169</v>
       </c>
       <c r="C422" s="27" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="D422" s="25"/>
       <c r="E422" s="25" t="s">
@@ -19230,7 +19230,7 @@
         <v>1169</v>
       </c>
       <c r="C423" s="17" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="D423" s="25"/>
       <c r="E423" s="25" t="s">
@@ -19255,7 +19255,7 @@
         <v>1170</v>
       </c>
       <c r="C424" s="27" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="D424" s="25"/>
       <c r="E424" s="25" t="s">
@@ -19280,7 +19280,7 @@
         <v>1170</v>
       </c>
       <c r="C425" s="17" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="D425" s="25"/>
       <c r="E425" s="25" t="s">
@@ -19304,8 +19304,8 @@
       <c r="B426" s="26" t="s">
         <v>1170</v>
       </c>
-      <c r="C426" s="27" t="s">
-        <v>1598</v>
+      <c r="C426" s="17" t="s">
+        <v>2414</v>
       </c>
       <c r="D426" s="25"/>
       <c r="E426" s="25" t="s">
@@ -19330,7 +19330,7 @@
         <v>1171</v>
       </c>
       <c r="C427" s="27" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="D427" s="25"/>
       <c r="E427" s="25" t="s">
@@ -19355,7 +19355,7 @@
         <v>1171</v>
       </c>
       <c r="C428" s="17" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="D428" s="25"/>
       <c r="E428" s="25" t="s">
@@ -19380,7 +19380,7 @@
         <v>1172</v>
       </c>
       <c r="C429" s="27" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="D429" s="25"/>
       <c r="E429" s="25" t="s">
@@ -19405,7 +19405,7 @@
         <v>1172</v>
       </c>
       <c r="C430" s="17" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="D430" s="25"/>
       <c r="E430" s="25" t="s">
@@ -19430,7 +19430,7 @@
         <v>1173</v>
       </c>
       <c r="C431" s="27" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="D431" s="25"/>
       <c r="E431" s="25" t="s">
@@ -19455,7 +19455,7 @@
         <v>1173</v>
       </c>
       <c r="C432" s="17" t="s">
-        <v>2412</v>
+        <v>2417</v>
       </c>
       <c r="D432" s="25"/>
       <c r="E432" s="25" t="s">
@@ -19474,13 +19474,13 @@
     </row>
     <row r="433" spans="1:9" ht="29">
       <c r="A433" s="18" t="s">
-        <v>2297</v>
+        <v>2291</v>
       </c>
       <c r="B433" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C433" s="32" t="s">
-        <v>2296</v>
+        <v>2290</v>
       </c>
       <c r="D433" s="30"/>
       <c r="E433" s="25" t="s">
@@ -19499,13 +19499,13 @@
     </row>
     <row r="434" spans="1:9" ht="43.5">
       <c r="A434" s="18" t="s">
-        <v>2303</v>
+        <v>2297</v>
       </c>
       <c r="B434" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C434" s="17" t="s">
-        <v>2411</v>
+        <v>2418</v>
       </c>
       <c r="D434" s="30"/>
       <c r="E434" s="25" t="s">
@@ -19524,13 +19524,13 @@
     </row>
     <row r="435" spans="1:9" ht="58">
       <c r="A435" s="18" t="s">
-        <v>2304</v>
+        <v>2298</v>
       </c>
       <c r="B435" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C435" s="32" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="D435" s="30"/>
       <c r="E435" s="25" t="s">
@@ -19549,13 +19549,13 @@
     </row>
     <row r="436" spans="1:9" ht="43.5">
       <c r="A436" s="18" t="s">
-        <v>2305</v>
+        <v>2299</v>
       </c>
       <c r="B436" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C436" s="32" t="s">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="D436" s="30"/>
       <c r="E436" s="25" t="s">
@@ -19574,13 +19574,13 @@
     </row>
     <row r="437" spans="1:9" ht="29">
       <c r="A437" s="18" t="s">
-        <v>2306</v>
+        <v>2300</v>
       </c>
       <c r="B437" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C437" s="32" t="s">
-        <v>2302</v>
+        <v>2296</v>
       </c>
       <c r="D437" s="30"/>
       <c r="E437" s="30" t="s">
@@ -19599,13 +19599,13 @@
     </row>
     <row r="438" spans="1:9" ht="29">
       <c r="A438" s="18" t="s">
-        <v>2307</v>
+        <v>2301</v>
       </c>
       <c r="B438" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C438" s="32" t="s">
-        <v>2301</v>
+        <v>2295</v>
       </c>
       <c r="D438" s="30"/>
       <c r="E438" s="30" t="s">
@@ -19624,13 +19624,13 @@
     </row>
     <row r="439" spans="1:9" ht="29">
       <c r="A439" s="18" t="s">
-        <v>2308</v>
+        <v>2302</v>
       </c>
       <c r="B439" s="26" t="s">
         <v>1174</v>
       </c>
       <c r="C439" s="32" t="s">
-        <v>2298</v>
+        <v>2292</v>
       </c>
       <c r="D439" s="30"/>
       <c r="E439" s="25" t="s">
@@ -19655,7 +19655,7 @@
         <v>1175</v>
       </c>
       <c r="C440" s="17" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="D440" s="25"/>
       <c r="E440" s="25" t="s">
@@ -19680,7 +19680,7 @@
         <v>1175</v>
       </c>
       <c r="C441" s="17" t="s">
-        <v>2410</v>
+        <v>2419</v>
       </c>
       <c r="D441" s="25"/>
       <c r="E441" s="25" t="s">
@@ -19705,7 +19705,7 @@
         <v>1175</v>
       </c>
       <c r="C442" s="27" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="D442" s="25"/>
       <c r="E442" s="25" t="s">
@@ -19727,10 +19727,10 @@
         <v>456</v>
       </c>
       <c r="B443" s="20" t="s">
-        <v>2309</v>
+        <v>2303</v>
       </c>
       <c r="C443" s="27" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="D443" s="25"/>
       <c r="E443" s="25" t="s">
@@ -19752,10 +19752,10 @@
         <v>457</v>
       </c>
       <c r="B444" s="20" t="s">
-        <v>2309</v>
+        <v>2303</v>
       </c>
       <c r="C444" s="17" t="s">
-        <v>2409</v>
+        <v>2395</v>
       </c>
       <c r="D444" s="25"/>
       <c r="E444" s="25" t="s">
@@ -19780,7 +19780,7 @@
         <v>1176</v>
       </c>
       <c r="C445" s="17" t="s">
-        <v>2373</v>
+        <v>2366</v>
       </c>
       <c r="D445" s="25"/>
       <c r="E445" s="25" t="s">
@@ -19805,10 +19805,10 @@
         <v>1176</v>
       </c>
       <c r="C446" s="17" t="s">
-        <v>2310</v>
+        <v>2304</v>
       </c>
       <c r="D446" s="25" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="E446" s="25" t="s">
         <v>19</v>
@@ -19823,7 +19823,7 @@
         <v>17</v>
       </c>
       <c r="I446" s="17" t="s">
-        <v>2231</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="447" spans="1:9">
@@ -19834,10 +19834,10 @@
         <v>1176</v>
       </c>
       <c r="C447" s="27" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="D447" s="25" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="E447" s="25" t="s">
         <v>19</v>
@@ -19861,7 +19861,7 @@
         <v>1176</v>
       </c>
       <c r="C448" s="17" t="s">
-        <v>2311</v>
+        <v>2305</v>
       </c>
       <c r="D448" s="25"/>
       <c r="E448" s="25" t="s">
@@ -19877,7 +19877,7 @@
         <v>17</v>
       </c>
       <c r="I448" s="27" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="449" spans="1:9">
@@ -19888,10 +19888,10 @@
         <v>1176</v>
       </c>
       <c r="C449" s="17" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
       <c r="D449" s="25" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="E449" s="25" t="s">
         <v>19</v>
@@ -19915,10 +19915,10 @@
         <v>1176</v>
       </c>
       <c r="C450" s="27" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="D450" s="25" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="E450" s="25" t="s">
         <v>19</v>
@@ -19942,10 +19942,10 @@
         <v>1176</v>
       </c>
       <c r="C451" s="27" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="D451" s="25" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="E451" s="25" t="s">
         <v>19</v>
@@ -19969,10 +19969,10 @@
         <v>1176</v>
       </c>
       <c r="C452" s="27" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="D452" s="25" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="E452" s="25" t="s">
         <v>19</v>
@@ -19996,10 +19996,10 @@
         <v>1176</v>
       </c>
       <c r="C453" s="27" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D453" s="25" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="E453" s="25" t="s">
         <v>19</v>
@@ -20023,7 +20023,7 @@
         <v>1177</v>
       </c>
       <c r="C454" s="27" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="D454" s="25"/>
       <c r="E454" s="25" t="s">
@@ -20048,7 +20048,7 @@
         <v>1177</v>
       </c>
       <c r="C455" s="17" t="s">
-        <v>2408</v>
+        <v>2394</v>
       </c>
       <c r="D455" s="25"/>
       <c r="E455" s="25" t="s">
@@ -20073,7 +20073,7 @@
         <v>1178</v>
       </c>
       <c r="C456" s="27" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="D456" s="25"/>
       <c r="E456" s="25" t="s">
@@ -20098,7 +20098,7 @@
         <v>1178</v>
       </c>
       <c r="C457" s="17" t="s">
-        <v>2407</v>
+        <v>2393</v>
       </c>
       <c r="D457" s="25"/>
       <c r="E457" s="25" t="s">
@@ -20123,7 +20123,7 @@
         <v>1178</v>
       </c>
       <c r="C458" s="27" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D458" s="25"/>
       <c r="E458" s="25" t="s">
@@ -20148,7 +20148,7 @@
         <v>1178</v>
       </c>
       <c r="C459" s="27" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="D459" s="25"/>
       <c r="E459" s="25" t="s">
@@ -20173,7 +20173,7 @@
         <v>1179</v>
       </c>
       <c r="C460" s="27" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="D460" s="25"/>
       <c r="E460" s="25" t="s">
@@ -20198,7 +20198,7 @@
         <v>1179</v>
       </c>
       <c r="C461" s="17" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="D461" s="25"/>
       <c r="E461" s="25" t="s">
@@ -20223,7 +20223,7 @@
         <v>1180</v>
       </c>
       <c r="C462" s="27" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="D462" s="25"/>
       <c r="E462" s="25" t="s">
@@ -20248,7 +20248,7 @@
         <v>1180</v>
       </c>
       <c r="C463" s="17" t="s">
-        <v>2406</v>
+        <v>2420</v>
       </c>
       <c r="D463" s="25"/>
       <c r="E463" s="25" t="s">
@@ -20273,7 +20273,7 @@
         <v>1180</v>
       </c>
       <c r="C464" s="17" t="s">
-        <v>1617</v>
+        <v>2421</v>
       </c>
       <c r="D464" s="25"/>
       <c r="E464" s="25" t="s">
@@ -20297,8 +20297,8 @@
       <c r="B465" s="26" t="s">
         <v>1180</v>
       </c>
-      <c r="C465" s="27" t="s">
-        <v>1618</v>
+      <c r="C465" s="17" t="s">
+        <v>2422</v>
       </c>
       <c r="D465" s="25"/>
       <c r="E465" s="25" t="s">
@@ -20323,7 +20323,7 @@
         <v>1180</v>
       </c>
       <c r="C466" s="27" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="D466" s="25"/>
       <c r="E466" s="25" t="s">
@@ -20348,7 +20348,7 @@
         <v>1181</v>
       </c>
       <c r="C467" s="27" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="D467" s="25"/>
       <c r="E467" s="25" t="s">
@@ -20373,7 +20373,7 @@
         <v>1181</v>
       </c>
       <c r="C468" s="17" t="s">
-        <v>2405</v>
+        <v>2423</v>
       </c>
       <c r="D468" s="25"/>
       <c r="E468" s="25" t="s">
@@ -20398,7 +20398,7 @@
         <v>1181</v>
       </c>
       <c r="C469" s="27" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="D469" s="25"/>
       <c r="E469" s="25" t="s">
@@ -20423,7 +20423,7 @@
         <v>1181</v>
       </c>
       <c r="C470" s="27" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="D470" s="25"/>
       <c r="E470" s="25" t="s">
@@ -20448,7 +20448,7 @@
         <v>1182</v>
       </c>
       <c r="C471" s="27" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="D471" s="25"/>
       <c r="E471" s="25" t="s">
@@ -20473,7 +20473,7 @@
         <v>1182</v>
       </c>
       <c r="C472" s="27" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="D472" s="25"/>
       <c r="E472" s="25" t="s">
@@ -20498,10 +20498,10 @@
         <v>1182</v>
       </c>
       <c r="C473" s="27" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="D473" s="25" t="s">
-        <v>2132</v>
+        <v>2126</v>
       </c>
       <c r="E473" s="25" t="s">
         <v>19</v>
@@ -20525,10 +20525,10 @@
         <v>1182</v>
       </c>
       <c r="C474" s="27" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="D474" s="25" t="s">
-        <v>2132</v>
+        <v>2126</v>
       </c>
       <c r="E474" s="25" t="s">
         <v>19</v>
@@ -20552,7 +20552,7 @@
         <v>1183</v>
       </c>
       <c r="C475" s="27" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="D475" s="25"/>
       <c r="E475" s="25" t="s">
@@ -20568,7 +20568,7 @@
         <v>20</v>
       </c>
       <c r="I475" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="476" spans="1:9" ht="29">
@@ -20579,7 +20579,7 @@
         <v>1183</v>
       </c>
       <c r="C476" s="17" t="s">
-        <v>2404</v>
+        <v>2424</v>
       </c>
       <c r="D476" s="25"/>
       <c r="E476" s="25" t="s">
@@ -20604,7 +20604,7 @@
         <v>1183</v>
       </c>
       <c r="C477" s="27" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="D477" s="25"/>
       <c r="E477" s="25" t="s">
@@ -20629,7 +20629,7 @@
         <v>1184</v>
       </c>
       <c r="C478" s="27" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="D478" s="25"/>
       <c r="E478" s="25" t="s">
@@ -20654,7 +20654,7 @@
         <v>1184</v>
       </c>
       <c r="C479" s="17" t="s">
-        <v>2397</v>
+        <v>2390</v>
       </c>
       <c r="D479" s="25"/>
       <c r="E479" s="25" t="s">
@@ -20679,7 +20679,7 @@
         <v>1184</v>
       </c>
       <c r="C480" s="27" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="D480" s="25"/>
       <c r="E480" s="25" t="s">
@@ -20704,7 +20704,7 @@
         <v>1185</v>
       </c>
       <c r="C481" s="27" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="D481" s="25"/>
       <c r="E481" s="25" t="s">
@@ -20729,7 +20729,7 @@
         <v>1185</v>
       </c>
       <c r="C482" s="27" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="D482" s="25"/>
       <c r="E482" s="25" t="s">
@@ -20754,7 +20754,7 @@
         <v>1185</v>
       </c>
       <c r="C483" s="27" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="D483" s="25"/>
       <c r="E483" s="25" t="s">
@@ -20779,7 +20779,7 @@
         <v>1185</v>
       </c>
       <c r="C484" s="27" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="D484" s="25"/>
       <c r="E484" s="25" t="s">
@@ -20804,7 +20804,7 @@
         <v>1185</v>
       </c>
       <c r="C485" s="27" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="D485" s="25"/>
       <c r="E485" s="25" t="s">
@@ -20829,7 +20829,7 @@
         <v>1185</v>
       </c>
       <c r="C486" s="27" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="D486" s="25"/>
       <c r="E486" s="25" t="s">
@@ -20854,7 +20854,7 @@
         <v>32</v>
       </c>
       <c r="C487" s="27" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="D487" s="25"/>
       <c r="E487" s="25" t="s">
@@ -20879,7 +20879,7 @@
         <v>32</v>
       </c>
       <c r="C488" s="17" t="s">
-        <v>2336</v>
+        <v>2330</v>
       </c>
       <c r="D488" s="25"/>
       <c r="E488" s="25" t="s">
@@ -20904,7 +20904,7 @@
         <v>32</v>
       </c>
       <c r="C489" s="27" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
       <c r="D489" s="25"/>
       <c r="E489" s="25" t="s">
@@ -20929,7 +20929,7 @@
         <v>32</v>
       </c>
       <c r="C490" s="27" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="D490" s="25"/>
       <c r="E490" s="25" t="s">
@@ -20954,7 +20954,7 @@
         <v>32</v>
       </c>
       <c r="C491" s="27" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="D491" s="25"/>
       <c r="E491" s="25" t="s">
@@ -20979,7 +20979,7 @@
         <v>32</v>
       </c>
       <c r="C492" s="27" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="D492" s="25"/>
       <c r="E492" s="25" t="s">
@@ -21004,7 +21004,7 @@
         <v>32</v>
       </c>
       <c r="C493" s="27" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="D493" s="25"/>
       <c r="E493" s="25" t="s">
@@ -21029,7 +21029,7 @@
         <v>32</v>
       </c>
       <c r="C494" s="27" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="D494" s="25"/>
       <c r="E494" s="25" t="s">
@@ -21054,7 +21054,7 @@
         <v>33</v>
       </c>
       <c r="C495" s="27" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="D495" s="25"/>
       <c r="E495" s="25" t="s">
@@ -21079,7 +21079,7 @@
         <v>33</v>
       </c>
       <c r="C496" s="27" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="D496" s="25"/>
       <c r="E496" s="25" t="s">
@@ -21104,7 +21104,7 @@
         <v>33</v>
       </c>
       <c r="C497" s="27" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="D497" s="25"/>
       <c r="E497" s="25" t="s">
@@ -21129,7 +21129,7 @@
         <v>33</v>
       </c>
       <c r="C498" s="27" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="D498" s="25"/>
       <c r="E498" s="25" t="s">
@@ -21154,7 +21154,7 @@
         <v>33</v>
       </c>
       <c r="C499" s="27" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="D499" s="25"/>
       <c r="E499" s="25" t="s">
@@ -21179,7 +21179,7 @@
         <v>33</v>
       </c>
       <c r="C500" s="27" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="D500" s="25"/>
       <c r="E500" s="25" t="s">
@@ -21204,7 +21204,7 @@
         <v>33</v>
       </c>
       <c r="C501" s="27" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="D501" s="25"/>
       <c r="E501" s="25" t="s">
@@ -21229,7 +21229,7 @@
         <v>1186</v>
       </c>
       <c r="C502" s="27" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="D502" s="25"/>
       <c r="E502" s="25" t="s">
@@ -21254,7 +21254,7 @@
         <v>1186</v>
       </c>
       <c r="C503" s="27" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="D503" s="25"/>
       <c r="E503" s="25" t="s">
@@ -21279,7 +21279,7 @@
         <v>1186</v>
       </c>
       <c r="C504" s="27" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="D504" s="25"/>
       <c r="E504" s="25" t="s">
@@ -21304,7 +21304,7 @@
         <v>1186</v>
       </c>
       <c r="C505" s="27" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="D505" s="25"/>
       <c r="E505" s="25" t="s">
@@ -21329,7 +21329,7 @@
         <v>1186</v>
       </c>
       <c r="C506" s="27" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="D506" s="25"/>
       <c r="E506" s="25" t="s">
@@ -21354,7 +21354,7 @@
         <v>1186</v>
       </c>
       <c r="C507" s="27" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="D507" s="25"/>
       <c r="E507" s="25" t="s">
@@ -21379,7 +21379,7 @@
         <v>1186</v>
       </c>
       <c r="C508" s="27" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="D508" s="25"/>
       <c r="E508" s="25" t="s">
@@ -21404,7 +21404,7 @@
         <v>1186</v>
       </c>
       <c r="C509" s="27" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="D509" s="25"/>
       <c r="E509" s="25" t="s">
@@ -21429,7 +21429,7 @@
         <v>1186</v>
       </c>
       <c r="C510" s="27" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="D510" s="25"/>
       <c r="E510" s="25" t="s">
@@ -21454,7 +21454,7 @@
         <v>1186</v>
       </c>
       <c r="C511" s="27" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="D511" s="25"/>
       <c r="E511" s="25" t="s">
@@ -21479,7 +21479,7 @@
         <v>1186</v>
       </c>
       <c r="C512" s="27" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="D512" s="25"/>
       <c r="E512" s="25" t="s">
@@ -21504,7 +21504,7 @@
         <v>1186</v>
       </c>
       <c r="C513" s="27" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="D513" s="25"/>
       <c r="E513" s="25" t="s">
@@ -21529,7 +21529,7 @@
         <v>1186</v>
       </c>
       <c r="C514" s="27" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="D514" s="25"/>
       <c r="E514" s="25" t="s">
@@ -21554,7 +21554,7 @@
         <v>1186</v>
       </c>
       <c r="C515" s="27" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="D515" s="25"/>
       <c r="E515" s="25" t="s">
@@ -21579,7 +21579,7 @@
         <v>1187</v>
       </c>
       <c r="C516" s="27" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="D516" s="25"/>
       <c r="E516" s="25" t="s">
@@ -21604,7 +21604,7 @@
         <v>1187</v>
       </c>
       <c r="C517" s="27" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="D517" s="25"/>
       <c r="E517" s="25" t="s">
@@ -21629,7 +21629,7 @@
         <v>1187</v>
       </c>
       <c r="C518" s="27" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="D518" s="25"/>
       <c r="E518" s="25" t="s">
@@ -21654,7 +21654,7 @@
         <v>1188</v>
       </c>
       <c r="C519" s="27" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="D519" s="25"/>
       <c r="E519" s="25" t="s">
@@ -21679,7 +21679,7 @@
         <v>1188</v>
       </c>
       <c r="C520" s="27" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="D520" s="25"/>
       <c r="E520" s="25" t="s">
@@ -21704,7 +21704,7 @@
         <v>1188</v>
       </c>
       <c r="C521" s="27" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="D521" s="25"/>
       <c r="E521" s="25" t="s">
@@ -21729,7 +21729,7 @@
         <v>1188</v>
       </c>
       <c r="C522" s="27" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="D522" s="25"/>
       <c r="E522" s="25" t="s">
@@ -21754,7 +21754,7 @@
         <v>1188</v>
       </c>
       <c r="C523" s="27" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="D523" s="25"/>
       <c r="E523" s="25" t="s">
@@ -21779,7 +21779,7 @@
         <v>1188</v>
       </c>
       <c r="C524" s="27" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="D524" s="25"/>
       <c r="E524" s="25" t="s">
@@ -21804,7 +21804,7 @@
         <v>1188</v>
       </c>
       <c r="C525" s="27" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="D525" s="25"/>
       <c r="E525" s="25" t="s">
@@ -21829,7 +21829,7 @@
         <v>1188</v>
       </c>
       <c r="C526" s="27" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="D526" s="25"/>
       <c r="E526" s="25" t="s">
@@ -21854,7 +21854,7 @@
         <v>1188</v>
       </c>
       <c r="C527" s="27" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="D527" s="25"/>
       <c r="E527" s="25" t="s">
@@ -21879,7 +21879,7 @@
         <v>1188</v>
       </c>
       <c r="C528" s="27" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="D528" s="25"/>
       <c r="E528" s="25" t="s">
@@ -21904,7 +21904,7 @@
         <v>1188</v>
       </c>
       <c r="C529" s="27" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="D529" s="25"/>
       <c r="E529" s="25" t="s">
@@ -21929,7 +21929,7 @@
         <v>1188</v>
       </c>
       <c r="C530" s="27" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="D530" s="25"/>
       <c r="E530" s="25" t="s">
@@ -21954,7 +21954,7 @@
         <v>1188</v>
       </c>
       <c r="C531" s="27" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="D531" s="25"/>
       <c r="E531" s="25" t="s">
@@ -21979,7 +21979,7 @@
         <v>1188</v>
       </c>
       <c r="C532" s="27" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="D532" s="25"/>
       <c r="E532" s="25" t="s">
@@ -22004,7 +22004,7 @@
         <v>1188</v>
       </c>
       <c r="C533" s="27" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="D533" s="25"/>
       <c r="E533" s="25" t="s">
@@ -22029,7 +22029,7 @@
         <v>1188</v>
       </c>
       <c r="C534" s="27" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="D534" s="25"/>
       <c r="E534" s="25" t="s">
@@ -22054,7 +22054,7 @@
         <v>1188</v>
       </c>
       <c r="C535" s="27" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="D535" s="25"/>
       <c r="E535" s="25" t="s">
@@ -22079,7 +22079,7 @@
         <v>1188</v>
       </c>
       <c r="C536" s="27" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="D536" s="25"/>
       <c r="E536" s="25" t="s">
@@ -22104,7 +22104,7 @@
         <v>1188</v>
       </c>
       <c r="C537" s="27" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="D537" s="25"/>
       <c r="E537" s="25" t="s">
@@ -22129,7 +22129,7 @@
         <v>1188</v>
       </c>
       <c r="C538" s="27" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="D538" s="25"/>
       <c r="E538" s="25" t="s">
@@ -22154,7 +22154,7 @@
         <v>1188</v>
       </c>
       <c r="C539" s="27" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="D539" s="25"/>
       <c r="E539" s="25" t="s">
@@ -22179,7 +22179,7 @@
         <v>1188</v>
       </c>
       <c r="C540" s="27" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="D540" s="25"/>
       <c r="E540" s="25" t="s">
@@ -22204,7 +22204,7 @@
         <v>1189</v>
       </c>
       <c r="C541" s="27" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="D541" s="25"/>
       <c r="E541" s="25" t="s">
@@ -22229,7 +22229,7 @@
         <v>1189</v>
       </c>
       <c r="C542" s="27" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="D542" s="25"/>
       <c r="E542" s="25" t="s">
@@ -22254,7 +22254,7 @@
         <v>1189</v>
       </c>
       <c r="C543" s="27" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="D543" s="25"/>
       <c r="E543" s="25" t="s">
@@ -22279,7 +22279,7 @@
         <v>1189</v>
       </c>
       <c r="C544" s="27" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="D544" s="25"/>
       <c r="E544" s="25" t="s">
@@ -22304,7 +22304,7 @@
         <v>1189</v>
       </c>
       <c r="C545" s="27" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="D545" s="25"/>
       <c r="E545" s="25" t="s">
@@ -22329,7 +22329,7 @@
         <v>1189</v>
       </c>
       <c r="C546" s="27" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="D546" s="25"/>
       <c r="E546" s="25" t="s">
@@ -22354,7 +22354,7 @@
         <v>1189</v>
       </c>
       <c r="C547" s="27" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="D547" s="25"/>
       <c r="E547" s="25" t="s">
@@ -22379,7 +22379,7 @@
         <v>1189</v>
       </c>
       <c r="C548" s="27" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="D548" s="25"/>
       <c r="E548" s="25" t="s">
@@ -22404,7 +22404,7 @@
         <v>1189</v>
       </c>
       <c r="C549" s="27" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="D549" s="25"/>
       <c r="E549" s="25" t="s">
@@ -22429,7 +22429,7 @@
         <v>1189</v>
       </c>
       <c r="C550" s="27" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="D550" s="25"/>
       <c r="E550" s="25" t="s">
@@ -22454,7 +22454,7 @@
         <v>1189</v>
       </c>
       <c r="C551" s="27" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="D551" s="25"/>
       <c r="E551" s="25" t="s">
@@ -22479,7 +22479,7 @@
         <v>1189</v>
       </c>
       <c r="C552" s="27" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="D552" s="25"/>
       <c r="E552" s="25" t="s">
@@ -22504,7 +22504,7 @@
         <v>1189</v>
       </c>
       <c r="C553" s="27" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="D553" s="25"/>
       <c r="E553" s="25" t="s">
@@ -22529,7 +22529,7 @@
         <v>1189</v>
       </c>
       <c r="C554" s="27" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="D554" s="25"/>
       <c r="E554" s="25" t="s">
@@ -22554,7 +22554,7 @@
         <v>1189</v>
       </c>
       <c r="C555" s="27" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="D555" s="25"/>
       <c r="E555" s="25" t="s">
@@ -22579,7 +22579,7 @@
         <v>1189</v>
       </c>
       <c r="C556" s="27" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="D556" s="25"/>
       <c r="E556" s="25" t="s">
@@ -22604,7 +22604,7 @@
         <v>1190</v>
       </c>
       <c r="C557" s="27" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="D557" s="25"/>
       <c r="E557" s="25" t="s">
@@ -22629,7 +22629,7 @@
         <v>1190</v>
       </c>
       <c r="C558" s="27" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="D558" s="25"/>
       <c r="E558" s="25" t="s">
@@ -22654,7 +22654,7 @@
         <v>1190</v>
       </c>
       <c r="C559" s="27" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="D559" s="25"/>
       <c r="E559" s="25" t="s">
@@ -22679,7 +22679,7 @@
         <v>1190</v>
       </c>
       <c r="C560" s="27" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="D560" s="25"/>
       <c r="E560" s="25" t="s">
@@ -22704,7 +22704,7 @@
         <v>1190</v>
       </c>
       <c r="C561" s="27" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="D561" s="25"/>
       <c r="E561" s="25" t="s">
@@ -22729,7 +22729,7 @@
         <v>1190</v>
       </c>
       <c r="C562" s="27" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="D562" s="25"/>
       <c r="E562" s="25" t="s">
@@ -22754,7 +22754,7 @@
         <v>1190</v>
       </c>
       <c r="C563" s="27" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="D563" s="25"/>
       <c r="E563" s="25" t="s">
@@ -22779,7 +22779,7 @@
         <v>1190</v>
       </c>
       <c r="C564" s="27" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="D564" s="25"/>
       <c r="E564" s="25" t="s">
@@ -22804,7 +22804,7 @@
         <v>1190</v>
       </c>
       <c r="C565" s="27" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="D565" s="25"/>
       <c r="E565" s="25" t="s">
@@ -22829,7 +22829,7 @@
         <v>1190</v>
       </c>
       <c r="C566" s="27" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="D566" s="25"/>
       <c r="E566" s="25" t="s">
@@ -22854,7 +22854,7 @@
         <v>1190</v>
       </c>
       <c r="C567" s="27" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="D567" s="25"/>
       <c r="E567" s="25" t="s">
@@ -22879,7 +22879,7 @@
         <v>1190</v>
       </c>
       <c r="C568" s="27" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="D568" s="25"/>
       <c r="E568" s="25" t="s">
@@ -22904,7 +22904,7 @@
         <v>1190</v>
       </c>
       <c r="C569" s="27" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="D569" s="25"/>
       <c r="E569" s="25" t="s">
@@ -22929,7 +22929,7 @@
         <v>1190</v>
       </c>
       <c r="C570" s="27" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="D570" s="25"/>
       <c r="E570" s="25" t="s">
@@ -22954,7 +22954,7 @@
         <v>1190</v>
       </c>
       <c r="C571" s="27" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="D571" s="25"/>
       <c r="E571" s="25" t="s">
@@ -22979,7 +22979,7 @@
         <v>1190</v>
       </c>
       <c r="C572" s="27" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="D572" s="25"/>
       <c r="E572" s="25" t="s">
@@ -23004,7 +23004,7 @@
         <v>1190</v>
       </c>
       <c r="C573" s="27" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="D573" s="25"/>
       <c r="E573" s="25" t="s">
@@ -23029,7 +23029,7 @@
         <v>1190</v>
       </c>
       <c r="C574" s="27" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="D574" s="25"/>
       <c r="E574" s="25" t="s">
@@ -23054,7 +23054,7 @@
         <v>1190</v>
       </c>
       <c r="C575" s="27" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="D575" s="25"/>
       <c r="E575" s="25" t="s">
@@ -23079,7 +23079,7 @@
         <v>1190</v>
       </c>
       <c r="C576" s="27" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="D576" s="25"/>
       <c r="E576" s="25" t="s">
@@ -23104,7 +23104,7 @@
         <v>1190</v>
       </c>
       <c r="C577" s="27" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="D577" s="25"/>
       <c r="E577" s="25" t="s">
@@ -23129,7 +23129,7 @@
         <v>1190</v>
       </c>
       <c r="C578" s="27" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="D578" s="25"/>
       <c r="E578" s="25" t="s">
@@ -23154,7 +23154,7 @@
         <v>1190</v>
       </c>
       <c r="C579" s="27" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="D579" s="25"/>
       <c r="E579" s="25" t="s">
@@ -23179,7 +23179,7 @@
         <v>1190</v>
       </c>
       <c r="C580" s="27" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="D580" s="25"/>
       <c r="E580" s="25" t="s">
@@ -23204,7 +23204,7 @@
         <v>1190</v>
       </c>
       <c r="C581" s="27" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="D581" s="25"/>
       <c r="E581" s="25" t="s">
@@ -23229,7 +23229,7 @@
         <v>1190</v>
       </c>
       <c r="C582" s="27" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="D582" s="25"/>
       <c r="E582" s="25" t="s">
@@ -23254,7 +23254,7 @@
         <v>1190</v>
       </c>
       <c r="C583" s="27" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="D583" s="25"/>
       <c r="E583" s="25" t="s">
@@ -23279,7 +23279,7 @@
         <v>1190</v>
       </c>
       <c r="C584" s="27" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="D584" s="25"/>
       <c r="E584" s="25" t="s">
@@ -23304,7 +23304,7 @@
         <v>1190</v>
       </c>
       <c r="C585" s="27" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="D585" s="25"/>
       <c r="E585" s="25" t="s">
@@ -23329,7 +23329,7 @@
         <v>1190</v>
       </c>
       <c r="C586" s="27" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="D586" s="25"/>
       <c r="E586" s="25" t="s">
@@ -23354,7 +23354,7 @@
         <v>1190</v>
       </c>
       <c r="C587" s="27" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="D587" s="25"/>
       <c r="E587" s="25" t="s">
@@ -23379,7 +23379,7 @@
         <v>1191</v>
       </c>
       <c r="C588" s="27" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="D588" s="25"/>
       <c r="E588" s="25" t="s">
@@ -23404,7 +23404,7 @@
         <v>1191</v>
       </c>
       <c r="C589" s="27" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="D589" s="25"/>
       <c r="E589" s="25" t="s">
@@ -23429,7 +23429,7 @@
         <v>1191</v>
       </c>
       <c r="C590" s="27" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="D590" s="25"/>
       <c r="E590" s="25" t="s">
@@ -23454,7 +23454,7 @@
         <v>1191</v>
       </c>
       <c r="C591" s="17" t="s">
-        <v>2312</v>
+        <v>2306</v>
       </c>
       <c r="D591" s="25"/>
       <c r="E591" s="25" t="s">
@@ -23479,7 +23479,7 @@
         <v>1191</v>
       </c>
       <c r="C592" s="27" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="D592" s="25"/>
       <c r="E592" s="25" t="s">
@@ -23504,7 +23504,7 @@
         <v>1192</v>
       </c>
       <c r="C593" s="27" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="D593" s="25"/>
       <c r="E593" s="25" t="s">
@@ -23529,7 +23529,7 @@
         <v>1192</v>
       </c>
       <c r="C594" s="27" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="D594" s="25"/>
       <c r="E594" s="25" t="s">
@@ -23554,7 +23554,7 @@
         <v>1192</v>
       </c>
       <c r="C595" s="17" t="s">
-        <v>2335</v>
+        <v>2329</v>
       </c>
       <c r="D595" s="25"/>
       <c r="E595" s="25" t="s">
@@ -23570,7 +23570,7 @@
         <v>17</v>
       </c>
       <c r="I595" s="17" t="s">
-        <v>2338</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="596" spans="1:9" ht="29">
@@ -23581,7 +23581,7 @@
         <v>1193</v>
       </c>
       <c r="C596" s="27" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="D596" s="25"/>
       <c r="E596" s="25" t="s">
@@ -23606,7 +23606,7 @@
         <v>1193</v>
       </c>
       <c r="C597" s="27" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="D597" s="25"/>
       <c r="E597" s="25" t="s">
@@ -23631,7 +23631,7 @@
         <v>1194</v>
       </c>
       <c r="C598" s="27" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="D598" s="25"/>
       <c r="E598" s="25" t="s">
@@ -23656,7 +23656,7 @@
         <v>1194</v>
       </c>
       <c r="C599" s="27" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="D599" s="25"/>
       <c r="E599" s="25" t="s">
@@ -23681,7 +23681,7 @@
         <v>1194</v>
       </c>
       <c r="C600" s="27" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="D600" s="25"/>
       <c r="E600" s="25" t="s">
@@ -23706,7 +23706,7 @@
         <v>1194</v>
       </c>
       <c r="C601" s="27" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="D601" s="25"/>
       <c r="E601" s="25" t="s">
@@ -23731,7 +23731,7 @@
         <v>1194</v>
       </c>
       <c r="C602" s="17" t="s">
-        <v>2313</v>
+        <v>2307</v>
       </c>
       <c r="D602" s="25"/>
       <c r="E602" s="25" t="s">
@@ -23747,7 +23747,7 @@
         <v>17</v>
       </c>
       <c r="I602" s="17" t="s">
-        <v>2279</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="603" spans="1:9" ht="43.5">
@@ -23758,7 +23758,7 @@
         <v>1194</v>
       </c>
       <c r="C603" s="27" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="D603" s="25"/>
       <c r="E603" s="25" t="s">
@@ -23783,7 +23783,7 @@
         <v>1194</v>
       </c>
       <c r="C604" s="17" t="s">
-        <v>2314</v>
+        <v>2308</v>
       </c>
       <c r="D604" s="25"/>
       <c r="E604" s="25" t="s">
@@ -23799,7 +23799,7 @@
         <v>17</v>
       </c>
       <c r="I604" s="17" t="s">
-        <v>2349</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="605" spans="1:9" ht="43.5">
@@ -23810,7 +23810,7 @@
         <v>1194</v>
       </c>
       <c r="C605" s="27" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="D605" s="25"/>
       <c r="E605" s="25" t="s">
@@ -23826,7 +23826,7 @@
         <v>20</v>
       </c>
       <c r="I605" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="606" spans="1:9" ht="29">
@@ -23837,7 +23837,7 @@
         <v>1194</v>
       </c>
       <c r="C606" s="27" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="D606" s="25"/>
       <c r="E606" s="25" t="s">
@@ -23856,13 +23856,13 @@
     </row>
     <row r="607" spans="1:9" ht="43.5">
       <c r="A607" s="18" t="s">
-        <v>2277</v>
+        <v>2271</v>
       </c>
       <c r="B607" s="26" t="s">
         <v>1194</v>
       </c>
       <c r="C607" s="27" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="D607" s="25"/>
       <c r="E607" s="25" t="s">
@@ -23887,7 +23887,7 @@
         <v>1194</v>
       </c>
       <c r="C608" s="17" t="s">
-        <v>2315</v>
+        <v>2309</v>
       </c>
       <c r="D608" s="25"/>
       <c r="E608" s="25" t="s">
@@ -23903,7 +23903,7 @@
         <v>17</v>
       </c>
       <c r="I608" s="17" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="609" spans="1:9" ht="43.5">
@@ -23914,7 +23914,7 @@
         <v>1194</v>
       </c>
       <c r="C609" s="17" t="s">
-        <v>2316</v>
+        <v>2310</v>
       </c>
       <c r="D609" s="25"/>
       <c r="E609" s="25" t="s">
@@ -23939,7 +23939,7 @@
         <v>1194</v>
       </c>
       <c r="C610" s="27" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D610" s="25"/>
       <c r="E610" s="25" t="s">
@@ -23964,7 +23964,7 @@
         <v>1194</v>
       </c>
       <c r="C611" s="27" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="D611" s="25"/>
       <c r="E611" s="25" t="s">
@@ -23980,7 +23980,7 @@
         <v>17</v>
       </c>
       <c r="I611" s="17" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="612" spans="1:9" ht="29">
@@ -23991,7 +23991,7 @@
         <v>1194</v>
       </c>
       <c r="C612" s="27" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="D612" s="25"/>
       <c r="E612" s="25" t="s">
@@ -24016,7 +24016,7 @@
         <v>1194</v>
       </c>
       <c r="C613" s="27" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="D613" s="25"/>
       <c r="E613" s="25" t="s">
@@ -24041,7 +24041,7 @@
         <v>1194</v>
       </c>
       <c r="C614" s="27" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="D614" s="25"/>
       <c r="E614" s="25" t="s">
@@ -24057,7 +24057,7 @@
         <v>17</v>
       </c>
       <c r="I614" s="17" t="s">
-        <v>2346</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="615" spans="1:9" ht="58">
@@ -24068,7 +24068,7 @@
         <v>1194</v>
       </c>
       <c r="C615" s="27" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="D615" s="25"/>
       <c r="E615" s="25" t="s">
@@ -24093,7 +24093,7 @@
         <v>1194</v>
       </c>
       <c r="C616" s="27" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="D616" s="25"/>
       <c r="E616" s="25" t="s">
@@ -24109,7 +24109,7 @@
         <v>17</v>
       </c>
       <c r="I616" s="27" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="617" spans="1:9" ht="43.5">
@@ -24120,7 +24120,7 @@
         <v>1194</v>
       </c>
       <c r="C617" s="27" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="D617" s="25"/>
       <c r="E617" s="25" t="s">
@@ -24145,7 +24145,7 @@
         <v>1194</v>
       </c>
       <c r="C618" s="27" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="D618" s="25"/>
       <c r="E618" s="25" t="s">
@@ -24161,7 +24161,7 @@
         <v>17</v>
       </c>
       <c r="I618" s="27" t="s">
-        <v>2251</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="619" spans="1:9" ht="43.5">
@@ -24172,7 +24172,7 @@
         <v>1194</v>
       </c>
       <c r="C619" s="27" t="s">
-        <v>2212</v>
+        <v>2206</v>
       </c>
       <c r="D619" s="25"/>
       <c r="E619" s="25" t="s">
@@ -24197,7 +24197,7 @@
         <v>1194</v>
       </c>
       <c r="C620" s="27" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="D620" s="25"/>
       <c r="E620" s="25" t="s">
@@ -24222,7 +24222,7 @@
         <v>1194</v>
       </c>
       <c r="C621" s="27" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="D621" s="25"/>
       <c r="E621" s="25" t="s">
@@ -24247,7 +24247,7 @@
         <v>1194</v>
       </c>
       <c r="C622" s="27" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="D622" s="25"/>
       <c r="E622" s="25" t="s">
@@ -24272,7 +24272,7 @@
         <v>1194</v>
       </c>
       <c r="C623" s="27" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="D623" s="25"/>
       <c r="E623" s="25" t="s">
@@ -24297,7 +24297,7 @@
         <v>1194</v>
       </c>
       <c r="C624" s="27" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="D624" s="25"/>
       <c r="E624" s="25" t="s">
@@ -24322,7 +24322,7 @@
         <v>1194</v>
       </c>
       <c r="C625" s="27" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="D625" s="25"/>
       <c r="E625" s="25" t="s">
@@ -24347,7 +24347,7 @@
         <v>1194</v>
       </c>
       <c r="C626" s="27" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="D626" s="25"/>
       <c r="E626" s="25" t="s">
@@ -24372,7 +24372,7 @@
         <v>1194</v>
       </c>
       <c r="C627" s="27" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="D627" s="25"/>
       <c r="E627" s="25" t="s">
@@ -24397,7 +24397,7 @@
         <v>1194</v>
       </c>
       <c r="C628" s="27" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="D628" s="25"/>
       <c r="E628" s="25" t="s">
@@ -24422,7 +24422,7 @@
         <v>1194</v>
       </c>
       <c r="C629" s="27" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="D629" s="25"/>
       <c r="E629" s="25" t="s">
@@ -24447,7 +24447,7 @@
         <v>1194</v>
       </c>
       <c r="C630" s="27" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="D630" s="25"/>
       <c r="E630" s="25" t="s">
@@ -24472,7 +24472,7 @@
         <v>1195</v>
       </c>
       <c r="C631" s="27" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="D631" s="25"/>
       <c r="E631" s="25" t="s">
@@ -24488,7 +24488,7 @@
         <v>17</v>
       </c>
       <c r="I631" s="27" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="632" spans="1:9" ht="29">
@@ -24499,7 +24499,7 @@
         <v>1195</v>
       </c>
       <c r="C632" s="27" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="D632" s="25"/>
       <c r="E632" s="25" t="s">
@@ -24524,7 +24524,7 @@
         <v>1195</v>
       </c>
       <c r="C633" s="27" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="D633" s="25"/>
       <c r="E633" s="25" t="s">
@@ -24549,7 +24549,7 @@
         <v>1195</v>
       </c>
       <c r="C634" s="27" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="D634" s="25"/>
       <c r="E634" s="25" t="s">
@@ -24574,7 +24574,7 @@
         <v>1195</v>
       </c>
       <c r="C635" s="27" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="D635" s="25"/>
       <c r="E635" s="25" t="s">
@@ -24599,7 +24599,7 @@
         <v>1195</v>
       </c>
       <c r="C636" s="27" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="D636" s="25"/>
       <c r="E636" s="25" t="s">
@@ -24624,7 +24624,7 @@
         <v>1195</v>
       </c>
       <c r="C637" s="27" t="s">
-        <v>2216</v>
+        <v>2210</v>
       </c>
       <c r="D637" s="25"/>
       <c r="E637" s="25" t="s">
@@ -24649,7 +24649,7 @@
         <v>1195</v>
       </c>
       <c r="C638" s="27" t="s">
-        <v>2217</v>
+        <v>2211</v>
       </c>
       <c r="D638" s="25"/>
       <c r="E638" s="25" t="s">
@@ -24674,7 +24674,7 @@
         <v>1195</v>
       </c>
       <c r="C639" s="27" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="D639" s="25"/>
       <c r="E639" s="25" t="s">
@@ -24699,7 +24699,7 @@
         <v>1195</v>
       </c>
       <c r="C640" s="27" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="D640" s="25"/>
       <c r="E640" s="25" t="s">
@@ -24724,7 +24724,7 @@
         <v>1195</v>
       </c>
       <c r="C641" s="27" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="D641" s="25"/>
       <c r="E641" s="25" t="s">
@@ -24749,7 +24749,7 @@
         <v>1195</v>
       </c>
       <c r="C642" s="27" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="D642" s="25"/>
       <c r="E642" s="25" t="s">
@@ -24774,7 +24774,7 @@
         <v>1195</v>
       </c>
       <c r="C643" s="27" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="D643" s="25"/>
       <c r="E643" s="25" t="s">
@@ -24799,7 +24799,7 @@
         <v>1195</v>
       </c>
       <c r="C644" s="27" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="D644" s="25"/>
       <c r="E644" s="25" t="s">
@@ -24824,7 +24824,7 @@
         <v>1195</v>
       </c>
       <c r="C645" s="27" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="D645" s="25"/>
       <c r="E645" s="25" t="s">
@@ -24840,7 +24840,7 @@
         <v>17</v>
       </c>
       <c r="I645" s="27" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="646" spans="1:9" ht="43.5">
@@ -24851,7 +24851,7 @@
         <v>1195</v>
       </c>
       <c r="C646" s="27" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="D646" s="25"/>
       <c r="E646" s="25" t="s">
@@ -24867,7 +24867,7 @@
         <v>17</v>
       </c>
       <c r="I646" s="27" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="647" spans="1:9" ht="29">
@@ -24878,10 +24878,10 @@
         <v>1195</v>
       </c>
       <c r="C647" s="27" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="D647" s="25" t="s">
-        <v>2133</v>
+        <v>2127</v>
       </c>
       <c r="E647" s="25" t="s">
         <v>19</v>
@@ -24905,7 +24905,7 @@
         <v>1195</v>
       </c>
       <c r="C648" s="27" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="D648" s="25"/>
       <c r="E648" s="25" t="s">
@@ -24930,7 +24930,7 @@
         <v>1195</v>
       </c>
       <c r="C649" s="27" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="D649" s="25"/>
       <c r="E649" s="25" t="s">
@@ -24955,7 +24955,7 @@
         <v>1195</v>
       </c>
       <c r="C650" s="27" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="D650" s="25"/>
       <c r="E650" s="25" t="s">
@@ -24980,7 +24980,7 @@
         <v>1195</v>
       </c>
       <c r="C651" s="27" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="D651" s="25"/>
       <c r="E651" s="25" t="s">
@@ -25005,7 +25005,7 @@
         <v>1195</v>
       </c>
       <c r="C652" s="27" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="D652" s="25"/>
       <c r="E652" s="25" t="s">
@@ -25030,7 +25030,7 @@
         <v>1195</v>
       </c>
       <c r="C653" s="27" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="D653" s="25"/>
       <c r="E653" s="25" t="s">
@@ -25055,7 +25055,7 @@
         <v>1195</v>
       </c>
       <c r="C654" s="27" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="D654" s="25"/>
       <c r="E654" s="25" t="s">
@@ -25080,7 +25080,7 @@
         <v>1195</v>
       </c>
       <c r="C655" s="27" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="D655" s="25"/>
       <c r="E655" s="25" t="s">
@@ -25105,7 +25105,7 @@
         <v>1196</v>
       </c>
       <c r="C656" s="27" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="D656" s="25"/>
       <c r="E656" s="25" t="s">
@@ -25130,7 +25130,7 @@
         <v>1196</v>
       </c>
       <c r="C657" s="27" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="D657" s="25"/>
       <c r="E657" s="25" t="s">
@@ -25155,7 +25155,7 @@
         <v>1196</v>
       </c>
       <c r="C658" s="27" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="D658" s="25"/>
       <c r="E658" s="25" t="s">
@@ -25180,7 +25180,7 @@
         <v>1196</v>
       </c>
       <c r="C659" s="27" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="D659" s="25"/>
       <c r="E659" s="25" t="s">
@@ -25205,7 +25205,7 @@
         <v>1196</v>
       </c>
       <c r="C660" s="27" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="D660" s="25"/>
       <c r="E660" s="25" t="s">
@@ -25230,7 +25230,7 @@
         <v>1196</v>
       </c>
       <c r="C661" s="27" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="D661" s="25"/>
       <c r="E661" s="25" t="s">
@@ -25255,7 +25255,7 @@
         <v>1196</v>
       </c>
       <c r="C662" s="27" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="D662" s="25"/>
       <c r="E662" s="25" t="s">
@@ -25280,7 +25280,7 @@
         <v>1196</v>
       </c>
       <c r="C663" s="27" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="D663" s="25"/>
       <c r="E663" s="25" t="s">
@@ -25296,7 +25296,7 @@
         <v>17</v>
       </c>
       <c r="I663" s="27" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="664" spans="1:9" ht="29">
@@ -25307,7 +25307,7 @@
         <v>1196</v>
       </c>
       <c r="C664" s="27" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="D664" s="25"/>
       <c r="E664" s="25" t="s">
@@ -25332,7 +25332,7 @@
         <v>1196</v>
       </c>
       <c r="C665" s="27" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="D665" s="25"/>
       <c r="E665" s="25" t="s">
@@ -25357,7 +25357,7 @@
         <v>1196</v>
       </c>
       <c r="C666" s="27" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="D666" s="25"/>
       <c r="E666" s="25" t="s">
@@ -25382,7 +25382,7 @@
         <v>1196</v>
       </c>
       <c r="C667" s="27" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="D667" s="25"/>
       <c r="E667" s="25" t="s">
@@ -25407,7 +25407,7 @@
         <v>1196</v>
       </c>
       <c r="C668" s="27" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="D668" s="25"/>
       <c r="E668" s="25" t="s">
@@ -25432,7 +25432,7 @@
         <v>1196</v>
       </c>
       <c r="C669" s="27" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="D669" s="25"/>
       <c r="E669" s="25" t="s">
@@ -25457,7 +25457,7 @@
         <v>1196</v>
       </c>
       <c r="C670" s="27" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="D670" s="25"/>
       <c r="E670" s="25" t="s">
@@ -25482,7 +25482,7 @@
         <v>1196</v>
       </c>
       <c r="C671" s="27" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="D671" s="25"/>
       <c r="E671" s="25" t="s">
@@ -25507,7 +25507,7 @@
         <v>1196</v>
       </c>
       <c r="C672" s="27" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="D672" s="25"/>
       <c r="E672" s="25" t="s">
@@ -25532,7 +25532,7 @@
         <v>1196</v>
       </c>
       <c r="C673" s="27" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="D673" s="25"/>
       <c r="E673" s="25" t="s">
@@ -25557,7 +25557,7 @@
         <v>1196</v>
       </c>
       <c r="C674" s="27" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="D674" s="25"/>
       <c r="E674" s="25" t="s">
@@ -25582,7 +25582,7 @@
         <v>1196</v>
       </c>
       <c r="C675" s="27" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="D675" s="25"/>
       <c r="E675" s="25" t="s">
@@ -25607,7 +25607,7 @@
         <v>1196</v>
       </c>
       <c r="C676" s="27" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="D676" s="25"/>
       <c r="E676" s="25" t="s">
@@ -25632,7 +25632,7 @@
         <v>1196</v>
       </c>
       <c r="C677" s="27" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="D677" s="25"/>
       <c r="E677" s="25" t="s">
@@ -25657,7 +25657,7 @@
         <v>1196</v>
       </c>
       <c r="C678" s="27" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="D678" s="25"/>
       <c r="E678" s="25" t="s">
@@ -25682,7 +25682,7 @@
         <v>1196</v>
       </c>
       <c r="C679" s="27" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="D679" s="25"/>
       <c r="E679" s="25" t="s">
@@ -25707,7 +25707,7 @@
         <v>1196</v>
       </c>
       <c r="C680" s="27" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="D680" s="25"/>
       <c r="E680" s="25" t="s">
@@ -25732,7 +25732,7 @@
         <v>1196</v>
       </c>
       <c r="C681" s="27" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="D681" s="25"/>
       <c r="E681" s="25" t="s">
@@ -25757,7 +25757,7 @@
         <v>1197</v>
       </c>
       <c r="C682" s="27" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="D682" s="25"/>
       <c r="E682" s="25" t="s">
@@ -25782,7 +25782,7 @@
         <v>1197</v>
       </c>
       <c r="C683" s="27" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="D683" s="25"/>
       <c r="E683" s="25" t="s">
@@ -25807,7 +25807,7 @@
         <v>1197</v>
       </c>
       <c r="C684" s="27" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="D684" s="25"/>
       <c r="E684" s="25" t="s">
@@ -25832,7 +25832,7 @@
         <v>1197</v>
       </c>
       <c r="C685" s="27" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="D685" s="25"/>
       <c r="E685" s="25" t="s">
@@ -25857,7 +25857,7 @@
         <v>1197</v>
       </c>
       <c r="C686" s="27" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="D686" s="25"/>
       <c r="E686" s="25" t="s">
@@ -25882,7 +25882,7 @@
         <v>1197</v>
       </c>
       <c r="C687" s="27" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="D687" s="25"/>
       <c r="E687" s="25" t="s">
@@ -25907,7 +25907,7 @@
         <v>1197</v>
       </c>
       <c r="C688" s="27" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="D688" s="25"/>
       <c r="E688" s="25" t="s">
@@ -25932,7 +25932,7 @@
         <v>1197</v>
       </c>
       <c r="C689" s="27" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="D689" s="25"/>
       <c r="E689" s="25" t="s">
@@ -25957,7 +25957,7 @@
         <v>1197</v>
       </c>
       <c r="C690" s="27" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="D690" s="25"/>
       <c r="E690" s="25" t="s">
@@ -25982,7 +25982,7 @@
         <v>1197</v>
       </c>
       <c r="C691" s="27" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="D691" s="25"/>
       <c r="E691" s="25" t="s">
@@ -26007,7 +26007,7 @@
         <v>1197</v>
       </c>
       <c r="C692" s="27" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="D692" s="25"/>
       <c r="E692" s="25" t="s">
@@ -26032,7 +26032,7 @@
         <v>1197</v>
       </c>
       <c r="C693" s="27" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="D693" s="25"/>
       <c r="E693" s="25" t="s">
@@ -26057,7 +26057,7 @@
         <v>1197</v>
       </c>
       <c r="C694" s="27" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D694" s="25"/>
       <c r="E694" s="25" t="s">
@@ -26082,7 +26082,7 @@
         <v>1197</v>
       </c>
       <c r="C695" s="27" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="D695" s="25"/>
       <c r="E695" s="25" t="s">
@@ -26107,7 +26107,7 @@
         <v>1197</v>
       </c>
       <c r="C696" s="27" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="D696" s="25"/>
       <c r="E696" s="25" t="s">
@@ -26132,7 +26132,7 @@
         <v>1197</v>
       </c>
       <c r="C697" s="27" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="D697" s="25"/>
       <c r="E697" s="25" t="s">
@@ -26157,7 +26157,7 @@
         <v>1197</v>
       </c>
       <c r="C698" s="27" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="D698" s="25"/>
       <c r="E698" s="25" t="s">
@@ -26182,7 +26182,7 @@
         <v>1197</v>
       </c>
       <c r="C699" s="27" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="D699" s="25"/>
       <c r="E699" s="25" t="s">
@@ -26207,7 +26207,7 @@
         <v>1197</v>
       </c>
       <c r="C700" s="27" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="D700" s="25"/>
       <c r="E700" s="25" t="s">
@@ -26232,7 +26232,7 @@
         <v>1197</v>
       </c>
       <c r="C701" s="27" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="D701" s="25"/>
       <c r="E701" s="25" t="s">
@@ -26257,7 +26257,7 @@
         <v>1197</v>
       </c>
       <c r="C702" s="27" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="D702" s="25"/>
       <c r="E702" s="25" t="s">
@@ -26282,7 +26282,7 @@
         <v>1197</v>
       </c>
       <c r="C703" s="27" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="D703" s="25"/>
       <c r="E703" s="25" t="s">
@@ -26307,7 +26307,7 @@
         <v>1197</v>
       </c>
       <c r="C704" s="27" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="D704" s="25"/>
       <c r="E704" s="25" t="s">
@@ -26332,7 +26332,7 @@
         <v>1197</v>
       </c>
       <c r="C705" s="27" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="D705" s="25"/>
       <c r="E705" s="25" t="s">
@@ -26357,7 +26357,7 @@
         <v>1197</v>
       </c>
       <c r="C706" s="27" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="D706" s="25"/>
       <c r="E706" s="25" t="s">
@@ -26382,7 +26382,7 @@
         <v>1197</v>
       </c>
       <c r="C707" s="27" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="D707" s="25"/>
       <c r="E707" s="25" t="s">
@@ -26407,7 +26407,7 @@
         <v>1197</v>
       </c>
       <c r="C708" s="27" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="D708" s="25"/>
       <c r="E708" s="25" t="s">
@@ -26432,7 +26432,7 @@
         <v>1197</v>
       </c>
       <c r="C709" s="27" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="D709" s="25"/>
       <c r="E709" s="25" t="s">
@@ -26457,7 +26457,7 @@
         <v>1198</v>
       </c>
       <c r="C710" s="27" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="D710" s="25"/>
       <c r="E710" s="25" t="s">
@@ -26482,7 +26482,7 @@
         <v>1198</v>
       </c>
       <c r="C711" s="27" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="D711" s="25"/>
       <c r="E711" s="25" t="s">
@@ -26507,7 +26507,7 @@
         <v>1198</v>
       </c>
       <c r="C712" s="27" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="D712" s="25"/>
       <c r="E712" s="25" t="s">
@@ -26532,7 +26532,7 @@
         <v>1198</v>
       </c>
       <c r="C713" s="27" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="D713" s="25"/>
       <c r="E713" s="25" t="s">
@@ -26557,7 +26557,7 @@
         <v>1198</v>
       </c>
       <c r="C714" s="27" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="D714" s="25"/>
       <c r="E714" s="25" t="s">
@@ -26582,7 +26582,7 @@
         <v>1198</v>
       </c>
       <c r="C715" s="27" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="D715" s="25"/>
       <c r="E715" s="25" t="s">
@@ -26607,7 +26607,7 @@
         <v>1198</v>
       </c>
       <c r="C716" s="27" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="D716" s="25"/>
       <c r="E716" s="25" t="s">
@@ -26632,7 +26632,7 @@
         <v>1198</v>
       </c>
       <c r="C717" s="27" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="D717" s="25"/>
       <c r="E717" s="25" t="s">
@@ -26657,7 +26657,7 @@
         <v>1198</v>
       </c>
       <c r="C718" s="27" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="D718" s="25"/>
       <c r="E718" s="25" t="s">
@@ -26682,7 +26682,7 @@
         <v>1198</v>
       </c>
       <c r="C719" s="27" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="D719" s="25"/>
       <c r="E719" s="25" t="s">
@@ -26707,7 +26707,7 @@
         <v>1198</v>
       </c>
       <c r="C720" s="27" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="D720" s="25"/>
       <c r="E720" s="25" t="s">
@@ -26732,7 +26732,7 @@
         <v>1198</v>
       </c>
       <c r="C721" s="27" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="D721" s="25"/>
       <c r="E721" s="25" t="s">
@@ -26757,7 +26757,7 @@
         <v>1198</v>
       </c>
       <c r="C722" s="27" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="D722" s="25"/>
       <c r="E722" s="25" t="s">
@@ -26782,7 +26782,7 @@
         <v>1198</v>
       </c>
       <c r="C723" s="27" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="D723" s="25"/>
       <c r="E723" s="25" t="s">
@@ -26807,7 +26807,7 @@
         <v>1198</v>
       </c>
       <c r="C724" s="27" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="D724" s="25"/>
       <c r="E724" s="25" t="s">
@@ -26832,7 +26832,7 @@
         <v>1198</v>
       </c>
       <c r="C725" s="27" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="D725" s="25"/>
       <c r="E725" s="25" t="s">
@@ -26857,7 +26857,7 @@
         <v>1198</v>
       </c>
       <c r="C726" s="27" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="D726" s="25"/>
       <c r="E726" s="25" t="s">
@@ -26882,7 +26882,7 @@
         <v>1198</v>
       </c>
       <c r="C727" s="17" t="s">
-        <v>2403</v>
+        <v>2392</v>
       </c>
       <c r="D727" s="25"/>
       <c r="E727" s="25" t="s">
@@ -26907,7 +26907,7 @@
         <v>1198</v>
       </c>
       <c r="C728" s="27" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="D728" s="25"/>
       <c r="E728" s="25" t="s">
@@ -26932,7 +26932,7 @@
         <v>1198</v>
       </c>
       <c r="C729" s="17" t="s">
-        <v>2402</v>
+        <v>2425</v>
       </c>
       <c r="D729" s="25"/>
       <c r="E729" s="25" t="s">
@@ -26957,7 +26957,7 @@
         <v>1198</v>
       </c>
       <c r="C730" s="17" t="s">
-        <v>2401</v>
+        <v>2426</v>
       </c>
       <c r="D730" s="25"/>
       <c r="E730" s="25" t="s">
@@ -26982,7 +26982,7 @@
         <v>1198</v>
       </c>
       <c r="C731" s="27" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="D731" s="25"/>
       <c r="E731" s="25" t="s">
@@ -27007,7 +27007,7 @@
         <v>1198</v>
       </c>
       <c r="C732" s="27" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="D732" s="25"/>
       <c r="E732" s="25" t="s">
@@ -27032,7 +27032,7 @@
         <v>1198</v>
       </c>
       <c r="C733" s="27" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="D733" s="25"/>
       <c r="E733" s="25" t="s">
@@ -27057,7 +27057,7 @@
         <v>1198</v>
       </c>
       <c r="C734" s="27" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="D734" s="25"/>
       <c r="E734" s="25" t="s">
@@ -27082,7 +27082,7 @@
         <v>1198</v>
       </c>
       <c r="C735" s="27" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="D735" s="25"/>
       <c r="E735" s="25" t="s">
@@ -27107,7 +27107,7 @@
         <v>1198</v>
       </c>
       <c r="C736" s="27" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="D736" s="25"/>
       <c r="E736" s="25" t="s">
@@ -27132,7 +27132,7 @@
         <v>1198</v>
       </c>
       <c r="C737" s="27" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="D737" s="25"/>
       <c r="E737" s="25" t="s">
@@ -27157,7 +27157,7 @@
         <v>1198</v>
       </c>
       <c r="C738" s="27" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="D738" s="25"/>
       <c r="E738" s="25" t="s">
@@ -27182,7 +27182,7 @@
         <v>1198</v>
       </c>
       <c r="C739" s="27" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="D739" s="25"/>
       <c r="E739" s="25" t="s">
@@ -27207,7 +27207,7 @@
         <v>1198</v>
       </c>
       <c r="C740" s="27" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="D740" s="25"/>
       <c r="E740" s="25" t="s">
@@ -27232,7 +27232,7 @@
         <v>1198</v>
       </c>
       <c r="C741" s="27" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="D741" s="25"/>
       <c r="E741" s="25" t="s">
@@ -27257,7 +27257,7 @@
         <v>1199</v>
       </c>
       <c r="C742" s="27" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="D742" s="25"/>
       <c r="E742" s="25" t="s">
@@ -27282,7 +27282,7 @@
         <v>1199</v>
       </c>
       <c r="C743" s="27" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="D743" s="25"/>
       <c r="E743" s="25" t="s">
@@ -27307,7 +27307,7 @@
         <v>1199</v>
       </c>
       <c r="C744" s="27" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="D744" s="25"/>
       <c r="E744" s="25" t="s">
@@ -27332,7 +27332,7 @@
         <v>1199</v>
       </c>
       <c r="C745" s="27" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="D745" s="25"/>
       <c r="E745" s="25" t="s">
@@ -27357,7 +27357,7 @@
         <v>1199</v>
       </c>
       <c r="C746" s="27" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="D746" s="25"/>
       <c r="E746" s="25" t="s">
@@ -27382,7 +27382,7 @@
         <v>1199</v>
       </c>
       <c r="C747" s="27" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="D747" s="25"/>
       <c r="E747" s="25" t="s">
@@ -27407,7 +27407,7 @@
         <v>1199</v>
       </c>
       <c r="C748" s="27" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="D748" s="25"/>
       <c r="E748" s="25" t="s">
@@ -27432,7 +27432,7 @@
         <v>1199</v>
       </c>
       <c r="C749" s="27" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="D749" s="25"/>
       <c r="E749" s="25" t="s">
@@ -27457,7 +27457,7 @@
         <v>1199</v>
       </c>
       <c r="C750" s="27" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="D750" s="25"/>
       <c r="E750" s="25" t="s">
@@ -27482,7 +27482,7 @@
         <v>1199</v>
       </c>
       <c r="C751" s="27" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="D751" s="25"/>
       <c r="E751" s="25" t="s">
@@ -27507,7 +27507,7 @@
         <v>1199</v>
       </c>
       <c r="C752" s="27" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="D752" s="25"/>
       <c r="E752" s="25" t="s">
@@ -27532,7 +27532,7 @@
         <v>1199</v>
       </c>
       <c r="C753" s="27" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="D753" s="25"/>
       <c r="E753" s="25" t="s">
@@ -27557,7 +27557,7 @@
         <v>1199</v>
       </c>
       <c r="C754" s="27" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="D754" s="25"/>
       <c r="E754" s="25" t="s">
@@ -27582,7 +27582,7 @@
         <v>1199</v>
       </c>
       <c r="C755" s="27" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="D755" s="25"/>
       <c r="E755" s="25" t="s">
@@ -27607,7 +27607,7 @@
         <v>1199</v>
       </c>
       <c r="C756" s="27" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="D756" s="25"/>
       <c r="E756" s="25" t="s">
@@ -27632,7 +27632,7 @@
         <v>1199</v>
       </c>
       <c r="C757" s="27" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="D757" s="25"/>
       <c r="E757" s="25" t="s">
@@ -27657,7 +27657,7 @@
         <v>1199</v>
       </c>
       <c r="C758" s="27" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="D758" s="25"/>
       <c r="E758" s="25" t="s">
@@ -27682,7 +27682,7 @@
         <v>1200</v>
       </c>
       <c r="C759" s="27" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
       <c r="D759" s="25"/>
       <c r="E759" s="25" t="s">
@@ -27698,7 +27698,7 @@
         <v>17</v>
       </c>
       <c r="I759" s="27" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="760" spans="1:9" ht="29">
@@ -27709,7 +27709,7 @@
         <v>1200</v>
       </c>
       <c r="C760" s="27" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="D760" s="25"/>
       <c r="E760" s="25" t="s">
@@ -27725,7 +27725,7 @@
         <v>17</v>
       </c>
       <c r="I760" s="27" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="761" spans="1:9" ht="43.5">
@@ -27736,7 +27736,7 @@
         <v>1200</v>
       </c>
       <c r="C761" s="27" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="D761" s="25"/>
       <c r="E761" s="25" t="s">
@@ -27752,7 +27752,7 @@
         <v>17</v>
       </c>
       <c r="I761" s="27" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="762" spans="1:9" ht="43.5">
@@ -27763,7 +27763,7 @@
         <v>1200</v>
       </c>
       <c r="C762" s="27" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="D762" s="25"/>
       <c r="E762" s="25" t="s">
@@ -27788,7 +27788,7 @@
         <v>1200</v>
       </c>
       <c r="C763" s="27" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="D763" s="25"/>
       <c r="E763" s="25" t="s">
@@ -27813,7 +27813,7 @@
         <v>1200</v>
       </c>
       <c r="C764" s="17" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="D764" s="25"/>
       <c r="E764" s="25" t="s">
@@ -27838,7 +27838,7 @@
         <v>1200</v>
       </c>
       <c r="C765" s="27" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="D765" s="25"/>
       <c r="E765" s="25" t="s">
@@ -27863,7 +27863,7 @@
         <v>1200</v>
       </c>
       <c r="C766" s="27" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="D766" s="25"/>
       <c r="E766" s="25" t="s">
@@ -27888,7 +27888,7 @@
         <v>1200</v>
       </c>
       <c r="C767" s="27" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="D767" s="25"/>
       <c r="E767" s="25" t="s">
@@ -27913,7 +27913,7 @@
         <v>1200</v>
       </c>
       <c r="C768" s="27" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="D768" s="25"/>
       <c r="E768" s="25" t="s">
@@ -27938,7 +27938,7 @@
         <v>1200</v>
       </c>
       <c r="C769" s="27" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="D769" s="25"/>
       <c r="E769" s="25" t="s">
@@ -27963,7 +27963,7 @@
         <v>1200</v>
       </c>
       <c r="C770" s="27" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="D770" s="25"/>
       <c r="E770" s="25" t="s">
@@ -27988,7 +27988,7 @@
         <v>1200</v>
       </c>
       <c r="C771" s="27" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="D771" s="25"/>
       <c r="E771" s="25" t="s">
@@ -28013,7 +28013,7 @@
         <v>1200</v>
       </c>
       <c r="C772" s="27" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="D772" s="25"/>
       <c r="E772" s="25" t="s">
@@ -28038,7 +28038,7 @@
         <v>1200</v>
       </c>
       <c r="C773" s="27" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="D773" s="25"/>
       <c r="E773" s="25" t="s">
@@ -28063,7 +28063,7 @@
         <v>1200</v>
       </c>
       <c r="C774" s="27" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="D774" s="25"/>
       <c r="E774" s="25" t="s">
@@ -28088,7 +28088,7 @@
         <v>1201</v>
       </c>
       <c r="C775" s="27" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="D775" s="25"/>
       <c r="E775" s="25" t="s">
@@ -28113,7 +28113,7 @@
         <v>1201</v>
       </c>
       <c r="C776" s="27" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="D776" s="25"/>
       <c r="E776" s="25" t="s">
@@ -28138,7 +28138,7 @@
         <v>1201</v>
       </c>
       <c r="C777" s="27" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="D777" s="25"/>
       <c r="E777" s="25" t="s">
@@ -28163,7 +28163,7 @@
         <v>1201</v>
       </c>
       <c r="C778" s="27" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="D778" s="25"/>
       <c r="E778" s="25" t="s">
@@ -28188,7 +28188,7 @@
         <v>1201</v>
       </c>
       <c r="C779" s="27" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="D779" s="25"/>
       <c r="E779" s="25" t="s">
@@ -28213,7 +28213,7 @@
         <v>1201</v>
       </c>
       <c r="C780" s="27" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="D780" s="25"/>
       <c r="E780" s="25" t="s">
@@ -28238,7 +28238,7 @@
         <v>1201</v>
       </c>
       <c r="C781" s="27" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="D781" s="25"/>
       <c r="E781" s="25" t="s">
@@ -28263,7 +28263,7 @@
         <v>1201</v>
       </c>
       <c r="C782" s="27" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="D782" s="25"/>
       <c r="E782" s="25" t="s">
@@ -28288,7 +28288,7 @@
         <v>1201</v>
       </c>
       <c r="C783" s="27" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="D783" s="25"/>
       <c r="E783" s="25" t="s">
@@ -28313,7 +28313,7 @@
         <v>1201</v>
       </c>
       <c r="C784" s="27" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="D784" s="25"/>
       <c r="E784" s="25" t="s">
@@ -28338,7 +28338,7 @@
         <v>1201</v>
       </c>
       <c r="C785" s="27" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="D785" s="25"/>
       <c r="E785" s="25" t="s">
@@ -28363,7 +28363,7 @@
         <v>1201</v>
       </c>
       <c r="C786" s="27" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="D786" s="25"/>
       <c r="E786" s="25" t="s">
@@ -28388,7 +28388,7 @@
         <v>1201</v>
       </c>
       <c r="C787" s="27" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
       <c r="D787" s="25"/>
       <c r="E787" s="25" t="s">
@@ -28413,7 +28413,7 @@
         <v>1201</v>
       </c>
       <c r="C788" s="27" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="D788" s="25"/>
       <c r="E788" s="25" t="s">
@@ -28438,7 +28438,7 @@
         <v>1201</v>
       </c>
       <c r="C789" s="27" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="D789" s="25"/>
       <c r="E789" s="25" t="s">
@@ -28463,7 +28463,7 @@
         <v>1201</v>
       </c>
       <c r="C790" s="27" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="D790" s="25"/>
       <c r="E790" s="25" t="s">
@@ -28488,7 +28488,7 @@
         <v>1201</v>
       </c>
       <c r="C791" s="27" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="D791" s="25"/>
       <c r="E791" s="25" t="s">
@@ -28513,7 +28513,7 @@
         <v>1201</v>
       </c>
       <c r="C792" s="27" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="D792" s="25"/>
       <c r="E792" s="25" t="s">
@@ -28538,7 +28538,7 @@
         <v>1201</v>
       </c>
       <c r="C793" s="27" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="D793" s="25"/>
       <c r="E793" s="25" t="s">
@@ -28563,7 +28563,7 @@
         <v>1201</v>
       </c>
       <c r="C794" s="27" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="D794" s="25"/>
       <c r="E794" s="25" t="s">
@@ -28588,7 +28588,7 @@
         <v>1201</v>
       </c>
       <c r="C795" s="27" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="D795" s="25"/>
       <c r="E795" s="25" t="s">
@@ -28613,7 +28613,7 @@
         <v>1201</v>
       </c>
       <c r="C796" s="27" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="D796" s="25"/>
       <c r="E796" s="25" t="s">
@@ -28638,7 +28638,7 @@
         <v>1201</v>
       </c>
       <c r="C797" s="27" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="D797" s="25"/>
       <c r="E797" s="25" t="s">
@@ -28663,7 +28663,7 @@
         <v>1201</v>
       </c>
       <c r="C798" s="27" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="D798" s="25"/>
       <c r="E798" s="25" t="s">
@@ -28688,7 +28688,7 @@
         <v>1201</v>
       </c>
       <c r="C799" s="27" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="D799" s="25"/>
       <c r="E799" s="25" t="s">
@@ -28713,7 +28713,7 @@
         <v>1201</v>
       </c>
       <c r="C800" s="27" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="D800" s="25"/>
       <c r="E800" s="25" t="s">
@@ -28738,7 +28738,7 @@
         <v>1201</v>
       </c>
       <c r="C801" s="27" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="D801" s="25"/>
       <c r="E801" s="25" t="s">
@@ -28763,7 +28763,7 @@
         <v>1201</v>
       </c>
       <c r="C802" s="27" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="D802" s="25"/>
       <c r="E802" s="25" t="s">
@@ -28788,7 +28788,7 @@
         <v>1201</v>
       </c>
       <c r="C803" s="27" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="D803" s="25"/>
       <c r="E803" s="25" t="s">
@@ -28813,7 +28813,7 @@
         <v>1201</v>
       </c>
       <c r="C804" s="27" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="D804" s="25"/>
       <c r="E804" s="25" t="s">
@@ -28838,7 +28838,7 @@
         <v>1201</v>
       </c>
       <c r="C805" s="27" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="D805" s="25"/>
       <c r="E805" s="25" t="s">
@@ -28863,7 +28863,7 @@
         <v>1201</v>
       </c>
       <c r="C806" s="27" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="D806" s="25"/>
       <c r="E806" s="25" t="s">
@@ -28888,7 +28888,7 @@
         <v>1201</v>
       </c>
       <c r="C807" s="27" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="D807" s="25"/>
       <c r="E807" s="25" t="s">
@@ -28913,7 +28913,7 @@
         <v>1201</v>
       </c>
       <c r="C808" s="27" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="D808" s="25"/>
       <c r="E808" s="25" t="s">
@@ -28938,7 +28938,7 @@
         <v>1201</v>
       </c>
       <c r="C809" s="27" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="D809" s="25"/>
       <c r="E809" s="25" t="s">
@@ -28963,7 +28963,7 @@
         <v>1202</v>
       </c>
       <c r="C810" s="27" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="D810" s="25"/>
       <c r="E810" s="25" t="s">
@@ -28988,7 +28988,7 @@
         <v>1202</v>
       </c>
       <c r="C811" s="27" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="D811" s="25"/>
       <c r="E811" s="25" t="s">
@@ -29013,7 +29013,7 @@
         <v>1202</v>
       </c>
       <c r="C812" s="27" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
       <c r="D812" s="25"/>
       <c r="E812" s="25" t="s">
@@ -29038,7 +29038,7 @@
         <v>1202</v>
       </c>
       <c r="C813" s="27" t="s">
-        <v>2222</v>
+        <v>2216</v>
       </c>
       <c r="D813" s="25"/>
       <c r="E813" s="25" t="s">
@@ -29063,7 +29063,7 @@
         <v>1202</v>
       </c>
       <c r="C814" s="27" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="D814" s="25"/>
       <c r="E814" s="25" t="s">
@@ -29088,7 +29088,7 @@
         <v>1202</v>
       </c>
       <c r="C815" s="27" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
       <c r="D815" s="25"/>
       <c r="E815" s="25" t="s">
@@ -29113,7 +29113,7 @@
         <v>1202</v>
       </c>
       <c r="C816" s="27" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
       <c r="D816" s="25"/>
       <c r="E816" s="25" t="s">
@@ -29138,7 +29138,7 @@
         <v>1202</v>
       </c>
       <c r="C817" s="27" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="D817" s="25"/>
       <c r="E817" s="25" t="s">
@@ -29163,7 +29163,7 @@
         <v>1202</v>
       </c>
       <c r="C818" s="27" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
       <c r="D818" s="25"/>
       <c r="E818" s="25" t="s">
@@ -29188,7 +29188,7 @@
         <v>1202</v>
       </c>
       <c r="C819" s="27" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="D819" s="25"/>
       <c r="E819" s="25" t="s">
@@ -29213,7 +29213,7 @@
         <v>1202</v>
       </c>
       <c r="C820" s="27" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="D820" s="25"/>
       <c r="E820" s="25" t="s">
@@ -29238,7 +29238,7 @@
         <v>1202</v>
       </c>
       <c r="C821" s="27" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="D821" s="25"/>
       <c r="E821" s="25" t="s">
@@ -29263,7 +29263,7 @@
         <v>1202</v>
       </c>
       <c r="C822" s="27" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
       <c r="D822" s="25"/>
       <c r="E822" s="25" t="s">
@@ -29288,7 +29288,7 @@
         <v>1202</v>
       </c>
       <c r="C823" s="27" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="D823" s="25"/>
       <c r="E823" s="25" t="s">
@@ -29313,7 +29313,7 @@
         <v>1202</v>
       </c>
       <c r="C824" s="27" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="D824" s="25"/>
       <c r="E824" s="25" t="s">
@@ -29338,7 +29338,7 @@
         <v>1202</v>
       </c>
       <c r="C825" s="27" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="D825" s="25"/>
       <c r="E825" s="25" t="s">
@@ -29363,7 +29363,7 @@
         <v>1202</v>
       </c>
       <c r="C826" s="27" t="s">
-        <v>1943</v>
+        <v>1937</v>
       </c>
       <c r="D826" s="25"/>
       <c r="E826" s="25" t="s">
@@ -29388,7 +29388,7 @@
         <v>1202</v>
       </c>
       <c r="C827" s="27" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="D827" s="25"/>
       <c r="E827" s="25" t="s">
@@ -29413,7 +29413,7 @@
         <v>1202</v>
       </c>
       <c r="C828" s="27" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="D828" s="25"/>
       <c r="E828" s="25" t="s">
@@ -29438,7 +29438,7 @@
         <v>1202</v>
       </c>
       <c r="C829" s="27" t="s">
-        <v>2224</v>
+        <v>2218</v>
       </c>
       <c r="D829" s="25"/>
       <c r="E829" s="25" t="s">
@@ -29463,7 +29463,7 @@
         <v>1202</v>
       </c>
       <c r="C830" s="27" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="D830" s="25"/>
       <c r="E830" s="25" t="s">
@@ -29488,7 +29488,7 @@
         <v>1202</v>
       </c>
       <c r="C831" s="27" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="D831" s="25"/>
       <c r="E831" s="25" t="s">
@@ -29513,7 +29513,7 @@
         <v>1202</v>
       </c>
       <c r="C832" s="27" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="D832" s="25"/>
       <c r="E832" s="25" t="s">
@@ -29538,7 +29538,7 @@
         <v>1202</v>
       </c>
       <c r="C833" s="27" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="D833" s="25"/>
       <c r="E833" s="25" t="s">
@@ -29563,7 +29563,7 @@
         <v>1202</v>
       </c>
       <c r="C834" s="27" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
       <c r="D834" s="25"/>
       <c r="E834" s="25" t="s">
@@ -29588,7 +29588,7 @@
         <v>1202</v>
       </c>
       <c r="C835" s="27" t="s">
-        <v>1951</v>
+        <v>1945</v>
       </c>
       <c r="D835" s="25"/>
       <c r="E835" s="25" t="s">
@@ -29613,7 +29613,7 @@
         <v>1202</v>
       </c>
       <c r="C836" s="27" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="D836" s="25"/>
       <c r="E836" s="25" t="s">
@@ -29638,7 +29638,7 @@
         <v>1202</v>
       </c>
       <c r="C837" s="27" t="s">
-        <v>1953</v>
+        <v>1947</v>
       </c>
       <c r="D837" s="25"/>
       <c r="E837" s="25" t="s">
@@ -29663,7 +29663,7 @@
         <v>1202</v>
       </c>
       <c r="C838" s="27" t="s">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="D838" s="25"/>
       <c r="E838" s="25" t="s">
@@ -29688,7 +29688,7 @@
         <v>1202</v>
       </c>
       <c r="C839" s="27" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="D839" s="25"/>
       <c r="E839" s="25" t="s">
@@ -29713,7 +29713,7 @@
         <v>1202</v>
       </c>
       <c r="C840" s="27" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="D840" s="25"/>
       <c r="E840" s="25" t="s">
@@ -29729,7 +29729,7 @@
         <v>17</v>
       </c>
       <c r="I840" s="27" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="841" spans="1:9" ht="29">
@@ -29740,7 +29740,7 @@
         <v>1202</v>
       </c>
       <c r="C841" s="27" t="s">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="D841" s="25"/>
       <c r="E841" s="25" t="s">
@@ -29765,7 +29765,7 @@
         <v>1202</v>
       </c>
       <c r="C842" s="27" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="D842" s="25"/>
       <c r="E842" s="25" t="s">
@@ -29781,7 +29781,7 @@
         <v>17</v>
       </c>
       <c r="I842" s="27" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="843" spans="1:9" ht="29">
@@ -29792,7 +29792,7 @@
         <v>1202</v>
       </c>
       <c r="C843" s="27" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="D843" s="25"/>
       <c r="E843" s="25" t="s">
@@ -29817,7 +29817,7 @@
         <v>1202</v>
       </c>
       <c r="C844" s="27" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="D844" s="25"/>
       <c r="E844" s="25" t="s">
@@ -29842,7 +29842,7 @@
         <v>1202</v>
       </c>
       <c r="C845" s="27" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="D845" s="25"/>
       <c r="E845" s="25" t="s">
@@ -29867,7 +29867,7 @@
         <v>1202</v>
       </c>
       <c r="C846" s="27" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="D846" s="25"/>
       <c r="E846" s="25" t="s">
@@ -29892,7 +29892,7 @@
         <v>1202</v>
       </c>
       <c r="C847" s="27" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
       <c r="D847" s="25"/>
       <c r="E847" s="25" t="s">
@@ -29917,7 +29917,7 @@
         <v>1202</v>
       </c>
       <c r="C848" s="27" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="D848" s="25"/>
       <c r="E848" s="25" t="s">
@@ -29942,7 +29942,7 @@
         <v>1202</v>
       </c>
       <c r="C849" s="27" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="D849" s="25"/>
       <c r="E849" s="25" t="s">
@@ -29967,7 +29967,7 @@
         <v>1202</v>
       </c>
       <c r="C850" s="27" t="s">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="D850" s="25"/>
       <c r="E850" s="25" t="s">
@@ -29992,7 +29992,7 @@
         <v>1202</v>
       </c>
       <c r="C851" s="27" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="D851" s="25"/>
       <c r="E851" s="25" t="s">
@@ -30017,7 +30017,7 @@
         <v>1203</v>
       </c>
       <c r="C852" s="27" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="D852" s="25"/>
       <c r="E852" s="25" t="s">
@@ -30042,7 +30042,7 @@
         <v>1203</v>
       </c>
       <c r="C853" s="27" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
       <c r="D853" s="25"/>
       <c r="E853" s="25" t="s">
@@ -30067,7 +30067,7 @@
         <v>1203</v>
       </c>
       <c r="C854" s="27" t="s">
-        <v>2271</v>
+        <v>2265</v>
       </c>
       <c r="D854" s="25"/>
       <c r="E854" s="25" t="s">
@@ -30083,7 +30083,7 @@
         <v>17</v>
       </c>
       <c r="I854" s="27" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="855" spans="1:9">
@@ -30094,7 +30094,7 @@
         <v>1203</v>
       </c>
       <c r="C855" s="27" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="D855" s="25"/>
       <c r="E855" s="25" t="s">
@@ -30119,7 +30119,7 @@
         <v>1203</v>
       </c>
       <c r="C856" s="27" t="s">
-        <v>1969</v>
+        <v>1963</v>
       </c>
       <c r="D856" s="25"/>
       <c r="E856" s="25" t="s">
@@ -30144,7 +30144,7 @@
         <v>1203</v>
       </c>
       <c r="C857" s="27" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="D857" s="25"/>
       <c r="E857" s="25" t="s">
@@ -30169,7 +30169,7 @@
         <v>1203</v>
       </c>
       <c r="C858" s="27" t="s">
-        <v>1971</v>
+        <v>1965</v>
       </c>
       <c r="D858" s="25"/>
       <c r="E858" s="25" t="s">
@@ -30194,7 +30194,7 @@
         <v>1203</v>
       </c>
       <c r="C859" s="27" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="D859" s="25"/>
       <c r="E859" s="25" t="s">
@@ -30219,7 +30219,7 @@
         <v>1203</v>
       </c>
       <c r="C860" s="27" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="D860" s="25"/>
       <c r="E860" s="25" t="s">
@@ -30244,7 +30244,7 @@
         <v>1203</v>
       </c>
       <c r="C861" s="27" t="s">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="D861" s="25"/>
       <c r="E861" s="25" t="s">
@@ -30269,7 +30269,7 @@
         <v>1203</v>
       </c>
       <c r="C862" s="27" t="s">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="D862" s="25"/>
       <c r="E862" s="25" t="s">
@@ -30294,7 +30294,7 @@
         <v>1203</v>
       </c>
       <c r="C863" s="27" t="s">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="D863" s="25"/>
       <c r="E863" s="25" t="s">
@@ -30319,7 +30319,7 @@
         <v>1203</v>
       </c>
       <c r="C864" s="27" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="D864" s="25"/>
       <c r="E864" s="25" t="s">
@@ -30344,7 +30344,7 @@
         <v>1203</v>
       </c>
       <c r="C865" s="27" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="D865" s="25"/>
       <c r="E865" s="25" t="s">
@@ -30369,7 +30369,7 @@
         <v>1203</v>
       </c>
       <c r="C866" s="17" t="s">
-        <v>1979</v>
+        <v>1973</v>
       </c>
       <c r="D866" s="25"/>
       <c r="E866" s="25" t="s">
@@ -30394,7 +30394,7 @@
         <v>1204</v>
       </c>
       <c r="C867" s="17" t="s">
-        <v>2272</v>
+        <v>2266</v>
       </c>
       <c r="D867" s="25"/>
       <c r="E867" s="25" t="s">
@@ -30413,13 +30413,13 @@
     </row>
     <row r="868" spans="1:9" ht="58">
       <c r="A868" s="25" t="s">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="B868" s="26" t="s">
         <v>1204</v>
       </c>
       <c r="C868" s="27" t="s">
-        <v>2225</v>
+        <v>2219</v>
       </c>
       <c r="D868" s="25"/>
       <c r="E868" s="25" t="s">
@@ -30435,7 +30435,7 @@
         <v>17</v>
       </c>
       <c r="I868" s="17" t="s">
-        <v>2270</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="869" spans="1:9" ht="43.5">
@@ -30446,7 +30446,7 @@
         <v>1204</v>
       </c>
       <c r="C869" s="27" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="D869" s="25"/>
       <c r="E869" s="25" t="s">
@@ -30471,7 +30471,7 @@
         <v>1204</v>
       </c>
       <c r="C870" s="27" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="D870" s="25"/>
       <c r="E870" s="25" t="s">
@@ -30496,7 +30496,7 @@
         <v>1204</v>
       </c>
       <c r="C871" s="27" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="D871" s="25"/>
       <c r="E871" s="25" t="s">
@@ -30521,7 +30521,7 @@
         <v>1204</v>
       </c>
       <c r="C872" s="27" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="D872" s="25"/>
       <c r="E872" s="25" t="s">
@@ -30546,7 +30546,7 @@
         <v>1204</v>
       </c>
       <c r="C873" s="27" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="D873" s="25"/>
       <c r="E873" s="25" t="s">
@@ -30571,7 +30571,7 @@
         <v>1204</v>
       </c>
       <c r="C874" s="27" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="D874" s="25"/>
       <c r="E874" s="25" t="s">
@@ -30596,7 +30596,7 @@
         <v>1204</v>
       </c>
       <c r="C875" s="27" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="D875" s="25"/>
       <c r="E875" s="25" t="s">
@@ -30621,7 +30621,7 @@
         <v>1204</v>
       </c>
       <c r="C876" s="27" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="D876" s="25"/>
       <c r="E876" s="25" t="s">
@@ -30646,7 +30646,7 @@
         <v>1204</v>
       </c>
       <c r="C877" s="27" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="D877" s="25"/>
       <c r="E877" s="25" t="s">
@@ -30671,7 +30671,7 @@
         <v>1204</v>
       </c>
       <c r="C878" s="27" t="s">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="D878" s="25"/>
       <c r="E878" s="25" t="s">
@@ -30696,7 +30696,7 @@
         <v>1204</v>
       </c>
       <c r="C879" s="27" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="D879" s="25"/>
       <c r="E879" s="25" t="s">
@@ -30721,7 +30721,7 @@
         <v>1204</v>
       </c>
       <c r="C880" s="27" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="D880" s="25"/>
       <c r="E880" s="25" t="s">
@@ -30746,7 +30746,7 @@
         <v>1204</v>
       </c>
       <c r="C881" s="27" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="D881" s="25"/>
       <c r="E881" s="25" t="s">
@@ -30771,7 +30771,7 @@
         <v>1204</v>
       </c>
       <c r="C882" s="27" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="D882" s="25"/>
       <c r="E882" s="25" t="s">
@@ -30796,7 +30796,7 @@
         <v>1204</v>
       </c>
       <c r="C883" s="27" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="D883" s="25"/>
       <c r="E883" s="25" t="s">
@@ -30821,7 +30821,7 @@
         <v>1204</v>
       </c>
       <c r="C884" s="27" t="s">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="D884" s="25"/>
       <c r="E884" s="25" t="s">
@@ -30846,7 +30846,7 @@
         <v>1204</v>
       </c>
       <c r="C885" s="27" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="D885" s="25"/>
       <c r="E885" s="25" t="s">
@@ -30871,7 +30871,7 @@
         <v>1204</v>
       </c>
       <c r="C886" s="17" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="D886" s="25"/>
       <c r="E886" s="25" t="s">
@@ -30896,7 +30896,7 @@
         <v>1204</v>
       </c>
       <c r="C887" s="17" t="s">
-        <v>2317</v>
+        <v>2311</v>
       </c>
       <c r="D887" s="25"/>
       <c r="E887" s="25" t="s">
@@ -30921,7 +30921,7 @@
         <v>1204</v>
       </c>
       <c r="C888" s="27" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="D888" s="25"/>
       <c r="E888" s="25" t="s">
@@ -30946,7 +30946,7 @@
         <v>1204</v>
       </c>
       <c r="C889" s="27" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="D889" s="25"/>
       <c r="E889" s="25" t="s">
@@ -30971,7 +30971,7 @@
         <v>1205</v>
       </c>
       <c r="C890" s="27" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="D890" s="25"/>
       <c r="E890" s="25" t="s">
@@ -30996,7 +30996,7 @@
         <v>1205</v>
       </c>
       <c r="C891" s="27" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="D891" s="25"/>
       <c r="E891" s="25" t="s">
@@ -31021,7 +31021,7 @@
         <v>1205</v>
       </c>
       <c r="C892" s="27" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="D892" s="25"/>
       <c r="E892" s="25" t="s">
@@ -31046,7 +31046,7 @@
         <v>1205</v>
       </c>
       <c r="C893" s="27" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="D893" s="25"/>
       <c r="E893" s="25" t="s">
@@ -31071,7 +31071,7 @@
         <v>1205</v>
       </c>
       <c r="C894" s="27" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="D894" s="25"/>
       <c r="E894" s="25" t="s">
@@ -31096,7 +31096,7 @@
         <v>1205</v>
       </c>
       <c r="C895" s="27" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="D895" s="25"/>
       <c r="E895" s="25" t="s">
@@ -31121,7 +31121,7 @@
         <v>1205</v>
       </c>
       <c r="C896" s="27" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D896" s="25"/>
       <c r="E896" s="25" t="s">
@@ -31146,7 +31146,7 @@
         <v>1205</v>
       </c>
       <c r="C897" s="27" t="s">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D897" s="25"/>
       <c r="E897" s="25" t="s">
@@ -31171,7 +31171,7 @@
         <v>1205</v>
       </c>
       <c r="C898" s="27" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D898" s="25"/>
       <c r="E898" s="25" t="s">
@@ -31196,7 +31196,7 @@
         <v>1205</v>
       </c>
       <c r="C899" s="27" t="s">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D899" s="25"/>
       <c r="E899" s="25" t="s">
@@ -31221,7 +31221,7 @@
         <v>1205</v>
       </c>
       <c r="C900" s="27" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D900" s="25"/>
       <c r="E900" s="25" t="s">
@@ -31246,7 +31246,7 @@
         <v>1205</v>
       </c>
       <c r="C901" s="27" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D901" s="25"/>
       <c r="E901" s="25" t="s">
@@ -31271,7 +31271,7 @@
         <v>1205</v>
       </c>
       <c r="C902" s="27" t="s">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D902" s="25"/>
       <c r="E902" s="25" t="s">
@@ -31296,7 +31296,7 @@
         <v>1206</v>
       </c>
       <c r="C903" s="27" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D903" s="25"/>
       <c r="E903" s="25" t="s">
@@ -31321,7 +31321,7 @@
         <v>1206</v>
       </c>
       <c r="C904" s="27" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D904" s="25"/>
       <c r="E904" s="25" t="s">
@@ -31346,7 +31346,7 @@
         <v>1206</v>
       </c>
       <c r="C905" s="27" t="s">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D905" s="25"/>
       <c r="E905" s="25" t="s">
@@ -31371,7 +31371,7 @@
         <v>1206</v>
       </c>
       <c r="C906" s="27" t="s">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="D906" s="25"/>
       <c r="E906" s="25" t="s">
@@ -31396,7 +31396,7 @@
         <v>1206</v>
       </c>
       <c r="C907" s="27" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="D907" s="25"/>
       <c r="E907" s="25" t="s">
@@ -31421,7 +31421,7 @@
         <v>1206</v>
       </c>
       <c r="C908" s="27" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D908" s="25"/>
       <c r="E908" s="25" t="s">
@@ -31446,7 +31446,7 @@
         <v>1206</v>
       </c>
       <c r="C909" s="27" t="s">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D909" s="25"/>
       <c r="E909" s="25" t="s">
@@ -31471,7 +31471,7 @@
         <v>1206</v>
       </c>
       <c r="C910" s="27" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D910" s="25"/>
       <c r="E910" s="25" t="s">
@@ -31496,7 +31496,7 @@
         <v>1206</v>
       </c>
       <c r="C911" s="27" t="s">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D911" s="25"/>
       <c r="E911" s="25" t="s">
@@ -31521,7 +31521,7 @@
         <v>1206</v>
       </c>
       <c r="C912" s="27" t="s">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="D912" s="25"/>
       <c r="E912" s="25" t="s">
@@ -31546,7 +31546,7 @@
         <v>1206</v>
       </c>
       <c r="C913" s="27" t="s">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="D913" s="25"/>
       <c r="E913" s="25" t="s">
@@ -31571,7 +31571,7 @@
         <v>1206</v>
       </c>
       <c r="C914" s="27" t="s">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D914" s="25"/>
       <c r="E914" s="25" t="s">
@@ -31596,7 +31596,7 @@
         <v>1206</v>
       </c>
       <c r="C915" s="27" t="s">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D915" s="25"/>
       <c r="E915" s="25" t="s">
@@ -31621,7 +31621,7 @@
         <v>1207</v>
       </c>
       <c r="C916" s="27" t="s">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="D916" s="25"/>
       <c r="E916" s="25" t="s">
@@ -31646,7 +31646,7 @@
         <v>1208</v>
       </c>
       <c r="C917" s="27" t="s">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="D917" s="25"/>
       <c r="E917" s="25" t="s">
@@ -31671,7 +31671,7 @@
         <v>1208</v>
       </c>
       <c r="C918" s="27" t="s">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="D918" s="25"/>
       <c r="E918" s="25" t="s">
@@ -31696,7 +31696,7 @@
         <v>1208</v>
       </c>
       <c r="C919" s="17" t="s">
-        <v>2398</v>
+        <v>2391</v>
       </c>
       <c r="D919" s="25"/>
       <c r="E919" s="25" t="s">
@@ -31721,7 +31721,7 @@
         <v>1208</v>
       </c>
       <c r="C920" s="27" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="D920" s="25"/>
       <c r="E920" s="25" t="s">
@@ -31746,7 +31746,7 @@
         <v>1208</v>
       </c>
       <c r="C921" s="27" t="s">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="D921" s="25"/>
       <c r="E921" s="25" t="s">
@@ -31771,7 +31771,7 @@
         <v>1208</v>
       </c>
       <c r="C922" s="17" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="D922" s="25"/>
       <c r="E922" s="25" t="s">
@@ -31796,7 +31796,7 @@
         <v>1208</v>
       </c>
       <c r="C923" s="27" t="s">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="D923" s="25"/>
       <c r="E923" s="25" t="s">
@@ -31821,7 +31821,7 @@
         <v>1208</v>
       </c>
       <c r="C924" s="27" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
       <c r="D924" s="25"/>
       <c r="E924" s="25" t="s">
@@ -31846,7 +31846,7 @@
         <v>1208</v>
       </c>
       <c r="C925" s="27" t="s">
-        <v>2034</v>
+        <v>2028</v>
       </c>
       <c r="D925" s="25"/>
       <c r="E925" s="25" t="s">
@@ -31871,7 +31871,7 @@
         <v>1208</v>
       </c>
       <c r="C926" s="27" t="s">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="D926" s="25"/>
       <c r="E926" s="25" t="s">
@@ -31896,7 +31896,7 @@
         <v>1208</v>
       </c>
       <c r="C927" s="27" t="s">
-        <v>2036</v>
+        <v>2030</v>
       </c>
       <c r="D927" s="25"/>
       <c r="E927" s="25" t="s">
@@ -31921,7 +31921,7 @@
         <v>1208</v>
       </c>
       <c r="C928" s="27" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="D928" s="25"/>
       <c r="E928" s="25" t="s">
@@ -31946,7 +31946,7 @@
         <v>1208</v>
       </c>
       <c r="C929" s="27" t="s">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="D929" s="25"/>
       <c r="E929" s="25" t="s">
@@ -31971,7 +31971,7 @@
         <v>1208</v>
       </c>
       <c r="C930" s="27" t="s">
-        <v>2039</v>
+        <v>2033</v>
       </c>
       <c r="D930" s="25"/>
       <c r="E930" s="25" t="s">
@@ -31996,7 +31996,7 @@
         <v>1208</v>
       </c>
       <c r="C931" s="27" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="D931" s="25"/>
       <c r="E931" s="25" t="s">
@@ -32021,7 +32021,7 @@
         <v>1208</v>
       </c>
       <c r="C932" s="27" t="s">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="D932" s="25"/>
       <c r="E932" s="25" t="s">
@@ -32046,7 +32046,7 @@
         <v>1208</v>
       </c>
       <c r="C933" s="27" t="s">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="D933" s="25"/>
       <c r="E933" s="25" t="s">
@@ -32071,7 +32071,7 @@
         <v>1208</v>
       </c>
       <c r="C934" s="27" t="s">
-        <v>2043</v>
+        <v>2037</v>
       </c>
       <c r="D934" s="25"/>
       <c r="E934" s="25" t="s">
@@ -32096,7 +32096,7 @@
         <v>1208</v>
       </c>
       <c r="C935" s="17" t="s">
-        <v>2318</v>
+        <v>2312</v>
       </c>
       <c r="D935" s="25"/>
       <c r="E935" s="25" t="s">
@@ -32112,7 +32112,7 @@
         <v>17</v>
       </c>
       <c r="I935" s="17" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="936" spans="1:9" ht="43.5">
@@ -32123,7 +32123,7 @@
         <v>1208</v>
       </c>
       <c r="C936" s="27" t="s">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="D936" s="25"/>
       <c r="E936" s="25" t="s">
@@ -32148,7 +32148,7 @@
         <v>1208</v>
       </c>
       <c r="C937" s="27" t="s">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="D937" s="25"/>
       <c r="E937" s="25" t="s">
@@ -32173,7 +32173,7 @@
         <v>1208</v>
       </c>
       <c r="C938" s="27" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="D938" s="25"/>
       <c r="E938" s="25" t="s">
@@ -32198,7 +32198,7 @@
         <v>1208</v>
       </c>
       <c r="C939" s="27" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
       <c r="D939" s="25"/>
       <c r="E939" s="25" t="s">
@@ -32223,7 +32223,7 @@
         <v>1208</v>
       </c>
       <c r="C940" s="27" t="s">
-        <v>2048</v>
+        <v>2042</v>
       </c>
       <c r="D940" s="25"/>
       <c r="E940" s="25" t="s">
@@ -32248,7 +32248,7 @@
         <v>1208</v>
       </c>
       <c r="C941" s="27" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
       <c r="D941" s="25"/>
       <c r="E941" s="25" t="s">
@@ -32273,7 +32273,7 @@
         <v>1208</v>
       </c>
       <c r="C942" s="17" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
       <c r="D942" s="25"/>
       <c r="E942" s="25" t="s">
@@ -32289,7 +32289,7 @@
         <v>17</v>
       </c>
       <c r="I942" s="27" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="943" spans="1:9" ht="43.5">
@@ -32300,7 +32300,7 @@
         <v>1208</v>
       </c>
       <c r="C943" s="27" t="s">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="D943" s="25"/>
       <c r="E943" s="25" t="s">
@@ -32316,7 +32316,7 @@
         <v>17</v>
       </c>
       <c r="I943" s="27" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="944" spans="1:9" ht="43.5">
@@ -32327,7 +32327,7 @@
         <v>1208</v>
       </c>
       <c r="C944" s="17" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="D944" s="25"/>
       <c r="E944" s="25" t="s">
@@ -32343,7 +32343,7 @@
         <v>17</v>
       </c>
       <c r="I944" s="27" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="945" spans="1:9" ht="29">
@@ -32354,7 +32354,7 @@
         <v>1208</v>
       </c>
       <c r="C945" s="27" t="s">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="D945" s="25"/>
       <c r="E945" s="25" t="s">
@@ -32379,7 +32379,7 @@
         <v>1208</v>
       </c>
       <c r="C946" s="27" t="s">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="D946" s="25"/>
       <c r="E946" s="25" t="s">
@@ -32404,7 +32404,7 @@
         <v>1208</v>
       </c>
       <c r="C947" s="27" t="s">
-        <v>2053</v>
+        <v>2047</v>
       </c>
       <c r="D947" s="25"/>
       <c r="E947" s="25" t="s">
@@ -32429,7 +32429,7 @@
         <v>1208</v>
       </c>
       <c r="C948" s="27" t="s">
-        <v>2054</v>
+        <v>2048</v>
       </c>
       <c r="D948" s="25"/>
       <c r="E948" s="25" t="s">
@@ -32454,7 +32454,7 @@
         <v>1208</v>
       </c>
       <c r="C949" s="27" t="s">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="D949" s="25"/>
       <c r="E949" s="25" t="s">
@@ -32479,7 +32479,7 @@
         <v>1208</v>
       </c>
       <c r="C950" s="27" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="D950" s="25"/>
       <c r="E950" s="25" t="s">
@@ -32504,7 +32504,7 @@
         <v>1208</v>
       </c>
       <c r="C951" s="17" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="D951" s="25"/>
       <c r="E951" s="25" t="s">
@@ -32529,7 +32529,7 @@
         <v>1208</v>
       </c>
       <c r="C952" s="27" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
       <c r="D952" s="25"/>
       <c r="E952" s="25" t="s">
@@ -32554,7 +32554,7 @@
         <v>1208</v>
       </c>
       <c r="C953" s="27" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="D953" s="25"/>
       <c r="E953" s="25" t="s">
@@ -32579,7 +32579,7 @@
         <v>1208</v>
       </c>
       <c r="C954" s="27" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
       <c r="D954" s="25"/>
       <c r="E954" s="25" t="s">
@@ -32604,7 +32604,7 @@
         <v>1208</v>
       </c>
       <c r="C955" s="27" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="D955" s="25"/>
       <c r="E955" s="25" t="s">
@@ -32629,7 +32629,7 @@
         <v>1208</v>
       </c>
       <c r="C956" s="27" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="D956" s="25"/>
       <c r="E956" s="25" t="s">
@@ -32654,7 +32654,7 @@
         <v>1208</v>
       </c>
       <c r="C957" s="27" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="D957" s="25"/>
       <c r="E957" s="25" t="s">
@@ -32679,7 +32679,7 @@
         <v>1208</v>
       </c>
       <c r="C958" s="27" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
       <c r="D958" s="25"/>
       <c r="E958" s="25" t="s">
@@ -32704,7 +32704,7 @@
         <v>1208</v>
       </c>
       <c r="C959" s="27" t="s">
-        <v>2065</v>
+        <v>2059</v>
       </c>
       <c r="D959" s="25"/>
       <c r="E959" s="25" t="s">
@@ -32729,7 +32729,7 @@
         <v>1208</v>
       </c>
       <c r="C960" s="27" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="D960" s="25"/>
       <c r="E960" s="25" t="s">
@@ -32754,7 +32754,7 @@
         <v>1208</v>
       </c>
       <c r="C961" s="27" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="D961" s="25"/>
       <c r="E961" s="25" t="s">
@@ -32779,7 +32779,7 @@
         <v>1208</v>
       </c>
       <c r="C962" s="27" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="D962" s="25"/>
       <c r="E962" s="25" t="s">
@@ -32804,7 +32804,7 @@
         <v>1208</v>
       </c>
       <c r="C963" s="27" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="D963" s="25"/>
       <c r="E963" s="25" t="s">
@@ -32829,7 +32829,7 @@
         <v>1209</v>
       </c>
       <c r="C964" s="27" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="D964" s="25"/>
       <c r="E964" s="25" t="s">
@@ -32854,7 +32854,7 @@
         <v>1209</v>
       </c>
       <c r="C965" s="27" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="D965" s="25"/>
       <c r="E965" s="25" t="s">
@@ -32879,7 +32879,7 @@
         <v>1209</v>
       </c>
       <c r="C966" s="27" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="D966" s="25"/>
       <c r="E966" s="25" t="s">
@@ -32904,7 +32904,7 @@
         <v>1209</v>
       </c>
       <c r="C967" s="27" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="D967" s="25"/>
       <c r="E967" s="25" t="s">
@@ -32929,7 +32929,7 @@
         <v>1210</v>
       </c>
       <c r="C968" s="27" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="D968" s="25"/>
       <c r="E968" s="25" t="s">
@@ -32954,7 +32954,7 @@
         <v>1210</v>
       </c>
       <c r="C969" s="27" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
       <c r="D969" s="25"/>
       <c r="E969" s="25" t="s">
@@ -32979,7 +32979,7 @@
         <v>1210</v>
       </c>
       <c r="C970" s="27" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="D970" s="25"/>
       <c r="E970" s="25" t="s">
@@ -33004,7 +33004,7 @@
         <v>1210</v>
       </c>
       <c r="C971" s="27" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="D971" s="25"/>
       <c r="E971" s="25" t="s">
@@ -33029,7 +33029,7 @@
         <v>1210</v>
       </c>
       <c r="C972" s="27" t="s">
-        <v>2078</v>
+        <v>2072</v>
       </c>
       <c r="D972" s="25"/>
       <c r="E972" s="25" t="s">
@@ -33054,7 +33054,7 @@
         <v>1210</v>
       </c>
       <c r="C973" s="27" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="D973" s="25"/>
       <c r="E973" s="25" t="s">
@@ -33079,7 +33079,7 @@
         <v>1211</v>
       </c>
       <c r="C974" s="27" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
       <c r="D974" s="25"/>
       <c r="E974" s="25" t="s">
@@ -33104,7 +33104,7 @@
         <v>1212</v>
       </c>
       <c r="C975" s="27" t="s">
-        <v>2081</v>
+        <v>2075</v>
       </c>
       <c r="D975" s="25"/>
       <c r="E975" s="25" t="s">
@@ -33129,7 +33129,7 @@
         <v>1212</v>
       </c>
       <c r="C976" s="27" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="D976" s="25"/>
       <c r="E976" s="25" t="s">
@@ -33154,7 +33154,7 @@
         <v>1212</v>
       </c>
       <c r="C977" s="27" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
       <c r="D977" s="25"/>
       <c r="E977" s="25" t="s">
@@ -33179,7 +33179,7 @@
         <v>1212</v>
       </c>
       <c r="C978" s="27" t="s">
-        <v>2084</v>
+        <v>2078</v>
       </c>
       <c r="D978" s="25"/>
       <c r="E978" s="25" t="s">
@@ -33204,7 +33204,7 @@
         <v>1212</v>
       </c>
       <c r="C979" s="27" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="D979" s="25"/>
       <c r="E979" s="25" t="s">
@@ -33229,7 +33229,7 @@
         <v>1212</v>
       </c>
       <c r="C980" s="27" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="D980" s="25"/>
       <c r="E980" s="25" t="s">
@@ -33254,7 +33254,7 @@
         <v>1212</v>
       </c>
       <c r="C981" s="27" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="D981" s="25"/>
       <c r="E981" s="25" t="s">
@@ -33279,7 +33279,7 @@
         <v>1212</v>
       </c>
       <c r="C982" s="27" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="D982" s="25"/>
       <c r="E982" s="25" t="s">
@@ -33304,7 +33304,7 @@
         <v>1212</v>
       </c>
       <c r="C983" s="27" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="D983" s="25"/>
       <c r="E983" s="25" t="s">
@@ -33329,7 +33329,7 @@
         <v>1212</v>
       </c>
       <c r="C984" s="27" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="D984" s="25"/>
       <c r="E984" s="25" t="s">
@@ -33354,7 +33354,7 @@
         <v>1212</v>
       </c>
       <c r="C985" s="17" t="s">
-        <v>2321</v>
+        <v>2315</v>
       </c>
       <c r="D985" s="25"/>
       <c r="E985" s="25" t="s">
@@ -33370,7 +33370,7 @@
         <v>17</v>
       </c>
       <c r="I985" s="17" t="s">
-        <v>2368</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="986" spans="1:9" ht="58">
@@ -33381,7 +33381,7 @@
         <v>1212</v>
       </c>
       <c r="C986" s="27" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="D986" s="25"/>
       <c r="E986" s="25" t="s">
@@ -33406,7 +33406,7 @@
         <v>1212</v>
       </c>
       <c r="C987" s="17" t="s">
-        <v>2355</v>
+        <v>2349</v>
       </c>
       <c r="D987" s="25"/>
       <c r="E987" s="25" t="s">
@@ -33431,7 +33431,7 @@
         <v>1212</v>
       </c>
       <c r="C988" s="27" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="D988" s="25"/>
       <c r="E988" s="25" t="s">
@@ -33456,7 +33456,7 @@
         <v>1212</v>
       </c>
       <c r="C989" s="27" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
       <c r="D989" s="25"/>
       <c r="E989" s="25" t="s">
@@ -33481,7 +33481,7 @@
         <v>1212</v>
       </c>
       <c r="C990" s="27" t="s">
-        <v>2065</v>
+        <v>2059</v>
       </c>
       <c r="D990" s="25"/>
       <c r="E990" s="25" t="s">
@@ -33506,7 +33506,7 @@
         <v>1212</v>
       </c>
       <c r="C991" s="27" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="D991" s="25"/>
       <c r="E991" s="25" t="s">
@@ -33531,7 +33531,7 @@
         <v>1212</v>
       </c>
       <c r="C992" s="27" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="D992" s="25"/>
       <c r="E992" s="25" t="s">
@@ -33556,7 +33556,7 @@
         <v>1212</v>
       </c>
       <c r="C993" s="27" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="D993" s="25"/>
       <c r="E993" s="25" t="s">
@@ -33581,7 +33581,7 @@
         <v>1212</v>
       </c>
       <c r="C994" s="17" t="s">
-        <v>2322</v>
+        <v>2316</v>
       </c>
       <c r="D994" s="25"/>
       <c r="E994" s="25" t="s">
@@ -33606,7 +33606,7 @@
         <v>1212</v>
       </c>
       <c r="C995" s="17" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="D995" s="25"/>
       <c r="E995" s="25" t="s">
@@ -33631,7 +33631,7 @@
         <v>1213</v>
       </c>
       <c r="C996" s="27" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="D996" s="25"/>
       <c r="E996" s="25" t="s">
@@ -33656,7 +33656,7 @@
         <v>1213</v>
       </c>
       <c r="C997" s="27" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="D997" s="25"/>
       <c r="E997" s="25" t="s">
@@ -33681,7 +33681,7 @@
         <v>1213</v>
       </c>
       <c r="C998" s="27" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
       <c r="D998" s="25"/>
       <c r="E998" s="25" t="s">
@@ -33706,7 +33706,7 @@
         <v>1214</v>
       </c>
       <c r="C999" s="27" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
       <c r="D999" s="25"/>
       <c r="E999" s="25" t="s">
@@ -33731,7 +33731,7 @@
         <v>1214</v>
       </c>
       <c r="C1000" s="27" t="s">
-        <v>2098</v>
+        <v>2092</v>
       </c>
       <c r="D1000" s="25"/>
       <c r="E1000" s="25" t="s">
@@ -33756,7 +33756,7 @@
         <v>1214</v>
       </c>
       <c r="C1001" s="27" t="s">
-        <v>2099</v>
+        <v>2093</v>
       </c>
       <c r="D1001" s="25"/>
       <c r="E1001" s="25" t="s">
@@ -33781,7 +33781,7 @@
         <v>1215</v>
       </c>
       <c r="C1002" s="27" t="s">
-        <v>2100</v>
+        <v>2094</v>
       </c>
       <c r="D1002" s="25"/>
       <c r="E1002" s="25" t="s">
@@ -33806,7 +33806,7 @@
         <v>1215</v>
       </c>
       <c r="C1003" s="27" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="D1003" s="25"/>
       <c r="E1003" s="25" t="s">
@@ -33831,7 +33831,7 @@
         <v>1215</v>
       </c>
       <c r="C1004" s="27" t="s">
-        <v>2102</v>
+        <v>2096</v>
       </c>
       <c r="D1004" s="25"/>
       <c r="E1004" s="25" t="s">
@@ -33856,10 +33856,10 @@
         <v>1215</v>
       </c>
       <c r="C1005" s="27" t="s">
-        <v>2103</v>
+        <v>2097</v>
       </c>
       <c r="D1005" s="25" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="E1005" s="25" t="s">
         <v>22</v>
@@ -33883,10 +33883,10 @@
         <v>1215</v>
       </c>
       <c r="C1006" s="27" t="s">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="D1006" s="25" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="E1006" s="25" t="s">
         <v>22</v>
@@ -33910,10 +33910,10 @@
         <v>1215</v>
       </c>
       <c r="C1007" s="27" t="s">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="D1007" s="25" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="E1007" s="25" t="s">
         <v>22</v>
@@ -33937,7 +33937,7 @@
         <v>1215</v>
       </c>
       <c r="C1008" s="27" t="s">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="D1008" s="25"/>
       <c r="E1008" s="25" t="s">
@@ -33962,7 +33962,7 @@
         <v>1215</v>
       </c>
       <c r="C1009" s="27" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="D1009" s="25"/>
       <c r="E1009" s="25" t="s">
@@ -33987,10 +33987,10 @@
         <v>1215</v>
       </c>
       <c r="C1010" s="17" t="s">
-        <v>2375</v>
+        <v>2368</v>
       </c>
       <c r="D1010" s="25" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="E1010" s="25" t="s">
         <v>22</v>
@@ -34014,10 +34014,10 @@
         <v>1215</v>
       </c>
       <c r="C1011" s="27" t="s">
-        <v>2108</v>
+        <v>2102</v>
       </c>
       <c r="D1011" s="25" t="s">
-        <v>2135</v>
+        <v>2129</v>
       </c>
       <c r="E1011" s="25" t="s">
         <v>22</v>
@@ -34041,10 +34041,10 @@
         <v>1215</v>
       </c>
       <c r="C1012" s="27" t="s">
-        <v>2109</v>
+        <v>2103</v>
       </c>
       <c r="D1012" s="25" t="s">
-        <v>2135</v>
+        <v>2129</v>
       </c>
       <c r="E1012" s="25" t="s">
         <v>22</v>
@@ -34059,7 +34059,7 @@
         <v>20</v>
       </c>
       <c r="I1012" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1013" spans="1:9" ht="43.5">
@@ -34070,10 +34070,10 @@
         <v>1215</v>
       </c>
       <c r="C1013" s="27" t="s">
-        <v>2110</v>
+        <v>2104</v>
       </c>
       <c r="D1013" s="25" t="s">
-        <v>2136</v>
+        <v>2130</v>
       </c>
       <c r="E1013" s="25" t="s">
         <v>22</v>
@@ -34097,10 +34097,10 @@
         <v>1215</v>
       </c>
       <c r="C1014" s="27" t="s">
-        <v>2111</v>
+        <v>2105</v>
       </c>
       <c r="D1014" s="25" t="s">
-        <v>2136</v>
+        <v>2130</v>
       </c>
       <c r="E1014" s="25" t="s">
         <v>22</v>
@@ -34124,10 +34124,10 @@
         <v>1215</v>
       </c>
       <c r="C1015" s="17" t="s">
-        <v>2112</v>
+        <v>2106</v>
       </c>
       <c r="D1015" s="25" t="s">
-        <v>2136</v>
+        <v>2130</v>
       </c>
       <c r="E1015" s="25" t="s">
         <v>22</v>
@@ -34145,16 +34145,16 @@
     </row>
     <row r="1016" spans="1:9" ht="58">
       <c r="A1016" s="30" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
       <c r="B1016" s="31" t="s">
         <v>1215</v>
       </c>
       <c r="C1016" s="32" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="D1016" s="30" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="E1016" s="25" t="s">
         <v>22</v>
@@ -34172,16 +34172,16 @@
     </row>
     <row r="1017" spans="1:9" ht="43.5">
       <c r="A1017" s="30" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="B1017" s="31" t="s">
         <v>1215</v>
       </c>
       <c r="C1017" s="32" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="D1017" s="30" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="E1017" s="25" t="s">
         <v>22</v>
@@ -34205,7 +34205,7 @@
         <v>1215</v>
       </c>
       <c r="C1018" s="17" t="s">
-        <v>2323</v>
+        <v>2317</v>
       </c>
       <c r="D1018" s="25"/>
       <c r="E1018" s="25" t="s">
@@ -34230,7 +34230,7 @@
         <v>1215</v>
       </c>
       <c r="C1019" s="17" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="D1019" s="25"/>
       <c r="E1019" s="25" t="s">
@@ -34255,7 +34255,7 @@
         <v>1215</v>
       </c>
       <c r="C1020" s="17" t="s">
-        <v>2381</v>
+        <v>2374</v>
       </c>
       <c r="D1020" s="25"/>
       <c r="E1020" s="25" t="s">
@@ -34271,7 +34271,7 @@
         <v>17</v>
       </c>
       <c r="I1020" s="27" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1021" spans="1:9" ht="43.5">
@@ -34282,7 +34282,7 @@
         <v>1215</v>
       </c>
       <c r="C1021" s="17" t="s">
-        <v>2382</v>
+        <v>2375</v>
       </c>
       <c r="D1021" s="25"/>
       <c r="E1021" s="25" t="s">
@@ -34307,10 +34307,10 @@
         <v>1215</v>
       </c>
       <c r="C1022" s="17" t="s">
-        <v>2325</v>
+        <v>2319</v>
       </c>
       <c r="D1022" s="25" t="s">
-        <v>2137</v>
+        <v>2131</v>
       </c>
       <c r="E1022" s="25" t="s">
         <v>22</v>
@@ -34334,7 +34334,7 @@
         <v>1215</v>
       </c>
       <c r="C1023" s="17" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="D1023" s="25"/>
       <c r="E1023" s="25" t="s">
@@ -34359,7 +34359,7 @@
         <v>1215</v>
       </c>
       <c r="C1024" s="17" t="s">
-        <v>2327</v>
+        <v>2321</v>
       </c>
       <c r="D1024" s="25"/>
       <c r="E1024" s="25" t="s">
@@ -34384,10 +34384,10 @@
         <v>1215</v>
       </c>
       <c r="C1025" s="17" t="s">
-        <v>2328</v>
+        <v>2322</v>
       </c>
       <c r="D1025" s="25" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
       <c r="E1025" s="25" t="s">
         <v>22</v>
@@ -34402,7 +34402,7 @@
         <v>20</v>
       </c>
       <c r="I1025" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1026" spans="1:9" ht="43.5">
@@ -34413,10 +34413,10 @@
         <v>1215</v>
       </c>
       <c r="C1026" s="27" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="D1026" s="25" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
       <c r="E1026" s="25" t="s">
         <v>22</v>
@@ -34431,7 +34431,7 @@
         <v>20</v>
       </c>
       <c r="I1026" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1027" spans="1:9" ht="58">
@@ -34442,10 +34442,10 @@
         <v>1215</v>
       </c>
       <c r="C1027" s="17" t="s">
-        <v>2329</v>
+        <v>2323</v>
       </c>
       <c r="D1027" s="25" t="s">
-        <v>2139</v>
+        <v>2133</v>
       </c>
       <c r="E1027" s="25" t="s">
         <v>22</v>
@@ -34460,7 +34460,7 @@
         <v>20</v>
       </c>
       <c r="I1027" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1028" spans="1:9" ht="43.5">
@@ -34471,10 +34471,10 @@
         <v>1215</v>
       </c>
       <c r="C1028" s="27" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="D1028" s="25" t="s">
-        <v>2139</v>
+        <v>2133</v>
       </c>
       <c r="E1028" s="25" t="s">
         <v>22</v>
@@ -34489,7 +34489,7 @@
         <v>20</v>
       </c>
       <c r="I1028" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1029" spans="1:9" ht="87">
@@ -34500,10 +34500,10 @@
         <v>1215</v>
       </c>
       <c r="C1029" s="17" t="s">
-        <v>2383</v>
+        <v>2376</v>
       </c>
       <c r="D1029" s="25" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="E1029" s="25" t="s">
         <v>22</v>
@@ -34518,7 +34518,7 @@
         <v>20</v>
       </c>
       <c r="I1029" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1030" spans="1:9" ht="101.5">
@@ -34529,10 +34529,10 @@
         <v>1215</v>
       </c>
       <c r="C1030" s="17" t="s">
-        <v>2280</v>
+        <v>2274</v>
       </c>
       <c r="D1030" s="25" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="E1030" s="25" t="s">
         <v>22</v>
@@ -34547,7 +34547,7 @@
         <v>20</v>
       </c>
       <c r="I1030" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1031" spans="1:9" ht="43.5">
@@ -34558,10 +34558,10 @@
         <v>1215</v>
       </c>
       <c r="C1031" s="17" t="s">
-        <v>2330</v>
+        <v>2324</v>
       </c>
       <c r="D1031" s="25" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="E1031" s="25" t="s">
         <v>22</v>
@@ -34576,7 +34576,7 @@
         <v>21</v>
       </c>
       <c r="I1031" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1032" spans="1:9" ht="43.5">
@@ -34587,10 +34587,10 @@
         <v>1215</v>
       </c>
       <c r="C1032" s="27" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="D1032" s="25" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="E1032" s="25" t="s">
         <v>22</v>
@@ -34605,7 +34605,7 @@
         <v>21</v>
       </c>
       <c r="I1032" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1033" spans="1:9" ht="58">
@@ -34616,10 +34616,10 @@
         <v>1215</v>
       </c>
       <c r="C1033" s="17" t="s">
-        <v>2384</v>
+        <v>2377</v>
       </c>
       <c r="D1033" s="25" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="E1033" s="25" t="s">
         <v>22</v>
@@ -34634,7 +34634,7 @@
         <v>20</v>
       </c>
       <c r="I1033" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1034" spans="1:9" ht="43.5">
@@ -34645,10 +34645,10 @@
         <v>1215</v>
       </c>
       <c r="C1034" s="17" t="s">
-        <v>2331</v>
+        <v>2325</v>
       </c>
       <c r="D1034" s="25" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="E1034" s="25" t="s">
         <v>22</v>
@@ -34663,7 +34663,7 @@
         <v>20</v>
       </c>
       <c r="I1034" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1035" spans="1:9" ht="72.5">
@@ -34674,10 +34674,10 @@
         <v>1215</v>
       </c>
       <c r="C1035" s="17" t="s">
-        <v>2332</v>
+        <v>2326</v>
       </c>
       <c r="D1035" s="25" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="E1035" s="25" t="s">
         <v>22</v>
@@ -34701,10 +34701,10 @@
         <v>1215</v>
       </c>
       <c r="C1036" s="27" t="s">
-        <v>2227</v>
+        <v>2221</v>
       </c>
       <c r="D1036" s="25" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="E1036" s="25" t="s">
         <v>22</v>
@@ -34719,7 +34719,7 @@
         <v>20</v>
       </c>
       <c r="I1036" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1037" spans="1:9" ht="43.5">
@@ -34730,7 +34730,7 @@
         <v>1215</v>
       </c>
       <c r="C1037" s="17" t="s">
-        <v>2376</v>
+        <v>2369</v>
       </c>
       <c r="D1037" s="25"/>
       <c r="E1037" s="25" t="s">
@@ -34749,16 +34749,16 @@
     </row>
     <row r="1038" spans="1:9" ht="58">
       <c r="A1038" s="18" t="s">
-        <v>2228</v>
+        <v>2222</v>
       </c>
       <c r="B1038" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1038" s="17" t="s">
-        <v>2380</v>
+        <v>2373</v>
       </c>
       <c r="D1038" s="25" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E1038" s="25" t="s">
         <v>22</v>
@@ -34773,21 +34773,21 @@
         <v>20</v>
       </c>
       <c r="I1038" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1039" spans="1:9" ht="43.5">
       <c r="A1039" s="18" t="s">
-        <v>2229</v>
+        <v>2223</v>
       </c>
       <c r="B1039" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1039" s="17" t="s">
-        <v>2369</v>
+        <v>2363</v>
       </c>
       <c r="D1039" s="25" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E1039" s="25" t="s">
         <v>22</v>
@@ -34802,7 +34802,7 @@
         <v>20</v>
       </c>
       <c r="I1039" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1040" spans="1:9" ht="72.5">
@@ -34813,10 +34813,10 @@
         <v>1215</v>
       </c>
       <c r="C1040" s="17" t="s">
-        <v>2388</v>
+        <v>2381</v>
       </c>
       <c r="D1040" s="25" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="E1040" s="25" t="s">
         <v>22</v>
@@ -34831,7 +34831,7 @@
         <v>20</v>
       </c>
       <c r="I1040" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1041" spans="1:9" ht="43.5">
@@ -34842,10 +34842,10 @@
         <v>1215</v>
       </c>
       <c r="C1041" s="27" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="D1041" s="25" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="E1041" s="25" t="s">
         <v>22</v>
@@ -34860,21 +34860,21 @@
         <v>20</v>
       </c>
       <c r="I1041" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1042" spans="1:9" ht="58">
       <c r="A1042" s="18" t="s">
-        <v>2275</v>
+        <v>2269</v>
       </c>
       <c r="B1042" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1042" s="17" t="s">
-        <v>2377</v>
+        <v>2370</v>
       </c>
       <c r="D1042" s="25" t="s">
-        <v>2232</v>
+        <v>2226</v>
       </c>
       <c r="E1042" s="25" t="s">
         <v>22</v>
@@ -34889,21 +34889,21 @@
         <v>20</v>
       </c>
       <c r="I1042" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1043" spans="1:9" ht="43.5">
       <c r="A1043" s="18" t="s">
-        <v>2276</v>
+        <v>2270</v>
       </c>
       <c r="B1043" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1043" s="17" t="s">
-        <v>2356</v>
+        <v>2350</v>
       </c>
       <c r="D1043" s="25" t="s">
-        <v>2232</v>
+        <v>2226</v>
       </c>
       <c r="E1043" s="25" t="s">
         <v>22</v>
@@ -34918,7 +34918,7 @@
         <v>20</v>
       </c>
       <c r="I1043" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1044" spans="1:9" ht="58">
@@ -34929,10 +34929,10 @@
         <v>1215</v>
       </c>
       <c r="C1044" s="17" t="s">
-        <v>2337</v>
+        <v>2331</v>
       </c>
       <c r="D1044" s="25" t="s">
-        <v>2233</v>
+        <v>2227</v>
       </c>
       <c r="E1044" s="25" t="s">
         <v>22</v>
@@ -34956,10 +34956,10 @@
         <v>1215</v>
       </c>
       <c r="C1045" s="27" t="s">
-        <v>2117</v>
+        <v>2111</v>
       </c>
       <c r="D1045" s="25" t="s">
-        <v>2233</v>
+        <v>2227</v>
       </c>
       <c r="E1045" s="25" t="s">
         <v>22</v>
@@ -34974,7 +34974,7 @@
         <v>17</v>
       </c>
       <c r="I1045" s="27" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1046" spans="1:9" ht="87">
@@ -34985,10 +34985,10 @@
         <v>1215</v>
       </c>
       <c r="C1046" s="17" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="D1046" s="25" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="E1046" s="25" t="s">
         <v>22</v>
@@ -35006,16 +35006,16 @@
     </row>
     <row r="1047" spans="1:9" ht="43.5">
       <c r="A1047" s="25" t="s">
-        <v>2235</v>
+        <v>2229</v>
       </c>
       <c r="B1047" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1047" s="27" t="s">
-        <v>2234</v>
+        <v>2228</v>
       </c>
       <c r="D1047" s="25" t="s">
-        <v>2237</v>
+        <v>2231</v>
       </c>
       <c r="E1047" s="25" t="s">
         <v>22</v>
@@ -35033,16 +35033,16 @@
     </row>
     <row r="1048" spans="1:9" ht="43.5">
       <c r="A1048" s="25" t="s">
-        <v>2236</v>
+        <v>2230</v>
       </c>
       <c r="B1048" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1048" s="17" t="s">
-        <v>2339</v>
+        <v>2333</v>
       </c>
       <c r="D1048" s="25" t="s">
-        <v>2237</v>
+        <v>2231</v>
       </c>
       <c r="E1048" s="25" t="s">
         <v>22</v>
@@ -35066,10 +35066,10 @@
         <v>1215</v>
       </c>
       <c r="C1049" s="17" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="D1049" s="25" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="E1049" s="25" t="s">
         <v>22</v>
@@ -35093,10 +35093,10 @@
         <v>1215</v>
       </c>
       <c r="C1050" s="17" t="s">
-        <v>2341</v>
+        <v>2335</v>
       </c>
       <c r="D1050" s="25" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="E1050" s="25" t="s">
         <v>22</v>
@@ -35111,7 +35111,7 @@
         <v>20</v>
       </c>
       <c r="I1050" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1051" spans="1:9" ht="43.5">
@@ -35122,10 +35122,10 @@
         <v>1215</v>
       </c>
       <c r="C1051" s="17" t="s">
-        <v>2342</v>
+        <v>2336</v>
       </c>
       <c r="D1051" s="18" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="E1051" s="25" t="s">
         <v>22</v>
@@ -35140,7 +35140,7 @@
         <v>20</v>
       </c>
       <c r="I1051" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1052" spans="1:9" ht="43.5">
@@ -35151,10 +35151,10 @@
         <v>1215</v>
       </c>
       <c r="C1052" s="17" t="s">
-        <v>2343</v>
+        <v>2337</v>
       </c>
       <c r="D1052" s="25" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="E1052" s="25" t="s">
         <v>22</v>
@@ -35169,7 +35169,7 @@
         <v>20</v>
       </c>
       <c r="I1052" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1053" spans="1:9" ht="58">
@@ -35180,10 +35180,10 @@
         <v>1215</v>
       </c>
       <c r="C1053" s="17" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="D1053" s="25" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="E1053" s="25" t="s">
         <v>22</v>
@@ -35198,21 +35198,21 @@
         <v>20</v>
       </c>
       <c r="I1053" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1054" spans="1:9" ht="43.5">
       <c r="A1054" s="25" t="s">
-        <v>2351</v>
+        <v>2345</v>
       </c>
       <c r="B1054" s="31" t="s">
         <v>1215</v>
       </c>
       <c r="C1054" s="17" t="s">
-        <v>2350</v>
+        <v>2344</v>
       </c>
       <c r="D1054" s="25" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="E1054" s="25" t="s">
         <v>22</v>
@@ -35236,10 +35236,10 @@
         <v>1215</v>
       </c>
       <c r="C1055" s="17" t="s">
-        <v>2378</v>
+        <v>2371</v>
       </c>
       <c r="D1055" s="25" t="s">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="E1055" s="25" t="s">
         <v>22</v>
@@ -35263,7 +35263,7 @@
         <v>1215</v>
       </c>
       <c r="C1056" s="17" t="s">
-        <v>2385</v>
+        <v>2378</v>
       </c>
       <c r="D1056" s="25"/>
       <c r="E1056" s="25" t="s">
@@ -35279,7 +35279,7 @@
         <v>17</v>
       </c>
       <c r="I1056" s="27" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1057" spans="1:9" ht="43.5">
@@ -35290,7 +35290,7 @@
         <v>1215</v>
       </c>
       <c r="C1057" s="17" t="s">
-        <v>2238</v>
+        <v>2232</v>
       </c>
       <c r="D1057" s="25"/>
       <c r="E1057" s="25" t="s">
@@ -35315,10 +35315,10 @@
         <v>1215</v>
       </c>
       <c r="C1058" s="17" t="s">
-        <v>2239</v>
+        <v>2233</v>
       </c>
       <c r="D1058" s="25" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="E1058" s="25" t="s">
         <v>22</v>
@@ -35342,10 +35342,10 @@
         <v>1215</v>
       </c>
       <c r="C1059" s="17" t="s">
-        <v>2379</v>
+        <v>2372</v>
       </c>
       <c r="D1059" s="25" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="E1059" s="25" t="s">
         <v>22</v>
@@ -35369,10 +35369,10 @@
         <v>1215</v>
       </c>
       <c r="C1060" s="17" t="s">
-        <v>2240</v>
+        <v>2234</v>
       </c>
       <c r="D1060" s="25" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="E1060" s="25" t="s">
         <v>22</v>
@@ -35396,10 +35396,10 @@
         <v>1215</v>
       </c>
       <c r="C1061" s="17" t="s">
-        <v>2241</v>
+        <v>2235</v>
       </c>
       <c r="D1061" s="25" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="E1061" s="25" t="s">
         <v>22</v>
@@ -35417,16 +35417,16 @@
     </row>
     <row r="1062" spans="1:9" ht="72.5">
       <c r="A1062" s="18" t="s">
-        <v>2242</v>
+        <v>2236</v>
       </c>
       <c r="B1062" s="20" t="s">
         <v>1215</v>
       </c>
       <c r="C1062" s="17" t="s">
-        <v>2387</v>
+        <v>2380</v>
       </c>
       <c r="D1062" s="18" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="E1062" s="25" t="s">
         <v>22</v>
@@ -35441,21 +35441,21 @@
         <v>20</v>
       </c>
       <c r="I1062" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1063" spans="1:9" ht="87">
       <c r="A1063" s="18" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
       <c r="B1063" s="31" t="s">
         <v>1215</v>
       </c>
       <c r="C1063" s="17" t="s">
-        <v>2344</v>
+        <v>2338</v>
       </c>
       <c r="D1063" s="18" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="E1063" s="25" t="s">
         <v>22</v>
@@ -35470,7 +35470,7 @@
         <v>20</v>
       </c>
       <c r="I1063" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1064" spans="1:9" ht="72.5">
@@ -35481,10 +35481,10 @@
         <v>1215</v>
       </c>
       <c r="C1064" s="17" t="s">
-        <v>2243</v>
+        <v>2237</v>
       </c>
       <c r="D1064" s="18" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="E1064" s="25" t="s">
         <v>22</v>
@@ -35499,7 +35499,7 @@
         <v>20</v>
       </c>
       <c r="I1064" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1065" spans="1:9" ht="72.5">
@@ -35510,10 +35510,10 @@
         <v>1215</v>
       </c>
       <c r="C1065" s="27" t="s">
-        <v>2244</v>
+        <v>2238</v>
       </c>
       <c r="D1065" s="25" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="E1065" s="25" t="s">
         <v>22</v>
@@ -35528,7 +35528,7 @@
         <v>20</v>
       </c>
       <c r="I1065" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1066" spans="1:9" ht="43.5">
@@ -35539,10 +35539,10 @@
         <v>1215</v>
       </c>
       <c r="C1066" s="17" t="s">
-        <v>2245</v>
+        <v>2239</v>
       </c>
       <c r="D1066" s="25" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="E1066" s="25" t="s">
         <v>22</v>
@@ -35557,7 +35557,7 @@
         <v>20</v>
       </c>
       <c r="I1066" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1067" spans="1:9" ht="58">
@@ -35568,10 +35568,10 @@
         <v>1215</v>
       </c>
       <c r="C1067" s="27" t="s">
-        <v>2246</v>
+        <v>2240</v>
       </c>
       <c r="D1067" s="25" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="E1067" s="25" t="s">
         <v>22</v>
@@ -35586,7 +35586,7 @@
         <v>20</v>
       </c>
       <c r="I1067" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1068" spans="1:9" ht="29">
@@ -35597,7 +35597,7 @@
         <v>1215</v>
       </c>
       <c r="C1068" s="27" t="s">
-        <v>2247</v>
+        <v>2241</v>
       </c>
       <c r="D1068" s="25"/>
       <c r="E1068" s="25" t="s">
@@ -35622,10 +35622,10 @@
         <v>1215</v>
       </c>
       <c r="C1069" s="27" t="s">
-        <v>2248</v>
+        <v>2242</v>
       </c>
       <c r="D1069" s="25" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="E1069" s="25" t="s">
         <v>22</v>
@@ -35649,10 +35649,10 @@
         <v>1215</v>
       </c>
       <c r="C1070" s="27" t="s">
-        <v>2249</v>
+        <v>2243</v>
       </c>
       <c r="D1070" s="25" t="s">
-        <v>2253</v>
+        <v>2247</v>
       </c>
       <c r="E1070" s="25" t="s">
         <v>22</v>
@@ -35667,7 +35667,7 @@
         <v>20</v>
       </c>
       <c r="I1070" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1071" spans="1:9" ht="43.5">
@@ -35678,10 +35678,10 @@
         <v>1215</v>
       </c>
       <c r="C1071" s="27" t="s">
-        <v>2250</v>
+        <v>2244</v>
       </c>
       <c r="D1071" s="25" t="s">
-        <v>2253</v>
+        <v>2247</v>
       </c>
       <c r="E1071" s="25" t="s">
         <v>22</v>
@@ -35696,21 +35696,21 @@
         <v>20</v>
       </c>
       <c r="I1071" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1072" spans="1:9" ht="43.5">
       <c r="A1072" s="25" t="s">
-        <v>2252</v>
+        <v>2246</v>
       </c>
       <c r="B1072" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1072" s="17" t="s">
-        <v>2389</v>
+        <v>2382</v>
       </c>
       <c r="D1072" s="25" t="s">
-        <v>2253</v>
+        <v>2247</v>
       </c>
       <c r="E1072" s="25" t="s">
         <v>22</v>
@@ -35725,7 +35725,7 @@
         <v>20</v>
       </c>
       <c r="I1072" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1073" spans="1:9" ht="43.5">
@@ -35736,10 +35736,10 @@
         <v>1215</v>
       </c>
       <c r="C1073" s="27" t="s">
-        <v>2254</v>
+        <v>2248</v>
       </c>
       <c r="D1073" s="25" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="E1073" s="25" t="s">
         <v>22</v>
@@ -35763,10 +35763,10 @@
         <v>1215</v>
       </c>
       <c r="C1074" s="27" t="s">
-        <v>2273</v>
+        <v>2267</v>
       </c>
       <c r="D1074" s="25" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="E1074" s="25" t="s">
         <v>22</v>
@@ -35790,10 +35790,10 @@
         <v>1215</v>
       </c>
       <c r="C1075" s="17" t="s">
-        <v>2395</v>
+        <v>2388</v>
       </c>
       <c r="D1075" s="25" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="E1075" s="25" t="s">
         <v>22</v>
@@ -35817,10 +35817,10 @@
         <v>1215</v>
       </c>
       <c r="C1076" s="27" t="s">
-        <v>2255</v>
+        <v>2249</v>
       </c>
       <c r="D1076" s="25" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="E1076" s="25" t="s">
         <v>22</v>
@@ -35844,10 +35844,10 @@
         <v>1215</v>
       </c>
       <c r="C1077" s="27" t="s">
-        <v>2256</v>
+        <v>2250</v>
       </c>
       <c r="D1077" s="25" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="E1077" s="25" t="s">
         <v>22</v>
@@ -35871,10 +35871,10 @@
         <v>1215</v>
       </c>
       <c r="C1078" s="17" t="s">
-        <v>2386</v>
+        <v>2379</v>
       </c>
       <c r="D1078" s="25" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="E1078" s="25" t="s">
         <v>22</v>
@@ -35898,10 +35898,10 @@
         <v>1215</v>
       </c>
       <c r="C1079" s="17" t="s">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="D1079" s="25" t="s">
-        <v>2156</v>
+        <v>2150</v>
       </c>
       <c r="E1079" s="25" t="s">
         <v>22</v>
@@ -35916,7 +35916,7 @@
         <v>20</v>
       </c>
       <c r="I1079" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1080" spans="1:9" ht="29">
@@ -35927,10 +35927,10 @@
         <v>1215</v>
       </c>
       <c r="C1080" s="27" t="s">
-        <v>2257</v>
+        <v>2251</v>
       </c>
       <c r="D1080" s="25" t="s">
-        <v>2156</v>
+        <v>2150</v>
       </c>
       <c r="E1080" s="25" t="s">
         <v>22</v>
@@ -35954,10 +35954,10 @@
         <v>1215</v>
       </c>
       <c r="C1081" s="27" t="s">
-        <v>2258</v>
+        <v>2252</v>
       </c>
       <c r="D1081" s="25" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="E1081" s="25" t="s">
         <v>22</v>
@@ -35981,10 +35981,10 @@
         <v>1215</v>
       </c>
       <c r="C1082" s="27" t="s">
-        <v>2259</v>
+        <v>2253</v>
       </c>
       <c r="D1082" s="25" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="E1082" s="25" t="s">
         <v>22</v>
@@ -36008,10 +36008,10 @@
         <v>1215</v>
       </c>
       <c r="C1083" s="27" t="s">
-        <v>2260</v>
+        <v>2254</v>
       </c>
       <c r="D1083" s="25" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="E1083" s="25" t="s">
         <v>22</v>
@@ -36035,10 +36035,10 @@
         <v>1215</v>
       </c>
       <c r="C1084" s="17" t="s">
-        <v>2390</v>
+        <v>2383</v>
       </c>
       <c r="D1084" s="25" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="E1084" s="25" t="s">
         <v>22</v>
@@ -36062,10 +36062,10 @@
         <v>1215</v>
       </c>
       <c r="C1085" s="27" t="s">
-        <v>2261</v>
+        <v>2255</v>
       </c>
       <c r="D1085" s="25" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="E1085" s="25" t="s">
         <v>22</v>
@@ -36089,10 +36089,10 @@
         <v>1215</v>
       </c>
       <c r="C1086" s="17" t="s">
-        <v>2394</v>
+        <v>2387</v>
       </c>
       <c r="D1086" s="25" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="E1086" s="25" t="s">
         <v>22</v>
@@ -36116,10 +36116,10 @@
         <v>1215</v>
       </c>
       <c r="C1087" s="27" t="s">
-        <v>2262</v>
+        <v>2256</v>
       </c>
       <c r="D1087" s="25" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="E1087" s="25" t="s">
         <v>22</v>
@@ -36143,10 +36143,10 @@
         <v>1215</v>
       </c>
       <c r="C1088" s="17" t="s">
-        <v>2393</v>
+        <v>2386</v>
       </c>
       <c r="D1088" s="25" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="E1088" s="25" t="s">
         <v>22</v>
@@ -36170,10 +36170,10 @@
         <v>1215</v>
       </c>
       <c r="C1089" s="17" t="s">
-        <v>2392</v>
+        <v>2385</v>
       </c>
       <c r="D1089" s="25" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="E1089" s="25" t="s">
         <v>22</v>
@@ -36188,7 +36188,7 @@
         <v>20</v>
       </c>
       <c r="I1089" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1090" spans="1:9" ht="43.5">
@@ -36199,10 +36199,10 @@
         <v>1215</v>
       </c>
       <c r="C1090" s="27" t="s">
-        <v>2269</v>
+        <v>2263</v>
       </c>
       <c r="D1090" s="25" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="E1090" s="25" t="s">
         <v>22</v>
@@ -36217,21 +36217,21 @@
         <v>20</v>
       </c>
       <c r="I1090" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1091" spans="1:9" ht="58">
       <c r="A1091" s="18" t="s">
-        <v>2266</v>
+        <v>2260</v>
       </c>
       <c r="B1091" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1091" s="17" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="D1091" s="25" t="s">
-        <v>2268</v>
+        <v>2262</v>
       </c>
       <c r="E1091" s="25" t="s">
         <v>22</v>
@@ -36246,21 +36246,21 @@
         <v>20</v>
       </c>
       <c r="I1091" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1092" spans="1:9" ht="58">
       <c r="A1092" s="18" t="s">
-        <v>2267</v>
+        <v>2261</v>
       </c>
       <c r="B1092" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1092" s="17" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="D1092" s="25" t="s">
-        <v>2268</v>
+        <v>2262</v>
       </c>
       <c r="E1092" s="25" t="s">
         <v>22</v>
@@ -36275,7 +36275,7 @@
         <v>20</v>
       </c>
       <c r="I1092" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1093" spans="1:9" ht="58">
@@ -36286,10 +36286,10 @@
         <v>1215</v>
       </c>
       <c r="C1093" s="17" t="s">
-        <v>2348</v>
+        <v>2342</v>
       </c>
       <c r="D1093" s="25" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="E1093" s="25" t="s">
         <v>22</v>
@@ -36304,7 +36304,7 @@
         <v>20</v>
       </c>
       <c r="I1093" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1094" spans="1:9" ht="43.5">
@@ -36315,10 +36315,10 @@
         <v>1215</v>
       </c>
       <c r="C1094" s="27" t="s">
-        <v>2118</v>
+        <v>2112</v>
       </c>
       <c r="D1094" s="25" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="E1094" s="25" t="s">
         <v>22</v>
@@ -36333,7 +36333,7 @@
         <v>20</v>
       </c>
       <c r="I1094" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1095" spans="1:9" ht="58">
@@ -36344,10 +36344,10 @@
         <v>1215</v>
       </c>
       <c r="C1095" s="17" t="s">
-        <v>2391</v>
+        <v>2384</v>
       </c>
       <c r="D1095" s="25" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="E1095" s="25" t="s">
         <v>22</v>
@@ -36362,7 +36362,7 @@
         <v>20</v>
       </c>
       <c r="I1095" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1096" spans="1:9" ht="43.5">
@@ -36373,10 +36373,10 @@
         <v>1215</v>
       </c>
       <c r="C1096" s="27" t="s">
-        <v>2119</v>
+        <v>2113</v>
       </c>
       <c r="D1096" s="25" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="E1096" s="25" t="s">
         <v>22</v>
@@ -36391,7 +36391,7 @@
         <v>20</v>
       </c>
       <c r="I1096" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1097" spans="1:9" ht="72.5">
@@ -36402,10 +36402,10 @@
         <v>1215</v>
       </c>
       <c r="C1097" s="17" t="s">
-        <v>2396</v>
+        <v>2389</v>
       </c>
       <c r="D1097" s="25" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="E1097" s="25" t="s">
         <v>22</v>
@@ -36420,21 +36420,21 @@
         <v>20</v>
       </c>
       <c r="I1097" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1098" spans="1:9" ht="58">
       <c r="A1098" s="18" t="s">
-        <v>2263</v>
+        <v>2257</v>
       </c>
       <c r="B1098" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1098" s="17" t="s">
-        <v>2358</v>
+        <v>2352</v>
       </c>
       <c r="D1098" s="25" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="E1098" s="25" t="s">
         <v>22</v>
@@ -36449,21 +36449,21 @@
         <v>20</v>
       </c>
       <c r="I1098" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1099" spans="1:9" ht="58">
       <c r="A1099" s="18" t="s">
-        <v>2264</v>
+        <v>2258</v>
       </c>
       <c r="B1099" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1099" s="17" t="s">
-        <v>2365</v>
+        <v>2359</v>
       </c>
       <c r="D1099" s="18" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="E1099" s="25" t="s">
         <v>22</v>
@@ -36478,21 +36478,21 @@
         <v>20</v>
       </c>
       <c r="I1099" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1100" spans="1:9" ht="58">
       <c r="A1100" s="18" t="s">
-        <v>2359</v>
+        <v>2353</v>
       </c>
       <c r="B1100" s="20" t="s">
         <v>1215</v>
       </c>
       <c r="C1100" s="17" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="D1100" s="25" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="E1100" s="25" t="s">
         <v>22</v>
@@ -36507,21 +36507,21 @@
         <v>20</v>
       </c>
       <c r="I1100" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1101" spans="1:9" ht="43.5">
       <c r="A1101" s="18" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
       <c r="B1101" s="20" t="s">
         <v>1215</v>
       </c>
       <c r="C1101" s="17" t="s">
-        <v>2366</v>
+        <v>2360</v>
       </c>
       <c r="D1101" s="25" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="E1101" s="25" t="s">
         <v>22</v>
@@ -36536,21 +36536,21 @@
         <v>20</v>
       </c>
       <c r="I1101" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1102" spans="1:9" ht="58">
       <c r="A1102" s="18" t="s">
-        <v>2361</v>
+        <v>2355</v>
       </c>
       <c r="B1102" s="20" t="s">
         <v>1215</v>
       </c>
       <c r="C1102" s="17" t="s">
-        <v>2367</v>
+        <v>2361</v>
       </c>
       <c r="D1102" s="25" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="E1102" s="25" t="s">
         <v>22</v>
@@ -36565,21 +36565,21 @@
         <v>20</v>
       </c>
       <c r="I1102" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1103" spans="1:9" ht="43.5">
       <c r="A1103" s="18" t="s">
-        <v>2363</v>
+        <v>2357</v>
       </c>
       <c r="B1103" s="20" t="s">
         <v>1215</v>
       </c>
       <c r="C1103" s="17" t="s">
-        <v>2362</v>
+        <v>2356</v>
       </c>
       <c r="D1103" s="25" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="E1103" s="25" t="s">
         <v>22</v>
@@ -36594,7 +36594,7 @@
         <v>20</v>
       </c>
       <c r="I1103" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1104" spans="1:9" ht="43.5">
@@ -36605,10 +36605,10 @@
         <v>1215</v>
       </c>
       <c r="C1104" s="27" t="s">
-        <v>2120</v>
+        <v>2114</v>
       </c>
       <c r="D1104" s="25" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="E1104" s="25" t="s">
         <v>22</v>
@@ -36623,7 +36623,7 @@
         <v>20</v>
       </c>
       <c r="I1104" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1105" spans="1:9" ht="43.5">
@@ -36634,10 +36634,10 @@
         <v>1215</v>
       </c>
       <c r="C1105" s="27" t="s">
-        <v>2121</v>
+        <v>2115</v>
       </c>
       <c r="D1105" s="25" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="E1105" s="25" t="s">
         <v>22</v>
@@ -36652,7 +36652,7 @@
         <v>20</v>
       </c>
       <c r="I1105" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1106" spans="1:9" ht="43.5">
@@ -36663,7 +36663,7 @@
         <v>1215</v>
       </c>
       <c r="C1106" s="27" t="s">
-        <v>2122</v>
+        <v>2116</v>
       </c>
       <c r="D1106" s="25"/>
       <c r="E1106" s="25" t="s">
@@ -36679,18 +36679,18 @@
         <v>21</v>
       </c>
       <c r="I1106" s="27" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1107" spans="1:9" ht="43.5">
       <c r="A1107" s="25" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="B1107" s="26" t="s">
         <v>1215</v>
       </c>
       <c r="C1107" s="27" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="D1107" s="25"/>
       <c r="E1107" s="25" t="s">
@@ -36706,7 +36706,7 @@
         <v>21</v>
       </c>
       <c r="I1107" s="28" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1108" spans="1:9" ht="29">
@@ -36717,7 +36717,7 @@
         <v>1118</v>
       </c>
       <c r="C1108" s="27" t="s">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="D1108" s="25"/>
       <c r="E1108" s="25" t="s">
@@ -36742,7 +36742,7 @@
         <v>1118</v>
       </c>
       <c r="C1109" s="27" t="s">
-        <v>2124</v>
+        <v>2118</v>
       </c>
       <c r="D1109" s="25"/>
       <c r="E1109" s="25" t="s">
@@ -36767,7 +36767,7 @@
         <v>1216</v>
       </c>
       <c r="C1110" s="27" t="s">
-        <v>2125</v>
+        <v>2119</v>
       </c>
       <c r="D1110" s="25"/>
       <c r="E1110" s="25" t="s">
@@ -36792,7 +36792,7 @@
         <v>1216</v>
       </c>
       <c r="C1111" s="27" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="D1111" s="25"/>
       <c r="E1111" s="25" t="s">
@@ -36817,7 +36817,7 @@
         <v>1216</v>
       </c>
       <c r="C1112" s="27" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="D1112" s="25"/>
       <c r="E1112" s="25" t="s">
@@ -36842,7 +36842,7 @@
         <v>1217</v>
       </c>
       <c r="C1113" s="27" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="D1113" s="25"/>
       <c r="E1113" s="25" t="s">
@@ -36867,6 +36867,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -36874,11 +36879,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1107:H1107">
@@ -36965,12 +36965,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37023,15 +37020,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37052,15 +37058,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
